--- a/carriers_source_analyses/bio_lng.carrier.xlsx
+++ b/carriers_source_analyses/bio_lng.carrier.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="-20" windowWidth="19200" windowHeight="23460" tabRatio="762" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16100" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="190">
   <si>
     <t>Source</t>
   </si>
@@ -599,28 +599,117 @@
   <si>
     <t>http://refman.et-model.com/publications/1996</t>
   </si>
+  <si>
+    <t>potential_co2_conversion_per_mj</t>
+  </si>
+  <si>
+    <t>Actual CO2 emission from biomass</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>potential_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>co2_conversion_per_mj</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>potential_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>co2_conversion_per_mj</t>
+    </r>
+  </si>
+  <si>
+    <t>IPCC</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>http://refman.et-model.com/publications/1710</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IPCC_2006_Guidelines for National Greenhouse Gas Inventories - Vol 2 Energy - Ch 1 Introduction.pdf</t>
+  </si>
+  <si>
+    <t>kg CO2/TJ</t>
+  </si>
+  <si>
+    <t>TJ/MJ</t>
+  </si>
+  <si>
+    <t>gas biomass</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="9">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.000000000"/>
-    <numFmt numFmtId="168" formatCode="0.0000000000"/>
-    <numFmt numFmtId="169" formatCode="0.0%"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="0.00000000000000"/>
+  <numFmts count="10">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.000000000"/>
+    <numFmt numFmtId="169" formatCode="0.0000000000"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
+    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="172" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="173" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -837,6 +926,26 @@
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF474747"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Lettertype hoofdtekst"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1266,630 +1375,655 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="336">
+  <cellStyleXfs count="337">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="183" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="167" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="183" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="168" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="25" fillId="0" borderId="0" xfId="320" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="27" fillId="0" borderId="0" xfId="320" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="29" fillId="0" borderId="0" xfId="320" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" xfId="320" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="25" fillId="0" borderId="0" xfId="321" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="29" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" xfId="320" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="27" fillId="0" borderId="0" xfId="321" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="320" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="35" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="173" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="173" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="336">
+  <cellStyles count="337">
     <cellStyle name="Comma" xfId="320" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -2135,6 +2269,7 @@
     <cellStyle name="Followed Hyperlink" xfId="333" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2891,6 +3026,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7874000" y="114655600"/>
+          <a:ext cx="9779000" cy="8293100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3559,9 +3732,11 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K15"/>
+  <dimension ref="B1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -3585,28 +3760,28 @@
       <c r="G1" s="33"/>
     </row>
     <row r="2" spans="2:11" ht="15" customHeight="1">
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="194" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="178"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="196"/>
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="179"/>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="181"/>
+      <c r="B3" s="197"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="199"/>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="182"/>
-      <c r="C4" s="183"/>
-      <c r="D4" s="183"/>
-      <c r="E4" s="184"/>
+      <c r="B4" s="200"/>
+      <c r="C4" s="201"/>
+      <c r="D4" s="201"/>
+      <c r="E4" s="202"/>
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
     </row>
@@ -3753,37 +3928,59 @@
       </c>
       <c r="J13" s="43"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
-      <c r="B14" s="38"/>
-      <c r="C14" s="34" t="s">
+    <row r="14" spans="2:11" s="42" customFormat="1" ht="19" thickBot="1">
+      <c r="B14" s="23"/>
+      <c r="C14" s="177" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="191">
+        <f>'Research data'!G10</f>
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="F14" s="177"/>
+      <c r="G14" s="177" t="s">
+        <v>179</v>
+      </c>
+      <c r="H14" s="30"/>
+      <c r="I14" s="205" t="s">
+        <v>182</v>
+      </c>
+      <c r="J14" s="43"/>
+    </row>
+    <row r="15" spans="2:11" ht="16" thickBot="1">
+      <c r="B15" s="38"/>
+      <c r="C15" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D15" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="108">
-        <f>'Research data'!G10</f>
+      <c r="E15" s="108">
+        <f>'Research data'!G11</f>
         <v>15279471.503999995</v>
       </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="121" t="s">
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="J14" s="95"/>
-      <c r="K14" s="33"/>
-    </row>
-    <row r="15" spans="2:11" ht="20" customHeight="1" thickBot="1">
-      <c r="B15" s="39"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="41"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="33"/>
+    </row>
+    <row r="16" spans="2:11" ht="20" customHeight="1" thickBot="1">
+      <c r="B16" s="39"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3836,10 +4033,10 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:Q12"/>
+  <dimension ref="B1:R13"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3858,14 +4055,14 @@
     <col min="12" max="12" width="3.125" style="67" customWidth="1"/>
     <col min="13" max="13" width="12.875" style="67" customWidth="1"/>
     <col min="14" max="14" width="2.625" style="67" customWidth="1"/>
-    <col min="15" max="15" width="8.5" style="67" customWidth="1"/>
-    <col min="16" max="16" width="2.625" style="67" customWidth="1"/>
-    <col min="17" max="17" width="60" style="66" customWidth="1"/>
-    <col min="18" max="16384" width="10.625" style="66"/>
+    <col min="15" max="16" width="8.5" style="67" customWidth="1"/>
+    <col min="17" max="17" width="2.625" style="67" customWidth="1"/>
+    <col min="18" max="18" width="60" style="66" customWidth="1"/>
+    <col min="19" max="16384" width="10.625" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="16" thickBot="1"/>
-    <row r="2" spans="2:17">
+    <row r="1" spans="2:18" ht="16" thickBot="1"/>
+    <row r="2" spans="2:18">
       <c r="B2" s="68"/>
       <c r="C2" s="69"/>
       <c r="D2" s="69"/>
@@ -3881,9 +4078,10 @@
       <c r="N2" s="70"/>
       <c r="O2" s="70"/>
       <c r="P2" s="70"/>
-      <c r="Q2" s="71"/>
-    </row>
-    <row r="3" spans="2:17" s="24" customFormat="1">
+      <c r="Q2" s="70"/>
+      <c r="R2" s="71"/>
+    </row>
+    <row r="3" spans="2:18" s="24" customFormat="1">
       <c r="B3" s="23"/>
       <c r="C3" s="99" t="s">
         <v>29</v>
@@ -3912,12 +4110,15 @@
       <c r="O3" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="1" t="s">
+      <c r="P3" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:17">
+    <row r="4" spans="2:18">
       <c r="B4" s="72"/>
       <c r="C4" s="73"/>
       <c r="D4" s="73"/>
@@ -3932,10 +4133,11 @@
       <c r="M4" s="96"/>
       <c r="N4" s="98"/>
       <c r="O4" s="96"/>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="2"/>
-    </row>
-    <row r="5" spans="2:17" ht="16" thickBot="1">
+      <c r="P4" s="96"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="2:18" ht="16" thickBot="1">
       <c r="B5" s="72"/>
       <c r="C5" s="18" t="s">
         <v>48</v>
@@ -3953,9 +4155,10 @@
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
       <c r="P5" s="16"/>
-      <c r="Q5" s="3"/>
-    </row>
-    <row r="6" spans="2:17" ht="16" thickBot="1">
+      <c r="Q5" s="16"/>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="2:18" ht="16" thickBot="1">
       <c r="B6" s="72"/>
       <c r="C6" s="109" t="s">
         <v>35</v>
@@ -3981,9 +4184,10 @@
       <c r="N6" s="17"/>
       <c r="O6" s="16"/>
       <c r="P6" s="16"/>
-      <c r="Q6" s="3"/>
-    </row>
-    <row r="7" spans="2:17" s="6" customFormat="1" ht="16" thickBot="1">
+      <c r="Q6" s="16"/>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="2:18" s="6" customFormat="1" ht="16" thickBot="1">
       <c r="B7" s="5"/>
       <c r="C7" s="110" t="s">
         <v>36</v>
@@ -4011,9 +4215,10 @@
       <c r="N7" s="17"/>
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
-      <c r="Q7" s="158"/>
-    </row>
-    <row r="8" spans="2:17" s="6" customFormat="1" ht="16" thickBot="1">
+      <c r="Q7" s="16"/>
+      <c r="R7" s="158"/>
+    </row>
+    <row r="8" spans="2:18" s="6" customFormat="1" ht="16" thickBot="1">
       <c r="B8" s="5"/>
       <c r="C8" s="110" t="s">
         <v>149</v>
@@ -4043,9 +4248,10 @@
       <c r="N8" s="17"/>
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
-      <c r="Q8" s="149"/>
-    </row>
-    <row r="9" spans="2:17" s="6" customFormat="1" ht="16" thickBot="1">
+      <c r="Q8" s="16"/>
+      <c r="R8" s="149"/>
+    </row>
+    <row r="9" spans="2:18" s="6" customFormat="1" ht="16" thickBot="1">
       <c r="B9" s="5"/>
       <c r="C9" s="111" t="s">
         <v>37</v>
@@ -4071,48 +4277,48 @@
       <c r="N9" s="17"/>
       <c r="O9" s="16"/>
       <c r="P9" s="16"/>
-      <c r="Q9" s="173" t="s">
+      <c r="Q9" s="16"/>
+      <c r="R9" s="173" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="16" thickBot="1">
-      <c r="B10" s="72"/>
-      <c r="C10" s="111" t="s">
-        <v>38</v>
+    <row r="10" spans="2:18" s="6" customFormat="1" ht="16" thickBot="1">
+      <c r="B10" s="5"/>
+      <c r="C10" s="178" t="s">
+        <v>180</v>
       </c>
       <c r="D10" s="111" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="111" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="44">
-        <f>K10</f>
-        <v>15279471.503999995</v>
-      </c>
-      <c r="H10" s="76"/>
+        <v>43</v>
+      </c>
+      <c r="G10" s="190">
+        <f>P10</f>
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="H10" s="4"/>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
-      <c r="K10" s="44">
-        <f>Notes!H39</f>
-        <v>15279471.503999995</v>
-      </c>
+      <c r="K10" s="17"/>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
       <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="149" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" ht="16" thickBot="1">
+      <c r="P10" s="203">
+        <f>Notes!G251</f>
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="173"/>
+    </row>
+    <row r="11" spans="2:18" ht="16" thickBot="1">
       <c r="B11" s="72"/>
-      <c r="C11" s="159" t="s">
-        <v>158</v>
+      <c r="C11" s="111" t="s">
+        <v>38</v>
       </c>
       <c r="D11" s="111" t="s">
         <v>38</v>
@@ -4121,28 +4327,33 @@
         <v>38</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="G11" s="44">
-        <f>I11</f>
-        <v>20.7</v>
+        <f>K11</f>
+        <v>15279471.503999995</v>
       </c>
       <c r="H11" s="76"/>
-      <c r="I11" s="45">
-        <f>Notes!E169</f>
-        <v>20.7</v>
-      </c>
+      <c r="I11" s="17"/>
       <c r="J11" s="17"/>
+      <c r="K11" s="44">
+        <f>Notes!H39</f>
+        <v>15279471.503999995</v>
+      </c>
       <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
       <c r="N11" s="17"/>
       <c r="O11" s="16"/>
       <c r="P11" s="16"/>
-      <c r="Q11" s="149"/>
-    </row>
-    <row r="12" spans="2:17" ht="16" thickBot="1">
+      <c r="Q11" s="16"/>
+      <c r="R11" s="149" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" ht="16" thickBot="1">
       <c r="B12" s="72"/>
       <c r="C12" s="159" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D12" s="111" t="s">
         <v>38</v>
@@ -4151,21 +4362,53 @@
         <v>38</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="G12" s="44">
         <f>I12</f>
-        <v>0.41799999999999998</v>
+        <v>20.7</v>
       </c>
       <c r="H12" s="76"/>
       <c r="I12" s="45">
-        <f>Notes!E168</f>
-        <v>0.41799999999999998</v>
+        <f>Notes!E169</f>
+        <v>20.7</v>
       </c>
       <c r="J12" s="17"/>
       <c r="L12" s="17"/>
       <c r="N12" s="17"/>
       <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="149"/>
+    </row>
+    <row r="13" spans="2:18" ht="16" thickBot="1">
+      <c r="B13" s="72"/>
+      <c r="C13" s="159" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" s="111" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="111" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="44">
+        <f>I13</f>
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="H13" s="76"/>
+      <c r="I13" s="45">
+        <f>Notes!E168</f>
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="J13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4183,10 +4426,10 @@
   <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:L14"/>
+  <dimension ref="B1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4312,7 +4555,7 @@
       <c r="J7" s="55" t="s">
         <v>175</v>
       </c>
-      <c r="K7" s="185" t="s">
+      <c r="K7" s="176" t="s">
         <v>177</v>
       </c>
       <c r="L7" s="55" t="s">
@@ -4415,6 +4658,29 @@
       <c r="L14" s="55" t="s">
         <v>166</v>
       </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="51"/>
+      <c r="C15" s="179" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" s="60"/>
+      <c r="E15" s="180" t="s">
+        <v>182</v>
+      </c>
+      <c r="F15" s="180"/>
+      <c r="G15" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="H15" s="55" t="s">
+        <v>184</v>
+      </c>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="204" t="s">
+        <v>185</v>
+      </c>
+      <c r="L15" s="65"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4431,8 +4697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ697"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView topLeftCell="A185" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="D221" sqref="D221:J233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10286,7 +10552,7 @@
       <c r="Y208" s="112"/>
       <c r="Z208" s="112"/>
     </row>
-    <row r="209" spans="1:26" customFormat="1" ht="16">
+    <row r="209" spans="2:35" customFormat="1" ht="16">
       <c r="B209" s="102"/>
       <c r="C209" s="112"/>
       <c r="D209" s="112"/>
@@ -10313,7 +10579,7 @@
       <c r="Y209" s="112"/>
       <c r="Z209" s="112"/>
     </row>
-    <row r="210" spans="1:26" customFormat="1" ht="16">
+    <row r="210" spans="2:35" customFormat="1" ht="16">
       <c r="B210" s="102"/>
       <c r="C210" s="112"/>
       <c r="D210" s="112"/>
@@ -10340,7 +10606,7 @@
       <c r="Y210" s="112"/>
       <c r="Z210" s="112"/>
     </row>
-    <row r="211" spans="1:26" customFormat="1" ht="16">
+    <row r="211" spans="2:35" customFormat="1" ht="16">
       <c r="B211" s="102"/>
       <c r="C211" s="112"/>
       <c r="D211" s="112"/>
@@ -10367,7 +10633,7 @@
       <c r="Y211" s="112"/>
       <c r="Z211" s="112"/>
     </row>
-    <row r="212" spans="1:26" customFormat="1" ht="16">
+    <row r="212" spans="2:35" customFormat="1" ht="16">
       <c r="B212" s="102"/>
       <c r="C212" s="112"/>
       <c r="D212" s="112"/>
@@ -10394,7 +10660,7 @@
       <c r="Y212" s="112"/>
       <c r="Z212" s="112"/>
     </row>
-    <row r="213" spans="1:26" customFormat="1" ht="16">
+    <row r="213" spans="2:35" customFormat="1" ht="16">
       <c r="B213" s="102"/>
       <c r="C213" s="112"/>
       <c r="D213" s="112"/>
@@ -10421,7 +10687,7 @@
       <c r="Y213" s="112"/>
       <c r="Z213" s="112"/>
     </row>
-    <row r="214" spans="1:26" customFormat="1" ht="16">
+    <row r="214" spans="2:35" customFormat="1" ht="16">
       <c r="B214" s="102"/>
       <c r="C214" s="112"/>
       <c r="D214" s="112"/>
@@ -10448,7 +10714,7 @@
       <c r="Y214" s="112"/>
       <c r="Z214" s="112"/>
     </row>
-    <row r="215" spans="1:26" customFormat="1" ht="16">
+    <row r="215" spans="2:35" customFormat="1" ht="17" thickBot="1">
       <c r="B215" s="102"/>
       <c r="C215" s="112"/>
       <c r="D215" s="112"/>
@@ -10475,975 +10741,1759 @@
       <c r="Y215" s="112"/>
       <c r="Z215" s="112"/>
     </row>
-    <row r="216" spans="1:26" customFormat="1" ht="16">
-      <c r="A216" s="101"/>
-      <c r="B216" s="101"/>
-      <c r="C216" s="101"/>
-      <c r="D216" s="101"/>
-      <c r="E216" s="101"/>
-      <c r="F216" s="101"/>
-      <c r="G216" s="101"/>
-      <c r="H216" s="101"/>
-      <c r="I216" s="101"/>
-      <c r="J216" s="101"/>
-      <c r="K216" s="101"/>
-      <c r="L216" s="101"/>
-      <c r="M216" s="101"/>
-      <c r="N216" s="101"/>
-      <c r="O216" s="101"/>
-      <c r="P216" s="101"/>
-      <c r="Q216" s="101"/>
-      <c r="R216" s="101"/>
-      <c r="S216" s="101"/>
-      <c r="T216" s="112"/>
-      <c r="U216" s="112"/>
-      <c r="V216" s="112"/>
-      <c r="W216" s="112"/>
-      <c r="X216" s="112"/>
-      <c r="Y216" s="112"/>
-      <c r="Z216" s="112"/>
-    </row>
-    <row r="217" spans="1:26" customFormat="1" ht="17" thickBot="1">
-      <c r="A217" s="101"/>
-      <c r="B217" s="101"/>
-      <c r="C217" s="101"/>
-      <c r="D217" s="101"/>
-      <c r="E217" s="101"/>
-      <c r="F217" s="101"/>
-      <c r="G217" s="101"/>
-      <c r="H217" s="101"/>
-      <c r="I217" s="101"/>
-      <c r="J217" s="101"/>
-      <c r="K217" s="101"/>
-      <c r="L217" s="101"/>
-      <c r="M217" s="101"/>
-      <c r="N217" s="101"/>
-      <c r="O217" s="101"/>
-      <c r="P217" s="101"/>
-      <c r="Q217" s="101"/>
-      <c r="R217" s="101"/>
-      <c r="S217" s="101"/>
-      <c r="T217" s="112"/>
-      <c r="U217" s="112"/>
-      <c r="V217" s="112"/>
-      <c r="W217" s="112"/>
-      <c r="X217" s="112"/>
-      <c r="Y217" s="112"/>
-    </row>
-    <row r="218" spans="1:26" customFormat="1" ht="16">
-      <c r="A218" s="101"/>
-      <c r="B218" s="101"/>
-      <c r="C218" s="101"/>
-      <c r="D218" s="101"/>
-      <c r="E218" s="101"/>
-      <c r="F218" s="101"/>
-      <c r="G218" s="101"/>
-      <c r="H218" s="101"/>
-      <c r="I218" s="101"/>
-      <c r="J218" s="101"/>
-      <c r="K218" s="101"/>
-      <c r="L218" s="101"/>
-      <c r="M218" s="101"/>
-      <c r="N218" s="101"/>
-      <c r="O218" s="101"/>
-      <c r="P218" s="101"/>
-      <c r="Q218" s="101"/>
-      <c r="R218" s="101"/>
-      <c r="S218" s="101"/>
-      <c r="T218" s="105"/>
-      <c r="U218" s="24"/>
-      <c r="V218" s="24"/>
-      <c r="W218" s="24"/>
-      <c r="X218" s="24"/>
-      <c r="Y218" s="24"/>
-    </row>
-    <row r="219" spans="1:26" s="24" customFormat="1" ht="16">
+    <row r="216" spans="2:35" s="181" customFormat="1">
+      <c r="B216" s="182"/>
+      <c r="C216" s="183" t="s">
+        <v>24</v>
+      </c>
+      <c r="D216" s="183" t="s">
+        <v>51</v>
+      </c>
+      <c r="E216" s="183"/>
+      <c r="F216" s="183" t="s">
+        <v>31</v>
+      </c>
+      <c r="G216" s="183"/>
+      <c r="H216" s="183"/>
+      <c r="I216" s="183"/>
+      <c r="J216" s="183"/>
+      <c r="K216" s="183"/>
+      <c r="L216" s="183"/>
+      <c r="M216" s="183"/>
+      <c r="N216" s="183"/>
+      <c r="O216" s="183"/>
+      <c r="P216" s="183"/>
+      <c r="Q216" s="183"/>
+      <c r="R216" s="183"/>
+      <c r="S216" s="183"/>
+      <c r="T216" s="183"/>
+      <c r="U216" s="183"/>
+      <c r="V216" s="152"/>
+      <c r="W216" s="152"/>
+      <c r="X216" s="152"/>
+      <c r="Y216" s="152"/>
+      <c r="Z216" s="152"/>
+      <c r="AA216" s="152"/>
+      <c r="AB216" s="152"/>
+      <c r="AC216" s="152"/>
+      <c r="AD216" s="152"/>
+      <c r="AE216" s="152"/>
+      <c r="AF216" s="152"/>
+      <c r="AG216" s="152"/>
+      <c r="AH216" s="152"/>
+      <c r="AI216" s="152"/>
+    </row>
+    <row r="217" spans="2:35" s="181" customFormat="1">
+      <c r="B217" s="184"/>
+      <c r="C217" s="185"/>
+      <c r="D217" s="185"/>
+      <c r="E217" s="185"/>
+      <c r="F217" s="185"/>
+      <c r="G217" s="185"/>
+      <c r="H217" s="185"/>
+      <c r="I217" s="185"/>
+      <c r="J217" s="185"/>
+      <c r="K217" s="185"/>
+      <c r="L217" s="185"/>
+      <c r="M217" s="185"/>
+      <c r="N217" s="185"/>
+      <c r="O217" s="185"/>
+      <c r="P217" s="185"/>
+      <c r="Q217" s="185"/>
+      <c r="R217" s="185"/>
+      <c r="S217" s="185"/>
+      <c r="T217" s="185"/>
+      <c r="U217" s="185"/>
+      <c r="V217" s="185"/>
+      <c r="W217" s="185"/>
+      <c r="X217" s="185"/>
+      <c r="Y217" s="185"/>
+      <c r="Z217" s="185"/>
+      <c r="AA217" s="185"/>
+      <c r="AB217" s="185"/>
+      <c r="AC217" s="185"/>
+      <c r="AD217" s="185"/>
+      <c r="AE217" s="185"/>
+      <c r="AF217" s="185"/>
+      <c r="AG217" s="185"/>
+      <c r="AH217" s="185"/>
+      <c r="AI217" s="185"/>
+    </row>
+    <row r="218" spans="2:35" s="181" customFormat="1" ht="16">
+      <c r="B218" s="184"/>
+      <c r="C218" s="186" t="s">
+        <v>186</v>
+      </c>
+      <c r="D218" s="187"/>
+      <c r="E218" s="187"/>
+      <c r="F218" s="187"/>
+      <c r="G218" s="187"/>
+      <c r="H218" s="187"/>
+      <c r="I218" s="187"/>
+      <c r="J218" s="112"/>
+      <c r="K218" s="112"/>
+      <c r="L218" s="112"/>
+      <c r="M218" s="112"/>
+      <c r="N218" s="112"/>
+      <c r="O218" s="112"/>
+      <c r="P218" s="112"/>
+      <c r="Q218" s="112"/>
+      <c r="R218" s="112"/>
+      <c r="S218" s="112"/>
+      <c r="T218" s="112"/>
+      <c r="U218" s="112"/>
+      <c r="V218" s="112"/>
+      <c r="W218" s="112"/>
+      <c r="X218" s="112"/>
+      <c r="Y218" s="112"/>
+      <c r="Z218" s="188"/>
+      <c r="AA218" s="188"/>
+      <c r="AB218" s="188"/>
+      <c r="AC218" s="188"/>
+      <c r="AD218" s="188"/>
+      <c r="AE218" s="188"/>
+      <c r="AF218" s="188"/>
+      <c r="AG218" s="188"/>
+      <c r="AH218" s="188"/>
+      <c r="AI218" s="188"/>
+    </row>
+    <row r="219" spans="2:35" s="181" customFormat="1" ht="16">
+      <c r="B219" s="184"/>
+      <c r="C219" s="187"/>
+      <c r="D219" s="187"/>
+      <c r="E219" s="187"/>
+      <c r="F219" s="187"/>
+      <c r="G219" s="187"/>
+      <c r="H219" s="187"/>
+      <c r="I219" s="187"/>
+      <c r="J219" s="112"/>
+      <c r="K219" s="112"/>
+      <c r="L219" s="112"/>
+      <c r="M219" s="112"/>
+      <c r="N219" s="112"/>
+      <c r="O219" s="112"/>
+      <c r="P219" s="112"/>
+      <c r="Q219" s="112"/>
+      <c r="R219" s="112"/>
+      <c r="S219" s="112"/>
       <c r="T219" s="112"/>
       <c r="U219" s="112"/>
       <c r="V219" s="112"/>
       <c r="W219" s="112"/>
       <c r="X219" s="112"/>
-      <c r="Y219"/>
-    </row>
-    <row r="220" spans="1:26" customFormat="1" ht="16">
-      <c r="A220" s="101"/>
-      <c r="B220" s="101"/>
-      <c r="C220" s="101"/>
-      <c r="D220" s="101"/>
-      <c r="E220" s="101"/>
-      <c r="F220" s="101"/>
-      <c r="G220" s="101"/>
-      <c r="H220" s="101"/>
-      <c r="I220" s="101"/>
-      <c r="J220" s="101"/>
-      <c r="K220" s="101"/>
-      <c r="L220" s="101"/>
-      <c r="M220" s="101"/>
-      <c r="N220" s="101"/>
-      <c r="O220" s="101"/>
-      <c r="P220" s="101"/>
-      <c r="Q220" s="101"/>
-      <c r="R220" s="101"/>
-      <c r="S220" s="101"/>
+      <c r="Y219" s="112"/>
+      <c r="Z219" s="188"/>
+      <c r="AA219" s="188"/>
+      <c r="AB219" s="188"/>
+      <c r="AC219" s="188"/>
+      <c r="AD219" s="188"/>
+      <c r="AE219" s="188"/>
+      <c r="AF219" s="188"/>
+      <c r="AG219" s="188"/>
+      <c r="AH219" s="188"/>
+      <c r="AI219" s="188"/>
+    </row>
+    <row r="220" spans="2:35" s="181" customFormat="1" ht="16">
+      <c r="B220" s="184"/>
+      <c r="C220" s="187"/>
+      <c r="D220" s="187"/>
+      <c r="E220" s="187"/>
+      <c r="F220" s="187"/>
+      <c r="G220" s="187"/>
+      <c r="H220" s="187"/>
+      <c r="I220" s="187"/>
+      <c r="J220" s="112"/>
+      <c r="K220" s="112"/>
+      <c r="L220" s="112"/>
+      <c r="M220" s="112"/>
+      <c r="N220" s="112"/>
+      <c r="O220" s="112"/>
+      <c r="P220" s="112"/>
+      <c r="Q220" s="112"/>
+      <c r="R220" s="112"/>
+      <c r="S220" s="112"/>
       <c r="T220" s="112"/>
       <c r="U220" s="112"/>
       <c r="V220" s="112"/>
       <c r="W220" s="112"/>
       <c r="X220" s="112"/>
-      <c r="Z220" s="101"/>
-    </row>
-    <row r="221" spans="1:26" customFormat="1" ht="16">
-      <c r="A221" s="101"/>
-      <c r="B221" s="101"/>
-      <c r="C221" s="101"/>
-      <c r="D221" s="101"/>
-      <c r="E221" s="101"/>
-      <c r="F221" s="101"/>
-      <c r="G221" s="101"/>
-      <c r="H221" s="101"/>
-      <c r="I221" s="101"/>
-      <c r="J221" s="101"/>
-      <c r="K221" s="101"/>
-      <c r="L221" s="101"/>
-      <c r="M221" s="101"/>
-      <c r="N221" s="101"/>
-      <c r="O221" s="101"/>
-      <c r="P221" s="101"/>
-      <c r="Q221" s="101"/>
-      <c r="R221" s="101"/>
-      <c r="S221" s="101"/>
+      <c r="Y220" s="112"/>
+      <c r="Z220" s="188"/>
+      <c r="AA220" s="188"/>
+      <c r="AB220" s="188"/>
+      <c r="AC220" s="188"/>
+      <c r="AD220" s="188"/>
+      <c r="AE220" s="188"/>
+      <c r="AF220" s="188"/>
+      <c r="AG220" s="188"/>
+      <c r="AH220" s="188"/>
+      <c r="AI220" s="188"/>
+    </row>
+    <row r="221" spans="2:35" s="181" customFormat="1" ht="16">
+      <c r="B221" s="184"/>
+      <c r="C221" s="187"/>
+      <c r="D221" s="192"/>
+      <c r="E221" s="192"/>
+      <c r="F221" s="192"/>
+      <c r="G221" s="192"/>
+      <c r="H221" s="192"/>
+      <c r="I221" s="192"/>
+      <c r="J221" s="143"/>
+      <c r="K221" s="112"/>
+      <c r="L221" s="112"/>
+      <c r="M221" s="112"/>
+      <c r="N221" s="112"/>
+      <c r="O221" s="112"/>
+      <c r="P221" s="112"/>
+      <c r="Q221" s="112"/>
+      <c r="R221" s="112"/>
+      <c r="S221" s="112"/>
       <c r="T221" s="112"/>
       <c r="U221" s="112"/>
       <c r="V221" s="112"/>
       <c r="W221" s="112"/>
       <c r="X221" s="112"/>
-      <c r="Z221" s="101"/>
-    </row>
-    <row r="222" spans="1:26" customFormat="1" ht="16">
-      <c r="A222" s="101"/>
-      <c r="B222" s="101"/>
-      <c r="C222" s="101"/>
-      <c r="D222" s="101"/>
-      <c r="E222" s="101"/>
-      <c r="F222" s="101"/>
-      <c r="G222" s="101"/>
-      <c r="H222" s="101"/>
-      <c r="I222" s="101"/>
-      <c r="J222" s="101"/>
-      <c r="K222" s="101"/>
-      <c r="L222" s="101"/>
-      <c r="M222" s="101"/>
-      <c r="N222" s="101"/>
-      <c r="O222" s="101"/>
-      <c r="P222" s="101"/>
-      <c r="Q222" s="101"/>
-      <c r="R222" s="101"/>
-      <c r="S222" s="101"/>
+      <c r="Y221" s="112"/>
+      <c r="Z221" s="188"/>
+      <c r="AA221" s="188"/>
+      <c r="AB221" s="188"/>
+      <c r="AC221" s="188"/>
+      <c r="AD221" s="188"/>
+      <c r="AE221" s="188"/>
+      <c r="AF221" s="188"/>
+      <c r="AG221" s="188"/>
+      <c r="AH221" s="188"/>
+      <c r="AI221" s="188"/>
+    </row>
+    <row r="222" spans="2:35" s="181" customFormat="1" ht="16">
+      <c r="B222" s="184"/>
+      <c r="C222" s="187"/>
+      <c r="D222" s="192"/>
+      <c r="E222" s="192"/>
+      <c r="F222" s="192"/>
+      <c r="G222" s="192"/>
+      <c r="H222" s="192"/>
+      <c r="I222" s="192"/>
+      <c r="J222" s="143"/>
+      <c r="K222" s="112"/>
+      <c r="L222" s="112"/>
+      <c r="M222" s="112"/>
+      <c r="N222" s="112"/>
+      <c r="O222" s="112"/>
+      <c r="P222" s="112"/>
+      <c r="Q222" s="112"/>
+      <c r="R222" s="112"/>
+      <c r="S222" s="112"/>
       <c r="T222" s="112"/>
       <c r="U222" s="112"/>
       <c r="V222" s="112"/>
       <c r="W222" s="112"/>
       <c r="X222" s="112"/>
-      <c r="Z222" s="101"/>
-    </row>
-    <row r="223" spans="1:26" customFormat="1" ht="16">
-      <c r="A223" s="101"/>
-      <c r="B223" s="101"/>
-      <c r="C223" s="101"/>
-      <c r="D223" s="101"/>
-      <c r="E223" s="101"/>
-      <c r="F223" s="101"/>
-      <c r="G223" s="101"/>
-      <c r="H223" s="101"/>
-      <c r="I223" s="101"/>
-      <c r="J223" s="101"/>
-      <c r="K223" s="101"/>
-      <c r="L223" s="101"/>
-      <c r="M223" s="101"/>
-      <c r="N223" s="101"/>
-      <c r="O223" s="101"/>
-      <c r="P223" s="101"/>
-      <c r="Q223" s="101"/>
-      <c r="R223" s="101"/>
-      <c r="S223" s="101"/>
+      <c r="Y222" s="112"/>
+      <c r="Z222" s="188"/>
+      <c r="AA222" s="188"/>
+      <c r="AB222" s="188"/>
+      <c r="AC222" s="188"/>
+      <c r="AD222" s="188"/>
+      <c r="AE222" s="188"/>
+      <c r="AF222" s="188"/>
+      <c r="AG222" s="188"/>
+      <c r="AH222" s="188"/>
+      <c r="AI222" s="188"/>
+    </row>
+    <row r="223" spans="2:35" s="181" customFormat="1" ht="16">
+      <c r="B223" s="184"/>
+      <c r="C223" s="187"/>
+      <c r="D223" s="193"/>
+      <c r="E223" s="193"/>
+      <c r="F223" s="193"/>
+      <c r="G223" s="193"/>
+      <c r="H223" s="193"/>
+      <c r="I223" s="193"/>
+      <c r="J223" s="143"/>
+      <c r="K223" s="112"/>
+      <c r="L223" s="112"/>
+      <c r="M223" s="112"/>
+      <c r="N223" s="112"/>
+      <c r="O223" s="112"/>
+      <c r="P223" s="112"/>
+      <c r="Q223" s="112"/>
+      <c r="R223" s="112"/>
+      <c r="S223" s="112"/>
       <c r="T223" s="112"/>
       <c r="U223" s="112"/>
       <c r="V223" s="112"/>
       <c r="W223" s="112"/>
       <c r="X223" s="112"/>
-      <c r="Z223" s="101"/>
-    </row>
-    <row r="224" spans="1:26" customFormat="1" ht="16">
-      <c r="A224" s="101"/>
-      <c r="B224" s="101"/>
-      <c r="C224" s="101"/>
-      <c r="D224" s="101"/>
-      <c r="E224" s="101"/>
-      <c r="F224" s="101"/>
-      <c r="G224" s="101"/>
-      <c r="H224" s="101"/>
-      <c r="I224" s="101"/>
-      <c r="J224" s="101"/>
-      <c r="K224" s="101"/>
-      <c r="L224" s="101"/>
-      <c r="M224" s="101"/>
-      <c r="N224" s="101"/>
-      <c r="O224" s="101"/>
-      <c r="P224" s="101"/>
-      <c r="Q224" s="101"/>
-      <c r="R224" s="101"/>
-      <c r="S224" s="101"/>
+      <c r="Y223" s="112"/>
+      <c r="Z223" s="188"/>
+      <c r="AA223" s="188"/>
+      <c r="AB223" s="188"/>
+      <c r="AC223" s="188"/>
+      <c r="AD223" s="188"/>
+      <c r="AE223" s="188"/>
+      <c r="AF223" s="188"/>
+      <c r="AG223" s="188"/>
+      <c r="AH223" s="188"/>
+      <c r="AI223" s="188"/>
+    </row>
+    <row r="224" spans="2:35" s="181" customFormat="1" ht="16">
+      <c r="B224" s="184"/>
+      <c r="C224" s="187"/>
+      <c r="D224" s="193"/>
+      <c r="E224" s="193"/>
+      <c r="F224" s="193"/>
+      <c r="G224" s="193"/>
+      <c r="H224" s="193"/>
+      <c r="I224" s="193"/>
+      <c r="J224" s="143"/>
+      <c r="K224" s="112"/>
+      <c r="L224" s="112"/>
+      <c r="M224" s="112"/>
+      <c r="N224" s="112"/>
+      <c r="O224" s="112"/>
+      <c r="P224" s="112"/>
+      <c r="Q224" s="112"/>
+      <c r="R224" s="112"/>
+      <c r="S224" s="112"/>
       <c r="T224" s="112"/>
       <c r="U224" s="112"/>
       <c r="V224" s="112"/>
       <c r="W224" s="112"/>
       <c r="X224" s="112"/>
-      <c r="Z224" s="101"/>
-    </row>
-    <row r="225" spans="1:26" customFormat="1" ht="16">
-      <c r="A225" s="101"/>
-      <c r="B225" s="101"/>
-      <c r="C225" s="101"/>
-      <c r="D225" s="101"/>
-      <c r="E225" s="101"/>
-      <c r="F225" s="101"/>
-      <c r="G225" s="101"/>
-      <c r="H225" s="101"/>
-      <c r="I225" s="101"/>
-      <c r="J225" s="101"/>
-      <c r="K225" s="101"/>
-      <c r="L225" s="101"/>
-      <c r="M225" s="101"/>
-      <c r="N225" s="101"/>
-      <c r="O225" s="101"/>
-      <c r="P225" s="101"/>
-      <c r="Q225" s="101"/>
-      <c r="R225" s="101"/>
-      <c r="S225" s="101"/>
+      <c r="Y224" s="112"/>
+      <c r="Z224" s="188"/>
+      <c r="AA224" s="188"/>
+      <c r="AB224" s="188"/>
+      <c r="AC224" s="188"/>
+      <c r="AD224" s="188"/>
+      <c r="AE224" s="188"/>
+      <c r="AF224" s="188"/>
+      <c r="AG224" s="188"/>
+      <c r="AH224" s="188"/>
+      <c r="AI224" s="188"/>
+    </row>
+    <row r="225" spans="2:35" s="181" customFormat="1" ht="16">
+      <c r="B225" s="184"/>
+      <c r="C225" s="187"/>
+      <c r="D225" s="193"/>
+      <c r="E225" s="193"/>
+      <c r="F225" s="193"/>
+      <c r="G225" s="193"/>
+      <c r="H225" s="193"/>
+      <c r="I225" s="193"/>
+      <c r="J225" s="143"/>
+      <c r="K225" s="112"/>
+      <c r="L225" s="112"/>
+      <c r="M225" s="112"/>
+      <c r="N225" s="112"/>
+      <c r="O225" s="112"/>
+      <c r="P225" s="112"/>
+      <c r="Q225" s="112"/>
+      <c r="R225" s="112"/>
+      <c r="S225" s="112"/>
       <c r="T225" s="112"/>
       <c r="U225" s="112"/>
       <c r="V225" s="112"/>
       <c r="W225" s="112"/>
       <c r="X225" s="112"/>
-      <c r="Z225" s="101"/>
-    </row>
-    <row r="226" spans="1:26" customFormat="1" ht="16">
-      <c r="A226" s="101"/>
-      <c r="B226" s="101"/>
-      <c r="C226" s="101"/>
-      <c r="D226" s="101"/>
-      <c r="E226" s="101"/>
-      <c r="F226" s="101"/>
-      <c r="G226" s="101"/>
-      <c r="H226" s="101"/>
-      <c r="I226" s="101"/>
-      <c r="J226" s="101"/>
-      <c r="K226" s="101"/>
-      <c r="L226" s="101"/>
-      <c r="M226" s="101"/>
-      <c r="N226" s="101"/>
-      <c r="O226" s="101"/>
-      <c r="P226" s="101"/>
-      <c r="Q226" s="101"/>
-      <c r="R226" s="101"/>
-      <c r="S226" s="101"/>
+      <c r="Y225" s="112"/>
+      <c r="Z225" s="188"/>
+      <c r="AA225" s="188"/>
+      <c r="AB225" s="188"/>
+      <c r="AC225" s="188"/>
+      <c r="AD225" s="188"/>
+      <c r="AE225" s="188"/>
+      <c r="AF225" s="188"/>
+      <c r="AG225" s="188"/>
+      <c r="AH225" s="188"/>
+      <c r="AI225" s="188"/>
+    </row>
+    <row r="226" spans="2:35" s="181" customFormat="1" ht="16">
+      <c r="B226" s="184"/>
+      <c r="C226" s="112"/>
+      <c r="D226" s="143"/>
+      <c r="E226" s="143"/>
+      <c r="F226" s="143"/>
+      <c r="G226" s="143"/>
+      <c r="H226" s="143"/>
+      <c r="I226" s="143"/>
+      <c r="J226" s="143"/>
+      <c r="K226" s="112"/>
+      <c r="L226" s="112"/>
+      <c r="M226" s="112"/>
+      <c r="N226" s="112"/>
+      <c r="O226" s="112"/>
+      <c r="P226" s="112"/>
+      <c r="Q226" s="112"/>
+      <c r="R226" s="112"/>
+      <c r="S226" s="112"/>
       <c r="T226" s="112"/>
       <c r="U226" s="112"/>
       <c r="V226" s="112"/>
       <c r="W226" s="112"/>
       <c r="X226" s="112"/>
-      <c r="Z226" s="101"/>
-    </row>
-    <row r="227" spans="1:26" customFormat="1" ht="16">
-      <c r="A227" s="101"/>
-      <c r="B227" s="101"/>
-      <c r="C227" s="101"/>
-      <c r="D227" s="101"/>
-      <c r="E227" s="101"/>
-      <c r="F227" s="101"/>
-      <c r="G227" s="101"/>
-      <c r="H227" s="101"/>
-      <c r="I227" s="101"/>
-      <c r="J227" s="101"/>
-      <c r="K227" s="101"/>
-      <c r="L227" s="101"/>
-      <c r="M227" s="101"/>
-      <c r="N227" s="101"/>
-      <c r="O227" s="101"/>
-      <c r="P227" s="101"/>
-      <c r="Q227" s="101"/>
-      <c r="R227" s="101"/>
-      <c r="S227" s="101"/>
+      <c r="Y226" s="112"/>
+      <c r="Z226" s="188"/>
+      <c r="AA226" s="188"/>
+      <c r="AB226" s="188"/>
+      <c r="AC226" s="188"/>
+      <c r="AD226" s="188"/>
+      <c r="AE226" s="188"/>
+      <c r="AF226" s="188"/>
+      <c r="AG226" s="188"/>
+      <c r="AH226" s="188"/>
+      <c r="AI226" s="188"/>
+    </row>
+    <row r="227" spans="2:35" s="181" customFormat="1" ht="16">
+      <c r="B227" s="184"/>
+      <c r="C227" s="112"/>
+      <c r="D227" s="143"/>
+      <c r="E227" s="143"/>
+      <c r="F227" s="143"/>
+      <c r="G227" s="143"/>
+      <c r="H227" s="143"/>
+      <c r="I227" s="143"/>
+      <c r="J227" s="143"/>
+      <c r="K227" s="112"/>
+      <c r="L227" s="112"/>
+      <c r="M227" s="112"/>
+      <c r="N227" s="112"/>
+      <c r="O227" s="112"/>
+      <c r="P227" s="112"/>
+      <c r="Q227" s="112"/>
+      <c r="R227" s="112"/>
+      <c r="S227" s="112"/>
       <c r="T227" s="112"/>
       <c r="U227" s="112"/>
       <c r="V227" s="112"/>
       <c r="W227" s="112"/>
       <c r="X227" s="112"/>
-      <c r="Z227" s="101"/>
-    </row>
-    <row r="228" spans="1:26" customFormat="1" ht="16">
-      <c r="A228" s="101"/>
-      <c r="B228" s="101"/>
-      <c r="C228" s="101"/>
-      <c r="D228" s="101"/>
-      <c r="E228" s="101"/>
-      <c r="F228" s="101"/>
-      <c r="G228" s="101"/>
-      <c r="H228" s="101"/>
-      <c r="I228" s="101"/>
-      <c r="J228" s="101"/>
-      <c r="K228" s="101"/>
-      <c r="L228" s="101"/>
-      <c r="M228" s="101"/>
-      <c r="N228" s="101"/>
-      <c r="O228" s="101"/>
-      <c r="P228" s="101"/>
-      <c r="Q228" s="101"/>
-      <c r="R228" s="101"/>
-      <c r="S228" s="101"/>
+      <c r="Y227" s="112"/>
+      <c r="Z227" s="188"/>
+      <c r="AA227" s="188"/>
+      <c r="AB227" s="188"/>
+      <c r="AC227" s="188"/>
+      <c r="AD227" s="188"/>
+      <c r="AE227" s="188"/>
+      <c r="AF227" s="188"/>
+      <c r="AG227" s="188"/>
+      <c r="AH227" s="188"/>
+      <c r="AI227" s="188"/>
+    </row>
+    <row r="228" spans="2:35" s="181" customFormat="1" ht="16">
+      <c r="B228" s="184"/>
+      <c r="C228" s="112"/>
+      <c r="D228" s="143"/>
+      <c r="E228" s="143"/>
+      <c r="F228" s="143"/>
+      <c r="G228" s="143"/>
+      <c r="H228" s="143"/>
+      <c r="I228" s="143"/>
+      <c r="J228" s="143"/>
+      <c r="K228" s="112"/>
+      <c r="L228" s="112"/>
+      <c r="M228" s="112"/>
+      <c r="N228" s="112"/>
+      <c r="O228" s="112"/>
+      <c r="P228" s="112"/>
+      <c r="Q228" s="112"/>
+      <c r="R228" s="112"/>
+      <c r="S228" s="112"/>
       <c r="T228" s="112"/>
       <c r="U228" s="112"/>
       <c r="V228" s="112"/>
       <c r="W228" s="112"/>
       <c r="X228" s="112"/>
-      <c r="Z228" s="101"/>
-    </row>
-    <row r="229" spans="1:26" customFormat="1" ht="16">
-      <c r="A229" s="101"/>
-      <c r="B229" s="101"/>
-      <c r="C229" s="101"/>
-      <c r="D229" s="101"/>
-      <c r="E229" s="101"/>
-      <c r="F229" s="101"/>
-      <c r="G229" s="101"/>
-      <c r="H229" s="101"/>
-      <c r="I229" s="101"/>
-      <c r="J229" s="101"/>
-      <c r="K229" s="101"/>
-      <c r="L229" s="101"/>
-      <c r="M229" s="101"/>
-      <c r="N229" s="101"/>
-      <c r="O229" s="101"/>
-      <c r="P229" s="101"/>
-      <c r="Q229" s="101"/>
-      <c r="R229" s="101"/>
-      <c r="S229" s="101"/>
+      <c r="Y228" s="112"/>
+      <c r="Z228" s="188"/>
+      <c r="AA228" s="188"/>
+      <c r="AB228" s="188"/>
+      <c r="AC228" s="188"/>
+      <c r="AD228" s="188"/>
+      <c r="AE228" s="188"/>
+      <c r="AF228" s="188"/>
+      <c r="AG228" s="188"/>
+      <c r="AH228" s="188"/>
+      <c r="AI228" s="188"/>
+    </row>
+    <row r="229" spans="2:35" s="181" customFormat="1" ht="16">
+      <c r="B229" s="184"/>
+      <c r="C229" s="112"/>
+      <c r="D229" s="143"/>
+      <c r="E229" s="143"/>
+      <c r="F229" s="143"/>
+      <c r="G229" s="143"/>
+      <c r="H229" s="143"/>
+      <c r="I229" s="143"/>
+      <c r="J229" s="143"/>
+      <c r="K229" s="112"/>
+      <c r="L229" s="112"/>
+      <c r="M229" s="112"/>
+      <c r="N229" s="112"/>
+      <c r="O229" s="112"/>
+      <c r="P229" s="112"/>
+      <c r="Q229" s="112"/>
+      <c r="R229" s="112"/>
+      <c r="S229" s="112"/>
       <c r="T229" s="112"/>
       <c r="U229" s="112"/>
       <c r="V229" s="112"/>
       <c r="W229" s="112"/>
       <c r="X229" s="112"/>
-      <c r="Z229" s="101"/>
-    </row>
-    <row r="230" spans="1:26" customFormat="1" ht="16">
-      <c r="A230" s="101"/>
-      <c r="B230" s="101"/>
-      <c r="C230" s="101"/>
-      <c r="D230" s="101"/>
-      <c r="E230" s="101"/>
-      <c r="F230" s="101"/>
-      <c r="G230" s="101"/>
-      <c r="H230" s="101"/>
-      <c r="I230" s="101"/>
-      <c r="J230" s="101"/>
-      <c r="K230" s="101"/>
-      <c r="L230" s="101"/>
-      <c r="M230" s="101"/>
-      <c r="N230" s="101"/>
-      <c r="O230" s="101"/>
-      <c r="P230" s="101"/>
-      <c r="Q230" s="101"/>
-      <c r="R230" s="101"/>
-      <c r="S230" s="101"/>
+      <c r="Y229" s="112"/>
+      <c r="Z229" s="188"/>
+      <c r="AA229" s="188"/>
+      <c r="AB229" s="188"/>
+      <c r="AC229" s="188"/>
+      <c r="AD229" s="188"/>
+      <c r="AE229" s="188"/>
+      <c r="AF229" s="188"/>
+      <c r="AG229" s="188"/>
+      <c r="AH229" s="188"/>
+      <c r="AI229" s="188"/>
+    </row>
+    <row r="230" spans="2:35" s="181" customFormat="1" ht="16">
+      <c r="B230" s="184"/>
+      <c r="C230" s="112"/>
+      <c r="D230" s="143"/>
+      <c r="E230" s="143"/>
+      <c r="F230" s="143"/>
+      <c r="G230" s="143"/>
+      <c r="H230" s="143"/>
+      <c r="I230" s="143"/>
+      <c r="J230" s="143"/>
+      <c r="K230" s="112"/>
+      <c r="L230" s="112"/>
+      <c r="M230" s="112"/>
+      <c r="N230" s="112"/>
+      <c r="O230" s="112"/>
+      <c r="P230" s="112"/>
+      <c r="Q230" s="112"/>
+      <c r="R230" s="112"/>
+      <c r="S230" s="112"/>
       <c r="T230" s="112"/>
       <c r="U230" s="112"/>
       <c r="V230" s="112"/>
       <c r="W230" s="112"/>
       <c r="X230" s="112"/>
-      <c r="Z230" s="101"/>
-    </row>
-    <row r="231" spans="1:26" customFormat="1" ht="16">
-      <c r="A231" s="101"/>
-      <c r="B231" s="101"/>
-      <c r="C231" s="101"/>
-      <c r="D231" s="101"/>
-      <c r="E231" s="101"/>
-      <c r="F231" s="101"/>
-      <c r="G231" s="101"/>
-      <c r="H231" s="101"/>
-      <c r="I231" s="101"/>
-      <c r="J231" s="101"/>
-      <c r="K231" s="101"/>
-      <c r="L231" s="101"/>
-      <c r="M231" s="101"/>
-      <c r="N231" s="101"/>
-      <c r="O231" s="101"/>
-      <c r="P231" s="101"/>
-      <c r="Q231" s="101"/>
-      <c r="R231" s="101"/>
-      <c r="S231" s="101"/>
+      <c r="Y230" s="112"/>
+      <c r="Z230" s="188"/>
+      <c r="AA230" s="188"/>
+      <c r="AB230" s="188"/>
+      <c r="AC230" s="188"/>
+      <c r="AD230" s="188"/>
+      <c r="AE230" s="188"/>
+      <c r="AF230" s="188"/>
+      <c r="AG230" s="188"/>
+      <c r="AH230" s="188"/>
+      <c r="AI230" s="188"/>
+    </row>
+    <row r="231" spans="2:35" s="181" customFormat="1" ht="16">
+      <c r="B231" s="184"/>
+      <c r="C231" s="112"/>
+      <c r="D231" s="143"/>
+      <c r="E231" s="143"/>
+      <c r="F231" s="143"/>
+      <c r="G231" s="143"/>
+      <c r="H231" s="143"/>
+      <c r="I231" s="143"/>
+      <c r="J231" s="143"/>
+      <c r="K231" s="112"/>
+      <c r="L231" s="112"/>
+      <c r="M231" s="112"/>
+      <c r="N231" s="112"/>
+      <c r="O231" s="112"/>
+      <c r="P231" s="112"/>
+      <c r="Q231" s="112"/>
+      <c r="R231" s="112"/>
+      <c r="S231" s="112"/>
       <c r="T231" s="112"/>
       <c r="U231" s="112"/>
       <c r="V231" s="112"/>
       <c r="W231" s="112"/>
       <c r="X231" s="112"/>
-      <c r="Z231" s="101"/>
-    </row>
-    <row r="232" spans="1:26" customFormat="1" ht="16">
-      <c r="A232" s="101"/>
-      <c r="B232" s="101"/>
-      <c r="C232" s="101"/>
-      <c r="D232" s="101"/>
-      <c r="E232" s="101"/>
-      <c r="F232" s="101"/>
-      <c r="G232" s="101"/>
-      <c r="H232" s="101"/>
-      <c r="I232" s="101"/>
-      <c r="J232" s="101"/>
-      <c r="K232" s="101"/>
-      <c r="L232" s="101"/>
-      <c r="M232" s="101"/>
-      <c r="N232" s="101"/>
-      <c r="O232" s="101"/>
-      <c r="P232" s="101"/>
-      <c r="Q232" s="101"/>
-      <c r="R232" s="101"/>
-      <c r="S232" s="101"/>
+      <c r="Y231" s="112"/>
+      <c r="Z231" s="188"/>
+      <c r="AA231" s="188"/>
+      <c r="AB231" s="188"/>
+      <c r="AC231" s="188"/>
+      <c r="AD231" s="188"/>
+      <c r="AE231" s="188"/>
+      <c r="AF231" s="188"/>
+      <c r="AG231" s="188"/>
+      <c r="AH231" s="188"/>
+      <c r="AI231" s="188"/>
+    </row>
+    <row r="232" spans="2:35" s="181" customFormat="1" ht="16">
+      <c r="B232" s="184"/>
+      <c r="C232" s="112"/>
+      <c r="D232" s="143"/>
+      <c r="E232" s="143"/>
+      <c r="F232" s="143"/>
+      <c r="G232" s="143"/>
+      <c r="H232" s="143"/>
+      <c r="I232" s="143"/>
+      <c r="J232" s="143"/>
+      <c r="K232" s="112"/>
+      <c r="L232" s="112"/>
+      <c r="M232" s="112"/>
+      <c r="N232" s="112"/>
+      <c r="O232" s="112"/>
+      <c r="P232" s="112"/>
+      <c r="Q232" s="112"/>
+      <c r="R232" s="112"/>
+      <c r="S232" s="112"/>
       <c r="T232" s="112"/>
       <c r="U232" s="112"/>
       <c r="V232" s="112"/>
       <c r="W232" s="112"/>
       <c r="X232" s="112"/>
-      <c r="Z232" s="101"/>
-    </row>
-    <row r="233" spans="1:26" customFormat="1" ht="16">
-      <c r="A233" s="101"/>
-      <c r="B233" s="101"/>
-      <c r="C233" s="101"/>
-      <c r="D233" s="101"/>
-      <c r="E233" s="101"/>
-      <c r="F233" s="101"/>
-      <c r="G233" s="101"/>
-      <c r="H233" s="101"/>
-      <c r="I233" s="101"/>
-      <c r="J233" s="101"/>
-      <c r="K233" s="101"/>
-      <c r="L233" s="101"/>
-      <c r="M233" s="101"/>
-      <c r="N233" s="101"/>
-      <c r="O233" s="101"/>
-      <c r="P233" s="101"/>
-      <c r="Q233" s="101"/>
-      <c r="R233" s="101"/>
-      <c r="S233" s="101"/>
+      <c r="Y232" s="112"/>
+      <c r="Z232" s="188"/>
+      <c r="AA232" s="188"/>
+      <c r="AB232" s="188"/>
+      <c r="AC232" s="188"/>
+      <c r="AD232" s="188"/>
+      <c r="AE232" s="188"/>
+      <c r="AF232" s="188"/>
+      <c r="AG232" s="188"/>
+      <c r="AH232" s="188"/>
+      <c r="AI232" s="188"/>
+    </row>
+    <row r="233" spans="2:35" s="181" customFormat="1" ht="16">
+      <c r="B233" s="184"/>
+      <c r="C233" s="112"/>
+      <c r="D233" s="143"/>
+      <c r="E233" s="143"/>
+      <c r="F233" s="143"/>
+      <c r="G233" s="143"/>
+      <c r="H233" s="143"/>
+      <c r="I233" s="143"/>
+      <c r="J233" s="143"/>
+      <c r="K233" s="112"/>
+      <c r="L233" s="112"/>
+      <c r="M233" s="112"/>
+      <c r="N233" s="112"/>
+      <c r="O233" s="112"/>
+      <c r="P233" s="112"/>
+      <c r="Q233" s="112"/>
+      <c r="R233" s="112"/>
+      <c r="S233" s="112"/>
       <c r="T233" s="112"/>
       <c r="U233" s="112"/>
       <c r="V233" s="112"/>
       <c r="W233" s="112"/>
       <c r="X233" s="112"/>
-      <c r="Z233" s="101"/>
-    </row>
-    <row r="234" spans="1:26" customFormat="1" ht="16">
-      <c r="A234" s="101"/>
-      <c r="B234" s="101"/>
-      <c r="C234" s="101"/>
-      <c r="D234" s="101"/>
-      <c r="E234" s="101"/>
-      <c r="F234" s="101"/>
-      <c r="G234" s="101"/>
-      <c r="H234" s="101"/>
-      <c r="I234" s="101"/>
-      <c r="J234" s="101"/>
-      <c r="K234" s="101"/>
-      <c r="L234" s="101"/>
-      <c r="M234" s="101"/>
-      <c r="N234" s="101"/>
-      <c r="O234" s="101"/>
-      <c r="P234" s="101"/>
-      <c r="Q234" s="101"/>
-      <c r="R234" s="101"/>
-      <c r="S234" s="101"/>
+      <c r="Y233" s="112"/>
+      <c r="Z233" s="188"/>
+      <c r="AA233" s="188"/>
+      <c r="AB233" s="188"/>
+      <c r="AC233" s="188"/>
+      <c r="AD233" s="188"/>
+      <c r="AE233" s="188"/>
+      <c r="AF233" s="188"/>
+      <c r="AG233" s="188"/>
+      <c r="AH233" s="188"/>
+      <c r="AI233" s="188"/>
+    </row>
+    <row r="234" spans="2:35" s="181" customFormat="1" ht="16">
+      <c r="B234" s="184"/>
+      <c r="C234" s="112"/>
+      <c r="D234" s="112"/>
+      <c r="E234" s="112"/>
+      <c r="F234" s="112"/>
+      <c r="G234" s="112"/>
+      <c r="H234" s="112"/>
+      <c r="I234" s="112"/>
+      <c r="J234" s="112"/>
+      <c r="K234" s="112"/>
+      <c r="L234" s="112"/>
+      <c r="M234" s="112"/>
+      <c r="N234" s="112"/>
+      <c r="O234" s="112"/>
+      <c r="P234" s="112"/>
+      <c r="Q234" s="112"/>
+      <c r="R234" s="112"/>
+      <c r="S234" s="112"/>
       <c r="T234" s="112"/>
       <c r="U234" s="112"/>
       <c r="V234" s="112"/>
       <c r="W234" s="112"/>
       <c r="X234" s="112"/>
-      <c r="Z234" s="101"/>
-    </row>
-    <row r="235" spans="1:26" customFormat="1" ht="16">
-      <c r="A235" s="101"/>
-      <c r="B235" s="101"/>
-      <c r="C235" s="101"/>
-      <c r="D235" s="101"/>
-      <c r="E235" s="101"/>
-      <c r="F235" s="101"/>
-      <c r="G235" s="101"/>
-      <c r="H235" s="101"/>
-      <c r="I235" s="101"/>
-      <c r="J235" s="101"/>
-      <c r="K235" s="101"/>
-      <c r="L235" s="101"/>
-      <c r="M235" s="101"/>
-      <c r="N235" s="101"/>
-      <c r="O235" s="101"/>
-      <c r="P235" s="101"/>
-      <c r="Q235" s="101"/>
-      <c r="R235" s="101"/>
-      <c r="S235" s="101"/>
+      <c r="Y234" s="112"/>
+      <c r="Z234" s="188"/>
+      <c r="AA234" s="188"/>
+      <c r="AB234" s="188"/>
+      <c r="AC234" s="188"/>
+      <c r="AD234" s="188"/>
+      <c r="AE234" s="188"/>
+      <c r="AF234" s="188"/>
+      <c r="AG234" s="188"/>
+      <c r="AH234" s="188"/>
+      <c r="AI234" s="188"/>
+    </row>
+    <row r="235" spans="2:35" s="181" customFormat="1" ht="16">
+      <c r="B235" s="184"/>
+      <c r="C235" s="112"/>
+      <c r="D235" s="112"/>
+      <c r="E235" s="112"/>
+      <c r="F235" s="112"/>
+      <c r="G235" s="112"/>
+      <c r="H235" s="112"/>
+      <c r="I235" s="112"/>
+      <c r="J235" s="112"/>
+      <c r="K235" s="112"/>
+      <c r="L235" s="112"/>
+      <c r="M235" s="112"/>
+      <c r="N235" s="112"/>
+      <c r="O235" s="112"/>
+      <c r="P235" s="112"/>
+      <c r="Q235" s="112"/>
+      <c r="R235" s="112"/>
+      <c r="S235" s="112"/>
       <c r="T235" s="112"/>
       <c r="U235" s="112"/>
       <c r="V235" s="112"/>
       <c r="W235" s="112"/>
       <c r="X235" s="112"/>
-      <c r="Z235" s="101"/>
-    </row>
-    <row r="236" spans="1:26" customFormat="1" ht="16">
-      <c r="A236" s="101"/>
-      <c r="B236" s="101"/>
-      <c r="C236" s="101"/>
-      <c r="D236" s="101"/>
-      <c r="E236" s="101"/>
-      <c r="F236" s="101"/>
-      <c r="G236" s="101"/>
-      <c r="H236" s="101"/>
-      <c r="I236" s="101"/>
-      <c r="J236" s="101"/>
-      <c r="K236" s="101"/>
-      <c r="L236" s="101"/>
-      <c r="M236" s="101"/>
-      <c r="N236" s="101"/>
-      <c r="O236" s="101"/>
-      <c r="P236" s="101"/>
-      <c r="Q236" s="101"/>
-      <c r="R236" s="101"/>
-      <c r="S236" s="101"/>
+      <c r="Y235" s="112"/>
+      <c r="Z235" s="188"/>
+      <c r="AA235" s="188"/>
+      <c r="AB235" s="188"/>
+      <c r="AC235" s="188"/>
+      <c r="AD235" s="188"/>
+      <c r="AE235" s="188"/>
+      <c r="AF235" s="188"/>
+      <c r="AG235" s="188"/>
+      <c r="AH235" s="188"/>
+      <c r="AI235" s="188"/>
+    </row>
+    <row r="236" spans="2:35" s="181" customFormat="1" ht="16">
+      <c r="B236" s="184"/>
+      <c r="C236" s="112"/>
+      <c r="D236" s="112"/>
+      <c r="E236" s="112"/>
+      <c r="F236" s="112"/>
+      <c r="G236" s="112"/>
+      <c r="H236" s="112"/>
+      <c r="I236" s="112"/>
+      <c r="J236" s="112"/>
+      <c r="K236" s="112"/>
+      <c r="L236" s="112"/>
+      <c r="M236" s="112"/>
+      <c r="N236" s="112"/>
+      <c r="O236" s="112"/>
+      <c r="P236" s="112"/>
+      <c r="Q236" s="112"/>
+      <c r="R236" s="112"/>
+      <c r="S236" s="112"/>
       <c r="T236" s="112"/>
       <c r="U236" s="112"/>
       <c r="V236" s="112"/>
       <c r="W236" s="112"/>
       <c r="X236" s="112"/>
-      <c r="Z236" s="101"/>
-    </row>
-    <row r="237" spans="1:26" customFormat="1" ht="16">
-      <c r="A237" s="101"/>
-      <c r="B237" s="101"/>
-      <c r="C237" s="101"/>
-      <c r="D237" s="101"/>
-      <c r="E237" s="101"/>
-      <c r="F237" s="101"/>
-      <c r="G237" s="101"/>
-      <c r="H237" s="101"/>
-      <c r="I237" s="101"/>
-      <c r="J237" s="101"/>
-      <c r="K237" s="101"/>
-      <c r="L237" s="101"/>
-      <c r="M237" s="101"/>
-      <c r="N237" s="101"/>
-      <c r="O237" s="101"/>
-      <c r="P237" s="101"/>
-      <c r="Q237" s="101"/>
-      <c r="R237" s="101"/>
-      <c r="S237" s="101"/>
+      <c r="Y236" s="112"/>
+      <c r="Z236" s="188"/>
+      <c r="AA236" s="188"/>
+      <c r="AB236" s="188"/>
+      <c r="AC236" s="188"/>
+      <c r="AD236" s="188"/>
+      <c r="AE236" s="188"/>
+      <c r="AF236" s="188"/>
+      <c r="AG236" s="188"/>
+      <c r="AH236" s="188"/>
+      <c r="AI236" s="188"/>
+    </row>
+    <row r="237" spans="2:35" s="181" customFormat="1" ht="16">
+      <c r="B237" s="184"/>
+      <c r="C237" s="112"/>
+      <c r="D237" s="112"/>
+      <c r="E237" s="112"/>
+      <c r="F237" s="112"/>
+      <c r="G237" s="112"/>
+      <c r="H237" s="112"/>
+      <c r="I237" s="112"/>
+      <c r="J237" s="112"/>
+      <c r="K237" s="112"/>
+      <c r="L237" s="112"/>
+      <c r="M237" s="112"/>
+      <c r="N237" s="112"/>
+      <c r="O237" s="112"/>
+      <c r="P237" s="112"/>
+      <c r="Q237" s="112"/>
+      <c r="R237" s="112"/>
+      <c r="S237" s="112"/>
       <c r="T237" s="112"/>
       <c r="U237" s="112"/>
       <c r="V237" s="112"/>
       <c r="W237" s="112"/>
       <c r="X237" s="112"/>
-      <c r="Z237" s="101"/>
-    </row>
-    <row r="238" spans="1:26" customFormat="1" ht="16">
-      <c r="A238" s="101"/>
-      <c r="B238" s="101"/>
-      <c r="C238" s="101"/>
-      <c r="D238" s="101"/>
-      <c r="E238" s="101"/>
-      <c r="F238" s="101"/>
-      <c r="G238" s="101"/>
-      <c r="H238" s="101"/>
-      <c r="I238" s="101"/>
-      <c r="J238" s="101"/>
-      <c r="K238" s="101"/>
-      <c r="L238" s="101"/>
-      <c r="M238" s="101"/>
-      <c r="N238" s="101"/>
-      <c r="O238" s="101"/>
-      <c r="P238" s="101"/>
-      <c r="Q238" s="101"/>
-      <c r="R238" s="101"/>
-      <c r="S238" s="101"/>
+      <c r="Y237" s="112"/>
+      <c r="Z237" s="188"/>
+      <c r="AA237" s="188"/>
+      <c r="AB237" s="188"/>
+      <c r="AC237" s="188"/>
+      <c r="AD237" s="188"/>
+      <c r="AE237" s="188"/>
+      <c r="AF237" s="188"/>
+      <c r="AG237" s="188"/>
+      <c r="AH237" s="188"/>
+      <c r="AI237" s="188"/>
+    </row>
+    <row r="238" spans="2:35" s="181" customFormat="1" ht="16">
+      <c r="B238" s="184"/>
+      <c r="C238" s="112"/>
+      <c r="D238" s="112"/>
+      <c r="E238" s="112"/>
+      <c r="F238" s="112"/>
+      <c r="G238" s="112"/>
+      <c r="H238" s="112"/>
+      <c r="I238" s="112"/>
+      <c r="J238" s="112"/>
+      <c r="K238" s="112"/>
+      <c r="L238" s="112"/>
+      <c r="M238" s="112"/>
+      <c r="N238" s="112"/>
+      <c r="O238" s="112"/>
+      <c r="P238" s="112"/>
+      <c r="Q238" s="112"/>
+      <c r="R238" s="112"/>
+      <c r="S238" s="112"/>
       <c r="T238" s="112"/>
       <c r="U238" s="112"/>
       <c r="V238" s="112"/>
       <c r="W238" s="112"/>
       <c r="X238" s="112"/>
-      <c r="Z238" s="101"/>
-    </row>
-    <row r="239" spans="1:26" customFormat="1" ht="16">
-      <c r="A239" s="101"/>
-      <c r="B239" s="101"/>
-      <c r="C239" s="101"/>
-      <c r="D239" s="101"/>
-      <c r="E239" s="101"/>
-      <c r="F239" s="101"/>
-      <c r="G239" s="101"/>
-      <c r="H239" s="101"/>
-      <c r="I239" s="101"/>
-      <c r="J239" s="101"/>
-      <c r="K239" s="101"/>
-      <c r="L239" s="101"/>
-      <c r="M239" s="101"/>
-      <c r="N239" s="101"/>
-      <c r="O239" s="101"/>
-      <c r="P239" s="101"/>
-      <c r="Q239" s="101"/>
-      <c r="R239" s="101"/>
-      <c r="S239" s="101"/>
+      <c r="Y238" s="112"/>
+      <c r="Z238" s="188"/>
+      <c r="AA238" s="188"/>
+      <c r="AB238" s="188"/>
+      <c r="AC238" s="188"/>
+      <c r="AD238" s="188"/>
+      <c r="AE238" s="188"/>
+      <c r="AF238" s="188"/>
+      <c r="AG238" s="188"/>
+      <c r="AH238" s="188"/>
+      <c r="AI238" s="188"/>
+    </row>
+    <row r="239" spans="2:35" s="181" customFormat="1" ht="16">
+      <c r="B239" s="184"/>
+      <c r="C239" s="112"/>
+      <c r="D239" s="112"/>
+      <c r="E239" s="112"/>
+      <c r="F239" s="112"/>
+      <c r="G239" s="112"/>
+      <c r="H239" s="112"/>
+      <c r="I239" s="112"/>
+      <c r="J239" s="112"/>
+      <c r="K239" s="112"/>
+      <c r="L239" s="112"/>
+      <c r="M239" s="112"/>
+      <c r="N239" s="112"/>
+      <c r="O239" s="112"/>
+      <c r="P239" s="112"/>
+      <c r="Q239" s="112"/>
+      <c r="R239" s="112"/>
+      <c r="S239" s="112"/>
       <c r="T239" s="112"/>
       <c r="U239" s="112"/>
       <c r="V239" s="112"/>
       <c r="W239" s="112"/>
       <c r="X239" s="112"/>
-      <c r="Z239" s="101"/>
-    </row>
-    <row r="240" spans="1:26" customFormat="1" ht="16">
-      <c r="A240" s="101"/>
-      <c r="B240" s="101"/>
-      <c r="C240" s="101"/>
-      <c r="D240" s="101"/>
-      <c r="E240" s="101"/>
-      <c r="F240" s="101"/>
-      <c r="G240" s="101"/>
-      <c r="H240" s="101"/>
-      <c r="I240" s="101"/>
-      <c r="J240" s="101"/>
-      <c r="K240" s="101"/>
-      <c r="L240" s="101"/>
-      <c r="M240" s="101"/>
-      <c r="N240" s="101"/>
-      <c r="O240" s="101"/>
-      <c r="P240" s="101"/>
-      <c r="Q240" s="101"/>
-      <c r="R240" s="101"/>
-      <c r="S240" s="101"/>
+      <c r="Y239" s="112"/>
+      <c r="Z239" s="188"/>
+      <c r="AA239" s="188"/>
+      <c r="AB239" s="188"/>
+      <c r="AC239" s="188"/>
+      <c r="AD239" s="188"/>
+      <c r="AE239" s="188"/>
+      <c r="AF239" s="188"/>
+      <c r="AG239" s="188"/>
+      <c r="AH239" s="188"/>
+      <c r="AI239" s="188"/>
+    </row>
+    <row r="240" spans="2:35" s="181" customFormat="1" ht="16">
+      <c r="B240" s="184"/>
+      <c r="C240" s="112"/>
+      <c r="D240" s="112"/>
+      <c r="E240" s="112"/>
+      <c r="F240" s="112"/>
+      <c r="G240" s="112"/>
+      <c r="H240" s="112"/>
+      <c r="I240" s="112"/>
+      <c r="J240" s="112"/>
+      <c r="K240" s="112"/>
+      <c r="L240" s="112"/>
+      <c r="M240" s="112"/>
+      <c r="N240" s="112"/>
+      <c r="O240" s="112"/>
+      <c r="P240" s="112"/>
+      <c r="Q240" s="112"/>
+      <c r="R240" s="112"/>
+      <c r="S240" s="112"/>
       <c r="T240" s="112"/>
       <c r="U240" s="112"/>
       <c r="V240" s="112"/>
       <c r="W240" s="112"/>
       <c r="X240" s="112"/>
-      <c r="Z240" s="101"/>
-    </row>
-    <row r="241" spans="1:26" customFormat="1" ht="16">
-      <c r="A241" s="101"/>
-      <c r="B241" s="101"/>
-      <c r="C241" s="101"/>
-      <c r="D241" s="101"/>
-      <c r="E241" s="101"/>
-      <c r="F241" s="101"/>
-      <c r="G241" s="101"/>
-      <c r="H241" s="101"/>
-      <c r="I241" s="101"/>
-      <c r="J241" s="101"/>
-      <c r="K241" s="101"/>
-      <c r="L241" s="101"/>
-      <c r="M241" s="101"/>
-      <c r="N241" s="101"/>
-      <c r="O241" s="101"/>
-      <c r="P241" s="101"/>
-      <c r="Q241" s="101"/>
-      <c r="R241" s="101"/>
-      <c r="S241" s="101"/>
+      <c r="Y240" s="112"/>
+      <c r="Z240" s="188"/>
+      <c r="AA240" s="188"/>
+      <c r="AB240" s="188"/>
+      <c r="AC240" s="188"/>
+      <c r="AD240" s="188"/>
+      <c r="AE240" s="188"/>
+      <c r="AF240" s="188"/>
+      <c r="AG240" s="188"/>
+      <c r="AH240" s="188"/>
+      <c r="AI240" s="188"/>
+    </row>
+    <row r="241" spans="2:35" s="181" customFormat="1" ht="16">
+      <c r="B241" s="184"/>
+      <c r="C241" s="112"/>
+      <c r="D241" s="112"/>
+      <c r="E241" s="112"/>
+      <c r="F241" s="112"/>
+      <c r="G241" s="112"/>
+      <c r="H241" s="112"/>
+      <c r="I241" s="112"/>
+      <c r="J241" s="112"/>
+      <c r="K241" s="112"/>
+      <c r="L241" s="112"/>
+      <c r="M241" s="112"/>
+      <c r="N241" s="112"/>
+      <c r="O241" s="112"/>
+      <c r="P241" s="112"/>
+      <c r="Q241" s="112"/>
+      <c r="R241" s="112"/>
+      <c r="S241" s="112"/>
       <c r="T241" s="112"/>
       <c r="U241" s="112"/>
       <c r="V241" s="112"/>
       <c r="W241" s="112"/>
       <c r="X241" s="112"/>
-      <c r="Z241" s="101"/>
-    </row>
-    <row r="242" spans="1:26" customFormat="1" ht="16">
-      <c r="A242" s="101"/>
-      <c r="B242" s="101"/>
-      <c r="C242" s="101"/>
-      <c r="D242" s="101"/>
-      <c r="E242" s="101"/>
-      <c r="F242" s="101"/>
-      <c r="G242" s="101"/>
-      <c r="H242" s="101"/>
-      <c r="I242" s="101"/>
-      <c r="J242" s="101"/>
-      <c r="K242" s="101"/>
-      <c r="L242" s="101"/>
-      <c r="M242" s="101"/>
-      <c r="N242" s="101"/>
-      <c r="O242" s="101"/>
-      <c r="P242" s="101"/>
-      <c r="Q242" s="101"/>
-      <c r="R242" s="101"/>
-      <c r="S242" s="101"/>
+      <c r="Y241" s="112"/>
+      <c r="Z241" s="188"/>
+      <c r="AA241" s="188"/>
+      <c r="AB241" s="188"/>
+      <c r="AC241" s="188"/>
+      <c r="AD241" s="188"/>
+      <c r="AE241" s="188"/>
+      <c r="AF241" s="188"/>
+      <c r="AG241" s="188"/>
+      <c r="AH241" s="188"/>
+      <c r="AI241" s="188"/>
+    </row>
+    <row r="242" spans="2:35" s="181" customFormat="1" ht="16">
+      <c r="B242" s="184"/>
+      <c r="C242" s="112"/>
+      <c r="D242" s="112"/>
+      <c r="E242" s="112"/>
+      <c r="F242" s="112"/>
+      <c r="G242" s="112"/>
+      <c r="H242" s="112"/>
+      <c r="I242" s="112"/>
+      <c r="J242" s="112"/>
+      <c r="K242" s="112"/>
+      <c r="L242" s="112"/>
+      <c r="M242" s="112"/>
+      <c r="N242" s="112"/>
+      <c r="O242" s="112"/>
+      <c r="P242" s="112"/>
+      <c r="Q242" s="112"/>
+      <c r="R242" s="112"/>
+      <c r="S242" s="112"/>
       <c r="T242" s="112"/>
       <c r="U242" s="112"/>
       <c r="V242" s="112"/>
       <c r="W242" s="112"/>
       <c r="X242" s="112"/>
-      <c r="Z242" s="101"/>
-    </row>
-    <row r="243" spans="1:26" customFormat="1" ht="16">
-      <c r="A243" s="101"/>
-      <c r="B243" s="101"/>
-      <c r="C243" s="101"/>
-      <c r="D243" s="101"/>
-      <c r="E243" s="101"/>
-      <c r="F243" s="101"/>
-      <c r="G243" s="101"/>
-      <c r="H243" s="101"/>
-      <c r="I243" s="101"/>
-      <c r="J243" s="101"/>
-      <c r="K243" s="101"/>
-      <c r="L243" s="101"/>
-      <c r="M243" s="101"/>
-      <c r="N243" s="101"/>
-      <c r="O243" s="101"/>
-      <c r="P243" s="101"/>
-      <c r="Q243" s="101"/>
-      <c r="R243" s="101"/>
-      <c r="S243" s="101"/>
-      <c r="T243" s="112"/>
-      <c r="U243" s="112"/>
-      <c r="V243" s="112"/>
-      <c r="W243" s="112"/>
-      <c r="X243" s="112"/>
-      <c r="Z243" s="101"/>
-    </row>
-    <row r="244" spans="1:26" customFormat="1" ht="16">
-      <c r="A244" s="101"/>
-      <c r="B244" s="101"/>
-      <c r="C244" s="101"/>
-      <c r="D244" s="101"/>
-      <c r="E244" s="101"/>
-      <c r="F244" s="101"/>
-      <c r="G244" s="101"/>
-      <c r="H244" s="101"/>
-      <c r="I244" s="101"/>
-      <c r="J244" s="101"/>
-      <c r="K244" s="101"/>
-      <c r="L244" s="101"/>
-      <c r="M244" s="101"/>
-      <c r="N244" s="101"/>
-      <c r="O244" s="101"/>
-      <c r="P244" s="101"/>
-      <c r="Q244" s="101"/>
-      <c r="R244" s="101"/>
-      <c r="S244" s="101"/>
-      <c r="T244" s="112"/>
-      <c r="U244" s="112"/>
-      <c r="V244" s="112"/>
-      <c r="W244" s="112"/>
-      <c r="X244" s="112"/>
-      <c r="Z244" s="101"/>
-    </row>
-    <row r="245" spans="1:26" customFormat="1" ht="16">
-      <c r="A245" s="101"/>
-      <c r="B245" s="101"/>
-      <c r="C245" s="101"/>
-      <c r="D245" s="101"/>
-      <c r="E245" s="101"/>
-      <c r="F245" s="101"/>
-      <c r="G245" s="101"/>
-      <c r="H245" s="101"/>
-      <c r="I245" s="101"/>
-      <c r="J245" s="101"/>
-      <c r="K245" s="101"/>
-      <c r="L245" s="101"/>
-      <c r="M245" s="101"/>
-      <c r="N245" s="101"/>
-      <c r="O245" s="101"/>
-      <c r="P245" s="101"/>
-      <c r="Q245" s="101"/>
-      <c r="R245" s="101"/>
-      <c r="S245" s="101"/>
-      <c r="Z245" s="101"/>
-    </row>
-    <row r="246" spans="1:26" customFormat="1" ht="16">
-      <c r="A246" s="101"/>
-      <c r="B246" s="101"/>
-      <c r="C246" s="101"/>
-      <c r="D246" s="101"/>
-      <c r="E246" s="101"/>
-      <c r="F246" s="101"/>
-      <c r="G246" s="101"/>
-      <c r="H246" s="101"/>
-      <c r="I246" s="101"/>
-      <c r="J246" s="101"/>
-      <c r="K246" s="101"/>
-      <c r="L246" s="101"/>
-      <c r="M246" s="101"/>
-      <c r="N246" s="101"/>
-      <c r="O246" s="101"/>
-      <c r="P246" s="101"/>
-      <c r="Q246" s="101"/>
-      <c r="R246" s="101"/>
-      <c r="S246" s="101"/>
-      <c r="Z246" s="101"/>
-    </row>
-    <row r="247" spans="1:26" customFormat="1" ht="16">
-      <c r="A247" s="101"/>
-      <c r="B247" s="101"/>
-      <c r="C247" s="101"/>
-      <c r="D247" s="101"/>
-      <c r="E247" s="101"/>
-      <c r="F247" s="101"/>
-      <c r="G247" s="101"/>
-      <c r="H247" s="101"/>
-      <c r="I247" s="101"/>
-      <c r="J247" s="101"/>
-      <c r="K247" s="101"/>
-      <c r="L247" s="101"/>
-      <c r="M247" s="101"/>
-      <c r="N247" s="101"/>
-      <c r="O247" s="101"/>
-      <c r="P247" s="101"/>
-      <c r="Q247" s="101"/>
-      <c r="R247" s="101"/>
-      <c r="S247" s="101"/>
-      <c r="Z247" s="101"/>
-    </row>
-    <row r="248" spans="1:26" customFormat="1" ht="16">
-      <c r="A248" s="101"/>
-      <c r="B248" s="101"/>
-      <c r="C248" s="101"/>
-      <c r="D248" s="101"/>
-      <c r="E248" s="101"/>
-      <c r="F248" s="101"/>
-      <c r="G248" s="101"/>
-      <c r="H248" s="101"/>
-      <c r="I248" s="101"/>
-      <c r="J248" s="101"/>
-      <c r="K248" s="101"/>
-      <c r="L248" s="101"/>
-      <c r="M248" s="101"/>
-      <c r="N248" s="101"/>
-      <c r="O248" s="101"/>
-      <c r="P248" s="101"/>
-      <c r="Q248" s="101"/>
-      <c r="R248" s="101"/>
-      <c r="S248" s="101"/>
-      <c r="Z248" s="101"/>
-    </row>
-    <row r="249" spans="1:26" customFormat="1" ht="16">
-      <c r="A249" s="102"/>
-      <c r="Z249" s="101"/>
-    </row>
-    <row r="250" spans="1:26" customFormat="1" ht="16">
-      <c r="A250" s="102"/>
-      <c r="Z250" s="101"/>
-    </row>
-    <row r="251" spans="1:26" customFormat="1" ht="16">
-      <c r="A251" s="102"/>
-      <c r="Z251" s="101"/>
-    </row>
-    <row r="252" spans="1:26" customFormat="1" ht="16">
-      <c r="A252" s="102"/>
-      <c r="Z252" s="101"/>
-    </row>
-    <row r="253" spans="1:26" customFormat="1" ht="16">
-      <c r="A253" s="102"/>
-      <c r="Z253" s="101"/>
-    </row>
-    <row r="254" spans="1:26" customFormat="1" ht="16">
-      <c r="A254" s="102"/>
-      <c r="Z254" s="101"/>
-    </row>
-    <row r="255" spans="1:26" customFormat="1" ht="16">
-      <c r="A255" s="102"/>
-      <c r="Z255" s="101"/>
-    </row>
-    <row r="256" spans="1:26" customFormat="1" ht="16">
-      <c r="A256" s="102"/>
-      <c r="Z256" s="101"/>
-    </row>
-    <row r="257" spans="1:26" customFormat="1" ht="16">
-      <c r="A257" s="102"/>
-      <c r="Z257" s="101"/>
-    </row>
-    <row r="258" spans="1:26" customFormat="1" ht="16">
-      <c r="A258" s="102"/>
-      <c r="Z258" s="101"/>
-    </row>
-    <row r="259" spans="1:26" customFormat="1" ht="16">
-      <c r="A259" s="102"/>
-      <c r="Z259" s="101"/>
-    </row>
-    <row r="260" spans="1:26" s="24" customFormat="1" ht="16">
-      <c r="A260" s="102"/>
-      <c r="B260"/>
-      <c r="C260"/>
-      <c r="D260"/>
-      <c r="E260"/>
-      <c r="F260"/>
-      <c r="G260"/>
-      <c r="H260"/>
-      <c r="I260"/>
-      <c r="J260"/>
-      <c r="K260"/>
-      <c r="L260"/>
-      <c r="M260"/>
-      <c r="N260"/>
-      <c r="O260"/>
-      <c r="P260"/>
-      <c r="Q260"/>
-      <c r="R260"/>
-      <c r="S260"/>
-      <c r="T260"/>
-      <c r="U260"/>
-      <c r="V260"/>
-      <c r="W260"/>
-      <c r="X260"/>
-      <c r="Y260"/>
-    </row>
-    <row r="261" spans="1:26" customFormat="1" ht="16">
-      <c r="A261" s="102"/>
-      <c r="Z261" s="101"/>
-    </row>
-    <row r="262" spans="1:26" customFormat="1" ht="16">
-      <c r="A262" s="102"/>
-      <c r="Z262" s="101"/>
-    </row>
-    <row r="263" spans="1:26" customFormat="1" ht="16">
+      <c r="Y242" s="112"/>
+      <c r="Z242" s="188"/>
+      <c r="AA242" s="188"/>
+      <c r="AB242" s="188"/>
+      <c r="AC242" s="188"/>
+      <c r="AD242" s="188"/>
+      <c r="AE242" s="188"/>
+      <c r="AF242" s="188"/>
+      <c r="AG242" s="188"/>
+      <c r="AH242" s="188"/>
+      <c r="AI242" s="188"/>
+    </row>
+    <row r="243" spans="2:35" s="181" customFormat="1" ht="16">
+      <c r="B243" s="184"/>
+      <c r="C243" s="188"/>
+      <c r="D243" s="188"/>
+      <c r="E243" s="188"/>
+      <c r="F243" s="188"/>
+      <c r="G243" s="188"/>
+      <c r="H243" s="188"/>
+      <c r="I243" s="188"/>
+      <c r="J243" s="188"/>
+      <c r="K243" s="188"/>
+      <c r="L243" s="188"/>
+      <c r="M243" s="188"/>
+      <c r="N243" s="188"/>
+      <c r="O243" s="188"/>
+      <c r="P243" s="188"/>
+      <c r="Q243" s="188"/>
+      <c r="R243" s="188"/>
+      <c r="S243" s="188"/>
+      <c r="T243" s="188"/>
+      <c r="U243" s="188"/>
+      <c r="V243" s="188"/>
+      <c r="W243" s="188"/>
+      <c r="X243" s="188"/>
+      <c r="Y243" s="188"/>
+      <c r="Z243" s="188"/>
+      <c r="AA243" s="188"/>
+      <c r="AB243" s="188"/>
+      <c r="AC243" s="188"/>
+      <c r="AD243" s="188"/>
+      <c r="AE243" s="188"/>
+      <c r="AF243" s="188"/>
+      <c r="AG243" s="188"/>
+      <c r="AH243" s="188"/>
+      <c r="AI243" s="188"/>
+    </row>
+    <row r="244" spans="2:35" s="181" customFormat="1" ht="16">
+      <c r="B244" s="184"/>
+      <c r="C244" s="188"/>
+      <c r="D244" s="188"/>
+      <c r="E244" s="188"/>
+      <c r="F244" s="188"/>
+      <c r="G244" s="188"/>
+      <c r="H244" s="188"/>
+      <c r="I244" s="188"/>
+      <c r="J244" s="188"/>
+      <c r="K244" s="188"/>
+      <c r="L244" s="188"/>
+      <c r="M244" s="188"/>
+      <c r="N244" s="188"/>
+      <c r="O244" s="188"/>
+      <c r="P244" s="188"/>
+      <c r="Q244" s="188"/>
+      <c r="R244" s="188"/>
+      <c r="S244" s="188"/>
+      <c r="T244" s="188"/>
+      <c r="U244" s="188"/>
+      <c r="V244" s="188"/>
+      <c r="W244" s="188"/>
+      <c r="X244" s="188"/>
+      <c r="Y244" s="188"/>
+      <c r="Z244" s="188"/>
+      <c r="AA244" s="188"/>
+      <c r="AB244" s="188"/>
+      <c r="AC244" s="188"/>
+      <c r="AD244" s="188"/>
+      <c r="AE244" s="188"/>
+      <c r="AF244" s="188"/>
+      <c r="AG244" s="188"/>
+      <c r="AH244" s="188"/>
+      <c r="AI244" s="188"/>
+    </row>
+    <row r="245" spans="2:35" s="181" customFormat="1" ht="16">
+      <c r="B245" s="184"/>
+      <c r="C245" s="188"/>
+      <c r="D245" s="188"/>
+      <c r="E245" s="188"/>
+      <c r="F245" s="188"/>
+      <c r="G245" s="188"/>
+      <c r="H245" s="188"/>
+      <c r="I245" s="188"/>
+      <c r="J245" s="188"/>
+      <c r="K245" s="188"/>
+      <c r="L245" s="188"/>
+      <c r="M245" s="188"/>
+      <c r="N245" s="188"/>
+      <c r="O245" s="188"/>
+      <c r="P245" s="188"/>
+      <c r="Q245" s="188"/>
+      <c r="R245" s="188"/>
+      <c r="S245" s="188"/>
+      <c r="T245" s="188"/>
+      <c r="U245" s="188"/>
+      <c r="V245" s="188"/>
+      <c r="W245" s="188"/>
+      <c r="X245" s="188"/>
+      <c r="Y245" s="188"/>
+      <c r="Z245" s="188"/>
+      <c r="AA245" s="188"/>
+      <c r="AB245" s="188"/>
+      <c r="AC245" s="188"/>
+      <c r="AD245" s="188"/>
+      <c r="AE245" s="188"/>
+      <c r="AF245" s="188"/>
+      <c r="AG245" s="188"/>
+      <c r="AH245" s="188"/>
+      <c r="AI245" s="188"/>
+    </row>
+    <row r="246" spans="2:35" s="181" customFormat="1" ht="16">
+      <c r="B246" s="184"/>
+      <c r="C246" s="188"/>
+      <c r="D246" s="188"/>
+      <c r="E246" s="188"/>
+      <c r="F246" s="188"/>
+      <c r="G246" s="188"/>
+      <c r="H246" s="188"/>
+      <c r="I246" s="188"/>
+      <c r="J246" s="188"/>
+      <c r="K246" s="188"/>
+      <c r="L246" s="188"/>
+      <c r="M246" s="188"/>
+      <c r="N246" s="188"/>
+      <c r="O246" s="188"/>
+      <c r="P246" s="188"/>
+      <c r="Q246" s="188"/>
+      <c r="R246" s="188"/>
+      <c r="S246" s="188"/>
+      <c r="T246" s="188"/>
+      <c r="U246" s="188"/>
+      <c r="V246" s="188"/>
+      <c r="W246" s="188"/>
+      <c r="X246" s="188"/>
+      <c r="Y246" s="188"/>
+      <c r="Z246" s="188"/>
+      <c r="AA246" s="188"/>
+      <c r="AB246" s="188"/>
+      <c r="AC246" s="188"/>
+      <c r="AD246" s="188"/>
+      <c r="AE246" s="188"/>
+      <c r="AF246" s="188"/>
+      <c r="AG246" s="188"/>
+      <c r="AH246" s="188"/>
+      <c r="AI246" s="188"/>
+    </row>
+    <row r="247" spans="2:35" s="181" customFormat="1" ht="16">
+      <c r="B247" s="184"/>
+      <c r="C247" s="188"/>
+      <c r="D247" s="188"/>
+      <c r="E247" s="188"/>
+      <c r="F247" s="188"/>
+      <c r="G247" s="188"/>
+      <c r="H247" s="188"/>
+      <c r="I247" s="188"/>
+      <c r="J247" s="188"/>
+      <c r="K247" s="188"/>
+      <c r="L247" s="188"/>
+      <c r="M247" s="188"/>
+      <c r="N247" s="188"/>
+      <c r="O247" s="188"/>
+      <c r="P247" s="188"/>
+      <c r="Q247" s="188"/>
+      <c r="R247" s="188"/>
+      <c r="S247" s="188"/>
+      <c r="T247" s="188"/>
+      <c r="U247" s="188"/>
+      <c r="V247" s="188"/>
+      <c r="W247" s="188"/>
+      <c r="X247" s="188"/>
+      <c r="Y247" s="188"/>
+      <c r="Z247" s="188"/>
+      <c r="AA247" s="188"/>
+      <c r="AB247" s="188"/>
+      <c r="AC247" s="188"/>
+      <c r="AD247" s="188"/>
+      <c r="AE247" s="188"/>
+      <c r="AF247" s="188"/>
+      <c r="AG247" s="188"/>
+      <c r="AH247" s="188"/>
+      <c r="AI247" s="188"/>
+    </row>
+    <row r="248" spans="2:35" s="181" customFormat="1" ht="16">
+      <c r="B248" s="184"/>
+      <c r="C248" s="188"/>
+      <c r="D248" s="188"/>
+      <c r="E248" s="188"/>
+      <c r="F248" s="188"/>
+      <c r="G248" s="188"/>
+      <c r="H248" s="188"/>
+      <c r="I248" s="188"/>
+      <c r="J248" s="188"/>
+      <c r="K248" s="188"/>
+      <c r="L248" s="188"/>
+      <c r="M248" s="188"/>
+      <c r="N248" s="188"/>
+      <c r="O248" s="188"/>
+      <c r="P248" s="188"/>
+      <c r="Q248" s="188"/>
+      <c r="R248" s="188"/>
+      <c r="S248" s="188"/>
+      <c r="T248" s="188"/>
+      <c r="U248" s="188"/>
+      <c r="V248" s="188"/>
+      <c r="W248" s="188"/>
+      <c r="X248" s="188"/>
+      <c r="Y248" s="188"/>
+      <c r="Z248" s="188"/>
+      <c r="AA248" s="188"/>
+      <c r="AB248" s="188"/>
+      <c r="AC248" s="188"/>
+      <c r="AD248" s="188"/>
+      <c r="AE248" s="188"/>
+      <c r="AF248" s="188"/>
+      <c r="AG248" s="188"/>
+      <c r="AH248" s="188"/>
+      <c r="AI248" s="188"/>
+    </row>
+    <row r="249" spans="2:35" s="181" customFormat="1" ht="16">
+      <c r="B249" s="184"/>
+      <c r="C249" s="188"/>
+      <c r="D249" s="187">
+        <v>1.24</v>
+      </c>
+      <c r="E249" s="189"/>
+      <c r="F249" s="187"/>
+      <c r="G249" s="187">
+        <v>54600</v>
+      </c>
+      <c r="H249" s="187" t="s">
+        <v>187</v>
+      </c>
+      <c r="I249" s="187" t="s">
+        <v>189</v>
+      </c>
+      <c r="J249" s="188"/>
+      <c r="K249" s="188"/>
+      <c r="L249" s="188"/>
+      <c r="M249" s="188"/>
+      <c r="N249" s="188"/>
+      <c r="O249" s="188"/>
+      <c r="P249" s="188"/>
+      <c r="Q249" s="188"/>
+      <c r="R249" s="188"/>
+      <c r="S249" s="188"/>
+      <c r="T249" s="188"/>
+      <c r="U249" s="188"/>
+      <c r="V249" s="188"/>
+      <c r="W249" s="188"/>
+      <c r="X249" s="188"/>
+      <c r="Y249" s="188"/>
+      <c r="Z249" s="188"/>
+      <c r="AA249" s="188"/>
+      <c r="AB249" s="188"/>
+      <c r="AC249" s="188"/>
+      <c r="AD249" s="188"/>
+      <c r="AE249" s="188"/>
+      <c r="AF249" s="188"/>
+      <c r="AG249" s="188"/>
+      <c r="AH249" s="188"/>
+      <c r="AI249" s="188"/>
+    </row>
+    <row r="250" spans="2:35" s="181" customFormat="1" ht="16">
+      <c r="B250" s="184"/>
+      <c r="C250" s="188"/>
+      <c r="D250" s="187"/>
+      <c r="E250" s="189"/>
+      <c r="F250" s="187"/>
+      <c r="G250" s="187">
+        <v>1000000</v>
+      </c>
+      <c r="H250" s="187" t="s">
+        <v>188</v>
+      </c>
+      <c r="I250" s="187"/>
+      <c r="J250" s="188"/>
+      <c r="K250" s="188"/>
+      <c r="L250" s="188"/>
+      <c r="M250" s="188"/>
+      <c r="N250" s="188"/>
+      <c r="O250" s="188"/>
+      <c r="P250" s="188"/>
+      <c r="Q250" s="188"/>
+      <c r="R250" s="188"/>
+      <c r="S250" s="188"/>
+      <c r="T250" s="188"/>
+      <c r="U250" s="188"/>
+      <c r="V250" s="188"/>
+      <c r="W250" s="188"/>
+      <c r="X250" s="188"/>
+      <c r="Y250" s="188"/>
+      <c r="Z250" s="188"/>
+      <c r="AA250" s="188"/>
+      <c r="AB250" s="188"/>
+      <c r="AC250" s="188"/>
+      <c r="AD250" s="188"/>
+      <c r="AE250" s="188"/>
+      <c r="AF250" s="188"/>
+      <c r="AG250" s="188"/>
+      <c r="AH250" s="188"/>
+      <c r="AI250" s="188"/>
+    </row>
+    <row r="251" spans="2:35" s="181" customFormat="1" ht="16">
+      <c r="B251" s="184"/>
+      <c r="C251" s="188"/>
+      <c r="D251" s="187"/>
+      <c r="E251" s="189"/>
+      <c r="F251" s="187"/>
+      <c r="G251" s="187">
+        <v>5.4600000000000003E-2</v>
+      </c>
+      <c r="H251" s="187" t="s">
+        <v>187</v>
+      </c>
+      <c r="I251" s="187"/>
+      <c r="J251" s="188"/>
+      <c r="K251" s="188"/>
+      <c r="L251" s="188"/>
+      <c r="M251" s="188"/>
+      <c r="N251" s="188"/>
+      <c r="O251" s="188"/>
+      <c r="P251" s="188"/>
+      <c r="Q251" s="188"/>
+      <c r="R251" s="188"/>
+      <c r="S251" s="188"/>
+      <c r="T251" s="188"/>
+      <c r="U251" s="188"/>
+      <c r="V251" s="188"/>
+      <c r="W251" s="188"/>
+      <c r="X251" s="188"/>
+      <c r="Y251" s="188"/>
+      <c r="Z251" s="188"/>
+      <c r="AA251" s="188"/>
+      <c r="AB251" s="188"/>
+      <c r="AC251" s="188"/>
+      <c r="AD251" s="188"/>
+      <c r="AE251" s="188"/>
+      <c r="AF251" s="188"/>
+      <c r="AG251" s="188"/>
+      <c r="AH251" s="188"/>
+      <c r="AI251" s="188"/>
+    </row>
+    <row r="252" spans="2:35" s="181" customFormat="1" ht="16">
+      <c r="B252" s="184"/>
+      <c r="C252" s="188"/>
+      <c r="D252" s="188"/>
+      <c r="E252" s="188"/>
+      <c r="F252" s="188"/>
+      <c r="G252" s="188"/>
+      <c r="H252" s="188"/>
+      <c r="I252" s="188"/>
+      <c r="J252" s="188"/>
+      <c r="K252" s="188"/>
+      <c r="L252" s="188"/>
+      <c r="M252" s="188"/>
+      <c r="N252" s="188"/>
+      <c r="O252" s="188"/>
+      <c r="P252" s="188"/>
+      <c r="Q252" s="188"/>
+      <c r="R252" s="188"/>
+      <c r="S252" s="188"/>
+      <c r="T252" s="188"/>
+      <c r="U252" s="188"/>
+      <c r="V252" s="188"/>
+      <c r="W252" s="188"/>
+      <c r="X252" s="188"/>
+      <c r="Y252" s="188"/>
+      <c r="Z252" s="188"/>
+      <c r="AA252" s="188"/>
+      <c r="AB252" s="188"/>
+      <c r="AC252" s="188"/>
+      <c r="AD252" s="188"/>
+      <c r="AE252" s="188"/>
+      <c r="AF252" s="188"/>
+      <c r="AG252" s="188"/>
+      <c r="AH252" s="188"/>
+      <c r="AI252" s="188"/>
+    </row>
+    <row r="253" spans="2:35" s="181" customFormat="1" ht="16">
+      <c r="B253" s="184"/>
+      <c r="C253" s="188"/>
+      <c r="D253" s="188"/>
+      <c r="E253" s="188"/>
+      <c r="F253" s="188"/>
+      <c r="G253" s="188"/>
+      <c r="H253" s="188"/>
+      <c r="I253" s="188"/>
+      <c r="J253" s="188"/>
+      <c r="K253" s="188"/>
+      <c r="L253" s="188"/>
+      <c r="M253" s="188"/>
+      <c r="N253" s="188"/>
+      <c r="O253" s="188"/>
+      <c r="P253" s="188"/>
+      <c r="Q253" s="188"/>
+      <c r="R253" s="188"/>
+      <c r="S253" s="188"/>
+      <c r="T253" s="188"/>
+      <c r="U253" s="188"/>
+      <c r="V253" s="188"/>
+      <c r="W253" s="188"/>
+      <c r="X253" s="188"/>
+      <c r="Y253" s="188"/>
+      <c r="Z253" s="188"/>
+      <c r="AA253" s="188"/>
+      <c r="AB253" s="188"/>
+      <c r="AC253" s="188"/>
+      <c r="AD253" s="188"/>
+      <c r="AE253" s="188"/>
+      <c r="AF253" s="188"/>
+      <c r="AG253" s="188"/>
+      <c r="AH253" s="188"/>
+      <c r="AI253" s="188"/>
+    </row>
+    <row r="254" spans="2:35" s="181" customFormat="1" ht="16">
+      <c r="B254" s="184"/>
+      <c r="C254" s="188"/>
+      <c r="D254" s="188"/>
+      <c r="E254" s="188"/>
+      <c r="F254" s="188"/>
+      <c r="G254" s="188"/>
+      <c r="H254" s="188"/>
+      <c r="I254" s="188"/>
+      <c r="J254" s="188"/>
+      <c r="K254" s="188"/>
+      <c r="L254" s="188"/>
+      <c r="M254" s="188"/>
+      <c r="N254" s="188"/>
+      <c r="O254" s="188"/>
+      <c r="P254" s="188"/>
+      <c r="Q254" s="188"/>
+      <c r="R254" s="188"/>
+      <c r="S254" s="188"/>
+      <c r="T254" s="188"/>
+      <c r="U254" s="188"/>
+      <c r="V254" s="188"/>
+      <c r="W254" s="188"/>
+      <c r="X254" s="188"/>
+      <c r="Y254" s="188"/>
+      <c r="Z254" s="188"/>
+      <c r="AA254" s="188"/>
+      <c r="AB254" s="188"/>
+      <c r="AC254" s="188"/>
+      <c r="AD254" s="188"/>
+      <c r="AE254" s="188"/>
+      <c r="AF254" s="188"/>
+      <c r="AG254" s="188"/>
+      <c r="AH254" s="188"/>
+      <c r="AI254" s="188"/>
+    </row>
+    <row r="255" spans="2:35" s="181" customFormat="1" ht="16">
+      <c r="B255" s="184"/>
+      <c r="C255" s="188"/>
+      <c r="D255" s="188"/>
+      <c r="E255" s="188"/>
+      <c r="F255" s="188"/>
+      <c r="G255" s="188"/>
+      <c r="H255" s="188"/>
+      <c r="I255" s="188"/>
+      <c r="J255" s="188"/>
+      <c r="K255" s="188"/>
+      <c r="L255" s="188"/>
+      <c r="M255" s="188"/>
+      <c r="N255" s="188"/>
+      <c r="O255" s="188"/>
+      <c r="P255" s="188"/>
+      <c r="Q255" s="188"/>
+      <c r="R255" s="188"/>
+      <c r="S255" s="188"/>
+      <c r="T255" s="188"/>
+      <c r="U255" s="188"/>
+      <c r="V255" s="188"/>
+      <c r="W255" s="188"/>
+      <c r="X255" s="188"/>
+      <c r="Y255" s="188"/>
+      <c r="Z255" s="188"/>
+      <c r="AA255" s="188"/>
+      <c r="AB255" s="188"/>
+      <c r="AC255" s="188"/>
+      <c r="AD255" s="188"/>
+      <c r="AE255" s="188"/>
+      <c r="AF255" s="188"/>
+      <c r="AG255" s="188"/>
+      <c r="AH255" s="188"/>
+      <c r="AI255" s="188"/>
+    </row>
+    <row r="256" spans="2:35" s="181" customFormat="1" ht="16">
+      <c r="B256" s="184"/>
+      <c r="C256" s="188"/>
+      <c r="D256" s="188"/>
+      <c r="E256" s="188"/>
+      <c r="F256" s="188"/>
+      <c r="G256" s="188"/>
+      <c r="H256" s="188"/>
+      <c r="I256" s="188"/>
+      <c r="J256" s="188"/>
+      <c r="K256" s="188"/>
+      <c r="L256" s="188"/>
+      <c r="M256" s="188"/>
+      <c r="N256" s="188"/>
+      <c r="O256" s="188"/>
+      <c r="P256" s="188"/>
+      <c r="Q256" s="188"/>
+      <c r="R256" s="188"/>
+      <c r="S256" s="188"/>
+      <c r="T256" s="188"/>
+      <c r="U256" s="188"/>
+      <c r="V256" s="188"/>
+      <c r="W256" s="188"/>
+      <c r="X256" s="188"/>
+      <c r="Y256" s="188"/>
+      <c r="Z256" s="188"/>
+      <c r="AA256" s="188"/>
+      <c r="AB256" s="188"/>
+      <c r="AC256" s="188"/>
+      <c r="AD256" s="188"/>
+      <c r="AE256" s="188"/>
+      <c r="AF256" s="188"/>
+      <c r="AG256" s="188"/>
+      <c r="AH256" s="188"/>
+      <c r="AI256" s="188"/>
+    </row>
+    <row r="257" spans="1:35" s="181" customFormat="1" ht="16">
+      <c r="B257" s="184"/>
+      <c r="C257" s="188"/>
+      <c r="D257" s="188"/>
+      <c r="E257" s="188"/>
+      <c r="F257" s="188"/>
+      <c r="G257" s="188"/>
+      <c r="H257" s="188"/>
+      <c r="I257" s="188"/>
+      <c r="J257" s="188"/>
+      <c r="K257" s="188"/>
+      <c r="L257" s="188"/>
+      <c r="M257" s="188"/>
+      <c r="N257" s="188"/>
+      <c r="O257" s="188"/>
+      <c r="P257" s="188"/>
+      <c r="Q257" s="188"/>
+      <c r="R257" s="188"/>
+      <c r="S257" s="188"/>
+      <c r="T257" s="188"/>
+      <c r="U257" s="188"/>
+      <c r="V257" s="188"/>
+      <c r="W257" s="188"/>
+      <c r="X257" s="188"/>
+      <c r="Y257" s="188"/>
+      <c r="Z257" s="188"/>
+      <c r="AA257" s="188"/>
+      <c r="AB257" s="188"/>
+      <c r="AC257" s="188"/>
+      <c r="AD257" s="188"/>
+      <c r="AE257" s="188"/>
+      <c r="AF257" s="188"/>
+      <c r="AG257" s="188"/>
+      <c r="AH257" s="188"/>
+      <c r="AI257" s="188"/>
+    </row>
+    <row r="258" spans="1:35" s="181" customFormat="1" ht="16">
+      <c r="B258" s="184"/>
+      <c r="C258" s="188"/>
+      <c r="D258" s="188"/>
+      <c r="E258" s="188"/>
+      <c r="F258" s="188"/>
+      <c r="G258" s="188"/>
+      <c r="H258" s="188"/>
+      <c r="I258" s="188"/>
+      <c r="J258" s="188"/>
+      <c r="K258" s="188"/>
+      <c r="L258" s="188"/>
+      <c r="M258" s="188"/>
+      <c r="N258" s="188"/>
+      <c r="O258" s="188"/>
+      <c r="P258" s="188"/>
+      <c r="Q258" s="188"/>
+      <c r="R258" s="188"/>
+      <c r="S258" s="188"/>
+      <c r="T258" s="188"/>
+      <c r="U258" s="188"/>
+      <c r="V258" s="188"/>
+      <c r="W258" s="188"/>
+      <c r="X258" s="188"/>
+      <c r="Y258" s="188"/>
+      <c r="Z258" s="188"/>
+      <c r="AA258" s="188"/>
+      <c r="AB258" s="188"/>
+      <c r="AC258" s="188"/>
+      <c r="AD258" s="188"/>
+      <c r="AE258" s="188"/>
+      <c r="AF258" s="188"/>
+      <c r="AG258" s="188"/>
+      <c r="AH258" s="188"/>
+      <c r="AI258" s="188"/>
+    </row>
+    <row r="259" spans="1:35" s="181" customFormat="1" ht="16">
+      <c r="B259" s="184"/>
+      <c r="C259" s="188"/>
+      <c r="D259" s="188"/>
+      <c r="E259" s="188"/>
+      <c r="F259" s="188"/>
+      <c r="G259" s="188"/>
+      <c r="H259" s="188"/>
+      <c r="I259" s="188"/>
+      <c r="J259" s="188"/>
+      <c r="K259" s="188"/>
+      <c r="L259" s="188"/>
+      <c r="M259" s="188"/>
+      <c r="N259" s="188"/>
+      <c r="O259" s="188"/>
+      <c r="P259" s="188"/>
+      <c r="Q259" s="188"/>
+      <c r="R259" s="188"/>
+      <c r="S259" s="188"/>
+      <c r="T259" s="188"/>
+      <c r="U259" s="188"/>
+      <c r="V259" s="188"/>
+      <c r="W259" s="188"/>
+      <c r="X259" s="188"/>
+      <c r="Y259" s="188"/>
+      <c r="Z259" s="188"/>
+      <c r="AA259" s="188"/>
+      <c r="AB259" s="188"/>
+      <c r="AC259" s="188"/>
+      <c r="AD259" s="188"/>
+      <c r="AE259" s="188"/>
+      <c r="AF259" s="188"/>
+      <c r="AG259" s="188"/>
+      <c r="AH259" s="188"/>
+      <c r="AI259" s="188"/>
+    </row>
+    <row r="260" spans="1:35" s="181" customFormat="1" ht="16">
+      <c r="B260" s="184"/>
+      <c r="C260" s="188"/>
+      <c r="D260" s="188"/>
+      <c r="E260" s="188"/>
+      <c r="F260" s="188"/>
+      <c r="G260" s="188"/>
+      <c r="H260" s="188"/>
+      <c r="I260" s="188"/>
+      <c r="J260" s="188"/>
+      <c r="K260" s="188"/>
+      <c r="L260" s="188"/>
+      <c r="M260" s="188"/>
+      <c r="N260" s="188"/>
+      <c r="O260" s="188"/>
+      <c r="P260" s="188"/>
+      <c r="Q260" s="188"/>
+      <c r="R260" s="188"/>
+      <c r="S260" s="188"/>
+      <c r="T260" s="188"/>
+      <c r="U260" s="188"/>
+      <c r="V260" s="188"/>
+      <c r="W260" s="188"/>
+      <c r="X260" s="188"/>
+      <c r="Y260" s="188"/>
+      <c r="Z260" s="188"/>
+      <c r="AA260" s="188"/>
+      <c r="AB260" s="188"/>
+      <c r="AC260" s="188"/>
+      <c r="AD260" s="188"/>
+      <c r="AE260" s="188"/>
+      <c r="AF260" s="188"/>
+      <c r="AG260" s="188"/>
+      <c r="AH260" s="188"/>
+      <c r="AI260" s="188"/>
+    </row>
+    <row r="261" spans="1:35" s="181" customFormat="1" ht="16">
+      <c r="B261" s="184"/>
+      <c r="C261" s="188"/>
+      <c r="D261" s="188"/>
+      <c r="E261" s="188"/>
+      <c r="F261" s="188"/>
+      <c r="G261" s="188"/>
+      <c r="H261" s="188"/>
+      <c r="I261" s="188"/>
+      <c r="J261" s="188"/>
+      <c r="K261" s="188"/>
+      <c r="L261" s="188"/>
+      <c r="M261" s="188"/>
+      <c r="N261" s="188"/>
+      <c r="O261" s="188"/>
+      <c r="P261" s="188"/>
+      <c r="Q261" s="188"/>
+      <c r="R261" s="188"/>
+      <c r="S261" s="188"/>
+      <c r="T261" s="188"/>
+      <c r="U261" s="188"/>
+      <c r="V261" s="188"/>
+      <c r="W261" s="188"/>
+      <c r="X261" s="188"/>
+      <c r="Y261" s="188"/>
+      <c r="Z261" s="188"/>
+      <c r="AA261" s="188"/>
+      <c r="AB261" s="188"/>
+      <c r="AC261" s="188"/>
+      <c r="AD261" s="188"/>
+      <c r="AE261" s="188"/>
+      <c r="AF261" s="188"/>
+      <c r="AG261" s="188"/>
+      <c r="AH261" s="188"/>
+      <c r="AI261" s="188"/>
+    </row>
+    <row r="262" spans="1:35" s="181" customFormat="1" ht="16">
+      <c r="B262" s="184"/>
+      <c r="C262" s="188"/>
+      <c r="D262" s="188"/>
+      <c r="E262" s="188"/>
+      <c r="F262" s="188"/>
+      <c r="G262" s="188"/>
+      <c r="H262" s="188"/>
+      <c r="I262" s="188"/>
+      <c r="J262" s="188"/>
+      <c r="K262" s="188"/>
+      <c r="L262" s="188"/>
+      <c r="M262" s="188"/>
+      <c r="N262" s="188"/>
+      <c r="O262" s="188"/>
+      <c r="P262" s="188"/>
+      <c r="Q262" s="188"/>
+      <c r="R262" s="188"/>
+      <c r="S262" s="188"/>
+      <c r="T262" s="188"/>
+      <c r="U262" s="188"/>
+      <c r="V262" s="188"/>
+      <c r="W262" s="188"/>
+      <c r="X262" s="188"/>
+      <c r="Y262" s="188"/>
+      <c r="Z262" s="188"/>
+      <c r="AA262" s="188"/>
+      <c r="AB262" s="188"/>
+      <c r="AC262" s="188"/>
+      <c r="AD262" s="188"/>
+      <c r="AE262" s="188"/>
+      <c r="AF262" s="188"/>
+      <c r="AG262" s="188"/>
+      <c r="AH262" s="188"/>
+      <c r="AI262" s="188"/>
+    </row>
+    <row r="263" spans="1:35" customFormat="1" ht="16">
       <c r="A263" s="102"/>
       <c r="Z263" s="101"/>
     </row>
-    <row r="264" spans="1:26" customFormat="1" ht="16">
+    <row r="264" spans="1:35" customFormat="1" ht="16">
       <c r="A264" s="102"/>
       <c r="Z264" s="101"/>
     </row>
-    <row r="265" spans="1:26" customFormat="1" ht="16">
+    <row r="265" spans="1:35" customFormat="1" ht="16">
       <c r="A265" s="102"/>
       <c r="Z265" s="101"/>
     </row>
-    <row r="266" spans="1:26" customFormat="1" ht="16">
+    <row r="266" spans="1:35" customFormat="1" ht="16">
       <c r="A266" s="102"/>
       <c r="Z266" s="101"/>
     </row>
-    <row r="267" spans="1:26" customFormat="1" ht="16">
+    <row r="267" spans="1:35" customFormat="1" ht="16">
       <c r="A267" s="102"/>
       <c r="Z267" s="101"/>
     </row>
-    <row r="268" spans="1:26" customFormat="1" ht="16">
+    <row r="268" spans="1:35" customFormat="1" ht="16">
       <c r="A268" s="102"/>
       <c r="Z268" s="101"/>
     </row>
-    <row r="269" spans="1:26" customFormat="1" ht="16">
+    <row r="269" spans="1:35" customFormat="1" ht="16">
       <c r="A269" s="102"/>
       <c r="Z269" s="101"/>
     </row>
-    <row r="270" spans="1:26" customFormat="1" ht="16">
+    <row r="270" spans="1:35" customFormat="1" ht="16">
       <c r="A270" s="102"/>
       <c r="Z270" s="101"/>
     </row>
-    <row r="271" spans="1:26" customFormat="1" ht="16">
+    <row r="271" spans="1:35" customFormat="1" ht="16">
       <c r="A271" s="102"/>
       <c r="Z271" s="101"/>
     </row>
-    <row r="272" spans="1:26" customFormat="1" ht="16">
+    <row r="272" spans="1:35" customFormat="1" ht="16">
       <c r="A272" s="102"/>
       <c r="Z272" s="101"/>
     </row>

--- a/carriers_source_analyses/bio_lng.carrier.xlsx
+++ b/carriers_source_analyses/bio_lng.carrier.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/carriers_source_analyses/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16100" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="39980" yWindow="-5720" windowWidth="28800" windowHeight="16100" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -32,8 +37,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -522,9 +530,6 @@
     <t>Carrier (global properties)</t>
   </si>
   <si>
-    <t>This sheet summarizes all carrier attributes formatted in the way they are used by the Energy Transition Model. This sheet contains only pure carrier values. For some countries and carriers Fuel Chain Emissions are defined (only for NL); if so these FCE are documented in a separate sheet (e.g. nl_fce). Use the Excel formulas to find the original data and sources for these numbers.</t>
-  </si>
-  <si>
     <t xml:space="preserve">This was copied from the biogas.carrier source analysis, as the production pathway is the same. </t>
   </si>
   <si>
@@ -673,6 +678,9 @@
   <si>
     <t>gas biomass</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all carrier attributes formatted in the way they are used by the Energy Transition Model. This sheet contains only pure carrier values. For some countries and carriers Fuel Chain Emissions are defined (only for NL); if so these FCE are documented in a separate sheet (e.g. nl_fce). Use the Excel formulas to find the original data and sources for these numbers. The carrier analysis can be imported on ETSource by running the following rake task: rake import:carrier CARRIER="carrier name" (eg rake import:carrier CARRIER=crude_oil) </t>
+  </si>
 </sst>
 </file>
 
@@ -690,7 +698,7 @@
     <numFmt numFmtId="172" formatCode="0.00000000000000"/>
     <numFmt numFmtId="173" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -912,11 +920,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1022,7 +1025,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1252,57 +1255,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="0" tint="-0.14999847407452621"/>
       </left>
@@ -1942,7 +1894,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="172" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1952,25 +1904,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="35" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="34" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
@@ -1978,25 +1930,27 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="173" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="173" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="173" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2005,23 +1959,21 @@
     <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="337">
     <cellStyle name="Comma" xfId="320" builtinId="3"/>
@@ -2372,77 +2324,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update carrier attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3068,7 +2950,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -3181,12 +3063,13 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover sheet"/>
       <sheetName val="Dashboard"/>
       <sheetName val="carrier_manager.xlsm"/>
+      <sheetName val="carrier_manager"/>
     </sheetNames>
     <definedNames>
       <definedName name="update_attributes"/>
@@ -3195,6 +3078,7 @@
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3529,51 +3413,51 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="44.125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="2.125" style="21" customWidth="1"/>
-    <col min="5" max="16384" width="10.625" style="21"/>
+    <col min="1" max="1" width="3.42578125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="2.140625" style="21" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="27" customFormat="1">
+    <row r="1" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="25"/>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
     </row>
-    <row r="2" spans="1:4" ht="20">
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="28" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="28"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>150</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="12" t="s">
         <v>8</v>
@@ -3582,17 +3466,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="77" t="s">
         <v>14</v>
@@ -3600,13 +3484,13 @@
       <c r="C9" s="78"/>
       <c r="D9" s="153"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="79"/>
       <c r="C10" s="80"/>
       <c r="D10" s="154"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="79" t="s">
         <v>15</v>
@@ -3616,7 +3500,7 @@
       </c>
       <c r="D11" s="154"/>
     </row>
-    <row r="12" spans="1:4" ht="16" thickBot="1">
+    <row r="12" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="79"/>
       <c r="C12" s="18" t="s">
@@ -3624,7 +3508,7 @@
       </c>
       <c r="D12" s="154"/>
     </row>
-    <row r="13" spans="1:4" ht="16" thickBot="1">
+    <row r="13" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="79"/>
       <c r="C13" s="82" t="s">
@@ -3632,7 +3516,7 @@
       </c>
       <c r="D13" s="154"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="79"/>
       <c r="C14" s="80" t="s">
@@ -3640,13 +3524,13 @@
       </c>
       <c r="D14" s="154"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="79"/>
       <c r="C15" s="80"/>
       <c r="D15" s="154"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="79" t="s">
         <v>20</v>
@@ -3656,7 +3540,7 @@
       </c>
       <c r="D16" s="154"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="79"/>
       <c r="C17" s="84" t="s">
@@ -3664,7 +3548,7 @@
       </c>
       <c r="D17" s="154"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="79"/>
       <c r="C18" s="85" t="s">
@@ -3672,7 +3556,7 @@
       </c>
       <c r="D18" s="154"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="79"/>
       <c r="C19" s="86" t="s">
@@ -3680,7 +3564,7 @@
       </c>
       <c r="D19" s="154"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="87"/>
       <c r="C20" s="88" t="s">
@@ -3688,7 +3572,7 @@
       </c>
       <c r="D20" s="154"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="87"/>
       <c r="C21" s="89" t="s">
@@ -3696,7 +3580,7 @@
       </c>
       <c r="D21" s="154"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="87"/>
       <c r="C22" s="90" t="s">
@@ -3704,14 +3588,14 @@
       </c>
       <c r="D22" s="154"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="87"/>
       <c r="C23" s="91" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="154"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="155"/>
       <c r="C24" s="156"/>
       <c r="D24" s="157"/>
@@ -3719,76 +3603,71 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B2" sqref="B2:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" style="35" customWidth="1"/>
     <col min="3" max="3" width="46" style="35" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="35" customWidth="1"/>
-    <col min="5" max="5" width="19.625" style="35" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="35" customWidth="1"/>
     <col min="7" max="7" width="45" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="35" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="35" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="35"/>
+    <col min="8" max="8" width="5.140625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="33"/>
       <c r="E1" s="33"/>
       <c r="F1" s="33"/>
       <c r="G1" s="33"/>
     </row>
-    <row r="2" spans="2:11" ht="15" customHeight="1">
-      <c r="B2" s="194" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-    </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="197"/>
-      <c r="C3" s="198"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="200"/>
-      <c r="C4" s="201"/>
-      <c r="D4" s="201"/>
-      <c r="E4" s="202"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-    </row>
-    <row r="5" spans="2:11" ht="16" thickBot="1">
+    <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="197" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="198"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="198"/>
+      <c r="F2" s="198"/>
+      <c r="G2" s="201"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="199"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="200"/>
+      <c r="G3" s="202"/>
+    </row>
+    <row r="4" spans="2:11" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="203"/>
+      <c r="C4" s="204"/>
+      <c r="D4" s="204"/>
+      <c r="E4" s="204"/>
+      <c r="F4" s="204"/>
+      <c r="G4" s="205"/>
+    </row>
+    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="33"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="36"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
@@ -3799,7 +3678,7 @@
       <c r="I6" s="20"/>
       <c r="J6" s="37"/>
     </row>
-    <row r="7" spans="2:11" s="42" customFormat="1" ht="18">
+    <row r="7" spans="2:11" s="42" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="92"/>
       <c r="C7" s="19" t="s">
         <v>12</v>
@@ -3820,7 +3699,7 @@
       </c>
       <c r="J7" s="94"/>
     </row>
-    <row r="8" spans="2:11" s="42" customFormat="1" ht="18">
+    <row r="8" spans="2:11" s="42" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="23"/>
       <c r="C8" s="18"/>
       <c r="D8" s="31"/>
@@ -3831,7 +3710,7 @@
       <c r="I8" s="18"/>
       <c r="J8" s="43"/>
     </row>
-    <row r="9" spans="2:11" s="42" customFormat="1" ht="19" thickBot="1">
+    <row r="9" spans="2:11" s="42" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="23"/>
       <c r="C9" s="152" t="s">
         <v>151</v>
@@ -3844,7 +3723,7 @@
       <c r="I9" s="18"/>
       <c r="J9" s="43"/>
     </row>
-    <row r="10" spans="2:11" s="42" customFormat="1" ht="19" thickBot="1">
+    <row r="10" spans="2:11" s="42" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="23"/>
       <c r="C10" s="100" t="s">
         <v>35</v>
@@ -3866,7 +3745,7 @@
       </c>
       <c r="J10" s="43"/>
     </row>
-    <row r="11" spans="2:11" s="42" customFormat="1" ht="19" thickBot="1">
+    <row r="11" spans="2:11" s="42" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="23"/>
       <c r="C11" s="106" t="s">
         <v>36</v>
@@ -3886,7 +3765,7 @@
       </c>
       <c r="J11" s="43"/>
     </row>
-    <row r="12" spans="2:11" s="42" customFormat="1" ht="19" thickBot="1">
+    <row r="12" spans="2:11" s="42" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="23"/>
       <c r="C12" s="106" t="s">
         <v>149</v>
@@ -3902,11 +3781,11 @@
       <c r="G12" s="106"/>
       <c r="H12" s="30"/>
       <c r="I12" s="175" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J12" s="43"/>
     </row>
-    <row r="13" spans="2:11" s="42" customFormat="1" ht="19" thickBot="1">
+    <row r="13" spans="2:11" s="42" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="23"/>
       <c r="C13" s="34" t="s">
         <v>37</v>
@@ -3928,10 +3807,10 @@
       </c>
       <c r="J13" s="43"/>
     </row>
-    <row r="14" spans="2:11" s="42" customFormat="1" ht="19" thickBot="1">
+    <row r="14" spans="2:11" s="42" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="23"/>
       <c r="C14" s="177" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>43</v>
@@ -3942,15 +3821,15 @@
       </c>
       <c r="F14" s="177"/>
       <c r="G14" s="177" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H14" s="30"/>
-      <c r="I14" s="205" t="s">
-        <v>182</v>
+      <c r="I14" s="196" t="s">
+        <v>181</v>
       </c>
       <c r="J14" s="43"/>
     </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="38"/>
       <c r="C15" s="34" t="s">
         <v>38</v>
@@ -3971,7 +3850,7 @@
       <c r="J15" s="95"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="2:11" ht="20" customHeight="1" thickBot="1">
+    <row r="16" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="39"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
@@ -3984,47 +3863,10 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:E4"/>
+    <mergeCell ref="B2:G4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!update_attributes">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4039,30 +3881,29 @@
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="66" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="66" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="66" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="66" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="66" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="66" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="66" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="66" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="66" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="66" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="66" customWidth="1"/>
     <col min="7" max="7" width="17" style="66" customWidth="1"/>
-    <col min="8" max="8" width="4.625" style="66" customWidth="1"/>
-    <col min="9" max="9" width="13.125" style="67" customWidth="1"/>
+    <col min="8" max="8" width="4.5703125" style="66" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="67" customWidth="1"/>
     <col min="10" max="10" width="3" style="67" customWidth="1"/>
-    <col min="11" max="11" width="11.625" style="67" customWidth="1"/>
-    <col min="12" max="12" width="3.125" style="67" customWidth="1"/>
-    <col min="13" max="13" width="12.875" style="67" customWidth="1"/>
-    <col min="14" max="14" width="2.625" style="67" customWidth="1"/>
-    <col min="15" max="16" width="8.5" style="67" customWidth="1"/>
-    <col min="17" max="17" width="2.625" style="67" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="67" customWidth="1"/>
+    <col min="12" max="12" width="3.140625" style="67" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="67" customWidth="1"/>
+    <col min="14" max="14" width="2.5703125" style="67" customWidth="1"/>
+    <col min="15" max="16" width="8.42578125" style="67" customWidth="1"/>
+    <col min="17" max="17" width="2.5703125" style="67" customWidth="1"/>
     <col min="18" max="18" width="60" style="66" customWidth="1"/>
-    <col min="19" max="16384" width="10.625" style="66"/>
+    <col min="19" max="16384" width="10.7109375" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="16" thickBot="1"/>
-    <row r="2" spans="2:18">
+    <row r="1" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B2" s="68"/>
       <c r="C2" s="69"/>
       <c r="D2" s="69"/>
@@ -4081,7 +3922,7 @@
       <c r="Q2" s="70"/>
       <c r="R2" s="71"/>
     </row>
-    <row r="3" spans="2:18" s="24" customFormat="1">
+    <row r="3" spans="2:18" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="23"/>
       <c r="C3" s="99" t="s">
         <v>29</v>
@@ -4096,7 +3937,7 @@
       </c>
       <c r="H3" s="99"/>
       <c r="I3" s="64" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J3" s="64"/>
       <c r="K3" s="64" t="s">
@@ -4104,21 +3945,21 @@
       </c>
       <c r="L3" s="64"/>
       <c r="M3" s="64" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N3" s="64"/>
       <c r="O3" s="64" t="s">
         <v>50</v>
       </c>
       <c r="P3" s="64" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q3" s="64"/>
       <c r="R3" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:18">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="72"/>
       <c r="C4" s="73"/>
       <c r="D4" s="73"/>
@@ -4137,7 +3978,7 @@
       <c r="Q4" s="98"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="2:18" ht="16" thickBot="1">
+    <row r="5" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="72"/>
       <c r="C5" s="18" t="s">
         <v>48</v>
@@ -4158,7 +3999,7 @@
       <c r="Q5" s="16"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="2:18" ht="16" thickBot="1">
+    <row r="6" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="72"/>
       <c r="C6" s="109" t="s">
         <v>35</v>
@@ -4187,7 +4028,7 @@
       <c r="Q6" s="16"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="2:18" s="6" customFormat="1" ht="16" thickBot="1">
+    <row r="7" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="110" t="s">
         <v>36</v>
@@ -4218,7 +4059,7 @@
       <c r="Q7" s="16"/>
       <c r="R7" s="158"/>
     </row>
-    <row r="8" spans="2:18" s="6" customFormat="1" ht="16" thickBot="1">
+    <row r="8" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="110" t="s">
         <v>149</v>
@@ -4251,7 +4092,7 @@
       <c r="Q8" s="16"/>
       <c r="R8" s="149"/>
     </row>
-    <row r="9" spans="2:18" s="6" customFormat="1" ht="16" thickBot="1">
+    <row r="9" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="111" t="s">
         <v>37</v>
@@ -4279,13 +4120,13 @@
       <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
       <c r="R9" s="173" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" s="6" customFormat="1" ht="16" thickBot="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="178" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D10" s="111" t="s">
         <v>37</v>
@@ -4308,14 +4149,14 @@
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
       <c r="O10" s="16"/>
-      <c r="P10" s="203">
+      <c r="P10" s="194">
         <f>Notes!G251</f>
         <v>5.4600000000000003E-2</v>
       </c>
       <c r="Q10" s="16"/>
       <c r="R10" s="173"/>
     </row>
-    <row r="11" spans="2:18" ht="16" thickBot="1">
+    <row r="11" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="72"/>
       <c r="C11" s="111" t="s">
         <v>38</v>
@@ -4350,10 +4191,10 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="2:18" ht="16" thickBot="1">
+    <row r="12" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="72"/>
       <c r="C12" s="159" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D12" s="111" t="s">
         <v>38</v>
@@ -4381,10 +4222,10 @@
       <c r="Q12" s="16"/>
       <c r="R12" s="149"/>
     </row>
-    <row r="13" spans="2:18" ht="16" thickBot="1">
+    <row r="13" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="72"/>
       <c r="C13" s="159" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D13" s="111" t="s">
         <v>38</v>
@@ -4413,11 +4254,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4432,23 +4268,23 @@
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="46" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="46" customWidth="1"/>
-    <col min="3" max="3" width="28.625" style="46" customWidth="1"/>
-    <col min="4" max="4" width="3.125" style="46" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="46" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" style="46" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="46" customWidth="1"/>
     <col min="6" max="6" width="5" style="46" customWidth="1"/>
-    <col min="7" max="7" width="10.125" style="46" customWidth="1"/>
-    <col min="8" max="10" width="12.125" style="46" customWidth="1"/>
-    <col min="11" max="11" width="33.125" style="47" customWidth="1"/>
-    <col min="12" max="12" width="87.125" style="46" customWidth="1"/>
-    <col min="13" max="16384" width="33.125" style="46"/>
+    <col min="7" max="7" width="10.140625" style="46" customWidth="1"/>
+    <col min="8" max="10" width="12.140625" style="46" customWidth="1"/>
+    <col min="11" max="11" width="33.140625" style="47" customWidth="1"/>
+    <col min="12" max="12" width="87.140625" style="46" customWidth="1"/>
+    <col min="13" max="16384" width="33.140625" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="16" thickBot="1"/>
-    <row r="2" spans="2:12">
+    <row r="1" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" s="48"/>
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
@@ -4461,7 +4297,7 @@
       <c r="K2" s="50"/>
       <c r="L2" s="49"/>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="51"/>
       <c r="C3" s="52" t="s">
         <v>10</v>
@@ -4476,7 +4312,7 @@
       <c r="K3" s="53"/>
       <c r="L3" s="54"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="51"/>
       <c r="C4" s="54"/>
       <c r="D4" s="54"/>
@@ -4489,7 +4325,7 @@
       <c r="K4" s="55"/>
       <c r="L4" s="54"/>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="56"/>
       <c r="C5" s="57" t="s">
         <v>12</v>
@@ -4518,7 +4354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="51"/>
       <c r="C6" s="52"/>
       <c r="D6" s="52"/>
@@ -4531,38 +4367,38 @@
       <c r="K6" s="53"/>
       <c r="L6" s="52"/>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="51"/>
       <c r="C7" s="122" t="s">
         <v>149</v>
       </c>
       <c r="D7" s="59"/>
       <c r="E7" s="174" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F7" s="150" t="s">
         <v>61</v>
       </c>
       <c r="G7" s="54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H7" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="I7" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="J7" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="K7" s="176" t="s">
+        <v>176</v>
+      </c>
+      <c r="L7" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="I7" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="J7" s="55" t="s">
-        <v>175</v>
-      </c>
-      <c r="K7" s="176" t="s">
-        <v>177</v>
-      </c>
-      <c r="L7" s="55" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12">
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="51"/>
       <c r="C8" s="122" t="s">
         <v>36</v>
@@ -4576,24 +4412,24 @@
       <c r="J8" s="55"/>
       <c r="L8" s="65"/>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="51"/>
       <c r="C9" s="46" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="51"/>
       <c r="C10" s="46" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L10" s="65"/>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="51"/>
       <c r="L11" s="65"/>
     </row>
-    <row r="12" spans="2:12" ht="16">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="51"/>
       <c r="C12" s="122" t="s">
         <v>38</v>
@@ -4612,14 +4448,14 @@
         <v>147</v>
       </c>
       <c r="J12" s="55" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K12" s="55" t="s">
         <v>146</v>
       </c>
       <c r="L12" s="118"/>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="51"/>
       <c r="C13" s="122"/>
       <c r="D13" s="60"/>
@@ -4631,65 +4467,60 @@
       <c r="J13" s="55"/>
       <c r="K13" s="55"/>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C14" s="34" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="63"/>
       <c r="E14" s="112" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F14" s="117"/>
       <c r="G14" s="61" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H14" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="I14" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="J14" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="K14" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="L14" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="I14" s="62" t="s">
-        <v>165</v>
-      </c>
-      <c r="J14" s="55" t="s">
-        <v>175</v>
-      </c>
-      <c r="K14" s="47" t="s">
-        <v>176</v>
-      </c>
-      <c r="L14" s="55" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12">
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="51"/>
       <c r="C15" s="179" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D15" s="60"/>
       <c r="E15" s="180" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F15" s="180"/>
       <c r="G15" s="54" t="s">
+        <v>182</v>
+      </c>
+      <c r="H15" s="55" t="s">
         <v>183</v>
-      </c>
-      <c r="H15" s="55" t="s">
-        <v>184</v>
       </c>
       <c r="I15" s="55"/>
       <c r="J15" s="55"/>
-      <c r="K15" s="204" t="s">
-        <v>185</v>
+      <c r="K15" s="195" t="s">
+        <v>184</v>
       </c>
       <c r="L15" s="65"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4701,19 +4532,19 @@
       <selection activeCell="D221" sqref="D221:J233"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="101" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="101" customWidth="1"/>
     <col min="2" max="2" width="5" style="101" customWidth="1"/>
     <col min="3" max="5" width="7" style="101"/>
-    <col min="6" max="6" width="10.875" style="101" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="101" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="101"/>
-    <col min="8" max="8" width="8.875" style="101" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="101" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="7" style="101"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="16" thickBot="1"/>
-    <row r="2" spans="2:26" s="24" customFormat="1">
+    <row r="1" spans="2:26" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:26" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="104"/>
       <c r="C2" s="105" t="s">
         <v>24</v>
@@ -4741,7 +4572,7 @@
       <c r="T2" s="105"/>
       <c r="U2" s="105"/>
     </row>
-    <row r="3" spans="2:26">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B3" s="102"/>
       <c r="C3" s="103"/>
       <c r="D3" s="103"/>
@@ -4763,7 +4594,7 @@
       <c r="T3" s="103"/>
       <c r="U3" s="103"/>
     </row>
-    <row r="4" spans="2:26" customFormat="1" ht="16">
+    <row r="4" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="102"/>
       <c r="C4" s="112"/>
       <c r="D4" s="112"/>
@@ -4788,7 +4619,7 @@
       <c r="W4" s="112"/>
       <c r="X4" s="112"/>
     </row>
-    <row r="5" spans="2:26" customFormat="1" ht="16">
+    <row r="5" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="102"/>
       <c r="C5" s="112" t="s">
         <v>66</v>
@@ -4817,7 +4648,7 @@
       <c r="Y5" s="112"/>
       <c r="Z5" s="112"/>
     </row>
-    <row r="6" spans="2:26" customFormat="1" ht="16">
+    <row r="6" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="102"/>
       <c r="C6" s="112"/>
       <c r="D6" s="112"/>
@@ -4844,7 +4675,7 @@
       <c r="Y6" s="112"/>
       <c r="Z6" s="112"/>
     </row>
-    <row r="7" spans="2:26" customFormat="1" ht="16">
+    <row r="7" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="102"/>
       <c r="C7" s="112"/>
       <c r="D7" s="112" t="s">
@@ -4875,7 +4706,7 @@
       <c r="Y7" s="112"/>
       <c r="Z7" s="112"/>
     </row>
-    <row r="8" spans="2:26" customFormat="1" ht="16">
+    <row r="8" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="102"/>
       <c r="C8" s="112"/>
       <c r="D8" s="112"/>
@@ -4904,7 +4735,7 @@
       <c r="Y8" s="112"/>
       <c r="Z8" s="112"/>
     </row>
-    <row r="9" spans="2:26" customFormat="1" ht="16">
+    <row r="9" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="102"/>
       <c r="C9" s="112"/>
       <c r="D9" s="112"/>
@@ -4931,7 +4762,7 @@
       <c r="Y9" s="112"/>
       <c r="Z9" s="112"/>
     </row>
-    <row r="10" spans="2:26" customFormat="1" ht="16">
+    <row r="10" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="102"/>
       <c r="C10" s="112"/>
       <c r="D10" s="112"/>
@@ -4958,7 +4789,7 @@
       <c r="Y10" s="112"/>
       <c r="Z10" s="112"/>
     </row>
-    <row r="11" spans="2:26" customFormat="1" ht="16">
+    <row r="11" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="102"/>
       <c r="C11" s="112"/>
       <c r="D11" s="112"/>
@@ -4985,7 +4816,7 @@
       <c r="Y11" s="112"/>
       <c r="Z11" s="112"/>
     </row>
-    <row r="12" spans="2:26" customFormat="1" ht="16">
+    <row r="12" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="102"/>
       <c r="C12" s="112"/>
       <c r="D12" s="112"/>
@@ -5012,7 +4843,7 @@
       <c r="Y12" s="112"/>
       <c r="Z12" s="112"/>
     </row>
-    <row r="13" spans="2:26" customFormat="1" ht="16">
+    <row r="13" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="102"/>
       <c r="C13" s="112"/>
       <c r="D13" s="112"/>
@@ -5039,7 +4870,7 @@
       <c r="Y13" s="112"/>
       <c r="Z13" s="112"/>
     </row>
-    <row r="14" spans="2:26" customFormat="1" ht="16">
+    <row r="14" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="102"/>
       <c r="C14" s="112"/>
       <c r="D14" s="112"/>
@@ -5066,7 +4897,7 @@
       <c r="Y14" s="112"/>
       <c r="Z14" s="112"/>
     </row>
-    <row r="15" spans="2:26" customFormat="1" ht="16">
+    <row r="15" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="102"/>
       <c r="C15" s="112"/>
       <c r="D15" s="112"/>
@@ -5093,7 +4924,7 @@
       <c r="Y15" s="112"/>
       <c r="Z15" s="112"/>
     </row>
-    <row r="16" spans="2:26" customFormat="1" ht="16">
+    <row r="16" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="102"/>
       <c r="C16" s="112"/>
       <c r="D16" s="112"/>
@@ -5120,7 +4951,7 @@
       <c r="Y16" s="112"/>
       <c r="Z16" s="112"/>
     </row>
-    <row r="17" spans="2:26" customFormat="1" ht="16">
+    <row r="17" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="102"/>
       <c r="C17" s="112"/>
       <c r="D17" s="112"/>
@@ -5147,7 +4978,7 @@
       <c r="Y17" s="112"/>
       <c r="Z17" s="112"/>
     </row>
-    <row r="18" spans="2:26" customFormat="1" ht="16">
+    <row r="18" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="102"/>
       <c r="C18" s="112"/>
       <c r="D18" s="112"/>
@@ -5174,7 +5005,7 @@
       <c r="Y18" s="112"/>
       <c r="Z18" s="112"/>
     </row>
-    <row r="19" spans="2:26" customFormat="1" ht="16">
+    <row r="19" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="102"/>
       <c r="C19" s="112"/>
       <c r="D19" s="112"/>
@@ -5201,7 +5032,7 @@
       <c r="Y19" s="112"/>
       <c r="Z19" s="112"/>
     </row>
-    <row r="20" spans="2:26" customFormat="1" ht="16">
+    <row r="20" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="102"/>
       <c r="C20" s="112"/>
       <c r="D20" s="112"/>
@@ -5228,7 +5059,7 @@
       <c r="Y20" s="112"/>
       <c r="Z20" s="112"/>
     </row>
-    <row r="21" spans="2:26" customFormat="1" ht="16">
+    <row r="21" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="102"/>
       <c r="C21" s="112"/>
       <c r="D21" s="112"/>
@@ -5255,7 +5086,7 @@
       <c r="Y21" s="112"/>
       <c r="Z21" s="112"/>
     </row>
-    <row r="22" spans="2:26" customFormat="1" ht="16">
+    <row r="22" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="102"/>
       <c r="C22" s="112"/>
       <c r="D22" s="112" t="s">
@@ -5284,7 +5115,7 @@
       <c r="Y22" s="112"/>
       <c r="Z22" s="112"/>
     </row>
-    <row r="23" spans="2:26" customFormat="1" ht="16">
+    <row r="23" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="102"/>
       <c r="C23" s="112"/>
       <c r="D23" s="112"/>
@@ -5315,7 +5146,7 @@
       <c r="Y23" s="112"/>
       <c r="Z23" s="112"/>
     </row>
-    <row r="24" spans="2:26" customFormat="1" ht="16">
+    <row r="24" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="102"/>
       <c r="C24" s="112"/>
       <c r="D24" s="112"/>
@@ -5346,7 +5177,7 @@
       <c r="Y24" s="112"/>
       <c r="Z24" s="112"/>
     </row>
-    <row r="25" spans="2:26" customFormat="1" ht="16">
+    <row r="25" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="102"/>
       <c r="C25" s="112"/>
       <c r="D25" s="112"/>
@@ -5379,7 +5210,7 @@
       <c r="Y25" s="112"/>
       <c r="Z25" s="112"/>
     </row>
-    <row r="26" spans="2:26" customFormat="1" ht="16">
+    <row r="26" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="102"/>
       <c r="C26" s="112"/>
       <c r="D26" s="112"/>
@@ -5412,7 +5243,7 @@
       <c r="Y26" s="112"/>
       <c r="Z26" s="112"/>
     </row>
-    <row r="27" spans="2:26" customFormat="1" ht="16">
+    <row r="27" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="102"/>
       <c r="C27" s="112"/>
       <c r="D27" s="112"/>
@@ -5446,7 +5277,7 @@
       <c r="Y27" s="112"/>
       <c r="Z27" s="112"/>
     </row>
-    <row r="28" spans="2:26" customFormat="1" ht="16">
+    <row r="28" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="102"/>
       <c r="C28" s="112"/>
       <c r="D28" s="112"/>
@@ -5480,7 +5311,7 @@
       <c r="Y28" s="112"/>
       <c r="Z28" s="112"/>
     </row>
-    <row r="29" spans="2:26" customFormat="1" ht="16">
+    <row r="29" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="102"/>
       <c r="C29" s="112"/>
       <c r="D29" s="112"/>
@@ -5513,7 +5344,7 @@
       <c r="Y29" s="112"/>
       <c r="Z29" s="112"/>
     </row>
-    <row r="30" spans="2:26" customFormat="1" ht="16">
+    <row r="30" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="102"/>
       <c r="C30" s="112"/>
       <c r="D30" s="112"/>
@@ -5544,7 +5375,7 @@
       <c r="Y30" s="112"/>
       <c r="Z30" s="112"/>
     </row>
-    <row r="31" spans="2:26" customFormat="1" ht="16">
+    <row r="31" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="102"/>
       <c r="C31" s="112"/>
       <c r="D31" s="112"/>
@@ -5578,7 +5409,7 @@
       <c r="Y31" s="112"/>
       <c r="Z31" s="112"/>
     </row>
-    <row r="32" spans="2:26" customFormat="1" ht="16">
+    <row r="32" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="102"/>
       <c r="C32" s="112"/>
       <c r="D32" s="112"/>
@@ -5611,7 +5442,7 @@
       <c r="Y32" s="112"/>
       <c r="Z32" s="112"/>
     </row>
-    <row r="33" spans="2:26" customFormat="1" ht="16">
+    <row r="33" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="102"/>
       <c r="C33" s="112"/>
       <c r="D33" s="112"/>
@@ -5630,7 +5461,7 @@
       <c r="J33" s="112"/>
       <c r="K33" s="112"/>
       <c r="L33" s="115" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M33" s="112"/>
       <c r="N33" s="112"/>
@@ -5647,7 +5478,7 @@
       <c r="Y33" s="112"/>
       <c r="Z33" s="112"/>
     </row>
-    <row r="34" spans="2:26" customFormat="1" ht="16">
+    <row r="34" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="102"/>
       <c r="C34" s="112"/>
       <c r="D34" s="112"/>
@@ -5665,7 +5496,7 @@
       <c r="J34" s="112"/>
       <c r="K34" s="112"/>
       <c r="L34" s="112" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M34" s="112"/>
       <c r="N34" s="112"/>
@@ -5682,7 +5513,7 @@
       <c r="Y34" s="112"/>
       <c r="Z34" s="112"/>
     </row>
-    <row r="35" spans="2:26" customFormat="1" ht="16">
+    <row r="35" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="102"/>
       <c r="C35" s="112"/>
       <c r="D35" s="112"/>
@@ -5716,7 +5547,7 @@
       <c r="Y35" s="112"/>
       <c r="Z35" s="112"/>
     </row>
-    <row r="36" spans="2:26" customFormat="1" ht="16">
+    <row r="36" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="102"/>
       <c r="C36" s="112"/>
       <c r="D36" s="112"/>
@@ -5750,7 +5581,7 @@
       <c r="Y36" s="112"/>
       <c r="Z36" s="112"/>
     </row>
-    <row r="37" spans="2:26" customFormat="1" ht="16">
+    <row r="37" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="102"/>
       <c r="C37" s="112"/>
       <c r="D37" s="112"/>
@@ -5784,7 +5615,7 @@
       <c r="Y37" s="112"/>
       <c r="Z37" s="112"/>
     </row>
-    <row r="38" spans="2:26" customFormat="1" ht="16">
+    <row r="38" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="102"/>
       <c r="C38" s="112"/>
       <c r="D38" s="112"/>
@@ -5811,13 +5642,13 @@
       <c r="Y38" s="112"/>
       <c r="Z38" s="112"/>
     </row>
-    <row r="39" spans="2:26" customFormat="1" ht="16">
+    <row r="39" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="102"/>
       <c r="C39" s="112"/>
       <c r="D39" s="112"/>
       <c r="E39" s="112"/>
       <c r="F39" s="145" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G39" s="146"/>
       <c r="H39" s="148">
@@ -5845,7 +5676,7 @@
       <c r="Y39" s="112"/>
       <c r="Z39" s="112"/>
     </row>
-    <row r="40" spans="2:26" customFormat="1" ht="16">
+    <row r="40" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="102"/>
       <c r="C40" s="112"/>
       <c r="D40" s="112"/>
@@ -5872,7 +5703,7 @@
       <c r="Y40" s="112"/>
       <c r="Z40" s="112"/>
     </row>
-    <row r="41" spans="2:26" customFormat="1" ht="16">
+    <row r="41" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="102"/>
       <c r="C41" s="112"/>
       <c r="D41" s="112"/>
@@ -5899,7 +5730,7 @@
       <c r="Y41" s="112"/>
       <c r="Z41" s="112"/>
     </row>
-    <row r="42" spans="2:26" customFormat="1" ht="16">
+    <row r="42" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="102"/>
       <c r="C42" s="112"/>
       <c r="D42" s="112"/>
@@ -5926,7 +5757,7 @@
       <c r="Y42" s="112"/>
       <c r="Z42" s="112"/>
     </row>
-    <row r="43" spans="2:26" customFormat="1" ht="16">
+    <row r="43" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="102"/>
       <c r="C43" s="112"/>
       <c r="D43" s="112"/>
@@ -5953,7 +5784,7 @@
       <c r="Y43" s="112"/>
       <c r="Z43" s="112"/>
     </row>
-    <row r="44" spans="2:26" customFormat="1" ht="16">
+    <row r="44" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="102"/>
       <c r="C44" s="112"/>
       <c r="D44" s="112"/>
@@ -5980,7 +5811,7 @@
       <c r="Y44" s="112"/>
       <c r="Z44" s="112"/>
     </row>
-    <row r="45" spans="2:26" customFormat="1" ht="16">
+    <row r="45" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="102"/>
       <c r="C45" s="112"/>
       <c r="D45" s="112"/>
@@ -6009,7 +5840,7 @@
       <c r="Y45" s="112"/>
       <c r="Z45" s="112"/>
     </row>
-    <row r="46" spans="2:26" customFormat="1" ht="16">
+    <row r="46" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="102"/>
       <c r="C46" s="112"/>
       <c r="D46" s="112"/>
@@ -6038,7 +5869,7 @@
       <c r="Y46" s="112"/>
       <c r="Z46" s="112"/>
     </row>
-    <row r="47" spans="2:26" customFormat="1" ht="16">
+    <row r="47" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="102"/>
       <c r="C47" s="112"/>
       <c r="D47" s="112"/>
@@ -6068,7 +5899,7 @@
       <c r="Y47" s="112"/>
       <c r="Z47" s="112"/>
     </row>
-    <row r="48" spans="2:26" customFormat="1" ht="16">
+    <row r="48" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="102"/>
       <c r="C48" s="112"/>
       <c r="D48" s="112"/>
@@ -6095,7 +5926,7 @@
       <c r="Y48" s="112"/>
       <c r="Z48" s="112"/>
     </row>
-    <row r="49" spans="2:26" customFormat="1" ht="16">
+    <row r="49" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="102"/>
       <c r="C49" s="112"/>
       <c r="D49" s="112"/>
@@ -6122,7 +5953,7 @@
       <c r="Y49" s="112"/>
       <c r="Z49" s="112"/>
     </row>
-    <row r="50" spans="2:26" customFormat="1" ht="16">
+    <row r="50" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="102"/>
       <c r="C50" s="112"/>
       <c r="D50" s="112"/>
@@ -6149,7 +5980,7 @@
       <c r="Y50" s="112"/>
       <c r="Z50" s="112"/>
     </row>
-    <row r="51" spans="2:26" customFormat="1" ht="16">
+    <row r="51" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="102"/>
       <c r="C51" s="112"/>
       <c r="D51" s="112"/>
@@ -6176,7 +6007,7 @@
       <c r="Y51" s="112"/>
       <c r="Z51" s="112"/>
     </row>
-    <row r="52" spans="2:26" customFormat="1" ht="16">
+    <row r="52" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="102"/>
       <c r="C52" s="112"/>
       <c r="D52" s="112"/>
@@ -6203,7 +6034,7 @@
       <c r="Y52" s="112"/>
       <c r="Z52" s="112"/>
     </row>
-    <row r="53" spans="2:26" customFormat="1" ht="16">
+    <row r="53" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="102"/>
       <c r="C53" s="112"/>
       <c r="D53" s="112"/>
@@ -6230,7 +6061,7 @@
       <c r="Y53" s="112"/>
       <c r="Z53" s="112"/>
     </row>
-    <row r="54" spans="2:26" customFormat="1" ht="16">
+    <row r="54" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="102"/>
       <c r="C54" s="112"/>
       <c r="D54" s="112"/>
@@ -6257,7 +6088,7 @@
       <c r="Y54" s="112"/>
       <c r="Z54" s="112"/>
     </row>
-    <row r="55" spans="2:26" customFormat="1" ht="16">
+    <row r="55" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="102"/>
       <c r="C55" s="112"/>
       <c r="D55" s="112"/>
@@ -6284,7 +6115,7 @@
       <c r="Y55" s="112"/>
       <c r="Z55" s="112"/>
     </row>
-    <row r="56" spans="2:26" customFormat="1" ht="16">
+    <row r="56" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="102"/>
       <c r="C56" s="112"/>
       <c r="D56" s="112"/>
@@ -6311,7 +6142,7 @@
       <c r="Y56" s="112"/>
       <c r="Z56" s="112"/>
     </row>
-    <row r="57" spans="2:26" customFormat="1" ht="16">
+    <row r="57" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="102"/>
       <c r="C57" s="112"/>
       <c r="D57" s="112"/>
@@ -6338,7 +6169,7 @@
       <c r="Y57" s="112"/>
       <c r="Z57" s="112"/>
     </row>
-    <row r="58" spans="2:26" customFormat="1" ht="16">
+    <row r="58" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="102"/>
       <c r="C58" s="112"/>
       <c r="D58" s="112"/>
@@ -6365,7 +6196,7 @@
       <c r="Y58" s="112"/>
       <c r="Z58" s="112"/>
     </row>
-    <row r="59" spans="2:26" customFormat="1" ht="16">
+    <row r="59" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="102"/>
       <c r="C59" s="112"/>
       <c r="D59" s="112"/>
@@ -6392,7 +6223,7 @@
       <c r="Y59" s="112"/>
       <c r="Z59" s="112"/>
     </row>
-    <row r="60" spans="2:26" customFormat="1" ht="16">
+    <row r="60" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="102"/>
       <c r="C60" s="112"/>
       <c r="D60" s="112"/>
@@ -6419,7 +6250,7 @@
       <c r="Y60" s="112"/>
       <c r="Z60" s="112"/>
     </row>
-    <row r="61" spans="2:26" customFormat="1" ht="16">
+    <row r="61" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="102"/>
       <c r="C61" s="112"/>
       <c r="D61" s="112"/>
@@ -6446,7 +6277,7 @@
       <c r="Y61" s="112"/>
       <c r="Z61" s="112"/>
     </row>
-    <row r="62" spans="2:26" customFormat="1" ht="16">
+    <row r="62" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="102"/>
       <c r="C62" s="112"/>
       <c r="D62" s="112"/>
@@ -6473,7 +6304,7 @@
       <c r="Y62" s="112"/>
       <c r="Z62" s="112"/>
     </row>
-    <row r="63" spans="2:26" customFormat="1" ht="16">
+    <row r="63" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="102"/>
       <c r="C63" s="112"/>
       <c r="D63" s="112"/>
@@ -6500,7 +6331,7 @@
       <c r="Y63" s="112"/>
       <c r="Z63" s="112"/>
     </row>
-    <row r="64" spans="2:26" customFormat="1" ht="16">
+    <row r="64" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="102"/>
       <c r="C64" s="112"/>
       <c r="D64" s="112"/>
@@ -6527,7 +6358,7 @@
       <c r="Y64" s="112"/>
       <c r="Z64" s="112"/>
     </row>
-    <row r="65" spans="2:26" customFormat="1" ht="16">
+    <row r="65" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="102"/>
       <c r="C65" s="112"/>
       <c r="D65" s="112"/>
@@ -6554,7 +6385,7 @@
       <c r="Y65" s="112"/>
       <c r="Z65" s="112"/>
     </row>
-    <row r="66" spans="2:26" customFormat="1" ht="16">
+    <row r="66" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="102"/>
       <c r="C66" s="112"/>
       <c r="D66" s="112"/>
@@ -6581,7 +6412,7 @@
       <c r="Y66" s="112"/>
       <c r="Z66" s="112"/>
     </row>
-    <row r="67" spans="2:26" customFormat="1" ht="16">
+    <row r="67" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="102"/>
       <c r="C67" s="112"/>
       <c r="D67" s="112" t="s">
@@ -6610,7 +6441,7 @@
       <c r="Y67" s="112"/>
       <c r="Z67" s="112"/>
     </row>
-    <row r="68" spans="2:26" s="131" customFormat="1" ht="16">
+    <row r="68" spans="2:26" s="131" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="102"/>
       <c r="C68" s="128"/>
       <c r="D68" s="128"/>
@@ -6642,7 +6473,7 @@
       <c r="Y68" s="128"/>
       <c r="Z68" s="128"/>
     </row>
-    <row r="69" spans="2:26" s="131" customFormat="1" ht="16">
+    <row r="69" spans="2:26" s="131" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="102"/>
       <c r="C69" s="128"/>
       <c r="D69" s="128"/>
@@ -6674,7 +6505,7 @@
       <c r="Y69" s="128"/>
       <c r="Z69" s="128"/>
     </row>
-    <row r="70" spans="2:26" s="131" customFormat="1" ht="16">
+    <row r="70" spans="2:26" s="131" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="102"/>
       <c r="C70" s="128"/>
       <c r="D70" s="128"/>
@@ -6706,7 +6537,7 @@
       <c r="Y70" s="128"/>
       <c r="Z70" s="128"/>
     </row>
-    <row r="71" spans="2:26" s="131" customFormat="1" ht="16">
+    <row r="71" spans="2:26" s="131" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="102"/>
       <c r="C71" s="128"/>
       <c r="D71" s="128"/>
@@ -6740,7 +6571,7 @@
       <c r="Y71" s="128"/>
       <c r="Z71" s="128"/>
     </row>
-    <row r="72" spans="2:26" s="131" customFormat="1" ht="16">
+    <row r="72" spans="2:26" s="131" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="102"/>
       <c r="C72" s="128"/>
       <c r="D72" s="128"/>
@@ -6766,7 +6597,7 @@
       <c r="Y72" s="128"/>
       <c r="Z72" s="128"/>
     </row>
-    <row r="73" spans="2:26" s="131" customFormat="1" ht="16">
+    <row r="73" spans="2:26" s="131" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="102"/>
       <c r="C73" s="128"/>
       <c r="D73" s="128"/>
@@ -6798,7 +6629,7 @@
       <c r="Y73" s="128"/>
       <c r="Z73" s="128"/>
     </row>
-    <row r="74" spans="2:26" s="131" customFormat="1" ht="16">
+    <row r="74" spans="2:26" s="131" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="102"/>
       <c r="C74" s="128"/>
       <c r="D74" s="128"/>
@@ -6830,7 +6661,7 @@
       <c r="Y74" s="128"/>
       <c r="Z74" s="128"/>
     </row>
-    <row r="75" spans="2:26" customFormat="1" ht="16">
+    <row r="75" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="102"/>
       <c r="C75" s="112"/>
       <c r="D75" s="112"/>
@@ -6856,7 +6687,7 @@
       <c r="Y75" s="112"/>
       <c r="Z75" s="112"/>
     </row>
-    <row r="76" spans="2:26" customFormat="1" ht="16">
+    <row r="76" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="102"/>
       <c r="C76" s="112"/>
       <c r="D76" s="112"/>
@@ -6890,7 +6721,7 @@
       <c r="Y76" s="112"/>
       <c r="Z76" s="112"/>
     </row>
-    <row r="77" spans="2:26" customFormat="1" ht="16">
+    <row r="77" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="102"/>
       <c r="C77" s="112"/>
       <c r="D77" s="112"/>
@@ -6924,7 +6755,7 @@
       <c r="Y77" s="112"/>
       <c r="Z77" s="112"/>
     </row>
-    <row r="78" spans="2:26" customFormat="1" ht="16">
+    <row r="78" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="102"/>
       <c r="C78" s="112"/>
       <c r="D78" s="112"/>
@@ -6951,7 +6782,7 @@
       <c r="Y78" s="112"/>
       <c r="Z78" s="112"/>
     </row>
-    <row r="79" spans="2:26" customFormat="1" ht="16">
+    <row r="79" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="102"/>
       <c r="C79" s="112"/>
       <c r="D79" s="112"/>
@@ -6978,7 +6809,7 @@
       <c r="Y79" s="112"/>
       <c r="Z79" s="112"/>
     </row>
-    <row r="80" spans="2:26" customFormat="1" ht="16">
+    <row r="80" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="102"/>
       <c r="C80" s="112"/>
       <c r="D80" s="112"/>
@@ -7005,7 +6836,7 @@
       <c r="Y80" s="112"/>
       <c r="Z80" s="112"/>
     </row>
-    <row r="81" spans="2:26" customFormat="1" ht="16">
+    <row r="81" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="102"/>
       <c r="C81" s="112"/>
       <c r="D81" s="112"/>
@@ -7032,7 +6863,7 @@
       <c r="Y81" s="112"/>
       <c r="Z81" s="112"/>
     </row>
-    <row r="82" spans="2:26" customFormat="1" ht="16">
+    <row r="82" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="102"/>
       <c r="C82" s="112"/>
       <c r="D82" s="112"/>
@@ -7059,7 +6890,7 @@
       <c r="Y82" s="112"/>
       <c r="Z82" s="112"/>
     </row>
-    <row r="83" spans="2:26" customFormat="1" ht="16">
+    <row r="83" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="102"/>
       <c r="C83" s="112"/>
       <c r="D83" s="112"/>
@@ -7086,7 +6917,7 @@
       <c r="Y83" s="112"/>
       <c r="Z83" s="112"/>
     </row>
-    <row r="84" spans="2:26" customFormat="1" ht="16">
+    <row r="84" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="102"/>
       <c r="C84" s="112"/>
       <c r="D84" s="112"/>
@@ -7113,7 +6944,7 @@
       <c r="Y84" s="112"/>
       <c r="Z84" s="112"/>
     </row>
-    <row r="85" spans="2:26" customFormat="1" ht="16">
+    <row r="85" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="102"/>
       <c r="C85" s="112"/>
       <c r="D85" s="112"/>
@@ -7140,7 +6971,7 @@
       <c r="Y85" s="112"/>
       <c r="Z85" s="112"/>
     </row>
-    <row r="86" spans="2:26" customFormat="1" ht="16">
+    <row r="86" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="102"/>
       <c r="C86" s="112"/>
       <c r="D86" s="112"/>
@@ -7167,7 +6998,7 @@
       <c r="Y86" s="112"/>
       <c r="Z86" s="112"/>
     </row>
-    <row r="87" spans="2:26" customFormat="1" ht="16">
+    <row r="87" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="102"/>
       <c r="C87" s="112"/>
       <c r="D87" s="112"/>
@@ -7194,7 +7025,7 @@
       <c r="Y87" s="112"/>
       <c r="Z87" s="112"/>
     </row>
-    <row r="88" spans="2:26" customFormat="1" ht="16">
+    <row r="88" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="102"/>
       <c r="C88" s="112"/>
       <c r="D88" s="112"/>
@@ -7221,7 +7052,7 @@
       <c r="Y88" s="112"/>
       <c r="Z88" s="112"/>
     </row>
-    <row r="89" spans="2:26" customFormat="1" ht="16">
+    <row r="89" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B89" s="102"/>
       <c r="C89" s="112"/>
       <c r="D89" s="112"/>
@@ -7248,7 +7079,7 @@
       <c r="Y89" s="112"/>
       <c r="Z89" s="112"/>
     </row>
-    <row r="90" spans="2:26" customFormat="1" ht="16">
+    <row r="90" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="102"/>
       <c r="C90" s="112"/>
       <c r="D90" s="112"/>
@@ -7275,7 +7106,7 @@
       <c r="Y90" s="112"/>
       <c r="Z90" s="112"/>
     </row>
-    <row r="91" spans="2:26" customFormat="1" ht="16">
+    <row r="91" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B91" s="102"/>
       <c r="C91" s="112"/>
       <c r="D91" s="112"/>
@@ -7302,7 +7133,7 @@
       <c r="Y91" s="112"/>
       <c r="Z91" s="112"/>
     </row>
-    <row r="92" spans="2:26" customFormat="1" ht="16">
+    <row r="92" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B92" s="102"/>
       <c r="C92" s="112"/>
       <c r="D92" s="112"/>
@@ -7329,7 +7160,7 @@
       <c r="Y92" s="112"/>
       <c r="Z92" s="112"/>
     </row>
-    <row r="93" spans="2:26" customFormat="1" ht="16">
+    <row r="93" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B93" s="102"/>
       <c r="C93" s="112"/>
       <c r="D93" s="112"/>
@@ -7356,7 +7187,7 @@
       <c r="Y93" s="112"/>
       <c r="Z93" s="112"/>
     </row>
-    <row r="94" spans="2:26" customFormat="1" ht="16">
+    <row r="94" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B94" s="102"/>
       <c r="C94" s="112"/>
       <c r="D94" s="112"/>
@@ -7383,7 +7214,7 @@
       <c r="Y94" s="112"/>
       <c r="Z94" s="112"/>
     </row>
-    <row r="95" spans="2:26" customFormat="1" ht="16">
+    <row r="95" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B95" s="102"/>
       <c r="C95" s="112"/>
       <c r="D95" s="112"/>
@@ -7410,7 +7241,7 @@
       <c r="Y95" s="112"/>
       <c r="Z95" s="112"/>
     </row>
-    <row r="96" spans="2:26" customFormat="1" ht="16">
+    <row r="96" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B96" s="102"/>
       <c r="C96" s="112"/>
       <c r="D96" s="112"/>
@@ -7437,7 +7268,7 @@
       <c r="Y96" s="112"/>
       <c r="Z96" s="112"/>
     </row>
-    <row r="97" spans="2:26" customFormat="1" ht="16">
+    <row r="97" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B97" s="102"/>
       <c r="C97" s="112"/>
       <c r="D97" s="112"/>
@@ -7464,7 +7295,7 @@
       <c r="Y97" s="112"/>
       <c r="Z97" s="112"/>
     </row>
-    <row r="98" spans="2:26" customFormat="1" ht="16">
+    <row r="98" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B98" s="102"/>
       <c r="C98" s="112"/>
       <c r="D98" s="112"/>
@@ -7491,7 +7322,7 @@
       <c r="Y98" s="112"/>
       <c r="Z98" s="112"/>
     </row>
-    <row r="99" spans="2:26" customFormat="1" ht="16">
+    <row r="99" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B99" s="102"/>
       <c r="C99" s="112"/>
       <c r="D99" s="112"/>
@@ -7518,7 +7349,7 @@
       <c r="Y99" s="112"/>
       <c r="Z99" s="112"/>
     </row>
-    <row r="100" spans="2:26" customFormat="1" ht="16">
+    <row r="100" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B100" s="102"/>
       <c r="C100" s="112"/>
       <c r="D100" s="112"/>
@@ -7545,7 +7376,7 @@
       <c r="Y100" s="112"/>
       <c r="Z100" s="112"/>
     </row>
-    <row r="101" spans="2:26" customFormat="1" ht="16">
+    <row r="101" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B101" s="102"/>
       <c r="C101" s="112"/>
       <c r="D101" s="112"/>
@@ -7572,7 +7403,7 @@
       <c r="Y101" s="112"/>
       <c r="Z101" s="112"/>
     </row>
-    <row r="102" spans="2:26" customFormat="1" ht="16">
+    <row r="102" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B102" s="102"/>
       <c r="C102" s="112"/>
       <c r="D102" s="112"/>
@@ -7599,7 +7430,7 @@
       <c r="Y102" s="112"/>
       <c r="Z102" s="112"/>
     </row>
-    <row r="103" spans="2:26" customFormat="1" ht="16">
+    <row r="103" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B103" s="102"/>
       <c r="C103" s="112"/>
       <c r="D103" s="112"/>
@@ -7626,7 +7457,7 @@
       <c r="Y103" s="112"/>
       <c r="Z103" s="112"/>
     </row>
-    <row r="104" spans="2:26" customFormat="1" ht="16">
+    <row r="104" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B104" s="102"/>
       <c r="C104" s="112"/>
       <c r="D104" s="112"/>
@@ -7653,7 +7484,7 @@
       <c r="Y104" s="112"/>
       <c r="Z104" s="112"/>
     </row>
-    <row r="105" spans="2:26" customFormat="1" ht="16">
+    <row r="105" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B105" s="102"/>
       <c r="C105" s="112"/>
       <c r="D105" s="112"/>
@@ -7680,7 +7511,7 @@
       <c r="Y105" s="112"/>
       <c r="Z105" s="112"/>
     </row>
-    <row r="106" spans="2:26" customFormat="1" ht="16">
+    <row r="106" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B106" s="102"/>
       <c r="C106" s="112"/>
       <c r="D106" s="112"/>
@@ -7707,7 +7538,7 @@
       <c r="Y106" s="112"/>
       <c r="Z106" s="112"/>
     </row>
-    <row r="107" spans="2:26" customFormat="1" ht="16">
+    <row r="107" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B107" s="102"/>
       <c r="C107" s="112"/>
       <c r="D107" s="112"/>
@@ -7734,7 +7565,7 @@
       <c r="Y107" s="112"/>
       <c r="Z107" s="112"/>
     </row>
-    <row r="108" spans="2:26" customFormat="1" ht="16">
+    <row r="108" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B108" s="102"/>
       <c r="C108" s="112"/>
       <c r="D108" s="112"/>
@@ -7761,7 +7592,7 @@
       <c r="Y108" s="112"/>
       <c r="Z108" s="112"/>
     </row>
-    <row r="109" spans="2:26" customFormat="1" ht="16">
+    <row r="109" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B109" s="102"/>
       <c r="C109" s="112"/>
       <c r="D109" s="112"/>
@@ -7788,7 +7619,7 @@
       <c r="Y109" s="112"/>
       <c r="Z109" s="112"/>
     </row>
-    <row r="110" spans="2:26" customFormat="1" ht="16">
+    <row r="110" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B110" s="102"/>
       <c r="C110" s="112"/>
       <c r="D110" s="112"/>
@@ -7815,7 +7646,7 @@
       <c r="Y110" s="112"/>
       <c r="Z110" s="112"/>
     </row>
-    <row r="111" spans="2:26" customFormat="1" ht="16">
+    <row r="111" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B111" s="102"/>
       <c r="C111" s="112"/>
       <c r="D111" s="112"/>
@@ -7842,7 +7673,7 @@
       <c r="Y111" s="112"/>
       <c r="Z111" s="112"/>
     </row>
-    <row r="112" spans="2:26" customFormat="1" ht="16">
+    <row r="112" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B112" s="102"/>
       <c r="C112" s="112"/>
       <c r="D112" s="112"/>
@@ -7869,7 +7700,7 @@
       <c r="Y112" s="112"/>
       <c r="Z112" s="112"/>
     </row>
-    <row r="113" spans="2:26" customFormat="1" ht="16">
+    <row r="113" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B113" s="102"/>
       <c r="C113" s="112"/>
       <c r="D113" s="112"/>
@@ -7896,7 +7727,7 @@
       <c r="Y113" s="112"/>
       <c r="Z113" s="112"/>
     </row>
-    <row r="114" spans="2:26" customFormat="1" ht="16">
+    <row r="114" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B114" s="102"/>
       <c r="C114" s="112"/>
       <c r="D114" s="112"/>
@@ -7923,7 +7754,7 @@
       <c r="Y114" s="112"/>
       <c r="Z114" s="112"/>
     </row>
-    <row r="115" spans="2:26" customFormat="1" ht="16">
+    <row r="115" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B115" s="102"/>
       <c r="C115" s="112"/>
       <c r="D115" s="112"/>
@@ -7950,7 +7781,7 @@
       <c r="Y115" s="112"/>
       <c r="Z115" s="112"/>
     </row>
-    <row r="116" spans="2:26" customFormat="1" ht="16">
+    <row r="116" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B116" s="102"/>
       <c r="C116" s="112"/>
       <c r="D116" s="112"/>
@@ -7977,7 +7808,7 @@
       <c r="Y116" s="112"/>
       <c r="Z116" s="112"/>
     </row>
-    <row r="117" spans="2:26" customFormat="1" ht="16">
+    <row r="117" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B117" s="102"/>
       <c r="C117" s="112"/>
       <c r="D117" s="112"/>
@@ -8004,7 +7835,7 @@
       <c r="Y117" s="112"/>
       <c r="Z117" s="112"/>
     </row>
-    <row r="118" spans="2:26" customFormat="1" ht="16">
+    <row r="118" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B118" s="102"/>
       <c r="C118" s="112"/>
       <c r="D118" s="112"/>
@@ -8031,7 +7862,7 @@
       <c r="Y118" s="112"/>
       <c r="Z118" s="112"/>
     </row>
-    <row r="119" spans="2:26" customFormat="1" ht="16">
+    <row r="119" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B119" s="102"/>
       <c r="C119" s="112"/>
       <c r="D119" s="112"/>
@@ -8058,7 +7889,7 @@
       <c r="Y119" s="112"/>
       <c r="Z119" s="112"/>
     </row>
-    <row r="120" spans="2:26" customFormat="1" ht="16">
+    <row r="120" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B120" s="102"/>
       <c r="C120" s="112"/>
       <c r="D120" s="112"/>
@@ -8085,7 +7916,7 @@
       <c r="Y120" s="112"/>
       <c r="Z120" s="112"/>
     </row>
-    <row r="121" spans="2:26" customFormat="1" ht="16">
+    <row r="121" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B121" s="102"/>
       <c r="C121" s="112"/>
       <c r="D121" s="112"/>
@@ -8112,7 +7943,7 @@
       <c r="Y121" s="112"/>
       <c r="Z121" s="112"/>
     </row>
-    <row r="122" spans="2:26" customFormat="1" ht="16">
+    <row r="122" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B122" s="102"/>
       <c r="C122" s="112"/>
       <c r="D122" s="112"/>
@@ -8139,7 +7970,7 @@
       <c r="Y122" s="112"/>
       <c r="Z122" s="112"/>
     </row>
-    <row r="123" spans="2:26" customFormat="1" ht="16">
+    <row r="123" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B123" s="102"/>
       <c r="C123" s="112"/>
       <c r="D123" s="112"/>
@@ -8166,7 +7997,7 @@
       <c r="Y123" s="112"/>
       <c r="Z123" s="112"/>
     </row>
-    <row r="124" spans="2:26" customFormat="1" ht="16">
+    <row r="124" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B124" s="102"/>
       <c r="C124" s="112"/>
       <c r="D124" s="112"/>
@@ -8193,7 +8024,7 @@
       <c r="Y124" s="112"/>
       <c r="Z124" s="112"/>
     </row>
-    <row r="125" spans="2:26" customFormat="1" ht="16">
+    <row r="125" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B125" s="102"/>
       <c r="C125" s="112"/>
       <c r="D125" s="112"/>
@@ -8220,7 +8051,7 @@
       <c r="Y125" s="112"/>
       <c r="Z125" s="112"/>
     </row>
-    <row r="126" spans="2:26" customFormat="1" ht="16">
+    <row r="126" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B126" s="102"/>
       <c r="C126" s="112"/>
       <c r="D126" s="112"/>
@@ -8247,7 +8078,7 @@
       <c r="Y126" s="112"/>
       <c r="Z126" s="112"/>
     </row>
-    <row r="127" spans="2:26" customFormat="1" ht="16">
+    <row r="127" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B127" s="102"/>
       <c r="C127" s="112"/>
       <c r="D127" s="112"/>
@@ -8274,7 +8105,7 @@
       <c r="Y127" s="112"/>
       <c r="Z127" s="112"/>
     </row>
-    <row r="128" spans="2:26" customFormat="1" ht="16">
+    <row r="128" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B128" s="102"/>
       <c r="C128" s="112"/>
       <c r="D128" s="112"/>
@@ -8303,7 +8134,7 @@
       <c r="Y128" s="112"/>
       <c r="Z128" s="112"/>
     </row>
-    <row r="129" spans="2:26" customFormat="1" ht="16">
+    <row r="129" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B129" s="102"/>
       <c r="C129" s="112"/>
       <c r="D129" s="112"/>
@@ -8330,7 +8161,7 @@
       <c r="Y129" s="112"/>
       <c r="Z129" s="112"/>
     </row>
-    <row r="130" spans="2:26" customFormat="1" ht="16">
+    <row r="130" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B130" s="102"/>
       <c r="C130" s="112"/>
       <c r="D130" s="112"/>
@@ -8359,7 +8190,7 @@
       <c r="Y130" s="112"/>
       <c r="Z130" s="112"/>
     </row>
-    <row r="131" spans="2:26" customFormat="1" ht="16">
+    <row r="131" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B131" s="102"/>
       <c r="C131" s="112"/>
       <c r="D131" s="112"/>
@@ -8386,7 +8217,7 @@
       <c r="Y131" s="112"/>
       <c r="Z131" s="112"/>
     </row>
-    <row r="132" spans="2:26" customFormat="1" ht="16">
+    <row r="132" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B132" s="102"/>
       <c r="C132" s="112"/>
       <c r="D132" s="112"/>
@@ -8415,7 +8246,7 @@
       <c r="Y132" s="112"/>
       <c r="Z132" s="112"/>
     </row>
-    <row r="133" spans="2:26" customFormat="1" ht="16">
+    <row r="133" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B133" s="102"/>
       <c r="C133" s="112"/>
       <c r="D133" s="112"/>
@@ -8444,7 +8275,7 @@
       <c r="Y133" s="112"/>
       <c r="Z133" s="112"/>
     </row>
-    <row r="134" spans="2:26" customFormat="1" ht="16">
+    <row r="134" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B134" s="102"/>
       <c r="C134" s="112"/>
       <c r="D134" s="112"/>
@@ -8473,7 +8304,7 @@
       <c r="Y134" s="112"/>
       <c r="Z134" s="112"/>
     </row>
-    <row r="135" spans="2:26" customFormat="1" ht="16">
+    <row r="135" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B135" s="102"/>
       <c r="C135" s="112"/>
       <c r="D135" s="112"/>
@@ -8503,7 +8334,7 @@
       <c r="Y135" s="112"/>
       <c r="Z135" s="112"/>
     </row>
-    <row r="136" spans="2:26" customFormat="1" ht="16">
+    <row r="136" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B136" s="102"/>
       <c r="C136" s="112"/>
       <c r="D136" s="142"/>
@@ -8530,7 +8361,7 @@
       <c r="Y136" s="112"/>
       <c r="Z136" s="112"/>
     </row>
-    <row r="137" spans="2:26" customFormat="1" ht="16">
+    <row r="137" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B137" s="102"/>
       <c r="C137" s="112"/>
       <c r="D137" s="112"/>
@@ -8557,7 +8388,7 @@
       <c r="Y137" s="112"/>
       <c r="Z137" s="112"/>
     </row>
-    <row r="138" spans="2:26" customFormat="1" ht="16">
+    <row r="138" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B138" s="102"/>
       <c r="C138" s="112"/>
       <c r="D138" s="112"/>
@@ -8584,7 +8415,7 @@
       <c r="Y138" s="112"/>
       <c r="Z138" s="112"/>
     </row>
-    <row r="139" spans="2:26" customFormat="1" ht="16">
+    <row r="139" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B139" s="102"/>
       <c r="C139" s="112"/>
       <c r="D139" s="112"/>
@@ -8611,7 +8442,7 @@
       <c r="Y139" s="112"/>
       <c r="Z139" s="112"/>
     </row>
-    <row r="140" spans="2:26" customFormat="1" ht="16">
+    <row r="140" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B140" s="102"/>
       <c r="C140" s="112"/>
       <c r="D140" s="112"/>
@@ -8640,7 +8471,7 @@
       <c r="Y140" s="112"/>
       <c r="Z140" s="112"/>
     </row>
-    <row r="141" spans="2:26" customFormat="1" ht="16">
+    <row r="141" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B141" s="102"/>
       <c r="C141" s="112"/>
       <c r="D141" s="112" t="s">
@@ -8674,7 +8505,7 @@
       <c r="Y141" s="112"/>
       <c r="Z141" s="112"/>
     </row>
-    <row r="142" spans="2:26" customFormat="1" ht="16">
+    <row r="142" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B142" s="102"/>
       <c r="C142" s="112"/>
       <c r="D142" s="112"/>
@@ -8701,7 +8532,7 @@
       <c r="Y142" s="112"/>
       <c r="Z142" s="112"/>
     </row>
-    <row r="143" spans="2:26" customFormat="1" ht="16">
+    <row r="143" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B143" s="102"/>
       <c r="C143" s="112"/>
       <c r="D143" s="112"/>
@@ -8733,7 +8564,7 @@
       <c r="Y143" s="112"/>
       <c r="Z143" s="112"/>
     </row>
-    <row r="144" spans="2:26" customFormat="1" ht="16">
+    <row r="144" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B144" s="102"/>
       <c r="C144" s="112"/>
       <c r="D144" s="112"/>
@@ -8765,7 +8596,7 @@
       <c r="Y144" s="112"/>
       <c r="Z144" s="112"/>
     </row>
-    <row r="145" spans="1:26" customFormat="1" ht="16">
+    <row r="145" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B145" s="102"/>
       <c r="C145" s="112"/>
       <c r="D145" s="112"/>
@@ -8800,7 +8631,7 @@
       <c r="Y145" s="112"/>
       <c r="Z145" s="112"/>
     </row>
-    <row r="146" spans="1:26" customFormat="1" ht="16">
+    <row r="146" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B146" s="102"/>
       <c r="C146" s="112"/>
       <c r="D146" s="112"/>
@@ -8832,7 +8663,7 @@
       <c r="Y146" s="112"/>
       <c r="Z146" s="112"/>
     </row>
-    <row r="147" spans="1:26" customFormat="1" ht="16">
+    <row r="147" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B147" s="102"/>
       <c r="C147" s="112"/>
       <c r="D147" s="112"/>
@@ -8859,7 +8690,7 @@
       <c r="Y147" s="112"/>
       <c r="Z147" s="112"/>
     </row>
-    <row r="148" spans="1:26" customFormat="1" ht="17" thickBot="1">
+    <row r="148" spans="1:26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B148" s="102"/>
       <c r="C148" s="112"/>
       <c r="D148" s="112"/>
@@ -8886,7 +8717,7 @@
       <c r="Y148" s="112"/>
       <c r="Z148" s="112"/>
     </row>
-    <row r="149" spans="1:26" customFormat="1" ht="16">
+    <row r="149" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="20"/>
       <c r="B149" s="105" t="s">
         <v>24</v>
@@ -8920,7 +8751,7 @@
       <c r="Y149" s="112"/>
       <c r="Z149" s="112"/>
     </row>
-    <row r="150" spans="1:26" customFormat="1" ht="16">
+    <row r="150" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="170"/>
       <c r="B150" s="112"/>
       <c r="C150" s="112"/>
@@ -8948,10 +8779,10 @@
       <c r="Y150" s="112"/>
       <c r="Z150" s="112"/>
     </row>
-    <row r="151" spans="1:26" customFormat="1" ht="16">
+    <row r="151" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="170"/>
       <c r="B151" s="112" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C151" s="112"/>
       <c r="D151" s="112"/>
@@ -8978,7 +8809,7 @@
       <c r="Y151" s="112"/>
       <c r="Z151" s="112"/>
     </row>
-    <row r="152" spans="1:26" customFormat="1" ht="16">
+    <row r="152" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="170"/>
       <c r="B152" s="112"/>
       <c r="C152" s="160"/>
@@ -9006,7 +8837,7 @@
       <c r="Y152" s="112"/>
       <c r="Z152" s="112"/>
     </row>
-    <row r="153" spans="1:26" customFormat="1" ht="16">
+    <row r="153" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="170"/>
       <c r="B153" s="112"/>
       <c r="C153" s="163"/>
@@ -9034,7 +8865,7 @@
       <c r="Y153" s="112"/>
       <c r="Z153" s="112"/>
     </row>
-    <row r="154" spans="1:26" customFormat="1" ht="16">
+    <row r="154" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="170"/>
       <c r="B154" s="112"/>
       <c r="C154" s="163"/>
@@ -9062,7 +8893,7 @@
       <c r="Y154" s="112"/>
       <c r="Z154" s="112"/>
     </row>
-    <row r="155" spans="1:26" customFormat="1" ht="16">
+    <row r="155" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="170"/>
       <c r="B155" s="112"/>
       <c r="C155" s="162"/>
@@ -9090,7 +8921,7 @@
       <c r="Y155" s="112"/>
       <c r="Z155" s="112"/>
     </row>
-    <row r="156" spans="1:26" customFormat="1" ht="16">
+    <row r="156" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="170"/>
       <c r="B156" s="112"/>
       <c r="C156" s="162"/>
@@ -9118,7 +8949,7 @@
       <c r="Y156" s="112"/>
       <c r="Z156" s="112"/>
     </row>
-    <row r="157" spans="1:26" customFormat="1" ht="16">
+    <row r="157" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="170"/>
       <c r="B157" s="112"/>
       <c r="C157" s="162"/>
@@ -9146,7 +8977,7 @@
       <c r="Y157" s="112"/>
       <c r="Z157" s="112"/>
     </row>
-    <row r="158" spans="1:26" customFormat="1" ht="16">
+    <row r="158" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="170"/>
       <c r="B158" s="112"/>
       <c r="C158" s="162"/>
@@ -9174,7 +9005,7 @@
       <c r="Y158" s="112"/>
       <c r="Z158" s="112"/>
     </row>
-    <row r="159" spans="1:26" customFormat="1" ht="16">
+    <row r="159" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="170"/>
       <c r="B159" s="112"/>
       <c r="C159" s="163"/>
@@ -9202,7 +9033,7 @@
       <c r="Y159" s="112"/>
       <c r="Z159" s="112"/>
     </row>
-    <row r="160" spans="1:26" customFormat="1" ht="16">
+    <row r="160" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="170"/>
       <c r="B160" s="112"/>
       <c r="C160" s="163"/>
@@ -9230,7 +9061,7 @@
       <c r="Y160" s="112"/>
       <c r="Z160" s="112"/>
     </row>
-    <row r="161" spans="1:26" customFormat="1" ht="16">
+    <row r="161" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="170"/>
       <c r="B161" s="112"/>
       <c r="C161" s="163"/>
@@ -9258,7 +9089,7 @@
       <c r="Y161" s="112"/>
       <c r="Z161" s="112"/>
     </row>
-    <row r="162" spans="1:26" customFormat="1" ht="16">
+    <row r="162" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="170"/>
       <c r="B162" s="112"/>
       <c r="C162" s="163"/>
@@ -9286,7 +9117,7 @@
       <c r="Y162" s="112"/>
       <c r="Z162" s="112"/>
     </row>
-    <row r="163" spans="1:26" customFormat="1" ht="16">
+    <row r="163" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="170"/>
       <c r="B163" s="112"/>
       <c r="C163" s="163"/>
@@ -9314,7 +9145,7 @@
       <c r="Y163" s="112"/>
       <c r="Z163" s="112"/>
     </row>
-    <row r="164" spans="1:26" customFormat="1" ht="16">
+    <row r="164" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="170"/>
       <c r="B164" s="112"/>
       <c r="C164" s="162"/>
@@ -9342,7 +9173,7 @@
       <c r="Y164" s="112"/>
       <c r="Z164" s="112"/>
     </row>
-    <row r="165" spans="1:26" customFormat="1" ht="16">
+    <row r="165" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="170"/>
       <c r="B165" s="112"/>
       <c r="C165" s="162"/>
@@ -9370,7 +9201,7 @@
       <c r="Y165" s="112"/>
       <c r="Z165" s="112"/>
     </row>
-    <row r="166" spans="1:26" customFormat="1" ht="16">
+    <row r="166" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="170"/>
       <c r="B166" s="112"/>
       <c r="C166" s="163">
@@ -9406,7 +9237,7 @@
       <c r="Y166" s="112"/>
       <c r="Z166" s="112"/>
     </row>
-    <row r="167" spans="1:26" customFormat="1" ht="16">
+    <row r="167" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="170"/>
       <c r="B167" s="112"/>
       <c r="C167" s="163"/>
@@ -9440,7 +9271,7 @@
       <c r="Y167" s="112"/>
       <c r="Z167" s="112"/>
     </row>
-    <row r="168" spans="1:26" customFormat="1" ht="16">
+    <row r="168" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="170"/>
       <c r="B168" s="112"/>
       <c r="C168" s="163"/>
@@ -9475,7 +9306,7 @@
       <c r="Y168" s="112"/>
       <c r="Z168" s="112"/>
     </row>
-    <row r="169" spans="1:26" customFormat="1" ht="16">
+    <row r="169" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="170"/>
       <c r="B169" s="112"/>
       <c r="C169" s="163"/>
@@ -9509,7 +9340,7 @@
       <c r="Y169" s="112"/>
       <c r="Z169" s="112"/>
     </row>
-    <row r="170" spans="1:26" customFormat="1" ht="16">
+    <row r="170" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="170"/>
       <c r="B170" s="112"/>
       <c r="C170" s="112"/>
@@ -9537,7 +9368,7 @@
       <c r="Y170" s="112"/>
       <c r="Z170" s="112"/>
     </row>
-    <row r="171" spans="1:26" customFormat="1" ht="16">
+    <row r="171" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="170"/>
       <c r="B171" s="112"/>
       <c r="C171" s="112"/>
@@ -9565,7 +9396,7 @@
       <c r="Y171" s="112"/>
       <c r="Z171" s="112"/>
     </row>
-    <row r="172" spans="1:26" customFormat="1" ht="16">
+    <row r="172" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="170"/>
       <c r="B172" s="112"/>
       <c r="C172" s="112"/>
@@ -9574,10 +9405,10 @@
         <v>55.1</v>
       </c>
       <c r="F172" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="G172" s="163" t="s">
         <v>162</v>
-      </c>
-      <c r="G172" s="163" t="s">
-        <v>163</v>
       </c>
       <c r="H172" s="163"/>
       <c r="I172" s="112"/>
@@ -9599,7 +9430,7 @@
       <c r="Y172" s="112"/>
       <c r="Z172" s="112"/>
     </row>
-    <row r="173" spans="1:26" customFormat="1" ht="16">
+    <row r="173" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="170"/>
       <c r="B173" s="112"/>
       <c r="C173" s="112"/>
@@ -9627,7 +9458,7 @@
       <c r="Y173" s="112"/>
       <c r="Z173" s="112"/>
     </row>
-    <row r="174" spans="1:26" customFormat="1" ht="16">
+    <row r="174" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="170"/>
       <c r="B174" s="112"/>
       <c r="C174" s="112"/>
@@ -9655,7 +9486,7 @@
       <c r="Y174" s="112"/>
       <c r="Z174" s="112"/>
     </row>
-    <row r="175" spans="1:26" customFormat="1" ht="16">
+    <row r="175" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="170"/>
       <c r="B175" s="112"/>
       <c r="C175" s="112"/>
@@ -9683,7 +9514,7 @@
       <c r="Y175" s="112"/>
       <c r="Z175" s="112"/>
     </row>
-    <row r="176" spans="1:26" customFormat="1" ht="16">
+    <row r="176" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="170"/>
       <c r="T176" s="112"/>
       <c r="U176" s="112"/>
@@ -9693,7 +9524,7 @@
       <c r="Y176" s="112"/>
       <c r="Z176" s="112"/>
     </row>
-    <row r="177" spans="1:26" customFormat="1" ht="17" thickBot="1">
+    <row r="177" spans="1:26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" s="170"/>
       <c r="K177" s="171"/>
       <c r="L177" s="171"/>
@@ -9712,7 +9543,7 @@
       <c r="Y177" s="112"/>
       <c r="Z177" s="112"/>
     </row>
-    <row r="178" spans="1:26" customFormat="1" ht="16">
+    <row r="178" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="24"/>
       <c r="B178" s="104"/>
       <c r="C178" s="105" t="s">
@@ -9737,7 +9568,7 @@
       <c r="Y178" s="112"/>
       <c r="Z178" s="112"/>
     </row>
-    <row r="179" spans="1:26" customFormat="1" ht="16">
+    <row r="179" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="101"/>
       <c r="B179" s="102"/>
       <c r="C179" s="103"/>
@@ -9756,7 +9587,7 @@
       <c r="Y179" s="112"/>
       <c r="Z179" s="112"/>
     </row>
-    <row r="180" spans="1:26" customFormat="1" ht="16">
+    <row r="180" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B180" s="102"/>
       <c r="C180" s="112"/>
       <c r="D180" s="112"/>
@@ -9783,10 +9614,10 @@
       <c r="Y180" s="112"/>
       <c r="Z180" s="112"/>
     </row>
-    <row r="181" spans="1:26" customFormat="1" ht="16">
+    <row r="181" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B181" s="102"/>
       <c r="C181" s="112" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D181" s="112"/>
       <c r="E181" s="112"/>
@@ -9812,7 +9643,7 @@
       <c r="Y181" s="112"/>
       <c r="Z181" s="112"/>
     </row>
-    <row r="182" spans="1:26" customFormat="1" ht="16">
+    <row r="182" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B182" s="102"/>
       <c r="C182" s="112"/>
       <c r="D182" s="112"/>
@@ -9839,7 +9670,7 @@
       <c r="Y182" s="112"/>
       <c r="Z182" s="112"/>
     </row>
-    <row r="183" spans="1:26" customFormat="1" ht="16">
+    <row r="183" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B183" s="102"/>
       <c r="C183" s="112"/>
       <c r="D183" s="112">
@@ -9868,7 +9699,7 @@
       <c r="Y183" s="112"/>
       <c r="Z183" s="112"/>
     </row>
-    <row r="184" spans="1:26" customFormat="1" ht="16">
+    <row r="184" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B184" s="102"/>
       <c r="C184" s="112"/>
       <c r="D184" s="112"/>
@@ -9895,7 +9726,7 @@
       <c r="Y184" s="112"/>
       <c r="Z184" s="112"/>
     </row>
-    <row r="185" spans="1:26" customFormat="1" ht="16">
+    <row r="185" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B185" s="102"/>
       <c r="C185" s="112"/>
       <c r="D185" s="112"/>
@@ -9922,7 +9753,7 @@
       <c r="Y185" s="112"/>
       <c r="Z185" s="112"/>
     </row>
-    <row r="186" spans="1:26" customFormat="1" ht="16">
+    <row r="186" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B186" s="102"/>
       <c r="C186" s="112"/>
       <c r="D186" s="112"/>
@@ -9949,7 +9780,7 @@
       <c r="Y186" s="112"/>
       <c r="Z186" s="112"/>
     </row>
-    <row r="187" spans="1:26" customFormat="1" ht="16">
+    <row r="187" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B187" s="102"/>
       <c r="C187" s="112"/>
       <c r="D187" s="112"/>
@@ -9976,7 +9807,7 @@
       <c r="Y187" s="112"/>
       <c r="Z187" s="112"/>
     </row>
-    <row r="188" spans="1:26" customFormat="1" ht="16">
+    <row r="188" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B188" s="102"/>
       <c r="C188" s="112"/>
       <c r="D188" s="112"/>
@@ -10003,7 +9834,7 @@
       <c r="Y188" s="112"/>
       <c r="Z188" s="112"/>
     </row>
-    <row r="189" spans="1:26" customFormat="1" ht="16">
+    <row r="189" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B189" s="102"/>
       <c r="C189" s="112"/>
       <c r="D189" s="112"/>
@@ -10030,7 +9861,7 @@
       <c r="Y189" s="112"/>
       <c r="Z189" s="112"/>
     </row>
-    <row r="190" spans="1:26" customFormat="1" ht="16">
+    <row r="190" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B190" s="102"/>
       <c r="C190" s="112"/>
       <c r="D190" s="112"/>
@@ -10057,7 +9888,7 @@
       <c r="Y190" s="112"/>
       <c r="Z190" s="112"/>
     </row>
-    <row r="191" spans="1:26" customFormat="1" ht="16">
+    <row r="191" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B191" s="102"/>
       <c r="C191" s="112"/>
       <c r="D191" s="112"/>
@@ -10084,7 +9915,7 @@
       <c r="Y191" s="112"/>
       <c r="Z191" s="112"/>
     </row>
-    <row r="192" spans="1:26" customFormat="1" ht="16">
+    <row r="192" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B192" s="102"/>
       <c r="C192" s="112"/>
       <c r="D192" s="112"/>
@@ -10111,7 +9942,7 @@
       <c r="Y192" s="112"/>
       <c r="Z192" s="112"/>
     </row>
-    <row r="193" spans="2:26" customFormat="1" ht="16">
+    <row r="193" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B193" s="102"/>
       <c r="C193" s="112"/>
       <c r="D193" s="112"/>
@@ -10138,7 +9969,7 @@
       <c r="Y193" s="112"/>
       <c r="Z193" s="112"/>
     </row>
-    <row r="194" spans="2:26" customFormat="1" ht="16">
+    <row r="194" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B194" s="102"/>
       <c r="C194" s="112"/>
       <c r="D194" s="112"/>
@@ -10147,7 +9978,7 @@
         <v>17</v>
       </c>
       <c r="G194" s="112" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H194" s="112"/>
       <c r="I194" s="112"/>
@@ -10169,7 +10000,7 @@
       <c r="Y194" s="112"/>
       <c r="Z194" s="112"/>
     </row>
-    <row r="195" spans="2:26" customFormat="1" ht="16">
+    <row r="195" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B195" s="102"/>
       <c r="C195" s="112"/>
       <c r="D195" s="112"/>
@@ -10179,7 +10010,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="G195" s="112" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H195" s="112"/>
       <c r="I195" s="112"/>
@@ -10201,7 +10032,7 @@
       <c r="Y195" s="112"/>
       <c r="Z195" s="112"/>
     </row>
-    <row r="196" spans="2:26" customFormat="1" ht="16">
+    <row r="196" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B196" s="102"/>
       <c r="C196" s="112"/>
       <c r="D196" s="112"/>
@@ -10228,7 +10059,7 @@
       <c r="Y196" s="112"/>
       <c r="Z196" s="112"/>
     </row>
-    <row r="197" spans="2:26" customFormat="1" ht="16">
+    <row r="197" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B197" s="102"/>
       <c r="C197" s="112"/>
       <c r="D197" s="112"/>
@@ -10255,7 +10086,7 @@
       <c r="Y197" s="112"/>
       <c r="Z197" s="112"/>
     </row>
-    <row r="198" spans="2:26" customFormat="1" ht="16">
+    <row r="198" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B198" s="102"/>
       <c r="C198" s="112"/>
       <c r="D198" s="112"/>
@@ -10282,7 +10113,7 @@
       <c r="Y198" s="112"/>
       <c r="Z198" s="112"/>
     </row>
-    <row r="199" spans="2:26" customFormat="1" ht="16">
+    <row r="199" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B199" s="102"/>
       <c r="C199" s="112"/>
       <c r="D199" s="112"/>
@@ -10309,7 +10140,7 @@
       <c r="Y199" s="112"/>
       <c r="Z199" s="112"/>
     </row>
-    <row r="200" spans="2:26" customFormat="1" ht="16">
+    <row r="200" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B200" s="102"/>
       <c r="C200" s="112"/>
       <c r="D200" s="112"/>
@@ -10336,7 +10167,7 @@
       <c r="Y200" s="112"/>
       <c r="Z200" s="112"/>
     </row>
-    <row r="201" spans="2:26" customFormat="1" ht="16">
+    <row r="201" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B201" s="102"/>
       <c r="C201" s="112"/>
       <c r="D201" s="112"/>
@@ -10363,7 +10194,7 @@
       <c r="Y201" s="112"/>
       <c r="Z201" s="112"/>
     </row>
-    <row r="202" spans="2:26" customFormat="1" ht="16">
+    <row r="202" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B202" s="102"/>
       <c r="C202" s="112"/>
       <c r="D202" s="112"/>
@@ -10390,7 +10221,7 @@
       <c r="Y202" s="112"/>
       <c r="Z202" s="112"/>
     </row>
-    <row r="203" spans="2:26" customFormat="1" ht="16">
+    <row r="203" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B203" s="102"/>
       <c r="C203" s="112"/>
       <c r="D203" s="112"/>
@@ -10417,7 +10248,7 @@
       <c r="Y203" s="112"/>
       <c r="Z203" s="112"/>
     </row>
-    <row r="204" spans="2:26" customFormat="1" ht="16">
+    <row r="204" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B204" s="102"/>
       <c r="C204" s="112"/>
       <c r="D204" s="112"/>
@@ -10444,7 +10275,7 @@
       <c r="Y204" s="112"/>
       <c r="Z204" s="112"/>
     </row>
-    <row r="205" spans="2:26" customFormat="1" ht="16">
+    <row r="205" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B205" s="102"/>
       <c r="C205" s="112"/>
       <c r="D205" s="112"/>
@@ -10471,7 +10302,7 @@
       <c r="Y205" s="112"/>
       <c r="Z205" s="112"/>
     </row>
-    <row r="206" spans="2:26" customFormat="1" ht="16">
+    <row r="206" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B206" s="102"/>
       <c r="C206" s="112"/>
       <c r="D206" s="112"/>
@@ -10498,7 +10329,7 @@
       <c r="Y206" s="112"/>
       <c r="Z206" s="112"/>
     </row>
-    <row r="207" spans="2:26" customFormat="1" ht="16">
+    <row r="207" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B207" s="102"/>
       <c r="C207" s="112"/>
       <c r="D207" s="112"/>
@@ -10525,7 +10356,7 @@
       <c r="Y207" s="112"/>
       <c r="Z207" s="112"/>
     </row>
-    <row r="208" spans="2:26" customFormat="1" ht="16">
+    <row r="208" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B208" s="102"/>
       <c r="C208" s="112"/>
       <c r="D208" s="112"/>
@@ -10552,7 +10383,7 @@
       <c r="Y208" s="112"/>
       <c r="Z208" s="112"/>
     </row>
-    <row r="209" spans="2:35" customFormat="1" ht="16">
+    <row r="209" spans="2:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B209" s="102"/>
       <c r="C209" s="112"/>
       <c r="D209" s="112"/>
@@ -10579,7 +10410,7 @@
       <c r="Y209" s="112"/>
       <c r="Z209" s="112"/>
     </row>
-    <row r="210" spans="2:35" customFormat="1" ht="16">
+    <row r="210" spans="2:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B210" s="102"/>
       <c r="C210" s="112"/>
       <c r="D210" s="112"/>
@@ -10606,7 +10437,7 @@
       <c r="Y210" s="112"/>
       <c r="Z210" s="112"/>
     </row>
-    <row r="211" spans="2:35" customFormat="1" ht="16">
+    <row r="211" spans="2:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B211" s="102"/>
       <c r="C211" s="112"/>
       <c r="D211" s="112"/>
@@ -10633,7 +10464,7 @@
       <c r="Y211" s="112"/>
       <c r="Z211" s="112"/>
     </row>
-    <row r="212" spans="2:35" customFormat="1" ht="16">
+    <row r="212" spans="2:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B212" s="102"/>
       <c r="C212" s="112"/>
       <c r="D212" s="112"/>
@@ -10660,7 +10491,7 @@
       <c r="Y212" s="112"/>
       <c r="Z212" s="112"/>
     </row>
-    <row r="213" spans="2:35" customFormat="1" ht="16">
+    <row r="213" spans="2:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B213" s="102"/>
       <c r="C213" s="112"/>
       <c r="D213" s="112"/>
@@ -10687,7 +10518,7 @@
       <c r="Y213" s="112"/>
       <c r="Z213" s="112"/>
     </row>
-    <row r="214" spans="2:35" customFormat="1" ht="16">
+    <row r="214" spans="2:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B214" s="102"/>
       <c r="C214" s="112"/>
       <c r="D214" s="112"/>
@@ -10714,7 +10545,7 @@
       <c r="Y214" s="112"/>
       <c r="Z214" s="112"/>
     </row>
-    <row r="215" spans="2:35" customFormat="1" ht="17" thickBot="1">
+    <row r="215" spans="2:35" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B215" s="102"/>
       <c r="C215" s="112"/>
       <c r="D215" s="112"/>
@@ -10741,7 +10572,7 @@
       <c r="Y215" s="112"/>
       <c r="Z215" s="112"/>
     </row>
-    <row r="216" spans="2:35" s="181" customFormat="1">
+    <row r="216" spans="2:35" s="181" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B216" s="182"/>
       <c r="C216" s="183" t="s">
         <v>24</v>
@@ -10783,7 +10614,7 @@
       <c r="AH216" s="152"/>
       <c r="AI216" s="152"/>
     </row>
-    <row r="217" spans="2:35" s="181" customFormat="1">
+    <row r="217" spans="2:35" s="181" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B217" s="184"/>
       <c r="C217" s="185"/>
       <c r="D217" s="185"/>
@@ -10819,10 +10650,10 @@
       <c r="AH217" s="185"/>
       <c r="AI217" s="185"/>
     </row>
-    <row r="218" spans="2:35" s="181" customFormat="1" ht="16">
+    <row r="218" spans="2:35" s="181" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B218" s="184"/>
       <c r="C218" s="186" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D218" s="187"/>
       <c r="E218" s="187"/>
@@ -10857,7 +10688,7 @@
       <c r="AH218" s="188"/>
       <c r="AI218" s="188"/>
     </row>
-    <row r="219" spans="2:35" s="181" customFormat="1" ht="16">
+    <row r="219" spans="2:35" s="181" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B219" s="184"/>
       <c r="C219" s="187"/>
       <c r="D219" s="187"/>
@@ -10893,7 +10724,7 @@
       <c r="AH219" s="188"/>
       <c r="AI219" s="188"/>
     </row>
-    <row r="220" spans="2:35" s="181" customFormat="1" ht="16">
+    <row r="220" spans="2:35" s="181" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B220" s="184"/>
       <c r="C220" s="187"/>
       <c r="D220" s="187"/>
@@ -10929,7 +10760,7 @@
       <c r="AH220" s="188"/>
       <c r="AI220" s="188"/>
     </row>
-    <row r="221" spans="2:35" s="181" customFormat="1" ht="16">
+    <row r="221" spans="2:35" s="181" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B221" s="184"/>
       <c r="C221" s="187"/>
       <c r="D221" s="192"/>
@@ -10965,7 +10796,7 @@
       <c r="AH221" s="188"/>
       <c r="AI221" s="188"/>
     </row>
-    <row r="222" spans="2:35" s="181" customFormat="1" ht="16">
+    <row r="222" spans="2:35" s="181" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B222" s="184"/>
       <c r="C222" s="187"/>
       <c r="D222" s="192"/>
@@ -11001,7 +10832,7 @@
       <c r="AH222" s="188"/>
       <c r="AI222" s="188"/>
     </row>
-    <row r="223" spans="2:35" s="181" customFormat="1" ht="16">
+    <row r="223" spans="2:35" s="181" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B223" s="184"/>
       <c r="C223" s="187"/>
       <c r="D223" s="193"/>
@@ -11037,7 +10868,7 @@
       <c r="AH223" s="188"/>
       <c r="AI223" s="188"/>
     </row>
-    <row r="224" spans="2:35" s="181" customFormat="1" ht="16">
+    <row r="224" spans="2:35" s="181" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B224" s="184"/>
       <c r="C224" s="187"/>
       <c r="D224" s="193"/>
@@ -11073,7 +10904,7 @@
       <c r="AH224" s="188"/>
       <c r="AI224" s="188"/>
     </row>
-    <row r="225" spans="2:35" s="181" customFormat="1" ht="16">
+    <row r="225" spans="2:35" s="181" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B225" s="184"/>
       <c r="C225" s="187"/>
       <c r="D225" s="193"/>
@@ -11109,7 +10940,7 @@
       <c r="AH225" s="188"/>
       <c r="AI225" s="188"/>
     </row>
-    <row r="226" spans="2:35" s="181" customFormat="1" ht="16">
+    <row r="226" spans="2:35" s="181" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B226" s="184"/>
       <c r="C226" s="112"/>
       <c r="D226" s="143"/>
@@ -11145,7 +10976,7 @@
       <c r="AH226" s="188"/>
       <c r="AI226" s="188"/>
     </row>
-    <row r="227" spans="2:35" s="181" customFormat="1" ht="16">
+    <row r="227" spans="2:35" s="181" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B227" s="184"/>
       <c r="C227" s="112"/>
       <c r="D227" s="143"/>
@@ -11181,7 +11012,7 @@
       <c r="AH227" s="188"/>
       <c r="AI227" s="188"/>
     </row>
-    <row r="228" spans="2:35" s="181" customFormat="1" ht="16">
+    <row r="228" spans="2:35" s="181" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B228" s="184"/>
       <c r="C228" s="112"/>
       <c r="D228" s="143"/>
@@ -11217,7 +11048,7 @@
       <c r="AH228" s="188"/>
       <c r="AI228" s="188"/>
     </row>
-    <row r="229" spans="2:35" s="181" customFormat="1" ht="16">
+    <row r="229" spans="2:35" s="181" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B229" s="184"/>
       <c r="C229" s="112"/>
       <c r="D229" s="143"/>
@@ -11253,7 +11084,7 @@
       <c r="AH229" s="188"/>
       <c r="AI229" s="188"/>
     </row>
-    <row r="230" spans="2:35" s="181" customFormat="1" ht="16">
+    <row r="230" spans="2:35" s="181" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B230" s="184"/>
       <c r="C230" s="112"/>
       <c r="D230" s="143"/>
@@ -11289,7 +11120,7 @@
       <c r="AH230" s="188"/>
       <c r="AI230" s="188"/>
     </row>
-    <row r="231" spans="2:35" s="181" customFormat="1" ht="16">
+    <row r="231" spans="2:35" s="181" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B231" s="184"/>
       <c r="C231" s="112"/>
       <c r="D231" s="143"/>
@@ -11325,7 +11156,7 @@
       <c r="AH231" s="188"/>
       <c r="AI231" s="188"/>
     </row>
-    <row r="232" spans="2:35" s="181" customFormat="1" ht="16">
+    <row r="232" spans="2:35" s="181" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B232" s="184"/>
       <c r="C232" s="112"/>
       <c r="D232" s="143"/>
@@ -11361,7 +11192,7 @@
       <c r="AH232" s="188"/>
       <c r="AI232" s="188"/>
     </row>
-    <row r="233" spans="2:35" s="181" customFormat="1" ht="16">
+    <row r="233" spans="2:35" s="181" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B233" s="184"/>
       <c r="C233" s="112"/>
       <c r="D233" s="143"/>
@@ -11397,7 +11228,7 @@
       <c r="AH233" s="188"/>
       <c r="AI233" s="188"/>
     </row>
-    <row r="234" spans="2:35" s="181" customFormat="1" ht="16">
+    <row r="234" spans="2:35" s="181" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B234" s="184"/>
       <c r="C234" s="112"/>
       <c r="D234" s="112"/>
@@ -11433,7 +11264,7 @@
       <c r="AH234" s="188"/>
       <c r="AI234" s="188"/>
     </row>
-    <row r="235" spans="2:35" s="181" customFormat="1" ht="16">
+    <row r="235" spans="2:35" s="181" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B235" s="184"/>
       <c r="C235" s="112"/>
       <c r="D235" s="112"/>
@@ -11469,7 +11300,7 @@
       <c r="AH235" s="188"/>
       <c r="AI235" s="188"/>
     </row>
-    <row r="236" spans="2:35" s="181" customFormat="1" ht="16">
+    <row r="236" spans="2:35" s="181" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B236" s="184"/>
       <c r="C236" s="112"/>
       <c r="D236" s="112"/>
@@ -11505,7 +11336,7 @@
       <c r="AH236" s="188"/>
       <c r="AI236" s="188"/>
     </row>
-    <row r="237" spans="2:35" s="181" customFormat="1" ht="16">
+    <row r="237" spans="2:35" s="181" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B237" s="184"/>
       <c r="C237" s="112"/>
       <c r="D237" s="112"/>
@@ -11541,7 +11372,7 @@
       <c r="AH237" s="188"/>
       <c r="AI237" s="188"/>
     </row>
-    <row r="238" spans="2:35" s="181" customFormat="1" ht="16">
+    <row r="238" spans="2:35" s="181" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B238" s="184"/>
       <c r="C238" s="112"/>
       <c r="D238" s="112"/>
@@ -11577,7 +11408,7 @@
       <c r="AH238" s="188"/>
       <c r="AI238" s="188"/>
     </row>
-    <row r="239" spans="2:35" s="181" customFormat="1" ht="16">
+    <row r="239" spans="2:35" s="181" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B239" s="184"/>
       <c r="C239" s="112"/>
       <c r="D239" s="112"/>
@@ -11613,7 +11444,7 @@
       <c r="AH239" s="188"/>
       <c r="AI239" s="188"/>
     </row>
-    <row r="240" spans="2:35" s="181" customFormat="1" ht="16">
+    <row r="240" spans="2:35" s="181" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B240" s="184"/>
       <c r="C240" s="112"/>
       <c r="D240" s="112"/>
@@ -11649,7 +11480,7 @@
       <c r="AH240" s="188"/>
       <c r="AI240" s="188"/>
     </row>
-    <row r="241" spans="2:35" s="181" customFormat="1" ht="16">
+    <row r="241" spans="2:35" s="181" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B241" s="184"/>
       <c r="C241" s="112"/>
       <c r="D241" s="112"/>
@@ -11685,7 +11516,7 @@
       <c r="AH241" s="188"/>
       <c r="AI241" s="188"/>
     </row>
-    <row r="242" spans="2:35" s="181" customFormat="1" ht="16">
+    <row r="242" spans="2:35" s="181" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B242" s="184"/>
       <c r="C242" s="112"/>
       <c r="D242" s="112"/>
@@ -11721,7 +11552,7 @@
       <c r="AH242" s="188"/>
       <c r="AI242" s="188"/>
     </row>
-    <row r="243" spans="2:35" s="181" customFormat="1" ht="16">
+    <row r="243" spans="2:35" s="181" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B243" s="184"/>
       <c r="C243" s="188"/>
       <c r="D243" s="188"/>
@@ -11757,7 +11588,7 @@
       <c r="AH243" s="188"/>
       <c r="AI243" s="188"/>
     </row>
-    <row r="244" spans="2:35" s="181" customFormat="1" ht="16">
+    <row r="244" spans="2:35" s="181" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B244" s="184"/>
       <c r="C244" s="188"/>
       <c r="D244" s="188"/>
@@ -11793,7 +11624,7 @@
       <c r="AH244" s="188"/>
       <c r="AI244" s="188"/>
     </row>
-    <row r="245" spans="2:35" s="181" customFormat="1" ht="16">
+    <row r="245" spans="2:35" s="181" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B245" s="184"/>
       <c r="C245" s="188"/>
       <c r="D245" s="188"/>
@@ -11829,7 +11660,7 @@
       <c r="AH245" s="188"/>
       <c r="AI245" s="188"/>
     </row>
-    <row r="246" spans="2:35" s="181" customFormat="1" ht="16">
+    <row r="246" spans="2:35" s="181" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B246" s="184"/>
       <c r="C246" s="188"/>
       <c r="D246" s="188"/>
@@ -11865,7 +11696,7 @@
       <c r="AH246" s="188"/>
       <c r="AI246" s="188"/>
     </row>
-    <row r="247" spans="2:35" s="181" customFormat="1" ht="16">
+    <row r="247" spans="2:35" s="181" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B247" s="184"/>
       <c r="C247" s="188"/>
       <c r="D247" s="188"/>
@@ -11901,7 +11732,7 @@
       <c r="AH247" s="188"/>
       <c r="AI247" s="188"/>
     </row>
-    <row r="248" spans="2:35" s="181" customFormat="1" ht="16">
+    <row r="248" spans="2:35" s="181" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B248" s="184"/>
       <c r="C248" s="188"/>
       <c r="D248" s="188"/>
@@ -11937,7 +11768,7 @@
       <c r="AH248" s="188"/>
       <c r="AI248" s="188"/>
     </row>
-    <row r="249" spans="2:35" s="181" customFormat="1" ht="16">
+    <row r="249" spans="2:35" s="181" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B249" s="184"/>
       <c r="C249" s="188"/>
       <c r="D249" s="187">
@@ -11949,10 +11780,10 @@
         <v>54600</v>
       </c>
       <c r="H249" s="187" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I249" s="187" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J249" s="188"/>
       <c r="K249" s="188"/>
@@ -11981,7 +11812,7 @@
       <c r="AH249" s="188"/>
       <c r="AI249" s="188"/>
     </row>
-    <row r="250" spans="2:35" s="181" customFormat="1" ht="16">
+    <row r="250" spans="2:35" s="181" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B250" s="184"/>
       <c r="C250" s="188"/>
       <c r="D250" s="187"/>
@@ -11991,7 +11822,7 @@
         <v>1000000</v>
       </c>
       <c r="H250" s="187" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I250" s="187"/>
       <c r="J250" s="188"/>
@@ -12021,7 +11852,7 @@
       <c r="AH250" s="188"/>
       <c r="AI250" s="188"/>
     </row>
-    <row r="251" spans="2:35" s="181" customFormat="1" ht="16">
+    <row r="251" spans="2:35" s="181" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B251" s="184"/>
       <c r="C251" s="188"/>
       <c r="D251" s="187"/>
@@ -12031,7 +11862,7 @@
         <v>5.4600000000000003E-2</v>
       </c>
       <c r="H251" s="187" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I251" s="187"/>
       <c r="J251" s="188"/>
@@ -12061,7 +11892,7 @@
       <c r="AH251" s="188"/>
       <c r="AI251" s="188"/>
     </row>
-    <row r="252" spans="2:35" s="181" customFormat="1" ht="16">
+    <row r="252" spans="2:35" s="181" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B252" s="184"/>
       <c r="C252" s="188"/>
       <c r="D252" s="188"/>
@@ -12097,7 +11928,7 @@
       <c r="AH252" s="188"/>
       <c r="AI252" s="188"/>
     </row>
-    <row r="253" spans="2:35" s="181" customFormat="1" ht="16">
+    <row r="253" spans="2:35" s="181" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B253" s="184"/>
       <c r="C253" s="188"/>
       <c r="D253" s="188"/>
@@ -12133,7 +11964,7 @@
       <c r="AH253" s="188"/>
       <c r="AI253" s="188"/>
     </row>
-    <row r="254" spans="2:35" s="181" customFormat="1" ht="16">
+    <row r="254" spans="2:35" s="181" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B254" s="184"/>
       <c r="C254" s="188"/>
       <c r="D254" s="188"/>
@@ -12169,7 +12000,7 @@
       <c r="AH254" s="188"/>
       <c r="AI254" s="188"/>
     </row>
-    <row r="255" spans="2:35" s="181" customFormat="1" ht="16">
+    <row r="255" spans="2:35" s="181" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B255" s="184"/>
       <c r="C255" s="188"/>
       <c r="D255" s="188"/>
@@ -12205,7 +12036,7 @@
       <c r="AH255" s="188"/>
       <c r="AI255" s="188"/>
     </row>
-    <row r="256" spans="2:35" s="181" customFormat="1" ht="16">
+    <row r="256" spans="2:35" s="181" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B256" s="184"/>
       <c r="C256" s="188"/>
       <c r="D256" s="188"/>
@@ -12241,7 +12072,7 @@
       <c r="AH256" s="188"/>
       <c r="AI256" s="188"/>
     </row>
-    <row r="257" spans="1:35" s="181" customFormat="1" ht="16">
+    <row r="257" spans="1:35" s="181" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B257" s="184"/>
       <c r="C257" s="188"/>
       <c r="D257" s="188"/>
@@ -12277,7 +12108,7 @@
       <c r="AH257" s="188"/>
       <c r="AI257" s="188"/>
     </row>
-    <row r="258" spans="1:35" s="181" customFormat="1" ht="16">
+    <row r="258" spans="1:35" s="181" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B258" s="184"/>
       <c r="C258" s="188"/>
       <c r="D258" s="188"/>
@@ -12313,7 +12144,7 @@
       <c r="AH258" s="188"/>
       <c r="AI258" s="188"/>
     </row>
-    <row r="259" spans="1:35" s="181" customFormat="1" ht="16">
+    <row r="259" spans="1:35" s="181" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B259" s="184"/>
       <c r="C259" s="188"/>
       <c r="D259" s="188"/>
@@ -12349,7 +12180,7 @@
       <c r="AH259" s="188"/>
       <c r="AI259" s="188"/>
     </row>
-    <row r="260" spans="1:35" s="181" customFormat="1" ht="16">
+    <row r="260" spans="1:35" s="181" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B260" s="184"/>
       <c r="C260" s="188"/>
       <c r="D260" s="188"/>
@@ -12385,7 +12216,7 @@
       <c r="AH260" s="188"/>
       <c r="AI260" s="188"/>
     </row>
-    <row r="261" spans="1:35" s="181" customFormat="1" ht="16">
+    <row r="261" spans="1:35" s="181" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B261" s="184"/>
       <c r="C261" s="188"/>
       <c r="D261" s="188"/>
@@ -12421,7 +12252,7 @@
       <c r="AH261" s="188"/>
       <c r="AI261" s="188"/>
     </row>
-    <row r="262" spans="1:35" s="181" customFormat="1" ht="16">
+    <row r="262" spans="1:35" s="181" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B262" s="184"/>
       <c r="C262" s="188"/>
       <c r="D262" s="188"/>
@@ -12457,67 +12288,67 @@
       <c r="AH262" s="188"/>
       <c r="AI262" s="188"/>
     </row>
-    <row r="263" spans="1:35" customFormat="1" ht="16">
+    <row r="263" spans="1:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A263" s="102"/>
       <c r="Z263" s="101"/>
     </row>
-    <row r="264" spans="1:35" customFormat="1" ht="16">
+    <row r="264" spans="1:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A264" s="102"/>
       <c r="Z264" s="101"/>
     </row>
-    <row r="265" spans="1:35" customFormat="1" ht="16">
+    <row r="265" spans="1:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A265" s="102"/>
       <c r="Z265" s="101"/>
     </row>
-    <row r="266" spans="1:35" customFormat="1" ht="16">
+    <row r="266" spans="1:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A266" s="102"/>
       <c r="Z266" s="101"/>
     </row>
-    <row r="267" spans="1:35" customFormat="1" ht="16">
+    <row r="267" spans="1:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A267" s="102"/>
       <c r="Z267" s="101"/>
     </row>
-    <row r="268" spans="1:35" customFormat="1" ht="16">
+    <row r="268" spans="1:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A268" s="102"/>
       <c r="Z268" s="101"/>
     </row>
-    <row r="269" spans="1:35" customFormat="1" ht="16">
+    <row r="269" spans="1:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A269" s="102"/>
       <c r="Z269" s="101"/>
     </row>
-    <row r="270" spans="1:35" customFormat="1" ht="16">
+    <row r="270" spans="1:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A270" s="102"/>
       <c r="Z270" s="101"/>
     </row>
-    <row r="271" spans="1:35" customFormat="1" ht="16">
+    <row r="271" spans="1:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A271" s="102"/>
       <c r="Z271" s="101"/>
     </row>
-    <row r="272" spans="1:35" customFormat="1" ht="16">
+    <row r="272" spans="1:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A272" s="102"/>
       <c r="Z272" s="101"/>
     </row>
-    <row r="273" spans="1:26" customFormat="1" ht="16">
+    <row r="273" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A273" s="102"/>
       <c r="Z273" s="101"/>
     </row>
-    <row r="274" spans="1:26" customFormat="1" ht="16">
+    <row r="274" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A274" s="102"/>
       <c r="Z274" s="101"/>
     </row>
-    <row r="275" spans="1:26" customFormat="1" ht="16">
+    <row r="275" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A275" s="102"/>
       <c r="Z275" s="101"/>
     </row>
-    <row r="276" spans="1:26" customFormat="1" ht="16">
+    <row r="276" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A276" s="102"/>
       <c r="Z276" s="101"/>
     </row>
-    <row r="277" spans="1:26" customFormat="1" ht="16">
+    <row r="277" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A277" s="102"/>
       <c r="Z277" s="101"/>
     </row>
-    <row r="278" spans="1:26" customFormat="1" ht="16">
+    <row r="278" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A278" s="101"/>
       <c r="B278" s="101"/>
       <c r="C278" s="101"/>
@@ -12545,7 +12376,7 @@
       <c r="Y278" s="101"/>
       <c r="Z278" s="101"/>
     </row>
-    <row r="279" spans="1:26" customFormat="1" ht="16">
+    <row r="279" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A279" s="101"/>
       <c r="B279" s="101"/>
       <c r="C279" s="101"/>
@@ -12573,7 +12404,7 @@
       <c r="Y279" s="101"/>
       <c r="Z279" s="101"/>
     </row>
-    <row r="280" spans="1:26" customFormat="1" ht="16">
+    <row r="280" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A280" s="101"/>
       <c r="B280" s="101"/>
       <c r="C280" s="101"/>
@@ -12601,7 +12432,7 @@
       <c r="Y280" s="101"/>
       <c r="Z280" s="101"/>
     </row>
-    <row r="281" spans="1:26" customFormat="1" ht="16">
+    <row r="281" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A281" s="101"/>
       <c r="B281" s="101"/>
       <c r="C281" s="101"/>
@@ -12629,7 +12460,7 @@
       <c r="Y281" s="101"/>
       <c r="Z281" s="101"/>
     </row>
-    <row r="282" spans="1:26" customFormat="1" ht="16">
+    <row r="282" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A282" s="101"/>
       <c r="B282" s="101"/>
       <c r="C282" s="101"/>
@@ -12657,7 +12488,7 @@
       <c r="Y282" s="101"/>
       <c r="Z282" s="101"/>
     </row>
-    <row r="283" spans="1:26" customFormat="1" ht="16">
+    <row r="283" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A283" s="101"/>
       <c r="B283" s="101"/>
       <c r="C283" s="101"/>
@@ -12685,7 +12516,7 @@
       <c r="Y283" s="101"/>
       <c r="Z283" s="101"/>
     </row>
-    <row r="284" spans="1:26" customFormat="1" ht="16">
+    <row r="284" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A284" s="101"/>
       <c r="B284" s="101"/>
       <c r="C284" s="101"/>
@@ -12713,7 +12544,7 @@
       <c r="Y284" s="101"/>
       <c r="Z284" s="101"/>
     </row>
-    <row r="285" spans="1:26" customFormat="1" ht="16">
+    <row r="285" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A285" s="101"/>
       <c r="B285" s="101"/>
       <c r="C285" s="101"/>
@@ -12741,7 +12572,7 @@
       <c r="Y285" s="101"/>
       <c r="Z285" s="101"/>
     </row>
-    <row r="286" spans="1:26" customFormat="1" ht="16">
+    <row r="286" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A286" s="101"/>
       <c r="B286" s="101"/>
       <c r="C286" s="101"/>
@@ -12769,7 +12600,7 @@
       <c r="Y286" s="101"/>
       <c r="Z286" s="101"/>
     </row>
-    <row r="287" spans="1:26" customFormat="1" ht="16">
+    <row r="287" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A287" s="101"/>
       <c r="B287" s="101"/>
       <c r="C287" s="101"/>
@@ -12797,7 +12628,7 @@
       <c r="Y287" s="101"/>
       <c r="Z287" s="101"/>
     </row>
-    <row r="288" spans="1:26" customFormat="1" ht="16">
+    <row r="288" spans="1:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A288" s="101"/>
       <c r="B288" s="101"/>
       <c r="C288" s="101"/>
@@ -12825,7 +12656,7 @@
       <c r="Y288" s="101"/>
       <c r="Z288" s="101"/>
     </row>
-    <row r="289" spans="1:43" customFormat="1" ht="16">
+    <row r="289" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A289" s="101"/>
       <c r="B289" s="101"/>
       <c r="C289" s="101"/>
@@ -12853,7 +12684,7 @@
       <c r="Y289" s="101"/>
       <c r="Z289" s="101"/>
     </row>
-    <row r="290" spans="1:43" customFormat="1" ht="16">
+    <row r="290" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A290" s="101"/>
       <c r="B290" s="101"/>
       <c r="C290" s="101"/>
@@ -12881,7 +12712,7 @@
       <c r="Y290" s="101"/>
       <c r="Z290" s="101"/>
     </row>
-    <row r="291" spans="1:43" customFormat="1" ht="16">
+    <row r="291" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A291" s="101"/>
       <c r="B291" s="101"/>
       <c r="C291" s="101"/>
@@ -12909,7 +12740,7 @@
       <c r="Y291" s="101"/>
       <c r="Z291" s="101"/>
     </row>
-    <row r="292" spans="1:43" customFormat="1" ht="16">
+    <row r="292" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A292" s="101"/>
       <c r="B292" s="101"/>
       <c r="C292" s="101"/>
@@ -12937,7 +12768,7 @@
       <c r="Y292" s="101"/>
       <c r="Z292" s="101"/>
     </row>
-    <row r="293" spans="1:43" customFormat="1" ht="16">
+    <row r="293" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A293" s="101"/>
       <c r="B293" s="101"/>
       <c r="C293" s="101"/>
@@ -12965,7 +12796,7 @@
       <c r="Y293" s="101"/>
       <c r="Z293" s="101"/>
     </row>
-    <row r="294" spans="1:43" customFormat="1" ht="16">
+    <row r="294" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A294" s="101"/>
       <c r="B294" s="101"/>
       <c r="C294" s="101"/>
@@ -12993,7 +12824,7 @@
       <c r="Y294" s="101"/>
       <c r="Z294" s="101"/>
     </row>
-    <row r="295" spans="1:43" customFormat="1" ht="16">
+    <row r="295" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A295" s="101"/>
       <c r="B295" s="101"/>
       <c r="C295" s="101"/>
@@ -13021,7 +12852,7 @@
       <c r="Y295" s="101"/>
       <c r="Z295" s="101"/>
     </row>
-    <row r="296" spans="1:43" customFormat="1" ht="16">
+    <row r="296" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A296" s="101"/>
       <c r="B296" s="101"/>
       <c r="C296" s="101"/>
@@ -13049,7 +12880,7 @@
       <c r="Y296" s="101"/>
       <c r="Z296" s="101"/>
     </row>
-    <row r="297" spans="1:43" customFormat="1" ht="16">
+    <row r="297" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A297" s="101"/>
       <c r="B297" s="101"/>
       <c r="C297" s="101"/>
@@ -13077,7 +12908,7 @@
       <c r="Y297" s="101"/>
       <c r="Z297" s="101"/>
     </row>
-    <row r="298" spans="1:43" customFormat="1" ht="16">
+    <row r="298" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A298" s="101"/>
       <c r="B298" s="101"/>
       <c r="C298" s="101"/>
@@ -13105,7 +12936,7 @@
       <c r="Y298" s="101"/>
       <c r="Z298" s="101"/>
     </row>
-    <row r="299" spans="1:43" customFormat="1" ht="16">
+    <row r="299" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A299" s="101"/>
       <c r="B299" s="101"/>
       <c r="C299" s="101"/>
@@ -13133,7 +12964,7 @@
       <c r="Y299" s="101"/>
       <c r="Z299" s="101"/>
     </row>
-    <row r="300" spans="1:43" customFormat="1" ht="16">
+    <row r="300" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A300" s="101"/>
       <c r="B300" s="101"/>
       <c r="C300" s="101"/>
@@ -13161,7 +12992,7 @@
       <c r="Y300" s="101"/>
       <c r="Z300" s="101"/>
     </row>
-    <row r="301" spans="1:43" customFormat="1" ht="16">
+    <row r="301" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A301" s="101"/>
       <c r="B301" s="101"/>
       <c r="C301" s="101"/>
@@ -13189,7 +13020,7 @@
       <c r="Y301" s="101"/>
       <c r="Z301" s="101"/>
     </row>
-    <row r="302" spans="1:43" customFormat="1" ht="16">
+    <row r="302" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A302" s="101"/>
       <c r="B302" s="101"/>
       <c r="C302" s="101"/>
@@ -13217,8 +13048,8 @@
       <c r="Y302" s="101"/>
       <c r="Z302" s="101"/>
     </row>
-    <row r="303" spans="1:43" s="24" customFormat="1"/>
-    <row r="304" spans="1:43" customFormat="1" ht="16">
+    <row r="303" spans="1:43" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="304" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A304" s="101"/>
       <c r="B304" s="101"/>
       <c r="C304" s="101"/>
@@ -13263,7 +13094,7 @@
       <c r="AP304" s="101"/>
       <c r="AQ304" s="101"/>
     </row>
-    <row r="305" spans="1:43" customFormat="1" ht="16">
+    <row r="305" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A305" s="101"/>
       <c r="B305" s="101"/>
       <c r="C305" s="101"/>
@@ -13308,7 +13139,7 @@
       <c r="AP305" s="101"/>
       <c r="AQ305" s="101"/>
     </row>
-    <row r="306" spans="1:43" customFormat="1" ht="16">
+    <row r="306" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A306" s="101"/>
       <c r="B306" s="101"/>
       <c r="C306" s="101"/>
@@ -13353,7 +13184,7 @@
       <c r="AP306" s="101"/>
       <c r="AQ306" s="101"/>
     </row>
-    <row r="307" spans="1:43" customFormat="1" ht="16">
+    <row r="307" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A307" s="101"/>
       <c r="B307" s="101"/>
       <c r="C307" s="101"/>
@@ -13398,7 +13229,7 @@
       <c r="AP307" s="101"/>
       <c r="AQ307" s="101"/>
     </row>
-    <row r="308" spans="1:43" customFormat="1" ht="16">
+    <row r="308" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A308" s="101"/>
       <c r="B308" s="101"/>
       <c r="C308" s="101"/>
@@ -13443,7 +13274,7 @@
       <c r="AP308" s="101"/>
       <c r="AQ308" s="101"/>
     </row>
-    <row r="309" spans="1:43" customFormat="1" ht="16">
+    <row r="309" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A309" s="101"/>
       <c r="B309" s="101"/>
       <c r="C309" s="101"/>
@@ -13488,7 +13319,7 @@
       <c r="AP309" s="101"/>
       <c r="AQ309" s="101"/>
     </row>
-    <row r="310" spans="1:43" customFormat="1" ht="16">
+    <row r="310" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A310" s="101"/>
       <c r="B310" s="101"/>
       <c r="C310" s="101"/>
@@ -13533,7 +13364,7 @@
       <c r="AP310" s="101"/>
       <c r="AQ310" s="101"/>
     </row>
-    <row r="311" spans="1:43" customFormat="1" ht="16">
+    <row r="311" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A311" s="101"/>
       <c r="B311" s="101"/>
       <c r="C311" s="101"/>
@@ -13578,7 +13409,7 @@
       <c r="AP311" s="101"/>
       <c r="AQ311" s="101"/>
     </row>
-    <row r="312" spans="1:43" customFormat="1" ht="16">
+    <row r="312" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A312" s="101"/>
       <c r="B312" s="101"/>
       <c r="C312" s="101"/>
@@ -13623,7 +13454,7 @@
       <c r="AP312" s="101"/>
       <c r="AQ312" s="101"/>
     </row>
-    <row r="313" spans="1:43" customFormat="1" ht="16">
+    <row r="313" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A313" s="101"/>
       <c r="B313" s="101"/>
       <c r="C313" s="101"/>
@@ -13668,7 +13499,7 @@
       <c r="AP313" s="101"/>
       <c r="AQ313" s="101"/>
     </row>
-    <row r="314" spans="1:43" customFormat="1" ht="16">
+    <row r="314" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A314" s="101"/>
       <c r="B314" s="101"/>
       <c r="C314" s="101"/>
@@ -13713,7 +13544,7 @@
       <c r="AP314" s="101"/>
       <c r="AQ314" s="101"/>
     </row>
-    <row r="315" spans="1:43" customFormat="1" ht="16">
+    <row r="315" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A315" s="101"/>
       <c r="B315" s="101"/>
       <c r="C315" s="101"/>
@@ -13758,7 +13589,7 @@
       <c r="AP315" s="101"/>
       <c r="AQ315" s="101"/>
     </row>
-    <row r="316" spans="1:43" customFormat="1" ht="16">
+    <row r="316" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A316" s="101"/>
       <c r="B316" s="101"/>
       <c r="C316" s="101"/>
@@ -13803,7 +13634,7 @@
       <c r="AP316" s="101"/>
       <c r="AQ316" s="101"/>
     </row>
-    <row r="317" spans="1:43" customFormat="1" ht="16">
+    <row r="317" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A317" s="101"/>
       <c r="B317" s="101"/>
       <c r="C317" s="101"/>
@@ -13848,7 +13679,7 @@
       <c r="AP317" s="101"/>
       <c r="AQ317" s="101"/>
     </row>
-    <row r="318" spans="1:43" customFormat="1" ht="16">
+    <row r="318" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A318" s="101"/>
       <c r="B318" s="101"/>
       <c r="C318" s="101"/>
@@ -13893,7 +13724,7 @@
       <c r="AP318" s="101"/>
       <c r="AQ318" s="101"/>
     </row>
-    <row r="319" spans="1:43" customFormat="1" ht="16">
+    <row r="319" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A319" s="101"/>
       <c r="B319" s="101"/>
       <c r="C319" s="101"/>
@@ -13938,7 +13769,7 @@
       <c r="AP319" s="101"/>
       <c r="AQ319" s="101"/>
     </row>
-    <row r="320" spans="1:43" customFormat="1" ht="16">
+    <row r="320" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A320" s="101"/>
       <c r="B320" s="101"/>
       <c r="C320" s="101"/>
@@ -13983,7 +13814,7 @@
       <c r="AP320" s="101"/>
       <c r="AQ320" s="101"/>
     </row>
-    <row r="321" spans="1:43" customFormat="1" ht="16">
+    <row r="321" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A321" s="101"/>
       <c r="B321" s="101"/>
       <c r="C321" s="101"/>
@@ -14028,7 +13859,7 @@
       <c r="AP321" s="101"/>
       <c r="AQ321" s="101"/>
     </row>
-    <row r="322" spans="1:43" customFormat="1" ht="16">
+    <row r="322" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A322" s="101"/>
       <c r="B322" s="101"/>
       <c r="C322" s="101"/>
@@ -14073,7 +13904,7 @@
       <c r="AP322" s="101"/>
       <c r="AQ322" s="101"/>
     </row>
-    <row r="323" spans="1:43" customFormat="1" ht="16">
+    <row r="323" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A323" s="101"/>
       <c r="B323" s="101"/>
       <c r="C323" s="101"/>
@@ -14118,7 +13949,7 @@
       <c r="AP323" s="101"/>
       <c r="AQ323" s="101"/>
     </row>
-    <row r="324" spans="1:43" customFormat="1" ht="16">
+    <row r="324" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A324" s="101"/>
       <c r="B324" s="101"/>
       <c r="C324" s="101"/>
@@ -14163,7 +13994,7 @@
       <c r="AP324" s="101"/>
       <c r="AQ324" s="101"/>
     </row>
-    <row r="325" spans="1:43" customFormat="1" ht="16">
+    <row r="325" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A325" s="101"/>
       <c r="B325" s="101"/>
       <c r="C325" s="101"/>
@@ -14208,7 +14039,7 @@
       <c r="AP325" s="101"/>
       <c r="AQ325" s="101"/>
     </row>
-    <row r="326" spans="1:43" customFormat="1" ht="16">
+    <row r="326" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A326" s="101"/>
       <c r="B326" s="101"/>
       <c r="C326" s="101"/>
@@ -14253,7 +14084,7 @@
       <c r="AP326" s="101"/>
       <c r="AQ326" s="101"/>
     </row>
-    <row r="327" spans="1:43" customFormat="1" ht="16">
+    <row r="327" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A327" s="101"/>
       <c r="B327" s="101"/>
       <c r="C327" s="101"/>
@@ -14298,7 +14129,7 @@
       <c r="AP327" s="101"/>
       <c r="AQ327" s="101"/>
     </row>
-    <row r="328" spans="1:43" customFormat="1" ht="16">
+    <row r="328" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A328" s="101"/>
       <c r="B328" s="101"/>
       <c r="C328" s="101"/>
@@ -14343,7 +14174,7 @@
       <c r="AP328" s="101"/>
       <c r="AQ328" s="101"/>
     </row>
-    <row r="329" spans="1:43" customFormat="1" ht="16">
+    <row r="329" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A329" s="101"/>
       <c r="B329" s="101"/>
       <c r="C329" s="101"/>
@@ -14388,7 +14219,7 @@
       <c r="AP329" s="101"/>
       <c r="AQ329" s="101"/>
     </row>
-    <row r="330" spans="1:43" customFormat="1" ht="16">
+    <row r="330" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A330" s="101"/>
       <c r="B330" s="101"/>
       <c r="C330" s="101"/>
@@ -14433,7 +14264,7 @@
       <c r="AP330" s="101"/>
       <c r="AQ330" s="101"/>
     </row>
-    <row r="331" spans="1:43" customFormat="1" ht="16">
+    <row r="331" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A331" s="101"/>
       <c r="B331" s="101"/>
       <c r="C331" s="101"/>
@@ -14478,7 +14309,7 @@
       <c r="AP331" s="101"/>
       <c r="AQ331" s="101"/>
     </row>
-    <row r="332" spans="1:43" customFormat="1" ht="16">
+    <row r="332" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A332" s="101"/>
       <c r="B332" s="101"/>
       <c r="C332" s="101"/>
@@ -14523,7 +14354,7 @@
       <c r="AP332" s="101"/>
       <c r="AQ332" s="101"/>
     </row>
-    <row r="333" spans="1:43" customFormat="1" ht="16">
+    <row r="333" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A333" s="101"/>
       <c r="B333" s="101"/>
       <c r="C333" s="101"/>
@@ -14568,7 +14399,7 @@
       <c r="AP333" s="101"/>
       <c r="AQ333" s="101"/>
     </row>
-    <row r="334" spans="1:43" customFormat="1" ht="16">
+    <row r="334" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A334" s="101"/>
       <c r="B334" s="101"/>
       <c r="C334" s="101"/>
@@ -14613,7 +14444,7 @@
       <c r="AP334" s="101"/>
       <c r="AQ334" s="101"/>
     </row>
-    <row r="335" spans="1:43" customFormat="1" ht="16">
+    <row r="335" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A335" s="101"/>
       <c r="B335" s="101"/>
       <c r="C335" s="101"/>
@@ -14658,7 +14489,7 @@
       <c r="AP335" s="101"/>
       <c r="AQ335" s="101"/>
     </row>
-    <row r="336" spans="1:43" customFormat="1" ht="16">
+    <row r="336" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A336" s="101"/>
       <c r="B336" s="101"/>
       <c r="C336" s="101"/>
@@ -14703,7 +14534,7 @@
       <c r="AP336" s="101"/>
       <c r="AQ336" s="101"/>
     </row>
-    <row r="337" spans="1:43" customFormat="1" ht="16">
+    <row r="337" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A337" s="101"/>
       <c r="B337" s="101"/>
       <c r="C337" s="101"/>
@@ -14748,7 +14579,7 @@
       <c r="AP337" s="101"/>
       <c r="AQ337" s="101"/>
     </row>
-    <row r="338" spans="1:43" customFormat="1" ht="16">
+    <row r="338" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A338" s="101"/>
       <c r="B338" s="101"/>
       <c r="C338" s="101"/>
@@ -14793,8 +14624,8 @@
       <c r="AP338" s="101"/>
       <c r="AQ338" s="101"/>
     </row>
-    <row r="339" spans="1:43" s="24" customFormat="1"/>
-    <row r="340" spans="1:43" customFormat="1" ht="16">
+    <row r="339" spans="1:43" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="340" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B340" s="101"/>
       <c r="C340" s="101"/>
       <c r="D340" s="101"/>
@@ -14821,7 +14652,7 @@
       <c r="Y340" s="101"/>
       <c r="Z340" s="101"/>
     </row>
-    <row r="341" spans="1:43" customFormat="1" ht="16">
+    <row r="341" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B341" s="101"/>
       <c r="C341" s="101"/>
       <c r="D341" s="101"/>
@@ -14848,7 +14679,7 @@
       <c r="Y341" s="101"/>
       <c r="Z341" s="101"/>
     </row>
-    <row r="342" spans="1:43" customFormat="1" ht="16">
+    <row r="342" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B342" s="101"/>
       <c r="C342" s="101"/>
       <c r="D342" s="101"/>
@@ -14875,7 +14706,7 @@
       <c r="Y342" s="101"/>
       <c r="Z342" s="101"/>
     </row>
-    <row r="343" spans="1:43" customFormat="1" ht="16">
+    <row r="343" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B343" s="101"/>
       <c r="C343" s="101"/>
       <c r="D343" s="101"/>
@@ -14902,7 +14733,7 @@
       <c r="Y343" s="101"/>
       <c r="Z343" s="101"/>
     </row>
-    <row r="344" spans="1:43" customFormat="1" ht="16">
+    <row r="344" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B344" s="101"/>
       <c r="C344" s="101"/>
       <c r="D344" s="101"/>
@@ -14929,7 +14760,7 @@
       <c r="Y344" s="101"/>
       <c r="Z344" s="101"/>
     </row>
-    <row r="345" spans="1:43" customFormat="1" ht="16">
+    <row r="345" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B345" s="101"/>
       <c r="C345" s="101"/>
       <c r="D345" s="101"/>
@@ -14956,7 +14787,7 @@
       <c r="Y345" s="101"/>
       <c r="Z345" s="101"/>
     </row>
-    <row r="346" spans="1:43" customFormat="1" ht="16">
+    <row r="346" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B346" s="101"/>
       <c r="C346" s="101"/>
       <c r="D346" s="101"/>
@@ -14983,7 +14814,7 @@
       <c r="Y346" s="101"/>
       <c r="Z346" s="101"/>
     </row>
-    <row r="347" spans="1:43" customFormat="1" ht="16">
+    <row r="347" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B347" s="101"/>
       <c r="C347" s="101"/>
       <c r="D347" s="101"/>
@@ -15010,7 +14841,7 @@
       <c r="Y347" s="101"/>
       <c r="Z347" s="101"/>
     </row>
-    <row r="348" spans="1:43" customFormat="1" ht="16">
+    <row r="348" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B348" s="101"/>
       <c r="C348" s="101"/>
       <c r="D348" s="101"/>
@@ -15037,7 +14868,7 @@
       <c r="Y348" s="101"/>
       <c r="Z348" s="101"/>
     </row>
-    <row r="349" spans="1:43" customFormat="1" ht="16">
+    <row r="349" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B349" s="101"/>
       <c r="C349" s="101"/>
       <c r="D349" s="101"/>
@@ -15064,7 +14895,7 @@
       <c r="Y349" s="101"/>
       <c r="Z349" s="101"/>
     </row>
-    <row r="350" spans="1:43" customFormat="1" ht="16">
+    <row r="350" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B350" s="101"/>
       <c r="C350" s="101"/>
       <c r="D350" s="101"/>
@@ -15091,7 +14922,7 @@
       <c r="Y350" s="101"/>
       <c r="Z350" s="101"/>
     </row>
-    <row r="351" spans="1:43" customFormat="1" ht="16">
+    <row r="351" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B351" s="101"/>
       <c r="C351" s="101"/>
       <c r="D351" s="101"/>
@@ -15118,7 +14949,7 @@
       <c r="Y351" s="101"/>
       <c r="Z351" s="101"/>
     </row>
-    <row r="352" spans="1:43" customFormat="1" ht="16">
+    <row r="352" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B352" s="101"/>
       <c r="C352" s="101"/>
       <c r="D352" s="101"/>
@@ -15145,7 +14976,7 @@
       <c r="Y352" s="101"/>
       <c r="Z352" s="101"/>
     </row>
-    <row r="353" spans="2:26" customFormat="1" ht="16">
+    <row r="353" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B353" s="101"/>
       <c r="C353" s="101"/>
       <c r="D353" s="101"/>
@@ -15172,7 +15003,7 @@
       <c r="Y353" s="101"/>
       <c r="Z353" s="101"/>
     </row>
-    <row r="354" spans="2:26" customFormat="1" ht="16">
+    <row r="354" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B354" s="101"/>
       <c r="C354" s="101"/>
       <c r="D354" s="101"/>
@@ -15199,7 +15030,7 @@
       <c r="Y354" s="101"/>
       <c r="Z354" s="101"/>
     </row>
-    <row r="355" spans="2:26" customFormat="1" ht="16">
+    <row r="355" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B355" s="101"/>
       <c r="C355" s="101"/>
       <c r="D355" s="101"/>
@@ -15226,7 +15057,7 @@
       <c r="Y355" s="101"/>
       <c r="Z355" s="101"/>
     </row>
-    <row r="356" spans="2:26" customFormat="1" ht="16">
+    <row r="356" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B356" s="101"/>
       <c r="C356" s="101"/>
       <c r="D356" s="101"/>
@@ -15253,7 +15084,7 @@
       <c r="Y356" s="101"/>
       <c r="Z356" s="101"/>
     </row>
-    <row r="357" spans="2:26" customFormat="1" ht="16">
+    <row r="357" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B357" s="101"/>
       <c r="C357" s="101"/>
       <c r="D357" s="101"/>
@@ -15280,7 +15111,7 @@
       <c r="Y357" s="101"/>
       <c r="Z357" s="101"/>
     </row>
-    <row r="358" spans="2:26" customFormat="1" ht="16">
+    <row r="358" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B358" s="101"/>
       <c r="C358" s="101"/>
       <c r="D358" s="101"/>
@@ -15307,7 +15138,7 @@
       <c r="Y358" s="101"/>
       <c r="Z358" s="101"/>
     </row>
-    <row r="359" spans="2:26" customFormat="1" ht="16">
+    <row r="359" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B359" s="101"/>
       <c r="C359" s="101"/>
       <c r="D359" s="101"/>
@@ -15334,7 +15165,7 @@
       <c r="Y359" s="101"/>
       <c r="Z359" s="101"/>
     </row>
-    <row r="360" spans="2:26" customFormat="1" ht="16">
+    <row r="360" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B360" s="101"/>
       <c r="C360" s="101"/>
       <c r="D360" s="101"/>
@@ -15361,7 +15192,7 @@
       <c r="Y360" s="101"/>
       <c r="Z360" s="101"/>
     </row>
-    <row r="361" spans="2:26" customFormat="1" ht="16">
+    <row r="361" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B361" s="101"/>
       <c r="C361" s="101"/>
       <c r="D361" s="101"/>
@@ -15388,7 +15219,7 @@
       <c r="Y361" s="101"/>
       <c r="Z361" s="101"/>
     </row>
-    <row r="362" spans="2:26" customFormat="1" ht="16">
+    <row r="362" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B362" s="101"/>
       <c r="C362" s="101"/>
       <c r="D362" s="101"/>
@@ -15415,7 +15246,7 @@
       <c r="Y362" s="101"/>
       <c r="Z362" s="101"/>
     </row>
-    <row r="363" spans="2:26" customFormat="1" ht="16">
+    <row r="363" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B363" s="101"/>
       <c r="C363" s="101"/>
       <c r="D363" s="101"/>
@@ -15442,7 +15273,7 @@
       <c r="Y363" s="101"/>
       <c r="Z363" s="101"/>
     </row>
-    <row r="364" spans="2:26" customFormat="1" ht="16">
+    <row r="364" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B364" s="101"/>
       <c r="C364" s="101"/>
       <c r="D364" s="101"/>
@@ -15469,7 +15300,7 @@
       <c r="Y364" s="101"/>
       <c r="Z364" s="101"/>
     </row>
-    <row r="365" spans="2:26" customFormat="1" ht="16">
+    <row r="365" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B365" s="101"/>
       <c r="C365" s="101"/>
       <c r="D365" s="101"/>
@@ -15496,7 +15327,7 @@
       <c r="Y365" s="101"/>
       <c r="Z365" s="101"/>
     </row>
-    <row r="366" spans="2:26" customFormat="1" ht="16">
+    <row r="366" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B366" s="101"/>
       <c r="C366" s="101"/>
       <c r="D366" s="101"/>
@@ -15523,7 +15354,7 @@
       <c r="Y366" s="101"/>
       <c r="Z366" s="101"/>
     </row>
-    <row r="367" spans="2:26" customFormat="1" ht="16">
+    <row r="367" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B367" s="101"/>
       <c r="C367" s="101"/>
       <c r="D367" s="101"/>
@@ -15550,7 +15381,7 @@
       <c r="Y367" s="101"/>
       <c r="Z367" s="101"/>
     </row>
-    <row r="368" spans="2:26" customFormat="1" ht="16">
+    <row r="368" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B368" s="101"/>
       <c r="C368" s="101"/>
       <c r="D368" s="101"/>
@@ -15577,7 +15408,7 @@
       <c r="Y368" s="101"/>
       <c r="Z368" s="101"/>
     </row>
-    <row r="369" spans="2:26" customFormat="1" ht="16">
+    <row r="369" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B369" s="101"/>
       <c r="C369" s="101"/>
       <c r="D369" s="101"/>
@@ -15604,7 +15435,7 @@
       <c r="Y369" s="101"/>
       <c r="Z369" s="101"/>
     </row>
-    <row r="370" spans="2:26" customFormat="1" ht="16">
+    <row r="370" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B370" s="101"/>
       <c r="C370" s="101"/>
       <c r="D370" s="101"/>
@@ -15631,7 +15462,7 @@
       <c r="Y370" s="101"/>
       <c r="Z370" s="101"/>
     </row>
-    <row r="371" spans="2:26" customFormat="1" ht="16">
+    <row r="371" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B371" s="101"/>
       <c r="C371" s="101"/>
       <c r="D371" s="101"/>
@@ -15658,7 +15489,7 @@
       <c r="Y371" s="101"/>
       <c r="Z371" s="101"/>
     </row>
-    <row r="372" spans="2:26" customFormat="1" ht="16">
+    <row r="372" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B372" s="101"/>
       <c r="C372" s="101"/>
       <c r="D372" s="101"/>
@@ -15685,7 +15516,7 @@
       <c r="Y372" s="101"/>
       <c r="Z372" s="101"/>
     </row>
-    <row r="373" spans="2:26" customFormat="1" ht="16">
+    <row r="373" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B373" s="101"/>
       <c r="C373" s="101"/>
       <c r="D373" s="101"/>
@@ -15712,7 +15543,7 @@
       <c r="Y373" s="101"/>
       <c r="Z373" s="101"/>
     </row>
-    <row r="374" spans="2:26" customFormat="1" ht="16">
+    <row r="374" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B374" s="101"/>
       <c r="C374" s="101"/>
       <c r="D374" s="101"/>
@@ -15739,7 +15570,7 @@
       <c r="Y374" s="101"/>
       <c r="Z374" s="101"/>
     </row>
-    <row r="375" spans="2:26" customFormat="1" ht="16">
+    <row r="375" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B375" s="101"/>
       <c r="C375" s="101"/>
       <c r="D375" s="101"/>
@@ -15766,7 +15597,7 @@
       <c r="Y375" s="101"/>
       <c r="Z375" s="101"/>
     </row>
-    <row r="376" spans="2:26" customFormat="1" ht="16">
+    <row r="376" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B376" s="101"/>
       <c r="C376" s="101"/>
       <c r="D376" s="101"/>
@@ -15793,7 +15624,7 @@
       <c r="Y376" s="101"/>
       <c r="Z376" s="101"/>
     </row>
-    <row r="377" spans="2:26" customFormat="1" ht="16">
+    <row r="377" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B377" s="101"/>
       <c r="C377" s="101"/>
       <c r="D377" s="101"/>
@@ -15820,7 +15651,7 @@
       <c r="Y377" s="101"/>
       <c r="Z377" s="101"/>
     </row>
-    <row r="378" spans="2:26" customFormat="1" ht="16">
+    <row r="378" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B378" s="101"/>
       <c r="C378" s="101"/>
       <c r="D378" s="101"/>
@@ -15847,7 +15678,7 @@
       <c r="Y378" s="101"/>
       <c r="Z378" s="101"/>
     </row>
-    <row r="379" spans="2:26" customFormat="1" ht="16">
+    <row r="379" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B379" s="101"/>
       <c r="C379" s="101"/>
       <c r="D379" s="101"/>
@@ -15874,7 +15705,7 @@
       <c r="Y379" s="101"/>
       <c r="Z379" s="101"/>
     </row>
-    <row r="380" spans="2:26" customFormat="1" ht="16">
+    <row r="380" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B380" s="101"/>
       <c r="C380" s="101"/>
       <c r="D380" s="101"/>
@@ -15901,7 +15732,7 @@
       <c r="Y380" s="101"/>
       <c r="Z380" s="101"/>
     </row>
-    <row r="381" spans="2:26" customFormat="1" ht="16">
+    <row r="381" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B381" s="101"/>
       <c r="C381" s="101"/>
       <c r="D381" s="101"/>
@@ -15928,7 +15759,7 @@
       <c r="Y381" s="101"/>
       <c r="Z381" s="101"/>
     </row>
-    <row r="382" spans="2:26" customFormat="1" ht="16">
+    <row r="382" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B382" s="101"/>
       <c r="C382" s="101"/>
       <c r="D382" s="101"/>
@@ -15955,7 +15786,7 @@
       <c r="Y382" s="101"/>
       <c r="Z382" s="101"/>
     </row>
-    <row r="383" spans="2:26" customFormat="1" ht="16">
+    <row r="383" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B383" s="101"/>
       <c r="C383" s="101"/>
       <c r="D383" s="101"/>
@@ -15982,7 +15813,7 @@
       <c r="Y383" s="101"/>
       <c r="Z383" s="101"/>
     </row>
-    <row r="384" spans="2:26" customFormat="1" ht="16">
+    <row r="384" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B384" s="101"/>
       <c r="C384" s="101"/>
       <c r="D384" s="101"/>
@@ -16009,7 +15840,7 @@
       <c r="Y384" s="101"/>
       <c r="Z384" s="101"/>
     </row>
-    <row r="385" spans="2:26" customFormat="1" ht="16">
+    <row r="385" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B385" s="101"/>
       <c r="C385" s="101"/>
       <c r="D385" s="101"/>
@@ -16036,7 +15867,7 @@
       <c r="Y385" s="101"/>
       <c r="Z385" s="101"/>
     </row>
-    <row r="386" spans="2:26" customFormat="1" ht="16">
+    <row r="386" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B386" s="101"/>
       <c r="C386" s="101"/>
       <c r="D386" s="101"/>
@@ -16063,7 +15894,7 @@
       <c r="Y386" s="101"/>
       <c r="Z386" s="101"/>
     </row>
-    <row r="387" spans="2:26" customFormat="1" ht="16">
+    <row r="387" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B387" s="101"/>
       <c r="C387" s="101"/>
       <c r="D387" s="101"/>
@@ -16090,7 +15921,7 @@
       <c r="Y387" s="101"/>
       <c r="Z387" s="101"/>
     </row>
-    <row r="388" spans="2:26" customFormat="1" ht="16">
+    <row r="388" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B388" s="101"/>
       <c r="C388" s="101"/>
       <c r="D388" s="101"/>
@@ -16117,7 +15948,7 @@
       <c r="Y388" s="101"/>
       <c r="Z388" s="101"/>
     </row>
-    <row r="389" spans="2:26" customFormat="1" ht="16">
+    <row r="389" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B389" s="101"/>
       <c r="C389" s="101"/>
       <c r="D389" s="101"/>
@@ -16144,7 +15975,7 @@
       <c r="Y389" s="101"/>
       <c r="Z389" s="101"/>
     </row>
-    <row r="390" spans="2:26" customFormat="1" ht="16">
+    <row r="390" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B390" s="101"/>
       <c r="C390" s="101"/>
       <c r="D390" s="101"/>
@@ -16171,7 +16002,7 @@
       <c r="Y390" s="101"/>
       <c r="Z390" s="101"/>
     </row>
-    <row r="391" spans="2:26" customFormat="1" ht="16">
+    <row r="391" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B391" s="101"/>
       <c r="C391" s="101"/>
       <c r="D391" s="101"/>
@@ -16198,7 +16029,7 @@
       <c r="Y391" s="101"/>
       <c r="Z391" s="101"/>
     </row>
-    <row r="392" spans="2:26" customFormat="1" ht="16">
+    <row r="392" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B392" s="101"/>
       <c r="C392" s="101"/>
       <c r="D392" s="101"/>
@@ -16225,7 +16056,7 @@
       <c r="Y392" s="101"/>
       <c r="Z392" s="101"/>
     </row>
-    <row r="393" spans="2:26" customFormat="1" ht="16">
+    <row r="393" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B393" s="101"/>
       <c r="C393" s="101"/>
       <c r="D393" s="101"/>
@@ -16252,7 +16083,7 @@
       <c r="Y393" s="101"/>
       <c r="Z393" s="101"/>
     </row>
-    <row r="394" spans="2:26" customFormat="1" ht="16">
+    <row r="394" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B394" s="101"/>
       <c r="C394" s="101"/>
       <c r="D394" s="101"/>
@@ -16279,7 +16110,7 @@
       <c r="Y394" s="101"/>
       <c r="Z394" s="101"/>
     </row>
-    <row r="395" spans="2:26" customFormat="1" ht="16">
+    <row r="395" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B395" s="101"/>
       <c r="C395" s="101"/>
       <c r="D395" s="101"/>
@@ -16306,7 +16137,7 @@
       <c r="Y395" s="101"/>
       <c r="Z395" s="101"/>
     </row>
-    <row r="396" spans="2:26" customFormat="1" ht="16">
+    <row r="396" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B396" s="101"/>
       <c r="C396" s="101"/>
       <c r="D396" s="101"/>
@@ -16333,7 +16164,7 @@
       <c r="Y396" s="101"/>
       <c r="Z396" s="101"/>
     </row>
-    <row r="397" spans="2:26" customFormat="1" ht="16">
+    <row r="397" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B397" s="101"/>
       <c r="C397" s="101"/>
       <c r="D397" s="101"/>
@@ -16360,7 +16191,7 @@
       <c r="Y397" s="101"/>
       <c r="Z397" s="101"/>
     </row>
-    <row r="398" spans="2:26" customFormat="1" ht="17" thickBot="1">
+    <row r="398" spans="2:26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B398" s="101"/>
       <c r="C398" s="101"/>
       <c r="D398" s="101"/>
@@ -16387,7 +16218,7 @@
       <c r="Y398" s="101"/>
       <c r="Z398" s="101"/>
     </row>
-    <row r="399" spans="2:26" s="24" customFormat="1">
+    <row r="399" spans="2:26" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B399" s="105"/>
       <c r="C399" s="105" t="s">
         <v>24</v>
@@ -16415,7 +16246,7 @@
       <c r="T399" s="105"/>
       <c r="U399" s="105"/>
     </row>
-    <row r="400" spans="2:26" customFormat="1" ht="16">
+    <row r="400" spans="2:26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B400" s="102"/>
       <c r="C400" s="112"/>
       <c r="D400" s="112"/>
@@ -16441,7 +16272,7 @@
       <c r="X400" s="112"/>
       <c r="Y400" s="112"/>
     </row>
-    <row r="401" spans="2:25" customFormat="1" ht="16">
+    <row r="401" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B401" s="102"/>
       <c r="C401" s="117" t="s">
         <v>59</v>
@@ -16469,7 +16300,7 @@
       <c r="X401" s="112"/>
       <c r="Y401" s="112"/>
     </row>
-    <row r="402" spans="2:25" customFormat="1" ht="16">
+    <row r="402" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B402" s="102"/>
       <c r="C402" s="101"/>
       <c r="D402" s="112"/>
@@ -16495,7 +16326,7 @@
       <c r="X402" s="112"/>
       <c r="Y402" s="112"/>
     </row>
-    <row r="403" spans="2:25" customFormat="1" ht="16">
+    <row r="403" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B403" s="102"/>
       <c r="C403" s="112"/>
       <c r="D403">
@@ -16523,7 +16354,7 @@
       <c r="X403" s="112"/>
       <c r="Y403" s="112"/>
     </row>
-    <row r="404" spans="2:25" customFormat="1" ht="16">
+    <row r="404" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B404" s="102"/>
       <c r="C404" s="112"/>
       <c r="D404" s="112"/>
@@ -16549,7 +16380,7 @@
       <c r="X404" s="112"/>
       <c r="Y404" s="112"/>
     </row>
-    <row r="405" spans="2:25" customFormat="1" ht="16">
+    <row r="405" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B405" s="102"/>
       <c r="C405" s="112"/>
       <c r="D405" s="112"/>
@@ -16574,7 +16405,7 @@
       <c r="X405" s="112"/>
       <c r="Y405" s="112"/>
     </row>
-    <row r="406" spans="2:25" customFormat="1" ht="16">
+    <row r="406" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B406" s="102"/>
       <c r="C406" s="112"/>
       <c r="D406" s="112"/>
@@ -16599,7 +16430,7 @@
       <c r="X406" s="112"/>
       <c r="Y406" s="112"/>
     </row>
-    <row r="407" spans="2:25" customFormat="1" ht="16">
+    <row r="407" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B407" s="102"/>
       <c r="C407" s="112"/>
       <c r="D407" s="112"/>
@@ -16623,7 +16454,7 @@
       <c r="X407" s="112"/>
       <c r="Y407" s="112"/>
     </row>
-    <row r="408" spans="2:25" customFormat="1" ht="16">
+    <row r="408" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B408" s="102"/>
       <c r="C408" s="112"/>
       <c r="D408" s="112"/>
@@ -16648,7 +16479,7 @@
       <c r="X408" s="112"/>
       <c r="Y408" s="112"/>
     </row>
-    <row r="409" spans="2:25" customFormat="1" ht="16">
+    <row r="409" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B409" s="102"/>
       <c r="C409" s="112"/>
       <c r="D409" s="112"/>
@@ -16674,7 +16505,7 @@
       <c r="X409" s="112"/>
       <c r="Y409" s="112"/>
     </row>
-    <row r="410" spans="2:25" customFormat="1" ht="16">
+    <row r="410" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B410" s="102"/>
       <c r="C410" s="112"/>
       <c r="D410" s="112"/>
@@ -16700,7 +16531,7 @@
       <c r="X410" s="112"/>
       <c r="Y410" s="112"/>
     </row>
-    <row r="411" spans="2:25" customFormat="1" ht="16">
+    <row r="411" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B411" s="102"/>
       <c r="C411" s="112"/>
       <c r="D411" s="112"/>
@@ -16726,7 +16557,7 @@
       <c r="X411" s="112"/>
       <c r="Y411" s="112"/>
     </row>
-    <row r="412" spans="2:25" customFormat="1" ht="16">
+    <row r="412" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B412" s="102"/>
       <c r="C412" s="112"/>
       <c r="D412" s="112"/>
@@ -16752,7 +16583,7 @@
       <c r="X412" s="112"/>
       <c r="Y412" s="112"/>
     </row>
-    <row r="413" spans="2:25" customFormat="1" ht="16">
+    <row r="413" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B413" s="102"/>
       <c r="C413" s="112"/>
       <c r="D413" s="112"/>
@@ -16778,7 +16609,7 @@
       <c r="X413" s="112"/>
       <c r="Y413" s="112"/>
     </row>
-    <row r="414" spans="2:25" customFormat="1" ht="16">
+    <row r="414" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B414" s="102"/>
       <c r="C414" s="112"/>
       <c r="D414" s="112"/>
@@ -16804,7 +16635,7 @@
       <c r="X414" s="112"/>
       <c r="Y414" s="112"/>
     </row>
-    <row r="415" spans="2:25" customFormat="1" ht="16">
+    <row r="415" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B415" s="102"/>
       <c r="C415" s="112"/>
       <c r="D415" s="112"/>
@@ -16830,7 +16661,7 @@
       <c r="X415" s="112"/>
       <c r="Y415" s="112"/>
     </row>
-    <row r="416" spans="2:25" customFormat="1" ht="16">
+    <row r="416" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B416" s="102"/>
       <c r="C416" s="112"/>
       <c r="D416" s="112"/>
@@ -16856,7 +16687,7 @@
       <c r="X416" s="112"/>
       <c r="Y416" s="112"/>
     </row>
-    <row r="417" spans="2:25" customFormat="1" ht="16">
+    <row r="417" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B417" s="102"/>
       <c r="C417" s="112"/>
       <c r="D417" s="112"/>
@@ -16882,7 +16713,7 @@
       <c r="X417" s="112"/>
       <c r="Y417" s="112"/>
     </row>
-    <row r="418" spans="2:25" customFormat="1" ht="16">
+    <row r="418" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B418" s="102"/>
       <c r="C418" s="112"/>
       <c r="D418" s="112"/>
@@ -16908,7 +16739,7 @@
       <c r="X418" s="112"/>
       <c r="Y418" s="112"/>
     </row>
-    <row r="419" spans="2:25" customFormat="1" ht="16">
+    <row r="419" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B419" s="102"/>
       <c r="C419" s="112"/>
       <c r="D419" s="112"/>
@@ -16934,7 +16765,7 @@
       <c r="X419" s="112"/>
       <c r="Y419" s="112"/>
     </row>
-    <row r="420" spans="2:25" customFormat="1" ht="16">
+    <row r="420" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B420" s="102"/>
       <c r="C420" s="112"/>
       <c r="D420" s="112"/>
@@ -16960,7 +16791,7 @@
       <c r="X420" s="112"/>
       <c r="Y420" s="112"/>
     </row>
-    <row r="421" spans="2:25" customFormat="1" ht="16">
+    <row r="421" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B421" s="102"/>
       <c r="C421" s="112"/>
       <c r="D421" s="112"/>
@@ -16986,7 +16817,7 @@
       <c r="X421" s="112"/>
       <c r="Y421" s="112"/>
     </row>
-    <row r="422" spans="2:25" customFormat="1" ht="16">
+    <row r="422" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B422" s="102"/>
       <c r="C422" s="112"/>
       <c r="D422" s="112"/>
@@ -17012,7 +16843,7 @@
       <c r="X422" s="112"/>
       <c r="Y422" s="112"/>
     </row>
-    <row r="423" spans="2:25" customFormat="1" ht="16">
+    <row r="423" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B423" s="102"/>
       <c r="C423" s="112"/>
       <c r="D423" s="112"/>
@@ -17038,7 +16869,7 @@
       <c r="X423" s="112"/>
       <c r="Y423" s="112"/>
     </row>
-    <row r="424" spans="2:25" customFormat="1" ht="16">
+    <row r="424" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B424" s="102"/>
       <c r="C424" s="112"/>
       <c r="D424" s="112"/>
@@ -17064,7 +16895,7 @@
       <c r="X424" s="112"/>
       <c r="Y424" s="112"/>
     </row>
-    <row r="425" spans="2:25" customFormat="1" ht="16">
+    <row r="425" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B425" s="102"/>
       <c r="C425" s="112"/>
       <c r="D425" s="112"/>
@@ -17090,353 +16921,353 @@
       <c r="X425" s="112"/>
       <c r="Y425" s="112"/>
     </row>
-    <row r="426" spans="2:25" customFormat="1" ht="16">
+    <row r="426" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B426" s="102"/>
     </row>
-    <row r="427" spans="2:25" customFormat="1" ht="16">
+    <row r="427" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B427" s="102"/>
     </row>
-    <row r="428" spans="2:25" customFormat="1" ht="16">
+    <row r="428" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B428" s="102"/>
     </row>
-    <row r="429" spans="2:25" customFormat="1" ht="16">
+    <row r="429" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B429" s="102"/>
     </row>
-    <row r="430" spans="2:25" customFormat="1" ht="16">
+    <row r="430" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B430" s="102"/>
       <c r="D430">
         <v>111</v>
       </c>
     </row>
-    <row r="431" spans="2:25" customFormat="1" ht="16">
+    <row r="431" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B431" s="102"/>
     </row>
-    <row r="432" spans="2:25" customFormat="1" ht="16">
+    <row r="432" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B432" s="102"/>
     </row>
-    <row r="433" spans="2:2" customFormat="1" ht="16">
+    <row r="433" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B433" s="102"/>
     </row>
-    <row r="434" spans="2:2" customFormat="1" ht="16">
+    <row r="434" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B434" s="102"/>
     </row>
-    <row r="435" spans="2:2" customFormat="1" ht="16">
+    <row r="435" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B435" s="102"/>
     </row>
-    <row r="436" spans="2:2" customFormat="1" ht="16">
+    <row r="436" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B436" s="102"/>
     </row>
-    <row r="437" spans="2:2" customFormat="1" ht="16">
+    <row r="437" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B437" s="102"/>
     </row>
-    <row r="438" spans="2:2" customFormat="1" ht="16">
+    <row r="438" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B438" s="102"/>
     </row>
-    <row r="439" spans="2:2" customFormat="1" ht="16">
+    <row r="439" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B439" s="102"/>
     </row>
-    <row r="440" spans="2:2" customFormat="1" ht="16">
+    <row r="440" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B440" s="102"/>
     </row>
-    <row r="441" spans="2:2" customFormat="1" ht="16">
+    <row r="441" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B441" s="102"/>
     </row>
-    <row r="442" spans="2:2" customFormat="1" ht="16">
+    <row r="442" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B442" s="102"/>
     </row>
-    <row r="443" spans="2:2" customFormat="1" ht="16">
+    <row r="443" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B443" s="102"/>
     </row>
-    <row r="444" spans="2:2" customFormat="1" ht="16">
+    <row r="444" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B444" s="102"/>
     </row>
-    <row r="445" spans="2:2" customFormat="1" ht="16">
+    <row r="445" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B445" s="102"/>
     </row>
-    <row r="446" spans="2:2" customFormat="1" ht="16">
+    <row r="446" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B446" s="102"/>
     </row>
-    <row r="447" spans="2:2" customFormat="1" ht="16">
+    <row r="447" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B447" s="102"/>
     </row>
-    <row r="448" spans="2:2" customFormat="1" ht="16">
+    <row r="448" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B448" s="102"/>
     </row>
-    <row r="449" spans="2:4" customFormat="1" ht="16">
+    <row r="449" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B449" s="102"/>
     </row>
-    <row r="450" spans="2:4" customFormat="1" ht="16">
+    <row r="450" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B450" s="102"/>
     </row>
-    <row r="451" spans="2:4" customFormat="1" ht="16">
+    <row r="451" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B451" s="102"/>
     </row>
-    <row r="452" spans="2:4" customFormat="1" ht="16">
+    <row r="452" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B452" s="102"/>
     </row>
-    <row r="453" spans="2:4" customFormat="1" ht="16">
+    <row r="453" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B453" s="102"/>
       <c r="D453">
         <v>112</v>
       </c>
     </row>
-    <row r="454" spans="2:4" customFormat="1" ht="16">
+    <row r="454" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B454" s="102"/>
     </row>
-    <row r="455" spans="2:4" customFormat="1" ht="16">
+    <row r="455" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B455" s="102"/>
     </row>
-    <row r="456" spans="2:4" customFormat="1" ht="16">
+    <row r="456" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B456" s="102"/>
     </row>
-    <row r="457" spans="2:4" customFormat="1" ht="16">
+    <row r="457" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B457" s="102"/>
     </row>
-    <row r="458" spans="2:4" customFormat="1" ht="16">
+    <row r="458" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B458" s="102"/>
     </row>
-    <row r="459" spans="2:4" customFormat="1" ht="16">
+    <row r="459" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B459" s="102"/>
     </row>
-    <row r="460" spans="2:4" customFormat="1" ht="16">
+    <row r="460" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B460" s="102"/>
     </row>
-    <row r="461" spans="2:4" customFormat="1" ht="16">
+    <row r="461" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B461" s="102"/>
     </row>
-    <row r="462" spans="2:4" customFormat="1" ht="16">
+    <row r="462" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B462" s="102"/>
     </row>
-    <row r="463" spans="2:4" customFormat="1" ht="16">
+    <row r="463" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B463" s="102"/>
     </row>
-    <row r="464" spans="2:4" customFormat="1" ht="16">
+    <row r="464" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B464" s="102"/>
     </row>
-    <row r="465" spans="2:4" customFormat="1" ht="16">
+    <row r="465" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B465" s="102"/>
     </row>
-    <row r="466" spans="2:4" customFormat="1" ht="16">
+    <row r="466" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B466" s="102"/>
     </row>
-    <row r="467" spans="2:4" customFormat="1" ht="16">
+    <row r="467" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B467" s="102"/>
     </row>
-    <row r="468" spans="2:4" customFormat="1" ht="16">
+    <row r="468" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B468" s="102"/>
     </row>
-    <row r="469" spans="2:4" customFormat="1" ht="16">
+    <row r="469" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B469" s="102"/>
     </row>
-    <row r="470" spans="2:4" customFormat="1" ht="16">
+    <row r="470" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B470" s="102"/>
     </row>
-    <row r="471" spans="2:4" customFormat="1" ht="16">
+    <row r="471" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B471" s="102"/>
     </row>
-    <row r="472" spans="2:4" customFormat="1" ht="16">
+    <row r="472" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B472" s="102"/>
     </row>
-    <row r="473" spans="2:4" customFormat="1" ht="16">
+    <row r="473" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B473" s="102"/>
     </row>
-    <row r="474" spans="2:4" customFormat="1" ht="16">
+    <row r="474" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B474" s="102"/>
     </row>
-    <row r="475" spans="2:4" customFormat="1" ht="16">
+    <row r="475" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B475" s="102"/>
     </row>
-    <row r="476" spans="2:4" customFormat="1" ht="16">
+    <row r="476" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B476" s="102"/>
     </row>
-    <row r="477" spans="2:4" customFormat="1" ht="16">
+    <row r="477" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B477" s="102"/>
       <c r="D477">
         <v>113</v>
       </c>
     </row>
-    <row r="478" spans="2:4" customFormat="1" ht="16">
+    <row r="478" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B478" s="102"/>
     </row>
-    <row r="479" spans="2:4" customFormat="1" ht="16">
+    <row r="479" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B479" s="102"/>
     </row>
-    <row r="480" spans="2:4" customFormat="1" ht="16">
+    <row r="480" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B480" s="102"/>
     </row>
-    <row r="481" spans="2:2" customFormat="1" ht="16">
+    <row r="481" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B481" s="102"/>
     </row>
-    <row r="482" spans="2:2" customFormat="1" ht="16">
+    <row r="482" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B482" s="102"/>
     </row>
-    <row r="483" spans="2:2" customFormat="1" ht="16">
+    <row r="483" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B483" s="102"/>
     </row>
-    <row r="484" spans="2:2" customFormat="1" ht="16">
+    <row r="484" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B484" s="102"/>
     </row>
-    <row r="485" spans="2:2" customFormat="1" ht="16">
+    <row r="485" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B485" s="102"/>
     </row>
-    <row r="486" spans="2:2" customFormat="1" ht="16">
+    <row r="486" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B486" s="102"/>
     </row>
-    <row r="487" spans="2:2" customFormat="1" ht="16">
+    <row r="487" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B487" s="102"/>
     </row>
-    <row r="488" spans="2:2" customFormat="1" ht="16">
+    <row r="488" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B488" s="102"/>
     </row>
-    <row r="489" spans="2:2" customFormat="1" ht="16">
+    <row r="489" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B489" s="102"/>
     </row>
-    <row r="490" spans="2:2" customFormat="1" ht="16">
+    <row r="490" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B490" s="102"/>
     </row>
-    <row r="491" spans="2:2" customFormat="1" ht="16">
+    <row r="491" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B491" s="102"/>
     </row>
-    <row r="492" spans="2:2" customFormat="1" ht="16">
+    <row r="492" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B492" s="102"/>
     </row>
-    <row r="493" spans="2:2" customFormat="1" ht="16">
+    <row r="493" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B493" s="102"/>
     </row>
-    <row r="494" spans="2:2" customFormat="1" ht="16">
+    <row r="494" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B494" s="102"/>
     </row>
-    <row r="495" spans="2:2" customFormat="1" ht="16">
+    <row r="495" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B495" s="102"/>
     </row>
-    <row r="496" spans="2:2" customFormat="1" ht="16">
+    <row r="496" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B496" s="102"/>
     </row>
-    <row r="497" spans="2:4" customFormat="1" ht="16">
+    <row r="497" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B497" s="102"/>
     </row>
-    <row r="498" spans="2:4" customFormat="1" ht="16">
+    <row r="498" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B498" s="102"/>
     </row>
-    <row r="499" spans="2:4" customFormat="1" ht="16">
+    <row r="499" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B499" s="102"/>
     </row>
-    <row r="500" spans="2:4" customFormat="1" ht="16">
+    <row r="500" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B500" s="102"/>
     </row>
-    <row r="501" spans="2:4" customFormat="1" ht="16">
+    <row r="501" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B501" s="102"/>
     </row>
-    <row r="502" spans="2:4" customFormat="1" ht="16">
+    <row r="502" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B502" s="102"/>
     </row>
-    <row r="503" spans="2:4" customFormat="1" ht="16">
+    <row r="503" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B503" s="102"/>
       <c r="D503">
         <v>114</v>
       </c>
     </row>
-    <row r="504" spans="2:4" customFormat="1" ht="16">
+    <row r="504" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B504" s="102"/>
     </row>
-    <row r="505" spans="2:4" customFormat="1" ht="16">
+    <row r="505" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B505" s="102"/>
     </row>
-    <row r="506" spans="2:4" customFormat="1" ht="16">
+    <row r="506" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B506" s="102"/>
     </row>
-    <row r="507" spans="2:4" customFormat="1" ht="16">
+    <row r="507" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B507" s="102"/>
     </row>
-    <row r="508" spans="2:4" customFormat="1" ht="16">
+    <row r="508" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B508" s="102"/>
     </row>
-    <row r="509" spans="2:4" customFormat="1" ht="16">
+    <row r="509" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B509" s="102"/>
     </row>
-    <row r="510" spans="2:4" customFormat="1" ht="16">
+    <row r="510" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B510" s="102"/>
     </row>
-    <row r="511" spans="2:4" customFormat="1" ht="16">
+    <row r="511" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B511" s="102"/>
     </row>
-    <row r="512" spans="2:4" customFormat="1" ht="16">
+    <row r="512" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B512" s="102"/>
     </row>
-    <row r="513" spans="2:7" customFormat="1" ht="16">
+    <row r="513" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B513" s="102"/>
     </row>
-    <row r="514" spans="2:7" customFormat="1" ht="16">
+    <row r="514" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B514" s="102"/>
       <c r="G514" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="515" spans="2:7" customFormat="1" ht="16">
+    <row r="515" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B515" s="102"/>
       <c r="G515" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="516" spans="2:7" customFormat="1" ht="16">
+    <row r="516" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B516" s="102"/>
       <c r="G516" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="517" spans="2:7" customFormat="1" ht="16">
+    <row r="517" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B517" s="102"/>
     </row>
-    <row r="518" spans="2:7" customFormat="1" ht="16">
+    <row r="518" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B518" s="102"/>
     </row>
-    <row r="519" spans="2:7" customFormat="1" ht="16">
+    <row r="519" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B519" s="102"/>
     </row>
-    <row r="520" spans="2:7" customFormat="1" ht="16">
+    <row r="520" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B520" s="102"/>
     </row>
-    <row r="521" spans="2:7" customFormat="1" ht="16">
+    <row r="521" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B521" s="102"/>
     </row>
-    <row r="522" spans="2:7" customFormat="1" ht="16">
+    <row r="522" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B522" s="102"/>
     </row>
-    <row r="523" spans="2:7" customFormat="1" ht="16">
+    <row r="523" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B523" s="102"/>
     </row>
-    <row r="524" spans="2:7" customFormat="1" ht="16">
+    <row r="524" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B524" s="102"/>
     </row>
-    <row r="525" spans="2:7" customFormat="1" ht="16">
+    <row r="525" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B525" s="102"/>
     </row>
-    <row r="526" spans="2:7" customFormat="1" ht="16">
+    <row r="526" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B526" s="102"/>
     </row>
-    <row r="527" spans="2:7" customFormat="1" ht="16">
+    <row r="527" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B527" s="102"/>
     </row>
-    <row r="528" spans="2:7" customFormat="1" ht="16">
+    <row r="528" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B528" s="102"/>
     </row>
-    <row r="529" spans="1:43" customFormat="1" ht="16">
+    <row r="529" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B529" s="102"/>
     </row>
-    <row r="530" spans="1:43" customFormat="1" ht="16">
+    <row r="530" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B530" s="102"/>
     </row>
-    <row r="531" spans="1:43" customFormat="1" ht="16">
+    <row r="531" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B531" s="102"/>
     </row>
-    <row r="532" spans="1:43" customFormat="1" ht="16">
+    <row r="532" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B532" s="102"/>
     </row>
-    <row r="533" spans="1:43" customFormat="1" ht="16">
+    <row r="533" spans="1:43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B533" s="102"/>
     </row>
-    <row r="535" spans="1:43" ht="16" thickBot="1"/>
-    <row r="536" spans="1:43">
+    <row r="535" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="536" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A536" s="24"/>
       <c r="B536" s="105"/>
       <c r="C536" s="105" t="s">
@@ -17487,7 +17318,7 @@
       <c r="AP536" s="24"/>
       <c r="AQ536" s="24"/>
     </row>
-    <row r="537" spans="1:43" ht="16">
+    <row r="537" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A537"/>
       <c r="B537" s="102"/>
       <c r="C537" s="112"/>
@@ -17532,7 +17363,7 @@
       <c r="AP537"/>
       <c r="AQ537"/>
     </row>
-    <row r="538" spans="1:43" ht="16">
+    <row r="538" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A538"/>
       <c r="B538" s="102"/>
       <c r="C538" s="118" t="s">
@@ -17579,7 +17410,7 @@
       <c r="AP538"/>
       <c r="AQ538"/>
     </row>
-    <row r="539" spans="1:43" ht="16">
+    <row r="539" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A539"/>
       <c r="B539" s="102"/>
       <c r="C539" s="112"/>
@@ -17624,7 +17455,7 @@
       <c r="AP539"/>
       <c r="AQ539"/>
     </row>
-    <row r="540" spans="1:43" ht="16">
+    <row r="540" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A540"/>
       <c r="B540" s="102"/>
       <c r="C540" s="112"/>
@@ -17675,7 +17506,7 @@
       <c r="AP540"/>
       <c r="AQ540"/>
     </row>
-    <row r="541" spans="1:43" ht="16">
+    <row r="541" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A541"/>
       <c r="B541" s="102"/>
       <c r="C541" s="112"/>
@@ -17727,7 +17558,7 @@
       <c r="AP541"/>
       <c r="AQ541"/>
     </row>
-    <row r="542" spans="1:43" ht="16">
+    <row r="542" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A542"/>
       <c r="B542" s="102"/>
       <c r="C542" s="112"/>
@@ -17772,7 +17603,7 @@
       <c r="AP542"/>
       <c r="AQ542"/>
     </row>
-    <row r="543" spans="1:43" ht="16">
+    <row r="543" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A543"/>
       <c r="B543" s="102"/>
       <c r="C543" s="112"/>
@@ -17817,7 +17648,7 @@
       <c r="AP543"/>
       <c r="AQ543"/>
     </row>
-    <row r="544" spans="1:43" ht="16">
+    <row r="544" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A544"/>
       <c r="B544" s="102"/>
       <c r="C544" s="112"/>
@@ -17862,7 +17693,7 @@
       <c r="AP544"/>
       <c r="AQ544"/>
     </row>
-    <row r="545" spans="1:43" ht="16">
+    <row r="545" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A545"/>
       <c r="B545" s="102"/>
       <c r="C545" s="112"/>
@@ -17907,7 +17738,7 @@
       <c r="AP545"/>
       <c r="AQ545"/>
     </row>
-    <row r="546" spans="1:43" ht="16">
+    <row r="546" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A546"/>
       <c r="B546" s="102"/>
       <c r="C546" s="112"/>
@@ -17952,7 +17783,7 @@
       <c r="AP546"/>
       <c r="AQ546"/>
     </row>
-    <row r="547" spans="1:43" ht="16">
+    <row r="547" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A547"/>
       <c r="B547" s="102"/>
       <c r="C547" s="112"/>
@@ -17997,7 +17828,7 @@
       <c r="AP547"/>
       <c r="AQ547"/>
     </row>
-    <row r="548" spans="1:43" ht="16">
+    <row r="548" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A548"/>
       <c r="B548" s="102"/>
       <c r="C548" s="112"/>
@@ -18042,7 +17873,7 @@
       <c r="AP548"/>
       <c r="AQ548"/>
     </row>
-    <row r="549" spans="1:43" ht="16">
+    <row r="549" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A549"/>
       <c r="B549" s="102"/>
       <c r="C549" s="112"/>
@@ -18087,7 +17918,7 @@
       <c r="AP549"/>
       <c r="AQ549"/>
     </row>
-    <row r="550" spans="1:43" ht="16">
+    <row r="550" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A550"/>
       <c r="B550" s="102"/>
       <c r="C550" s="112"/>
@@ -18132,7 +17963,7 @@
       <c r="AP550"/>
       <c r="AQ550"/>
     </row>
-    <row r="551" spans="1:43" ht="16">
+    <row r="551" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A551"/>
       <c r="B551" s="102"/>
       <c r="C551" s="112"/>
@@ -18177,7 +18008,7 @@
       <c r="AP551"/>
       <c r="AQ551"/>
     </row>
-    <row r="552" spans="1:43" ht="16">
+    <row r="552" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A552"/>
       <c r="B552" s="102"/>
       <c r="C552" s="112"/>
@@ -18222,7 +18053,7 @@
       <c r="AP552"/>
       <c r="AQ552"/>
     </row>
-    <row r="553" spans="1:43" ht="16">
+    <row r="553" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A553"/>
       <c r="B553" s="102"/>
       <c r="C553" s="112"/>
@@ -18267,7 +18098,7 @@
       <c r="AP553"/>
       <c r="AQ553"/>
     </row>
-    <row r="554" spans="1:43" ht="16">
+    <row r="554" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A554"/>
       <c r="B554" s="102"/>
       <c r="C554" s="112"/>
@@ -18312,7 +18143,7 @@
       <c r="AP554"/>
       <c r="AQ554"/>
     </row>
-    <row r="555" spans="1:43" ht="16">
+    <row r="555" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A555"/>
       <c r="B555" s="102"/>
       <c r="C555" s="112"/>
@@ -18357,7 +18188,7 @@
       <c r="AP555"/>
       <c r="AQ555"/>
     </row>
-    <row r="556" spans="1:43" ht="16">
+    <row r="556" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A556"/>
       <c r="B556" s="102"/>
       <c r="C556" s="112"/>
@@ -18402,7 +18233,7 @@
       <c r="AP556"/>
       <c r="AQ556"/>
     </row>
-    <row r="557" spans="1:43" ht="16">
+    <row r="557" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A557"/>
       <c r="B557" s="102"/>
       <c r="C557" s="112"/>
@@ -18447,7 +18278,7 @@
       <c r="AP557"/>
       <c r="AQ557"/>
     </row>
-    <row r="558" spans="1:43" ht="16">
+    <row r="558" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A558"/>
       <c r="B558" s="102"/>
       <c r="C558" s="112"/>
@@ -18492,7 +18323,7 @@
       <c r="AP558"/>
       <c r="AQ558"/>
     </row>
-    <row r="559" spans="1:43" ht="16">
+    <row r="559" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A559"/>
       <c r="B559" s="102"/>
       <c r="C559" s="112"/>
@@ -18537,7 +18368,7 @@
       <c r="AP559"/>
       <c r="AQ559"/>
     </row>
-    <row r="560" spans="1:43" ht="16">
+    <row r="560" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A560"/>
       <c r="B560" s="102"/>
       <c r="C560" s="112"/>
@@ -18582,7 +18413,7 @@
       <c r="AP560"/>
       <c r="AQ560"/>
     </row>
-    <row r="561" spans="1:43" ht="16">
+    <row r="561" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A561"/>
       <c r="B561" s="102"/>
       <c r="C561" s="112"/>
@@ -18627,7 +18458,7 @@
       <c r="AP561"/>
       <c r="AQ561"/>
     </row>
-    <row r="562" spans="1:43" ht="16">
+    <row r="562" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A562"/>
       <c r="B562" s="102"/>
       <c r="C562" s="112"/>
@@ -18672,7 +18503,7 @@
       <c r="AP562"/>
       <c r="AQ562"/>
     </row>
-    <row r="563" spans="1:43" ht="16">
+    <row r="563" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A563"/>
       <c r="B563" s="102"/>
       <c r="C563" s="112"/>
@@ -18717,7 +18548,7 @@
       <c r="AP563"/>
       <c r="AQ563"/>
     </row>
-    <row r="564" spans="1:43" ht="16">
+    <row r="564" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A564"/>
       <c r="B564" s="102"/>
       <c r="C564" s="112"/>
@@ -18762,7 +18593,7 @@
       <c r="AP564"/>
       <c r="AQ564"/>
     </row>
-    <row r="565" spans="1:43" ht="16">
+    <row r="565" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A565"/>
       <c r="B565" s="102"/>
       <c r="C565" s="112"/>
@@ -18807,7 +18638,7 @@
       <c r="AP565"/>
       <c r="AQ565"/>
     </row>
-    <row r="566" spans="1:43" ht="16">
+    <row r="566" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A566"/>
       <c r="B566" s="102"/>
       <c r="C566" s="112"/>
@@ -18852,7 +18683,7 @@
       <c r="AP566"/>
       <c r="AQ566"/>
     </row>
-    <row r="567" spans="1:43" ht="16">
+    <row r="567" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A567"/>
       <c r="B567" s="102"/>
       <c r="C567" s="112"/>
@@ -18897,7 +18728,7 @@
       <c r="AP567"/>
       <c r="AQ567"/>
     </row>
-    <row r="568" spans="1:43" ht="16">
+    <row r="568" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A568"/>
       <c r="B568" s="102"/>
       <c r="C568" s="112"/>
@@ -18942,7 +18773,7 @@
       <c r="AP568"/>
       <c r="AQ568"/>
     </row>
-    <row r="569" spans="1:43" ht="16">
+    <row r="569" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A569"/>
       <c r="B569" s="102"/>
       <c r="C569" s="112"/>
@@ -18987,7 +18818,7 @@
       <c r="AP569"/>
       <c r="AQ569"/>
     </row>
-    <row r="570" spans="1:43" ht="16">
+    <row r="570" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A570"/>
       <c r="B570" s="102"/>
       <c r="C570" s="112"/>
@@ -19032,7 +18863,7 @@
       <c r="AP570"/>
       <c r="AQ570"/>
     </row>
-    <row r="571" spans="1:43" ht="17" thickBot="1">
+    <row r="571" spans="1:43" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A571"/>
       <c r="B571" s="102"/>
       <c r="C571" s="112"/>
@@ -19077,7 +18908,7 @@
       <c r="AP571"/>
       <c r="AQ571"/>
     </row>
-    <row r="572" spans="1:43">
+    <row r="572" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B572" s="105"/>
       <c r="C572" s="105" t="s">
         <v>24</v>
@@ -19103,7 +18934,7 @@
       <c r="R572" s="105"/>
       <c r="S572" s="105"/>
     </row>
-    <row r="573" spans="1:43">
+    <row r="573" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B573" s="102"/>
       <c r="C573" s="112"/>
       <c r="D573" s="112"/>
@@ -19123,7 +18954,7 @@
       <c r="R573" s="112"/>
       <c r="S573" s="112"/>
     </row>
-    <row r="574" spans="1:43">
+    <row r="574" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B574" s="102"/>
       <c r="C574" s="112" t="s">
         <v>119</v>
@@ -19147,7 +18978,7 @@
       <c r="R574" s="112"/>
       <c r="S574" s="112"/>
     </row>
-    <row r="575" spans="1:43">
+    <row r="575" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B575" s="102"/>
       <c r="C575" s="112"/>
       <c r="D575" s="112"/>
@@ -19167,7 +18998,7 @@
       <c r="R575" s="112"/>
       <c r="S575" s="112"/>
     </row>
-    <row r="576" spans="1:43">
+    <row r="576" spans="1:43" x14ac:dyDescent="0.2">
       <c r="B576" s="102"/>
       <c r="C576" s="112"/>
       <c r="D576" s="112" t="s">
@@ -19191,7 +19022,7 @@
       <c r="R576" s="112"/>
       <c r="S576" s="112"/>
     </row>
-    <row r="577" spans="2:19">
+    <row r="577" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B577" s="102"/>
       <c r="C577" s="112"/>
       <c r="D577" s="112"/>
@@ -19211,7 +19042,7 @@
       <c r="R577" s="112"/>
       <c r="S577" s="112"/>
     </row>
-    <row r="578" spans="2:19" ht="16">
+    <row r="578" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B578" s="102"/>
       <c r="C578" s="112"/>
       <c r="D578" s="112"/>
@@ -19231,7 +19062,7 @@
       <c r="R578" s="112"/>
       <c r="S578" s="112"/>
     </row>
-    <row r="579" spans="2:19">
+    <row r="579" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B579" s="102"/>
       <c r="C579" s="112"/>
       <c r="D579" s="112"/>
@@ -19251,7 +19082,7 @@
       <c r="R579" s="112"/>
       <c r="S579" s="112"/>
     </row>
-    <row r="580" spans="2:19" ht="16">
+    <row r="580" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B580" s="102"/>
       <c r="C580" s="112"/>
       <c r="D580" s="112"/>
@@ -19271,7 +19102,7 @@
       <c r="R580" s="112"/>
       <c r="S580" s="112"/>
     </row>
-    <row r="581" spans="2:19">
+    <row r="581" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B581" s="102"/>
       <c r="C581" s="112"/>
       <c r="D581" s="112"/>
@@ -19293,7 +19124,7 @@
       <c r="R581" s="112"/>
       <c r="S581" s="112"/>
     </row>
-    <row r="582" spans="2:19">
+    <row r="582" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B582" s="102"/>
       <c r="C582" s="112"/>
       <c r="D582" s="112"/>
@@ -19317,7 +19148,7 @@
       <c r="R582" s="112"/>
       <c r="S582" s="112"/>
     </row>
-    <row r="583" spans="2:19">
+    <row r="583" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B583" s="102"/>
       <c r="C583" s="112"/>
       <c r="D583" s="112"/>
@@ -19343,7 +19174,7 @@
       <c r="R583" s="112"/>
       <c r="S583" s="112"/>
     </row>
-    <row r="584" spans="2:19">
+    <row r="584" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B584" s="102"/>
       <c r="C584" s="112"/>
       <c r="D584" s="112"/>
@@ -19369,7 +19200,7 @@
       <c r="R584" s="112"/>
       <c r="S584" s="112"/>
     </row>
-    <row r="585" spans="2:19">
+    <row r="585" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B585" s="102"/>
       <c r="C585" s="112"/>
       <c r="D585" s="112"/>
@@ -19395,7 +19226,7 @@
       <c r="R585" s="112"/>
       <c r="S585" s="112"/>
     </row>
-    <row r="586" spans="2:19">
+    <row r="586" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B586" s="102"/>
       <c r="C586" s="112"/>
       <c r="D586" s="112"/>
@@ -19420,7 +19251,7 @@
       <c r="R586" s="112"/>
       <c r="S586" s="112"/>
     </row>
-    <row r="587" spans="2:19">
+    <row r="587" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B587" s="102"/>
       <c r="C587" s="112"/>
       <c r="D587" s="112"/>
@@ -19446,7 +19277,7 @@
       <c r="R587" s="112"/>
       <c r="S587" s="112"/>
     </row>
-    <row r="588" spans="2:19">
+    <row r="588" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B588" s="102"/>
       <c r="C588" s="112"/>
       <c r="D588" s="112"/>
@@ -19472,7 +19303,7 @@
       <c r="R588" s="112"/>
       <c r="S588" s="112"/>
     </row>
-    <row r="589" spans="2:19" ht="16">
+    <row r="589" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B589" s="102"/>
       <c r="C589" s="112"/>
       <c r="D589" s="112"/>
@@ -19492,7 +19323,7 @@
       <c r="R589" s="112"/>
       <c r="S589" s="112"/>
     </row>
-    <row r="590" spans="2:19" ht="16">
+    <row r="590" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B590" s="102"/>
       <c r="C590" s="112"/>
       <c r="D590" s="112"/>
@@ -19512,7 +19343,7 @@
       <c r="R590" s="112"/>
       <c r="S590" s="112"/>
     </row>
-    <row r="591" spans="2:19" ht="16">
+    <row r="591" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B591" s="102"/>
       <c r="C591" s="112"/>
       <c r="D591" s="112"/>
@@ -19532,7 +19363,7 @@
       <c r="R591" s="112"/>
       <c r="S591" s="112"/>
     </row>
-    <row r="592" spans="2:19">
+    <row r="592" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B592" s="102"/>
       <c r="C592" s="112"/>
       <c r="D592" s="112"/>
@@ -19554,7 +19385,7 @@
       <c r="R592" s="112"/>
       <c r="S592" s="112"/>
     </row>
-    <row r="593" spans="2:19">
+    <row r="593" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B593" s="102"/>
       <c r="C593" s="112"/>
       <c r="D593" s="112"/>
@@ -19580,7 +19411,7 @@
       <c r="R593" s="112"/>
       <c r="S593" s="112"/>
     </row>
-    <row r="594" spans="2:19">
+    <row r="594" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B594" s="102"/>
       <c r="C594" s="112"/>
       <c r="D594" s="112"/>
@@ -19606,7 +19437,7 @@
       <c r="R594" s="112"/>
       <c r="S594" s="112"/>
     </row>
-    <row r="595" spans="2:19">
+    <row r="595" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B595" s="102"/>
       <c r="C595" s="112"/>
       <c r="D595" s="112"/>
@@ -19632,7 +19463,7 @@
       <c r="R595" s="112"/>
       <c r="S595" s="112"/>
     </row>
-    <row r="596" spans="2:19">
+    <row r="596" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B596" s="102"/>
       <c r="C596" s="112"/>
       <c r="D596" s="112"/>
@@ -19658,7 +19489,7 @@
       <c r="R596" s="112"/>
       <c r="S596" s="112"/>
     </row>
-    <row r="597" spans="2:19">
+    <row r="597" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B597" s="102"/>
       <c r="C597" s="112"/>
       <c r="D597" s="112"/>
@@ -19683,7 +19514,7 @@
       <c r="R597" s="112"/>
       <c r="S597" s="112"/>
     </row>
-    <row r="598" spans="2:19">
+    <row r="598" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B598" s="102"/>
       <c r="C598" s="112"/>
       <c r="D598" s="112"/>
@@ -19709,7 +19540,7 @@
       <c r="R598" s="112"/>
       <c r="S598" s="112"/>
     </row>
-    <row r="599" spans="2:19">
+    <row r="599" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B599" s="102"/>
       <c r="C599" s="112"/>
       <c r="D599" s="112"/>
@@ -19735,7 +19566,7 @@
       <c r="R599" s="112"/>
       <c r="S599" s="112"/>
     </row>
-    <row r="600" spans="2:19">
+    <row r="600" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B600" s="102"/>
       <c r="C600" s="112"/>
       <c r="D600" s="112"/>
@@ -19755,7 +19586,7 @@
       <c r="R600" s="112"/>
       <c r="S600" s="112"/>
     </row>
-    <row r="601" spans="2:19">
+    <row r="601" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B601" s="102"/>
       <c r="C601" s="112"/>
       <c r="D601" s="112"/>
@@ -19777,7 +19608,7 @@
       <c r="R601" s="112"/>
       <c r="S601" s="112"/>
     </row>
-    <row r="602" spans="2:19">
+    <row r="602" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B602" s="102"/>
       <c r="C602" s="112"/>
       <c r="D602" s="112"/>
@@ -19804,7 +19635,7 @@
       <c r="R602" s="112"/>
       <c r="S602" s="112"/>
     </row>
-    <row r="603" spans="2:19">
+    <row r="603" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B603" s="102"/>
       <c r="C603" s="112"/>
       <c r="D603" s="112"/>
@@ -19824,7 +19655,7 @@
       <c r="R603" s="112"/>
       <c r="S603" s="112"/>
     </row>
-    <row r="604" spans="2:19">
+    <row r="604" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B604" s="102"/>
       <c r="C604" s="112"/>
       <c r="D604" s="112"/>
@@ -19846,7 +19677,7 @@
       <c r="R604" s="112"/>
       <c r="S604" s="112"/>
     </row>
-    <row r="605" spans="2:19">
+    <row r="605" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B605" s="102"/>
       <c r="C605" s="112"/>
       <c r="D605" s="112"/>
@@ -19873,7 +19704,7 @@
       <c r="R605" s="112"/>
       <c r="S605" s="112"/>
     </row>
-    <row r="606" spans="2:19">
+    <row r="606" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B606" s="102"/>
       <c r="C606" s="112"/>
       <c r="D606" s="112"/>
@@ -19900,7 +19731,7 @@
       <c r="R606" s="112"/>
       <c r="S606" s="112"/>
     </row>
-    <row r="607" spans="2:19">
+    <row r="607" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B607" s="102"/>
       <c r="C607" s="112"/>
       <c r="D607" s="112"/>
@@ -19920,7 +19751,7 @@
       <c r="R607" s="112"/>
       <c r="S607" s="112"/>
     </row>
-    <row r="608" spans="2:19">
+    <row r="608" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B608" s="102"/>
       <c r="C608" s="112"/>
       <c r="D608" s="112"/>
@@ -19940,7 +19771,7 @@
       <c r="R608" s="112"/>
       <c r="S608" s="112"/>
     </row>
-    <row r="609" spans="1:26">
+    <row r="609" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B609" s="102"/>
       <c r="C609" s="112"/>
       <c r="D609" s="112"/>
@@ -19960,7 +19791,7 @@
       <c r="R609" s="112"/>
       <c r="S609" s="112"/>
     </row>
-    <row r="610" spans="1:26">
+    <row r="610" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B610" s="102"/>
       <c r="C610" s="112"/>
       <c r="D610" s="112"/>
@@ -19980,7 +19811,7 @@
       <c r="R610" s="112"/>
       <c r="S610" s="112"/>
     </row>
-    <row r="611" spans="1:26">
+    <row r="611" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B611" s="102"/>
       <c r="C611" s="112"/>
       <c r="D611" s="112"/>
@@ -20000,7 +19831,7 @@
       <c r="R611" s="112"/>
       <c r="S611" s="112"/>
     </row>
-    <row r="612" spans="1:26" ht="16" thickBot="1">
+    <row r="612" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B612" s="102"/>
       <c r="C612" s="112"/>
       <c r="D612" s="112"/>
@@ -20020,7 +19851,7 @@
       <c r="R612" s="112"/>
       <c r="S612" s="112"/>
     </row>
-    <row r="613" spans="1:26">
+    <row r="613" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A613" s="24"/>
       <c r="B613" s="105"/>
       <c r="C613" s="105" t="s">
@@ -20054,7 +19885,7 @@
       <c r="Y613" s="24"/>
       <c r="Z613" s="24"/>
     </row>
-    <row r="614" spans="1:26" ht="16">
+    <row r="614" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A614"/>
       <c r="B614" s="102"/>
       <c r="C614" s="112"/>
@@ -20082,7 +19913,7 @@
       <c r="Y614" s="112"/>
       <c r="Z614"/>
     </row>
-    <row r="615" spans="1:26" ht="16">
+    <row r="615" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A615"/>
       <c r="B615" s="102"/>
       <c r="C615" s="112"/>
@@ -20110,7 +19941,7 @@
       <c r="Y615"/>
       <c r="Z615"/>
     </row>
-    <row r="616" spans="1:26" ht="16">
+    <row r="616" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A616"/>
       <c r="B616" s="102"/>
       <c r="C616" s="112" t="s">
@@ -20140,7 +19971,7 @@
       <c r="Y616"/>
       <c r="Z616"/>
     </row>
-    <row r="617" spans="1:26" ht="16">
+    <row r="617" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A617"/>
       <c r="B617" s="102"/>
       <c r="C617" s="112"/>
@@ -20168,7 +19999,7 @@
       <c r="Y617" s="112"/>
       <c r="Z617"/>
     </row>
-    <row r="618" spans="1:26" ht="16">
+    <row r="618" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A618"/>
       <c r="B618" s="102"/>
       <c r="C618" s="112"/>
@@ -20198,7 +20029,7 @@
       <c r="Y618" s="112"/>
       <c r="Z618"/>
     </row>
-    <row r="619" spans="1:26" ht="16">
+    <row r="619" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A619"/>
       <c r="B619" s="102"/>
       <c r="C619" s="112"/>
@@ -20232,7 +20063,7 @@
       <c r="Y619" s="112"/>
       <c r="Z619" s="112"/>
     </row>
-    <row r="620" spans="1:26" ht="16">
+    <row r="620" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A620"/>
       <c r="B620" s="102"/>
       <c r="C620" s="112"/>
@@ -20266,7 +20097,7 @@
       <c r="Y620" s="112"/>
       <c r="Z620" s="112"/>
     </row>
-    <row r="621" spans="1:26" ht="16">
+    <row r="621" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A621"/>
       <c r="B621" s="102"/>
       <c r="C621" s="112"/>
@@ -20294,7 +20125,7 @@
       <c r="Y621" s="112"/>
       <c r="Z621" s="112"/>
     </row>
-    <row r="622" spans="1:26" ht="16">
+    <row r="622" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A622"/>
       <c r="B622" s="102"/>
       <c r="C622" s="112"/>
@@ -20322,7 +20153,7 @@
       <c r="Y622" s="112"/>
       <c r="Z622" s="112"/>
     </row>
-    <row r="623" spans="1:26" ht="16">
+    <row r="623" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A623"/>
       <c r="B623" s="102"/>
       <c r="C623" s="112"/>
@@ -20350,7 +20181,7 @@
       <c r="Y623" s="112"/>
       <c r="Z623" s="112"/>
     </row>
-    <row r="624" spans="1:26" ht="16">
+    <row r="624" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A624"/>
       <c r="B624" s="102"/>
       <c r="C624" s="112"/>
@@ -20378,7 +20209,7 @@
       <c r="Y624" s="112"/>
       <c r="Z624" s="112"/>
     </row>
-    <row r="625" spans="1:26" ht="16">
+    <row r="625" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A625"/>
       <c r="B625" s="102"/>
       <c r="C625" s="112"/>
@@ -20406,7 +20237,7 @@
       <c r="Y625" s="112"/>
       <c r="Z625" s="112"/>
     </row>
-    <row r="626" spans="1:26" ht="16">
+    <row r="626" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A626"/>
       <c r="B626" s="102"/>
       <c r="C626" s="112"/>
@@ -20434,7 +20265,7 @@
       <c r="Y626" s="112"/>
       <c r="Z626" s="112"/>
     </row>
-    <row r="627" spans="1:26" ht="16">
+    <row r="627" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A627"/>
       <c r="B627" s="102"/>
       <c r="C627" s="112"/>
@@ -20462,7 +20293,7 @@
       <c r="Y627" s="112"/>
       <c r="Z627" s="112"/>
     </row>
-    <row r="628" spans="1:26" ht="16">
+    <row r="628" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A628"/>
       <c r="B628" s="102"/>
       <c r="C628" s="112"/>
@@ -20490,7 +20321,7 @@
       <c r="Y628" s="112"/>
       <c r="Z628" s="112"/>
     </row>
-    <row r="629" spans="1:26" ht="16">
+    <row r="629" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A629"/>
       <c r="B629" s="102"/>
       <c r="C629" s="112"/>
@@ -20518,7 +20349,7 @@
       <c r="Y629" s="112"/>
       <c r="Z629" s="112"/>
     </row>
-    <row r="630" spans="1:26" ht="16">
+    <row r="630" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A630"/>
       <c r="B630" s="102"/>
       <c r="C630" s="112"/>
@@ -20546,7 +20377,7 @@
       <c r="Y630" s="112"/>
       <c r="Z630" s="112"/>
     </row>
-    <row r="631" spans="1:26" ht="16">
+    <row r="631" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A631"/>
       <c r="B631" s="102"/>
       <c r="C631" s="112"/>
@@ -20574,7 +20405,7 @@
       <c r="Y631" s="112"/>
       <c r="Z631" s="112"/>
     </row>
-    <row r="632" spans="1:26" ht="16">
+    <row r="632" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A632"/>
       <c r="B632" s="102"/>
       <c r="C632" s="112"/>
@@ -20602,7 +20433,7 @@
       <c r="Y632" s="112"/>
       <c r="Z632" s="112"/>
     </row>
-    <row r="633" spans="1:26" ht="16">
+    <row r="633" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A633"/>
       <c r="B633" s="102"/>
       <c r="C633" s="112"/>
@@ -20630,7 +20461,7 @@
       <c r="Y633" s="112"/>
       <c r="Z633" s="112"/>
     </row>
-    <row r="634" spans="1:26" ht="16">
+    <row r="634" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A634"/>
       <c r="B634" s="102"/>
       <c r="C634" s="112"/>
@@ -20658,7 +20489,7 @@
       <c r="Y634" s="112"/>
       <c r="Z634" s="112"/>
     </row>
-    <row r="635" spans="1:26" ht="16">
+    <row r="635" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A635"/>
       <c r="B635" s="102"/>
       <c r="C635" s="112"/>
@@ -20686,7 +20517,7 @@
       <c r="Y635" s="112"/>
       <c r="Z635" s="112"/>
     </row>
-    <row r="636" spans="1:26" ht="16">
+    <row r="636" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A636"/>
       <c r="B636" s="102"/>
       <c r="C636" s="112"/>
@@ -20714,7 +20545,7 @@
       <c r="Y636" s="112"/>
       <c r="Z636" s="112"/>
     </row>
-    <row r="637" spans="1:26" ht="16">
+    <row r="637" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A637"/>
       <c r="B637" s="102"/>
       <c r="C637" s="112"/>
@@ -20742,7 +20573,7 @@
       <c r="Y637" s="112"/>
       <c r="Z637" s="112"/>
     </row>
-    <row r="638" spans="1:26" ht="16">
+    <row r="638" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A638"/>
       <c r="B638" s="102"/>
       <c r="C638" s="112"/>
@@ -20770,7 +20601,7 @@
       <c r="Y638" s="112"/>
       <c r="Z638" s="112"/>
     </row>
-    <row r="639" spans="1:26" ht="16">
+    <row r="639" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A639"/>
       <c r="B639" s="102"/>
       <c r="C639" s="112"/>
@@ -20798,7 +20629,7 @@
       <c r="Y639" s="112"/>
       <c r="Z639" s="112"/>
     </row>
-    <row r="640" spans="1:26" ht="16">
+    <row r="640" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A640"/>
       <c r="B640" s="102"/>
       <c r="C640" s="112"/>
@@ -20826,7 +20657,7 @@
       <c r="Y640" s="112"/>
       <c r="Z640" s="112"/>
     </row>
-    <row r="641" spans="1:26" ht="16">
+    <row r="641" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A641"/>
       <c r="B641" s="102"/>
       <c r="C641" s="112"/>
@@ -20854,7 +20685,7 @@
       <c r="Y641" s="112"/>
       <c r="Z641" s="112"/>
     </row>
-    <row r="642" spans="1:26" ht="16">
+    <row r="642" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A642"/>
       <c r="B642" s="102"/>
       <c r="C642" s="112"/>
@@ -20882,7 +20713,7 @@
       <c r="Y642" s="112"/>
       <c r="Z642" s="112"/>
     </row>
-    <row r="643" spans="1:26" ht="16">
+    <row r="643" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A643"/>
       <c r="B643" s="102"/>
       <c r="C643" s="112"/>
@@ -20910,7 +20741,7 @@
       <c r="Y643" s="112"/>
       <c r="Z643" s="112"/>
     </row>
-    <row r="644" spans="1:26" ht="16">
+    <row r="644" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A644"/>
       <c r="B644" s="102"/>
       <c r="C644" s="112"/>
@@ -20938,7 +20769,7 @@
       <c r="Y644" s="112"/>
       <c r="Z644" s="112"/>
     </row>
-    <row r="645" spans="1:26" ht="16">
+    <row r="645" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A645"/>
       <c r="B645" s="102"/>
       <c r="C645" s="112"/>
@@ -20966,7 +20797,7 @@
       <c r="Y645" s="112"/>
       <c r="Z645" s="112"/>
     </row>
-    <row r="646" spans="1:26" ht="16">
+    <row r="646" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A646"/>
       <c r="B646" s="102"/>
       <c r="C646" s="112"/>
@@ -20994,7 +20825,7 @@
       <c r="Y646" s="112"/>
       <c r="Z646" s="112"/>
     </row>
-    <row r="647" spans="1:26" ht="16">
+    <row r="647" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A647"/>
       <c r="B647" s="102"/>
       <c r="C647" s="112"/>
@@ -21022,7 +20853,7 @@
       <c r="Y647" s="112"/>
       <c r="Z647" s="112"/>
     </row>
-    <row r="648" spans="1:26" ht="16">
+    <row r="648" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A648"/>
       <c r="B648" s="102"/>
       <c r="C648" s="112"/>
@@ -21050,7 +20881,7 @@
       <c r="Y648" s="112"/>
       <c r="Z648" s="112"/>
     </row>
-    <row r="649" spans="1:26" ht="16">
+    <row r="649" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A649"/>
       <c r="B649" s="102"/>
       <c r="C649" s="112"/>
@@ -21078,7 +20909,7 @@
       <c r="Y649" s="112"/>
       <c r="Z649" s="112"/>
     </row>
-    <row r="650" spans="1:26" ht="16">
+    <row r="650" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A650"/>
       <c r="B650" s="102"/>
       <c r="C650" s="112"/>
@@ -21106,7 +20937,7 @@
       <c r="Y650" s="112"/>
       <c r="Z650" s="112"/>
     </row>
-    <row r="651" spans="1:26" ht="16">
+    <row r="651" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A651"/>
       <c r="B651" s="102"/>
       <c r="C651" s="112"/>
@@ -21134,7 +20965,7 @@
       <c r="Y651" s="112"/>
       <c r="Z651" s="112"/>
     </row>
-    <row r="652" spans="1:26" ht="16">
+    <row r="652" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A652"/>
       <c r="B652" s="102"/>
       <c r="C652" s="112"/>
@@ -21162,7 +20993,7 @@
       <c r="Y652" s="112"/>
       <c r="Z652" s="112"/>
     </row>
-    <row r="653" spans="1:26" ht="17" thickBot="1">
+    <row r="653" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A653"/>
       <c r="B653" s="102"/>
       <c r="C653" s="112"/>
@@ -21190,7 +21021,7 @@
       <c r="Y653" s="112"/>
       <c r="Z653"/>
     </row>
-    <row r="654" spans="1:26">
+    <row r="654" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A654" s="24"/>
       <c r="B654" s="24"/>
       <c r="C654" s="24"/>
@@ -21218,7 +21049,7 @@
       <c r="Y654" s="24"/>
       <c r="Z654" s="24"/>
     </row>
-    <row r="655" spans="1:26" ht="16">
+    <row r="655" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A655"/>
       <c r="T655" s="112"/>
       <c r="U655" s="112"/>
@@ -21228,7 +21059,7 @@
       <c r="Y655" s="112"/>
       <c r="Z655"/>
     </row>
-    <row r="656" spans="1:26" ht="16">
+    <row r="656" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A656"/>
       <c r="T656"/>
       <c r="U656"/>
@@ -21238,7 +21069,7 @@
       <c r="Y656"/>
       <c r="Z656"/>
     </row>
-    <row r="657" spans="1:26" ht="16">
+    <row r="657" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A657"/>
       <c r="T657"/>
       <c r="U657"/>
@@ -21248,7 +21079,7 @@
       <c r="Y657"/>
       <c r="Z657"/>
     </row>
-    <row r="658" spans="1:26" ht="16">
+    <row r="658" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A658"/>
       <c r="T658" s="112"/>
       <c r="U658" s="112"/>
@@ -21258,7 +21089,7 @@
       <c r="Y658"/>
       <c r="Z658"/>
     </row>
-    <row r="659" spans="1:26" ht="16">
+    <row r="659" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A659"/>
       <c r="T659" s="112"/>
       <c r="U659" s="112"/>
@@ -21268,7 +21099,7 @@
       <c r="Y659"/>
       <c r="Z659"/>
     </row>
-    <row r="660" spans="1:26" ht="16">
+    <row r="660" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A660"/>
       <c r="T660" s="112"/>
       <c r="U660" s="112"/>
@@ -21278,7 +21109,7 @@
       <c r="Y660"/>
       <c r="Z660"/>
     </row>
-    <row r="661" spans="1:26" ht="16">
+    <row r="661" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A661"/>
       <c r="T661" s="112"/>
       <c r="U661" s="112"/>
@@ -21288,7 +21119,7 @@
       <c r="Y661"/>
       <c r="Z661"/>
     </row>
-    <row r="662" spans="1:26" ht="16">
+    <row r="662" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A662"/>
       <c r="T662" s="112"/>
       <c r="U662" s="112"/>
@@ -21298,7 +21129,7 @@
       <c r="Y662"/>
       <c r="Z662"/>
     </row>
-    <row r="663" spans="1:26" ht="16">
+    <row r="663" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A663"/>
       <c r="T663" s="112"/>
       <c r="U663" s="112"/>
@@ -21308,7 +21139,7 @@
       <c r="Y663"/>
       <c r="Z663"/>
     </row>
-    <row r="664" spans="1:26" ht="16">
+    <row r="664" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A664"/>
       <c r="T664" s="112"/>
       <c r="U664" s="112"/>
@@ -21318,7 +21149,7 @@
       <c r="Y664"/>
       <c r="Z664"/>
     </row>
-    <row r="665" spans="1:26" ht="16">
+    <row r="665" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A665"/>
       <c r="T665" s="112"/>
       <c r="U665" s="112"/>
@@ -21328,7 +21159,7 @@
       <c r="Y665"/>
       <c r="Z665"/>
     </row>
-    <row r="666" spans="1:26" ht="16">
+    <row r="666" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A666"/>
       <c r="T666" s="112"/>
       <c r="U666" s="112"/>
@@ -21338,7 +21169,7 @@
       <c r="Y666"/>
       <c r="Z666"/>
     </row>
-    <row r="667" spans="1:26" ht="16">
+    <row r="667" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A667"/>
       <c r="T667" s="112"/>
       <c r="U667" s="112"/>
@@ -21348,7 +21179,7 @@
       <c r="Y667"/>
       <c r="Z667"/>
     </row>
-    <row r="668" spans="1:26" ht="16">
+    <row r="668" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A668"/>
       <c r="T668" s="112"/>
       <c r="U668" s="112"/>
@@ -21358,7 +21189,7 @@
       <c r="Y668"/>
       <c r="Z668"/>
     </row>
-    <row r="669" spans="1:26" ht="16">
+    <row r="669" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A669"/>
       <c r="T669" s="112"/>
       <c r="U669" s="112"/>
@@ -21368,7 +21199,7 @@
       <c r="Y669"/>
       <c r="Z669"/>
     </row>
-    <row r="670" spans="1:26" ht="16">
+    <row r="670" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A670"/>
       <c r="T670" s="112"/>
       <c r="U670" s="112"/>
@@ -21378,7 +21209,7 @@
       <c r="Y670"/>
       <c r="Z670"/>
     </row>
-    <row r="671" spans="1:26" ht="16">
+    <row r="671" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A671"/>
       <c r="T671" s="112"/>
       <c r="U671" s="112"/>
@@ -21388,7 +21219,7 @@
       <c r="Y671"/>
       <c r="Z671"/>
     </row>
-    <row r="672" spans="1:26" ht="16">
+    <row r="672" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A672"/>
       <c r="T672" s="112"/>
       <c r="U672" s="112"/>
@@ -21398,7 +21229,7 @@
       <c r="Y672"/>
       <c r="Z672"/>
     </row>
-    <row r="673" spans="1:26" ht="16">
+    <row r="673" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A673"/>
       <c r="T673" s="112"/>
       <c r="U673" s="112"/>
@@ -21408,7 +21239,7 @@
       <c r="Y673"/>
       <c r="Z673"/>
     </row>
-    <row r="674" spans="1:26" ht="16">
+    <row r="674" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A674"/>
       <c r="T674" s="112"/>
       <c r="U674" s="112"/>
@@ -21418,7 +21249,7 @@
       <c r="Y674"/>
       <c r="Z674"/>
     </row>
-    <row r="675" spans="1:26" ht="16">
+    <row r="675" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A675"/>
       <c r="T675" s="112"/>
       <c r="U675" s="112"/>
@@ -21428,7 +21259,7 @@
       <c r="Y675"/>
       <c r="Z675"/>
     </row>
-    <row r="676" spans="1:26" ht="16">
+    <row r="676" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A676"/>
       <c r="T676" s="112"/>
       <c r="U676" s="112"/>
@@ -21438,7 +21269,7 @@
       <c r="Y676"/>
       <c r="Z676"/>
     </row>
-    <row r="677" spans="1:26" ht="16">
+    <row r="677" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A677"/>
       <c r="T677" s="112"/>
       <c r="U677" s="112"/>
@@ -21448,7 +21279,7 @@
       <c r="Y677"/>
       <c r="Z677"/>
     </row>
-    <row r="678" spans="1:26" ht="16">
+    <row r="678" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A678"/>
       <c r="T678" s="112"/>
       <c r="U678" s="112"/>
@@ -21458,7 +21289,7 @@
       <c r="Y678"/>
       <c r="Z678"/>
     </row>
-    <row r="679" spans="1:26" ht="16">
+    <row r="679" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A679"/>
       <c r="T679" s="112"/>
       <c r="U679" s="112"/>
@@ -21468,7 +21299,7 @@
       <c r="Y679"/>
       <c r="Z679"/>
     </row>
-    <row r="680" spans="1:26" ht="16">
+    <row r="680" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A680"/>
       <c r="T680" s="112"/>
       <c r="U680" s="112"/>
@@ -21478,7 +21309,7 @@
       <c r="Y680"/>
       <c r="Z680"/>
     </row>
-    <row r="681" spans="1:26" ht="16">
+    <row r="681" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A681"/>
       <c r="T681" s="112"/>
       <c r="U681" s="112"/>
@@ -21488,7 +21319,7 @@
       <c r="Y681"/>
       <c r="Z681"/>
     </row>
-    <row r="682" spans="1:26" ht="16">
+    <row r="682" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A682"/>
       <c r="T682" s="112"/>
       <c r="U682" s="112"/>
@@ -21498,7 +21329,7 @@
       <c r="Y682"/>
       <c r="Z682"/>
     </row>
-    <row r="683" spans="1:26" ht="16">
+    <row r="683" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A683"/>
       <c r="T683" s="112"/>
       <c r="U683" s="112"/>
@@ -21508,7 +21339,7 @@
       <c r="Y683"/>
       <c r="Z683"/>
     </row>
-    <row r="684" spans="1:26" ht="16">
+    <row r="684" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A684"/>
       <c r="T684" s="112"/>
       <c r="U684" s="112"/>
@@ -21518,7 +21349,7 @@
       <c r="Y684"/>
       <c r="Z684"/>
     </row>
-    <row r="685" spans="1:26" ht="16">
+    <row r="685" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A685"/>
       <c r="T685" s="112"/>
       <c r="U685" s="112"/>
@@ -21528,7 +21359,7 @@
       <c r="Y685"/>
       <c r="Z685"/>
     </row>
-    <row r="686" spans="1:26" ht="16">
+    <row r="686" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A686"/>
       <c r="T686" s="112"/>
       <c r="U686" s="112"/>
@@ -21538,7 +21369,7 @@
       <c r="Y686"/>
       <c r="Z686"/>
     </row>
-    <row r="687" spans="1:26" ht="16">
+    <row r="687" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A687"/>
       <c r="T687" s="112"/>
       <c r="U687" s="112"/>
@@ -21548,7 +21379,7 @@
       <c r="Y687"/>
       <c r="Z687"/>
     </row>
-    <row r="688" spans="1:26" ht="16">
+    <row r="688" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A688"/>
       <c r="T688" s="112"/>
       <c r="U688" s="112"/>
@@ -21558,7 +21389,7 @@
       <c r="Y688"/>
       <c r="Z688"/>
     </row>
-    <row r="689" spans="1:26" ht="16">
+    <row r="689" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A689"/>
       <c r="T689" s="112"/>
       <c r="U689" s="112"/>
@@ -21568,7 +21399,7 @@
       <c r="Y689"/>
       <c r="Z689"/>
     </row>
-    <row r="690" spans="1:26" ht="16">
+    <row r="690" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A690"/>
       <c r="T690" s="112"/>
       <c r="U690" s="112"/>
@@ -21578,7 +21409,7 @@
       <c r="Y690"/>
       <c r="Z690"/>
     </row>
-    <row r="691" spans="1:26" ht="16">
+    <row r="691" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A691"/>
       <c r="T691" s="112"/>
       <c r="U691" s="112"/>
@@ -21588,7 +21419,7 @@
       <c r="Y691"/>
       <c r="Z691"/>
     </row>
-    <row r="692" spans="1:26" ht="16">
+    <row r="692" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A692"/>
       <c r="T692" s="112"/>
       <c r="U692" s="112"/>
@@ -21598,7 +21429,7 @@
       <c r="Y692"/>
       <c r="Z692"/>
     </row>
-    <row r="693" spans="1:26" ht="16">
+    <row r="693" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A693"/>
       <c r="T693" s="112"/>
       <c r="U693" s="112"/>
@@ -21608,7 +21439,7 @@
       <c r="Y693"/>
       <c r="Z693"/>
     </row>
-    <row r="694" spans="1:26" ht="16">
+    <row r="694" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A694"/>
       <c r="T694" s="112"/>
       <c r="U694" s="112"/>
@@ -21618,7 +21449,7 @@
       <c r="Y694"/>
       <c r="Z694"/>
     </row>
-    <row r="695" spans="1:26" ht="16">
+    <row r="695" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A695"/>
       <c r="T695" s="112"/>
       <c r="U695" s="112"/>
@@ -21628,7 +21459,7 @@
       <c r="Y695"/>
       <c r="Z695"/>
     </row>
-    <row r="696" spans="1:26" ht="16">
+    <row r="696" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A696"/>
       <c r="B696" s="102"/>
       <c r="C696" s="112"/>
@@ -21656,7 +21487,7 @@
       <c r="Y696"/>
       <c r="Z696"/>
     </row>
-    <row r="697" spans="1:26">
+    <row r="697" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A697" s="24"/>
       <c r="B697" s="24"/>
       <c r="C697" s="24"/>
@@ -21691,10 +21522,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/carriers_source_analyses/bio_lng.carrier.xlsx
+++ b/carriers_source_analyses/bio_lng.carrier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/carriers_source_analyses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlottevonm/Code/etdataset/carriers_source_analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955D79C7-CD1C-8541-9A94-9F14EC1379E3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235E678B-EC72-874A-A5BB-109673B4ACAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27780" windowHeight="16100" tabRatio="762" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27780" windowHeight="16100" tabRatio="762" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -42,6 +42,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -50,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="187">
   <si>
     <t>Source</t>
   </si>
@@ -581,9 +590,6 @@
     <t>CE Delft rijden en varen op gas</t>
   </si>
   <si>
-    <t>For the cycle,  it's zero.</t>
-  </si>
-  <si>
     <t>euro/MJ  Bio LNG</t>
   </si>
   <si>
@@ -606,28 +612,6 @@
   </si>
   <si>
     <t>Actual CO2 emission from biomass</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>potential_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>co2_conversion_per_mj</t>
-    </r>
   </si>
   <si>
     <r>
@@ -683,31 +667,22 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.000000000"/>
-    <numFmt numFmtId="169" formatCode="0.0000000000"/>
     <numFmt numFmtId="170" formatCode="0.0%"/>
     <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="172" formatCode="0.00000000000000"/>
     <numFmt numFmtId="173" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1342,647 +1317,636 @@
   </borders>
   <cellStyleXfs count="337">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="30" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="183" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="168" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="183" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="28" fillId="0" borderId="0" xfId="320" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="27" fillId="0" borderId="0" xfId="320" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="32" fillId="0" borderId="0" xfId="320" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" xfId="320" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="28" fillId="0" borderId="0" xfId="321" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="32" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="320" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="27" fillId="0" borderId="0" xfId="321" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="320" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="28" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="35" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="34" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="173" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="173" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="173" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2323,7 +2287,7 @@
     <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="183" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="321" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="321" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -3495,13 +3459,13 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="44.1640625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="2.1640625" style="21" customWidth="1"/>
-    <col min="5" max="16384" width="10.6640625" style="21"/>
+    <col min="1" max="1" width="3.42578125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="2.140625" style="21" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="27" customFormat="1">
@@ -3527,7 +3491,7 @@
         <v>149</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3564,13 +3528,13 @@
         <v>14</v>
       </c>
       <c r="C9" s="77"/>
-      <c r="D9" s="151"/>
+      <c r="D9" s="149"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="7"/>
       <c r="B10" s="78"/>
       <c r="C10" s="79"/>
-      <c r="D10" s="152"/>
+      <c r="D10" s="150"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="7"/>
@@ -3580,7 +3544,7 @@
       <c r="C11" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="152"/>
+      <c r="D11" s="150"/>
     </row>
     <row r="12" spans="1:4" ht="17" thickBot="1">
       <c r="A12" s="7"/>
@@ -3588,7 +3552,7 @@
       <c r="C12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="152"/>
+      <c r="D12" s="150"/>
     </row>
     <row r="13" spans="1:4" ht="17" thickBot="1">
       <c r="A13" s="7"/>
@@ -3596,7 +3560,7 @@
       <c r="C13" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="152"/>
+      <c r="D13" s="150"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="7"/>
@@ -3604,13 +3568,13 @@
       <c r="C14" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="152"/>
+      <c r="D14" s="150"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="7"/>
       <c r="B15" s="78"/>
       <c r="C15" s="79"/>
-      <c r="D15" s="152"/>
+      <c r="D15" s="150"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="7"/>
@@ -3620,7 +3584,7 @@
       <c r="C16" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="152"/>
+      <c r="D16" s="150"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="7"/>
@@ -3628,7 +3592,7 @@
       <c r="C17" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="152"/>
+      <c r="D17" s="150"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="7"/>
@@ -3636,7 +3600,7 @@
       <c r="C18" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="152"/>
+      <c r="D18" s="150"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="7"/>
@@ -3644,7 +3608,7 @@
       <c r="C19" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="152"/>
+      <c r="D19" s="150"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="7"/>
@@ -3652,7 +3616,7 @@
       <c r="C20" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="152"/>
+      <c r="D20" s="150"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="7"/>
@@ -3660,7 +3624,7 @@
       <c r="C21" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="152"/>
+      <c r="D21" s="150"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="7"/>
@@ -3668,19 +3632,19 @@
       <c r="C22" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="152"/>
+      <c r="D22" s="150"/>
     </row>
     <row r="23" spans="1:4">
       <c r="B23" s="86"/>
       <c r="C23" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="152"/>
+      <c r="D23" s="150"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="B24" s="153"/>
-      <c r="C24" s="154"/>
-      <c r="D24" s="155"/>
+      <c r="B24" s="151"/>
+      <c r="C24" s="152"/>
+      <c r="D24" s="153"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3699,19 +3663,19 @@
       <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="35" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="35" customWidth="1"/>
     <col min="3" max="3" width="46" style="35" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="35" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="35" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="35" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="35" customWidth="1"/>
     <col min="7" max="7" width="45" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="35" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="35" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="35"/>
+    <col min="8" max="8" width="5.140625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10">
@@ -3721,30 +3685,30 @@
       <c r="G1" s="33"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="195" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="197"/>
+      <c r="B2" s="188" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
+      <c r="G2" s="190"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="198"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
-      <c r="G3" s="200"/>
+      <c r="B3" s="191"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="193"/>
     </row>
     <row r="4" spans="2:10" ht="37" customHeight="1">
-      <c r="B4" s="201"/>
-      <c r="C4" s="202"/>
-      <c r="D4" s="202"/>
-      <c r="E4" s="202"/>
-      <c r="F4" s="202"/>
-      <c r="G4" s="203"/>
+      <c r="B4" s="194"/>
+      <c r="C4" s="195"/>
+      <c r="D4" s="195"/>
+      <c r="E4" s="195"/>
+      <c r="F4" s="195"/>
+      <c r="G4" s="196"/>
     </row>
     <row r="5" spans="2:10" ht="17" thickBot="1">
       <c r="D5" s="33"/>
@@ -3794,7 +3758,7 @@
     </row>
     <row r="9" spans="2:10" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B9" s="23"/>
-      <c r="C9" s="150" t="s">
+      <c r="C9" s="148" t="s">
         <v>150</v>
       </c>
       <c r="D9" s="31"/>
@@ -3835,14 +3799,14 @@
       <c r="D11" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="149">
-        <f>'Research data'!G7</f>
-        <v>1.7000000000000001E-2</v>
+      <c r="E11" s="147" t="e">
+        <f>'Research data'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="104"/>
       <c r="H11" s="30"/>
-      <c r="I11" s="119" t="s">
+      <c r="I11" s="117" t="s">
         <v>44</v>
       </c>
       <c r="J11" s="42"/>
@@ -3856,13 +3820,13 @@
         <v>46</v>
       </c>
       <c r="E12" s="43">
-        <f>'Research data'!G8</f>
+        <f>'Research data'!G7</f>
         <v>49.5</v>
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="104"/>
       <c r="H12" s="30"/>
-      <c r="I12" s="173" t="s">
+      <c r="I12" s="169" t="s">
         <v>162</v>
       </c>
       <c r="J12" s="42"/>
@@ -3875,9 +3839,9 @@
       <c r="D13" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="106">
-        <f>'Research data'!G9</f>
-        <v>0</v>
+      <c r="E13" s="106" t="e">
+        <f>'Research data'!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="104" t="s">
@@ -3891,23 +3855,23 @@
     </row>
     <row r="14" spans="2:10" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B14" s="23"/>
-      <c r="C14" s="175" t="s">
-        <v>176</v>
+      <c r="C14" s="171" t="s">
+        <v>175</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="189">
-        <f>'Research data'!G10</f>
-        <v>5.4600000000000003E-2</v>
-      </c>
-      <c r="F14" s="175"/>
-      <c r="G14" s="175" t="s">
-        <v>177</v>
+      <c r="E14" s="183" t="e">
+        <f>'Research data'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F14" s="171"/>
+      <c r="G14" s="171" t="s">
+        <v>176</v>
       </c>
       <c r="H14" s="30"/>
-      <c r="I14" s="194" t="s">
-        <v>180</v>
+      <c r="I14" s="187" t="s">
+        <v>178</v>
       </c>
       <c r="J14" s="42"/>
     </row>
@@ -3936,31 +3900,31 @@
   <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:R12"/>
+  <dimension ref="B1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="B8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="65" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="65" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="65" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="65" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="65" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="65" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="65" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="65" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="65" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="65" customWidth="1"/>
     <col min="7" max="7" width="17" style="65" customWidth="1"/>
-    <col min="8" max="8" width="4.5" style="65" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" style="66" customWidth="1"/>
+    <col min="8" max="8" width="4.42578125" style="65" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="66" customWidth="1"/>
     <col min="10" max="10" width="3" style="66" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="66" customWidth="1"/>
-    <col min="12" max="12" width="3.1640625" style="66" customWidth="1"/>
-    <col min="13" max="13" width="12.83203125" style="66" customWidth="1"/>
-    <col min="14" max="14" width="2.5" style="66" customWidth="1"/>
-    <col min="15" max="16" width="8.5" style="66" customWidth="1"/>
-    <col min="17" max="17" width="2.5" style="66" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="66" customWidth="1"/>
+    <col min="12" max="12" width="3.140625" style="66" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="66" customWidth="1"/>
+    <col min="14" max="14" width="2.42578125" style="66" customWidth="1"/>
+    <col min="15" max="16" width="8.42578125" style="66" customWidth="1"/>
+    <col min="17" max="17" width="2.42578125" style="66" customWidth="1"/>
     <col min="18" max="18" width="60" style="65" customWidth="1"/>
-    <col min="19" max="16384" width="10.6640625" style="65"/>
+    <col min="19" max="16384" width="10.7109375" style="65"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="17" thickBot="1"/>
@@ -4013,7 +3977,7 @@
         <v>50</v>
       </c>
       <c r="P3" s="63" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q3" s="63"/>
       <c r="R3" s="1" t="s">
@@ -4092,190 +4056,95 @@
     <row r="7" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1">
       <c r="B7" s="5"/>
       <c r="C7" s="108" t="s">
-        <v>36</v>
+        <v>148</v>
       </c>
       <c r="D7" s="108" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E7" s="108" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="118">
-        <f>M7</f>
-        <v>1.7000000000000001E-2</v>
+        <v>46</v>
+      </c>
+      <c r="G7" s="43">
+        <f>I7</f>
+        <v>49.5</v>
       </c>
       <c r="H7" s="4"/>
-      <c r="I7" s="17"/>
+      <c r="I7" s="44">
+        <f>Notes!E167</f>
+        <v>49.5</v>
+      </c>
       <c r="J7" s="17"/>
-      <c r="M7" s="117">
-        <f>ROUND(Notes!F195,3)</f>
-        <v>1.7000000000000001E-2</v>
-      </c>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
       <c r="N7" s="17"/>
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
       <c r="Q7" s="16"/>
-      <c r="R7" s="156"/>
-    </row>
-    <row r="8" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1">
-      <c r="B8" s="5"/>
-      <c r="C8" s="108" t="s">
-        <v>148</v>
-      </c>
-      <c r="D8" s="108" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="108" t="s">
-        <v>45</v>
+      <c r="R7" s="145"/>
+    </row>
+    <row r="8" spans="2:18" ht="17" thickBot="1">
+      <c r="B8" s="71"/>
+      <c r="C8" s="154" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="109" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="109" t="s">
+        <v>38</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G8" s="43">
         <f>I8</f>
-        <v>49.5</v>
-      </c>
-      <c r="H8" s="4"/>
+        <v>20.7</v>
+      </c>
+      <c r="H8" s="75"/>
       <c r="I8" s="44">
-        <f>Notes!E167</f>
-        <v>49.5</v>
+        <f>Notes!E169</f>
+        <v>20.7</v>
       </c>
       <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
       <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
       <c r="N8" s="17"/>
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
-      <c r="R8" s="147"/>
-    </row>
-    <row r="9" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1">
-      <c r="B9" s="5"/>
-      <c r="C9" s="109" t="s">
-        <v>37</v>
+      <c r="R8" s="145"/>
+    </row>
+    <row r="9" spans="2:18" ht="17" thickBot="1">
+      <c r="B9" s="71"/>
+      <c r="C9" s="154" t="s">
+        <v>159</v>
       </c>
       <c r="D9" s="109" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9" s="109" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="G9" s="43">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="17"/>
+        <f>I9</f>
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="H9" s="75"/>
+      <c r="I9" s="44">
+        <f>Notes!E168</f>
+        <v>0.41799999999999998</v>
+      </c>
       <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
       <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
       <c r="N9" s="17"/>
       <c r="O9" s="16"/>
       <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="171" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1">
-      <c r="B10" s="5"/>
-      <c r="C10" s="176" t="s">
-        <v>178</v>
-      </c>
-      <c r="D10" s="109" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="109" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="188">
-        <f>P10</f>
-        <v>5.4600000000000003E-2</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="192">
-        <f>Notes!G251</f>
-        <v>5.4600000000000003E-2</v>
-      </c>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="171"/>
-    </row>
-    <row r="11" spans="2:18" ht="17" thickBot="1">
-      <c r="B11" s="71"/>
-      <c r="C11" s="157" t="s">
-        <v>156</v>
-      </c>
-      <c r="D11" s="109" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="109" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="43">
-        <f>I11</f>
-        <v>20.7</v>
-      </c>
-      <c r="H11" s="75"/>
-      <c r="I11" s="44">
-        <f>Notes!E169</f>
-        <v>20.7</v>
-      </c>
-      <c r="J11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="147"/>
-    </row>
-    <row r="12" spans="2:18" ht="17" thickBot="1">
-      <c r="B12" s="71"/>
-      <c r="C12" s="157" t="s">
-        <v>159</v>
-      </c>
-      <c r="D12" s="109" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="109" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="G12" s="43">
-        <f>I12</f>
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="H12" s="75"/>
-      <c r="I12" s="44">
-        <f>Notes!E168</f>
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="J12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4294,19 +4163,19 @@
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" style="45" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="45" customWidth="1"/>
-    <col min="3" max="3" width="28.5" style="45" customWidth="1"/>
-    <col min="4" max="4" width="3.1640625" style="45" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" style="45" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" style="45" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="45" customWidth="1"/>
     <col min="6" max="6" width="5" style="45" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" style="45" customWidth="1"/>
-    <col min="8" max="10" width="12.1640625" style="45" customWidth="1"/>
-    <col min="11" max="11" width="33.1640625" style="46" customWidth="1"/>
-    <col min="12" max="12" width="87.1640625" style="45" customWidth="1"/>
-    <col min="13" max="16384" width="33.1640625" style="45"/>
+    <col min="7" max="7" width="10.140625" style="45" customWidth="1"/>
+    <col min="8" max="10" width="12.140625" style="45" customWidth="1"/>
+    <col min="11" max="11" width="33.140625" style="46" customWidth="1"/>
+    <col min="12" max="12" width="87.140625" style="45" customWidth="1"/>
+    <col min="13" max="16384" width="33.140625" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="17" thickBot="1"/>
@@ -4395,14 +4264,14 @@
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="50"/>
-      <c r="C7" s="120" t="s">
+      <c r="C7" s="118" t="s">
         <v>148</v>
       </c>
       <c r="D7" s="58"/>
-      <c r="E7" s="172" t="s">
-        <v>172</v>
-      </c>
-      <c r="F7" s="148" t="s">
+      <c r="E7" s="168" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7" s="146" t="s">
         <v>61</v>
       </c>
       <c r="G7" s="53" t="s">
@@ -4415,10 +4284,10 @@
         <v>157</v>
       </c>
       <c r="J7" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="K7" s="174" t="s">
-        <v>175</v>
+        <v>172</v>
+      </c>
+      <c r="K7" s="170" t="s">
+        <v>174</v>
       </c>
       <c r="L7" s="54" t="s">
         <v>158</v>
@@ -4426,7 +4295,7 @@
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="50"/>
-      <c r="C8" s="120" t="s">
+      <c r="C8" s="118" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="59"/>
@@ -4457,7 +4326,7 @@
     </row>
     <row r="12" spans="2:12">
       <c r="B12" s="50"/>
-      <c r="C12" s="120" t="s">
+      <c r="C12" s="118" t="s">
         <v>38</v>
       </c>
       <c r="D12" s="59"/>
@@ -4474,7 +4343,7 @@
         <v>146</v>
       </c>
       <c r="J12" s="54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K12" s="54" t="s">
         <v>145</v>
@@ -4483,7 +4352,7 @@
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="50"/>
-      <c r="C13" s="120"/>
+      <c r="C13" s="118"/>
       <c r="D13" s="59"/>
       <c r="E13" s="115"/>
       <c r="F13" s="115"/>
@@ -4512,10 +4381,10 @@
         <v>163</v>
       </c>
       <c r="J14" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="K14" s="46" t="s">
         <v>173</v>
-      </c>
-      <c r="K14" s="46" t="s">
-        <v>174</v>
       </c>
       <c r="L14" s="54" t="s">
         <v>164</v>
@@ -4523,24 +4392,24 @@
     </row>
     <row r="15" spans="2:12">
       <c r="B15" s="50"/>
-      <c r="C15" s="177" t="s">
+      <c r="C15" s="172" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" s="59"/>
+      <c r="E15" s="173" t="s">
+        <v>178</v>
+      </c>
+      <c r="F15" s="173"/>
+      <c r="G15" s="53" t="s">
         <v>179</v>
       </c>
-      <c r="D15" s="59"/>
-      <c r="E15" s="178" t="s">
+      <c r="H15" s="54" t="s">
         <v>180</v>
-      </c>
-      <c r="F15" s="178"/>
-      <c r="G15" s="53" t="s">
-        <v>181</v>
-      </c>
-      <c r="H15" s="54" t="s">
-        <v>182</v>
       </c>
       <c r="I15" s="54"/>
       <c r="J15" s="54"/>
-      <c r="K15" s="193" t="s">
-        <v>183</v>
+      <c r="K15" s="186" t="s">
+        <v>181</v>
       </c>
       <c r="L15" s="64"/>
     </row>
@@ -4560,12 +4429,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="99" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="99" customWidth="1"/>
     <col min="2" max="2" width="5" style="99" customWidth="1"/>
     <col min="3" max="5" width="7" style="99"/>
-    <col min="6" max="6" width="10.83203125" style="99" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="99" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="99"/>
-    <col min="8" max="8" width="8.83203125" style="99" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="99" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="7" style="99"/>
   </cols>
   <sheetData>
@@ -5150,7 +5019,7 @@
         <v>71</v>
       </c>
       <c r="G23" s="110"/>
-      <c r="H23" s="121">
+      <c r="H23" s="119">
         <v>0.28799999999999998</v>
       </c>
       <c r="I23" s="110"/>
@@ -5181,7 +5050,7 @@
         <v>72</v>
       </c>
       <c r="G24" s="110"/>
-      <c r="H24" s="122">
+      <c r="H24" s="120">
         <v>0.96</v>
       </c>
       <c r="I24" s="110"/>
@@ -5278,7 +5147,7 @@
         <v>77</v>
       </c>
       <c r="G27" s="110"/>
-      <c r="H27" s="123">
+      <c r="H27" s="121">
         <f>H26*H24</f>
         <v>13.632</v>
       </c>
@@ -5308,15 +5177,15 @@
       <c r="C28" s="110"/>
       <c r="D28" s="110"/>
       <c r="E28" s="110"/>
-      <c r="F28" s="143" t="s">
+      <c r="F28" s="141" t="s">
         <v>116</v>
       </c>
-      <c r="G28" s="143"/>
-      <c r="H28" s="145">
+      <c r="G28" s="141"/>
+      <c r="H28" s="143">
         <f>H27*100</f>
         <v>1363.2</v>
       </c>
-      <c r="I28" s="143" t="s">
+      <c r="I28" s="141" t="s">
         <v>115</v>
       </c>
       <c r="J28" s="110"/>
@@ -5349,7 +5218,7 @@
       <c r="H29" s="110">
         <v>575</v>
       </c>
-      <c r="I29" s="124" t="s">
+      <c r="I29" s="122" t="s">
         <v>80</v>
       </c>
       <c r="J29" s="110"/>
@@ -5379,10 +5248,10 @@
         <v>81</v>
       </c>
       <c r="G30" s="110"/>
-      <c r="H30" s="122">
+      <c r="H30" s="120">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I30" s="124"/>
+      <c r="I30" s="122"/>
       <c r="J30" s="110"/>
       <c r="K30" s="110"/>
       <c r="L30" s="110"/>
@@ -5414,7 +5283,7 @@
         <f>H29*H30</f>
         <v>316.25</v>
       </c>
-      <c r="I31" s="124" t="s">
+      <c r="I31" s="122" t="s">
         <v>80</v>
       </c>
       <c r="J31" s="110"/>
@@ -5440,14 +5309,14 @@
       <c r="C32" s="110"/>
       <c r="D32" s="110"/>
       <c r="E32" s="110"/>
-      <c r="F32" s="125" t="s">
+      <c r="F32" s="123" t="s">
         <v>83</v>
       </c>
-      <c r="G32" s="125"/>
+      <c r="G32" s="123"/>
       <c r="H32" s="110">
         <v>55.5</v>
       </c>
-      <c r="I32" s="124" t="s">
+      <c r="I32" s="122" t="s">
         <v>46</v>
       </c>
       <c r="J32" s="110"/>
@@ -5473,15 +5342,15 @@
       <c r="C33" s="110"/>
       <c r="D33" s="110"/>
       <c r="E33" s="110"/>
-      <c r="F33" s="125" t="s">
+      <c r="F33" s="123" t="s">
         <v>147</v>
       </c>
-      <c r="G33" s="125"/>
+      <c r="G33" s="123"/>
       <c r="H33" s="110">
         <f>E167</f>
         <v>49.5</v>
       </c>
-      <c r="I33" s="124" t="s">
+      <c r="I33" s="122" t="s">
         <v>46</v>
       </c>
       <c r="J33" s="110"/>
@@ -5509,14 +5378,14 @@
       <c r="C34" s="110"/>
       <c r="D34" s="110"/>
       <c r="E34" s="110"/>
-      <c r="F34" s="125" t="s">
+      <c r="F34" s="123" t="s">
         <v>84</v>
       </c>
-      <c r="G34" s="125"/>
+      <c r="G34" s="123"/>
       <c r="H34" s="110">
         <v>7.1599999999999995E-4</v>
       </c>
-      <c r="I34" s="124" t="s">
+      <c r="I34" s="122" t="s">
         <v>85</v>
       </c>
       <c r="J34" s="110"/>
@@ -5544,15 +5413,15 @@
       <c r="C35" s="110"/>
       <c r="D35" s="110"/>
       <c r="E35" s="110"/>
-      <c r="F35" s="125" t="s">
+      <c r="F35" s="123" t="s">
         <v>83</v>
       </c>
-      <c r="G35" s="125"/>
+      <c r="G35" s="123"/>
       <c r="H35" s="110">
         <f>H34*H32*1000</f>
         <v>39.737999999999992</v>
       </c>
-      <c r="I35" s="124" t="s">
+      <c r="I35" s="122" t="s">
         <v>86</v>
       </c>
       <c r="J35" s="110"/>
@@ -5578,15 +5447,15 @@
       <c r="C36" s="110"/>
       <c r="D36" s="110"/>
       <c r="E36" s="110"/>
-      <c r="F36" s="125" t="s">
+      <c r="F36" s="123" t="s">
         <v>147</v>
       </c>
-      <c r="G36" s="125"/>
+      <c r="G36" s="123"/>
       <c r="H36" s="110">
         <f>H34*H33*1000</f>
         <v>35.441999999999993</v>
       </c>
-      <c r="I36" s="124" t="s">
+      <c r="I36" s="122" t="s">
         <v>86</v>
       </c>
       <c r="J36" s="110"/>
@@ -5620,7 +5489,7 @@
         <f>H31*H36/1000</f>
         <v>11.208532499999997</v>
       </c>
-      <c r="I37" s="124" t="s">
+      <c r="I37" s="122" t="s">
         <v>87</v>
       </c>
       <c r="J37" s="110"/>
@@ -5649,7 +5518,7 @@
       <c r="F38" s="110"/>
       <c r="G38" s="110"/>
       <c r="H38" s="110"/>
-      <c r="I38" s="124"/>
+      <c r="I38" s="122"/>
       <c r="J38" s="110"/>
       <c r="K38" s="110"/>
       <c r="L38" s="110"/>
@@ -5673,15 +5542,15 @@
       <c r="C39" s="110"/>
       <c r="D39" s="110"/>
       <c r="E39" s="110"/>
-      <c r="F39" s="143" t="s">
+      <c r="F39" s="141" t="s">
         <v>153</v>
       </c>
-      <c r="G39" s="144"/>
-      <c r="H39" s="146">
+      <c r="G39" s="142"/>
+      <c r="H39" s="144">
         <f>H37*H28*1000</f>
         <v>15279471.503999995</v>
       </c>
-      <c r="I39" s="124" t="s">
+      <c r="I39" s="122" t="s">
         <v>49</v>
       </c>
       <c r="J39" s="110"/>
@@ -5879,7 +5748,7 @@
       <c r="K46" s="110"/>
       <c r="L46" s="110"/>
       <c r="M46" s="110"/>
-      <c r="N46" s="122">
+      <c r="N46" s="120">
         <v>0.44</v>
       </c>
       <c r="O46" s="110"/>
@@ -6467,225 +6336,225 @@
       <c r="Y67" s="110"/>
       <c r="Z67" s="110"/>
     </row>
-    <row r="68" spans="2:26" s="129" customFormat="1">
+    <row r="68" spans="2:26" s="127" customFormat="1">
       <c r="B68" s="100"/>
-      <c r="C68" s="126"/>
-      <c r="D68" s="126"/>
-      <c r="E68" s="126"/>
-      <c r="F68" s="126" t="s">
+      <c r="C68" s="124"/>
+      <c r="D68" s="124"/>
+      <c r="E68" s="124"/>
+      <c r="F68" s="124" t="s">
         <v>89</v>
       </c>
-      <c r="G68" s="126"/>
-      <c r="H68" s="127">
+      <c r="G68" s="124"/>
+      <c r="H68" s="125">
         <v>0.90800000000000003</v>
       </c>
-      <c r="I68" s="128" t="s">
+      <c r="I68" s="126" t="s">
         <v>90</v>
       </c>
-      <c r="K68" s="126"/>
-      <c r="L68" s="126"/>
-      <c r="M68" s="126"/>
-      <c r="N68" s="126"/>
-      <c r="O68" s="126"/>
-      <c r="P68" s="126"/>
-      <c r="Q68" s="126"/>
-      <c r="R68" s="126"/>
-      <c r="S68" s="126"/>
-      <c r="T68" s="126"/>
-      <c r="U68" s="126"/>
-      <c r="V68" s="126"/>
-      <c r="W68" s="126"/>
-      <c r="X68" s="126"/>
-      <c r="Y68" s="126"/>
-      <c r="Z68" s="126"/>
-    </row>
-    <row r="69" spans="2:26" s="129" customFormat="1">
+      <c r="K68" s="124"/>
+      <c r="L68" s="124"/>
+      <c r="M68" s="124"/>
+      <c r="N68" s="124"/>
+      <c r="O68" s="124"/>
+      <c r="P68" s="124"/>
+      <c r="Q68" s="124"/>
+      <c r="R68" s="124"/>
+      <c r="S68" s="124"/>
+      <c r="T68" s="124"/>
+      <c r="U68" s="124"/>
+      <c r="V68" s="124"/>
+      <c r="W68" s="124"/>
+      <c r="X68" s="124"/>
+      <c r="Y68" s="124"/>
+      <c r="Z68" s="124"/>
+    </row>
+    <row r="69" spans="2:26" s="127" customFormat="1">
       <c r="B69" s="100"/>
-      <c r="C69" s="126"/>
-      <c r="D69" s="126"/>
-      <c r="E69" s="126"/>
-      <c r="F69" s="130" t="s">
+      <c r="C69" s="124"/>
+      <c r="D69" s="124"/>
+      <c r="E69" s="124"/>
+      <c r="F69" s="128" t="s">
         <v>91</v>
       </c>
-      <c r="G69" s="130"/>
-      <c r="H69" s="127">
+      <c r="G69" s="128"/>
+      <c r="H69" s="125">
         <v>7.8E-2</v>
       </c>
-      <c r="I69" s="128" t="s">
+      <c r="I69" s="126" t="s">
         <v>90</v>
       </c>
-      <c r="K69" s="126"/>
-      <c r="L69" s="126"/>
-      <c r="M69" s="126"/>
-      <c r="N69" s="126"/>
-      <c r="O69" s="126"/>
-      <c r="P69" s="126"/>
-      <c r="Q69" s="126"/>
-      <c r="R69" s="126"/>
-      <c r="S69" s="126"/>
-      <c r="T69" s="126"/>
-      <c r="U69" s="126"/>
-      <c r="V69" s="126"/>
-      <c r="W69" s="126"/>
-      <c r="X69" s="126"/>
-      <c r="Y69" s="126"/>
-      <c r="Z69" s="126"/>
-    </row>
-    <row r="70" spans="2:26" s="129" customFormat="1">
+      <c r="K69" s="124"/>
+      <c r="L69" s="124"/>
+      <c r="M69" s="124"/>
+      <c r="N69" s="124"/>
+      <c r="O69" s="124"/>
+      <c r="P69" s="124"/>
+      <c r="Q69" s="124"/>
+      <c r="R69" s="124"/>
+      <c r="S69" s="124"/>
+      <c r="T69" s="124"/>
+      <c r="U69" s="124"/>
+      <c r="V69" s="124"/>
+      <c r="W69" s="124"/>
+      <c r="X69" s="124"/>
+      <c r="Y69" s="124"/>
+      <c r="Z69" s="124"/>
+    </row>
+    <row r="70" spans="2:26" s="127" customFormat="1">
       <c r="B70" s="100"/>
-      <c r="C70" s="126"/>
-      <c r="D70" s="126"/>
-      <c r="E70" s="126"/>
-      <c r="F70" s="130" t="s">
+      <c r="C70" s="124"/>
+      <c r="D70" s="124"/>
+      <c r="E70" s="124"/>
+      <c r="F70" s="128" t="s">
         <v>92</v>
       </c>
-      <c r="G70" s="130"/>
-      <c r="H70" s="127">
+      <c r="G70" s="128"/>
+      <c r="H70" s="125">
         <v>1.4E-2</v>
       </c>
-      <c r="I70" s="128" t="s">
+      <c r="I70" s="126" t="s">
         <v>90</v>
       </c>
-      <c r="K70" s="126"/>
-      <c r="L70" s="126"/>
-      <c r="M70" s="126"/>
-      <c r="N70" s="126"/>
-      <c r="O70" s="126"/>
-      <c r="P70" s="126"/>
-      <c r="Q70" s="126"/>
-      <c r="R70" s="126"/>
-      <c r="S70" s="126"/>
-      <c r="T70" s="126"/>
-      <c r="U70" s="126"/>
-      <c r="V70" s="126"/>
-      <c r="W70" s="126"/>
-      <c r="X70" s="126"/>
-      <c r="Y70" s="126"/>
-      <c r="Z70" s="126"/>
-    </row>
-    <row r="71" spans="2:26" s="129" customFormat="1">
+      <c r="K70" s="124"/>
+      <c r="L70" s="124"/>
+      <c r="M70" s="124"/>
+      <c r="N70" s="124"/>
+      <c r="O70" s="124"/>
+      <c r="P70" s="124"/>
+      <c r="Q70" s="124"/>
+      <c r="R70" s="124"/>
+      <c r="S70" s="124"/>
+      <c r="T70" s="124"/>
+      <c r="U70" s="124"/>
+      <c r="V70" s="124"/>
+      <c r="W70" s="124"/>
+      <c r="X70" s="124"/>
+      <c r="Y70" s="124"/>
+      <c r="Z70" s="124"/>
+    </row>
+    <row r="71" spans="2:26" s="127" customFormat="1">
       <c r="B71" s="100"/>
-      <c r="C71" s="126"/>
-      <c r="D71" s="126"/>
-      <c r="E71" s="126"/>
-      <c r="F71" s="131" t="s">
+      <c r="C71" s="124"/>
+      <c r="D71" s="124"/>
+      <c r="E71" s="124"/>
+      <c r="F71" s="129" t="s">
         <v>93</v>
       </c>
-      <c r="G71" s="131"/>
-      <c r="H71" s="132">
+      <c r="G71" s="129"/>
+      <c r="H71" s="130">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="I71" s="133" t="s">
+      <c r="I71" s="131" t="s">
         <v>90</v>
       </c>
-      <c r="K71" s="126" t="s">
+      <c r="K71" s="124" t="s">
         <v>94</v>
       </c>
-      <c r="L71" s="126"/>
-      <c r="M71" s="126"/>
-      <c r="N71" s="126"/>
-      <c r="O71" s="126"/>
-      <c r="P71" s="126"/>
-      <c r="Q71" s="126"/>
-      <c r="R71" s="126"/>
-      <c r="S71" s="126"/>
-      <c r="T71" s="126"/>
-      <c r="U71" s="126"/>
-      <c r="V71" s="126"/>
-      <c r="W71" s="126"/>
-      <c r="X71" s="126"/>
-      <c r="Y71" s="126"/>
-      <c r="Z71" s="126"/>
-    </row>
-    <row r="72" spans="2:26" s="129" customFormat="1">
+      <c r="L71" s="124"/>
+      <c r="M71" s="124"/>
+      <c r="N71" s="124"/>
+      <c r="O71" s="124"/>
+      <c r="P71" s="124"/>
+      <c r="Q71" s="124"/>
+      <c r="R71" s="124"/>
+      <c r="S71" s="124"/>
+      <c r="T71" s="124"/>
+      <c r="U71" s="124"/>
+      <c r="V71" s="124"/>
+      <c r="W71" s="124"/>
+      <c r="X71" s="124"/>
+      <c r="Y71" s="124"/>
+      <c r="Z71" s="124"/>
+    </row>
+    <row r="72" spans="2:26" s="127" customFormat="1">
       <c r="B72" s="100"/>
-      <c r="C72" s="126"/>
-      <c r="D72" s="126"/>
-      <c r="E72" s="126"/>
-      <c r="F72" s="130"/>
-      <c r="G72" s="130"/>
-      <c r="H72" s="127"/>
-      <c r="I72" s="128"/>
-      <c r="K72" s="126"/>
-      <c r="L72" s="126"/>
-      <c r="M72" s="126"/>
-      <c r="N72" s="126"/>
-      <c r="O72" s="126"/>
-      <c r="P72" s="126"/>
-      <c r="Q72" s="126"/>
-      <c r="R72" s="126"/>
-      <c r="S72" s="126"/>
-      <c r="T72" s="126"/>
-      <c r="U72" s="126"/>
-      <c r="V72" s="126"/>
-      <c r="W72" s="126"/>
-      <c r="X72" s="126"/>
-      <c r="Y72" s="126"/>
-      <c r="Z72" s="126"/>
-    </row>
-    <row r="73" spans="2:26" s="129" customFormat="1">
+      <c r="C72" s="124"/>
+      <c r="D72" s="124"/>
+      <c r="E72" s="124"/>
+      <c r="F72" s="128"/>
+      <c r="G72" s="128"/>
+      <c r="H72" s="125"/>
+      <c r="I72" s="126"/>
+      <c r="K72" s="124"/>
+      <c r="L72" s="124"/>
+      <c r="M72" s="124"/>
+      <c r="N72" s="124"/>
+      <c r="O72" s="124"/>
+      <c r="P72" s="124"/>
+      <c r="Q72" s="124"/>
+      <c r="R72" s="124"/>
+      <c r="S72" s="124"/>
+      <c r="T72" s="124"/>
+      <c r="U72" s="124"/>
+      <c r="V72" s="124"/>
+      <c r="W72" s="124"/>
+      <c r="X72" s="124"/>
+      <c r="Y72" s="124"/>
+      <c r="Z72" s="124"/>
+    </row>
+    <row r="73" spans="2:26" s="127" customFormat="1">
       <c r="B73" s="100"/>
-      <c r="C73" s="126"/>
-      <c r="D73" s="126"/>
-      <c r="E73" s="126"/>
-      <c r="F73" s="126" t="s">
+      <c r="C73" s="124"/>
+      <c r="D73" s="124"/>
+      <c r="E73" s="124"/>
+      <c r="F73" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="G73" s="126"/>
-      <c r="H73" s="127">
+      <c r="G73" s="124"/>
+      <c r="H73" s="125">
         <v>0.99099999999999999</v>
       </c>
-      <c r="I73" s="128" t="s">
+      <c r="I73" s="126" t="s">
         <v>90</v>
       </c>
-      <c r="K73" s="126"/>
-      <c r="L73" s="126"/>
-      <c r="M73" s="126"/>
-      <c r="N73" s="126"/>
-      <c r="O73" s="126"/>
-      <c r="P73" s="126"/>
-      <c r="Q73" s="126"/>
-      <c r="R73" s="126"/>
-      <c r="S73" s="126"/>
-      <c r="T73" s="126"/>
-      <c r="U73" s="126"/>
-      <c r="V73" s="126"/>
-      <c r="W73" s="126"/>
-      <c r="X73" s="126"/>
-      <c r="Y73" s="126"/>
-      <c r="Z73" s="126"/>
-    </row>
-    <row r="74" spans="2:26" s="129" customFormat="1">
+      <c r="K73" s="124"/>
+      <c r="L73" s="124"/>
+      <c r="M73" s="124"/>
+      <c r="N73" s="124"/>
+      <c r="O73" s="124"/>
+      <c r="P73" s="124"/>
+      <c r="Q73" s="124"/>
+      <c r="R73" s="124"/>
+      <c r="S73" s="124"/>
+      <c r="T73" s="124"/>
+      <c r="U73" s="124"/>
+      <c r="V73" s="124"/>
+      <c r="W73" s="124"/>
+      <c r="X73" s="124"/>
+      <c r="Y73" s="124"/>
+      <c r="Z73" s="124"/>
+    </row>
+    <row r="74" spans="2:26" s="127" customFormat="1">
       <c r="B74" s="100"/>
-      <c r="C74" s="126"/>
-      <c r="D74" s="126"/>
-      <c r="E74" s="126"/>
-      <c r="F74" s="130" t="s">
+      <c r="C74" s="124"/>
+      <c r="D74" s="124"/>
+      <c r="E74" s="124"/>
+      <c r="F74" s="128" t="s">
         <v>96</v>
       </c>
-      <c r="G74" s="130"/>
-      <c r="H74" s="134">
+      <c r="G74" s="128"/>
+      <c r="H74" s="132">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="I74" s="128" t="s">
+      <c r="I74" s="126" t="s">
         <v>90</v>
       </c>
-      <c r="K74" s="126"/>
-      <c r="L74" s="126"/>
-      <c r="M74" s="126"/>
-      <c r="N74" s="126"/>
-      <c r="O74" s="126"/>
-      <c r="P74" s="126"/>
-      <c r="Q74" s="126"/>
-      <c r="R74" s="126"/>
-      <c r="S74" s="126"/>
-      <c r="T74" s="126"/>
-      <c r="U74" s="126"/>
-      <c r="V74" s="126"/>
-      <c r="W74" s="126"/>
-      <c r="X74" s="126"/>
-      <c r="Y74" s="126"/>
-      <c r="Z74" s="126"/>
+      <c r="K74" s="124"/>
+      <c r="L74" s="124"/>
+      <c r="M74" s="124"/>
+      <c r="N74" s="124"/>
+      <c r="O74" s="124"/>
+      <c r="P74" s="124"/>
+      <c r="Q74" s="124"/>
+      <c r="R74" s="124"/>
+      <c r="S74" s="124"/>
+      <c r="T74" s="124"/>
+      <c r="U74" s="124"/>
+      <c r="V74" s="124"/>
+      <c r="W74" s="124"/>
+      <c r="X74" s="124"/>
+      <c r="Y74" s="124"/>
+      <c r="Z74" s="124"/>
     </row>
     <row r="75" spans="2:26" customFormat="1">
       <c r="B75" s="100"/>
@@ -6695,7 +6564,7 @@
       <c r="F75" s="110"/>
       <c r="G75" s="110"/>
       <c r="H75" s="110"/>
-      <c r="I75" s="135"/>
+      <c r="I75" s="133"/>
       <c r="K75" s="110"/>
       <c r="L75" s="110"/>
       <c r="M75" s="110"/>
@@ -6718,17 +6587,17 @@
       <c r="C76" s="110"/>
       <c r="D76" s="110"/>
       <c r="E76" s="110"/>
-      <c r="F76" s="131" t="s">
+      <c r="F76" s="129" t="s">
         <v>97</v>
       </c>
-      <c r="G76" s="131"/>
-      <c r="H76" s="136">
+      <c r="G76" s="129"/>
+      <c r="H76" s="134">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="I76" s="133" t="s">
+      <c r="I76" s="131" t="s">
         <v>90</v>
       </c>
-      <c r="K76" s="126" t="s">
+      <c r="K76" s="124" t="s">
         <v>94</v>
       </c>
       <c r="L76" s="110"/>
@@ -6752,17 +6621,17 @@
       <c r="C77" s="110"/>
       <c r="D77" s="110"/>
       <c r="E77" s="110"/>
-      <c r="F77" s="131" t="s">
+      <c r="F77" s="129" t="s">
         <v>98</v>
       </c>
-      <c r="G77" s="131"/>
-      <c r="H77" s="137">
+      <c r="G77" s="129"/>
+      <c r="H77" s="135">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="I77" s="133" t="s">
+      <c r="I77" s="131" t="s">
         <v>90</v>
       </c>
-      <c r="K77" s="126" t="s">
+      <c r="K77" s="124" t="s">
         <v>94</v>
       </c>
       <c r="L77" s="110"/>
@@ -8248,7 +8117,7 @@
       <c r="C132" s="110"/>
       <c r="D132" s="110"/>
       <c r="E132" s="110"/>
-      <c r="H132" s="138">
+      <c r="H132" s="136">
         <f>H134/(H39/1000)</f>
         <v>65.447289831864353</v>
       </c>
@@ -8277,7 +8146,7 @@
       <c r="C133" s="110"/>
       <c r="D133" s="110"/>
       <c r="E133" s="110"/>
-      <c r="H133" s="139">
+      <c r="H133" s="137">
         <f>H135/H132</f>
         <v>7639.7357519999978</v>
       </c>
@@ -8363,13 +8232,13 @@
     <row r="136" spans="2:26" customFormat="1">
       <c r="B136" s="100"/>
       <c r="C136" s="110"/>
-      <c r="D136" s="140"/>
-      <c r="E136" s="140"/>
-      <c r="F136" s="141"/>
-      <c r="G136" s="141"/>
-      <c r="H136" s="141"/>
-      <c r="I136" s="141"/>
-      <c r="J136" s="141"/>
+      <c r="D136" s="138"/>
+      <c r="E136" s="138"/>
+      <c r="F136" s="139"/>
+      <c r="G136" s="139"/>
+      <c r="H136" s="139"/>
+      <c r="I136" s="139"/>
+      <c r="J136" s="139"/>
       <c r="K136" s="110"/>
       <c r="L136" s="110"/>
       <c r="M136" s="110"/>
@@ -8504,10 +8373,10 @@
         <v>107</v>
       </c>
       <c r="E141" s="110"/>
-      <c r="F141" s="124" t="s">
+      <c r="F141" s="122" t="s">
         <v>108</v>
       </c>
-      <c r="G141" s="124"/>
+      <c r="G141" s="122"/>
       <c r="H141" s="110">
         <v>21</v>
       </c>
@@ -8538,7 +8407,7 @@
       <c r="E142" s="110"/>
       <c r="F142" s="110"/>
       <c r="G142" s="110"/>
-      <c r="H142" s="124"/>
+      <c r="H142" s="122"/>
       <c r="I142" s="110"/>
       <c r="J142" s="110"/>
       <c r="K142" s="110"/>
@@ -8567,11 +8436,11 @@
         <v>110</v>
       </c>
       <c r="G143" s="110"/>
-      <c r="H143" s="142">
+      <c r="H143" s="140">
         <f>H26*100</f>
         <v>1420</v>
       </c>
-      <c r="I143" s="124" t="s">
+      <c r="I143" s="122" t="s">
         <v>111</v>
       </c>
       <c r="K143" s="110"/>
@@ -8599,11 +8468,11 @@
         <v>110</v>
       </c>
       <c r="G144" s="110"/>
-      <c r="H144" s="142">
+      <c r="H144" s="140">
         <f>H133</f>
         <v>7639.7357519999978</v>
       </c>
-      <c r="I144" s="124" t="s">
+      <c r="I144" s="122" t="s">
         <v>65</v>
       </c>
       <c r="K144" s="110"/>
@@ -8631,11 +8500,11 @@
         <v>112</v>
       </c>
       <c r="G145" s="110"/>
-      <c r="H145" s="142">
+      <c r="H145" s="140">
         <f>H144/H143</f>
         <v>5.3800955999999989</v>
       </c>
-      <c r="I145" s="124" t="s">
+      <c r="I145" s="122" t="s">
         <v>113</v>
       </c>
       <c r="J145" s="110" t="s">
@@ -8666,11 +8535,11 @@
         <v>114</v>
       </c>
       <c r="G146" s="110"/>
-      <c r="H146" s="138">
+      <c r="H146" s="136">
         <f>H141/H145</f>
         <v>3.9032763655723897</v>
       </c>
-      <c r="I146" s="124" t="s">
+      <c r="I146" s="122" t="s">
         <v>99</v>
       </c>
       <c r="K146" s="110"/>
@@ -8694,8 +8563,8 @@
       <c r="C147" s="110"/>
       <c r="D147" s="110"/>
       <c r="E147" s="110"/>
-      <c r="F147" s="124"/>
-      <c r="G147" s="124"/>
+      <c r="F147" s="122"/>
+      <c r="G147" s="122"/>
       <c r="H147" s="110"/>
       <c r="I147" s="110"/>
       <c r="J147" s="110"/>
@@ -8778,7 +8647,7 @@
       <c r="Z149" s="110"/>
     </row>
     <row r="150" spans="1:26" customFormat="1">
-      <c r="A150" s="168"/>
+      <c r="A150" s="165"/>
       <c r="B150" s="110"/>
       <c r="C150" s="110"/>
       <c r="D150" s="110"/>
@@ -8806,7 +8675,7 @@
       <c r="Z150" s="110"/>
     </row>
     <row r="151" spans="1:26" customFormat="1">
-      <c r="A151" s="168"/>
+      <c r="A151" s="165"/>
       <c r="B151" s="110" t="s">
         <v>162</v>
       </c>
@@ -8836,14 +8705,14 @@
       <c r="Z151" s="110"/>
     </row>
     <row r="152" spans="1:26" customFormat="1">
-      <c r="A152" s="168"/>
+      <c r="A152" s="165"/>
       <c r="B152" s="110"/>
-      <c r="C152" s="158"/>
-      <c r="D152" s="159"/>
-      <c r="E152" s="159"/>
-      <c r="F152" s="161"/>
-      <c r="G152" s="161"/>
-      <c r="H152" s="161"/>
+      <c r="C152" s="155"/>
+      <c r="D152" s="156"/>
+      <c r="E152" s="156"/>
+      <c r="F152" s="158"/>
+      <c r="G152" s="158"/>
+      <c r="H152" s="158"/>
       <c r="I152" s="110"/>
       <c r="J152" s="110"/>
       <c r="K152" s="110"/>
@@ -8864,14 +8733,14 @@
       <c r="Z152" s="110"/>
     </row>
     <row r="153" spans="1:26" customFormat="1">
-      <c r="A153" s="168"/>
+      <c r="A153" s="165"/>
       <c r="B153" s="110"/>
-      <c r="C153" s="161"/>
-      <c r="D153" s="161"/>
-      <c r="E153" s="164"/>
-      <c r="F153" s="161"/>
-      <c r="G153" s="161"/>
-      <c r="H153" s="161"/>
+      <c r="C153" s="158"/>
+      <c r="D153" s="158"/>
+      <c r="E153" s="161"/>
+      <c r="F153" s="158"/>
+      <c r="G153" s="158"/>
+      <c r="H153" s="158"/>
       <c r="I153" s="110"/>
       <c r="J153" s="110"/>
       <c r="K153" s="110"/>
@@ -8892,14 +8761,14 @@
       <c r="Z153" s="110"/>
     </row>
     <row r="154" spans="1:26" customFormat="1">
-      <c r="A154" s="168"/>
+      <c r="A154" s="165"/>
       <c r="B154" s="110"/>
-      <c r="C154" s="161"/>
-      <c r="D154" s="161"/>
-      <c r="E154" s="164"/>
-      <c r="F154" s="161"/>
-      <c r="G154" s="161"/>
-      <c r="H154" s="161"/>
+      <c r="C154" s="158"/>
+      <c r="D154" s="158"/>
+      <c r="E154" s="161"/>
+      <c r="F154" s="158"/>
+      <c r="G154" s="158"/>
+      <c r="H154" s="158"/>
       <c r="I154" s="110"/>
       <c r="J154" s="110"/>
       <c r="K154" s="110"/>
@@ -8920,14 +8789,14 @@
       <c r="Z154" s="110"/>
     </row>
     <row r="155" spans="1:26" customFormat="1">
-      <c r="A155" s="168"/>
+      <c r="A155" s="165"/>
       <c r="B155" s="110"/>
-      <c r="C155" s="160"/>
-      <c r="D155" s="160"/>
-      <c r="E155" s="165"/>
-      <c r="F155" s="160"/>
-      <c r="G155" s="160"/>
-      <c r="H155" s="161"/>
+      <c r="C155" s="157"/>
+      <c r="D155" s="157"/>
+      <c r="E155" s="162"/>
+      <c r="F155" s="157"/>
+      <c r="G155" s="157"/>
+      <c r="H155" s="158"/>
       <c r="I155" s="110"/>
       <c r="J155" s="110"/>
       <c r="K155" s="110"/>
@@ -8948,14 +8817,14 @@
       <c r="Z155" s="110"/>
     </row>
     <row r="156" spans="1:26" customFormat="1">
-      <c r="A156" s="168"/>
+      <c r="A156" s="165"/>
       <c r="B156" s="110"/>
-      <c r="C156" s="160"/>
-      <c r="D156" s="160"/>
-      <c r="E156" s="165"/>
-      <c r="F156" s="160"/>
-      <c r="G156" s="160"/>
-      <c r="H156" s="161"/>
+      <c r="C156" s="157"/>
+      <c r="D156" s="157"/>
+      <c r="E156" s="162"/>
+      <c r="F156" s="157"/>
+      <c r="G156" s="157"/>
+      <c r="H156" s="158"/>
       <c r="I156" s="110"/>
       <c r="J156" s="110"/>
       <c r="K156" s="110"/>
@@ -8976,14 +8845,14 @@
       <c r="Z156" s="110"/>
     </row>
     <row r="157" spans="1:26" customFormat="1">
-      <c r="A157" s="168"/>
+      <c r="A157" s="165"/>
       <c r="B157" s="110"/>
-      <c r="C157" s="160"/>
-      <c r="D157" s="160"/>
-      <c r="E157" s="165"/>
-      <c r="F157" s="160"/>
-      <c r="G157" s="160"/>
-      <c r="H157" s="161"/>
+      <c r="C157" s="157"/>
+      <c r="D157" s="157"/>
+      <c r="E157" s="162"/>
+      <c r="F157" s="157"/>
+      <c r="G157" s="157"/>
+      <c r="H157" s="158"/>
       <c r="I157" s="110"/>
       <c r="J157" s="110"/>
       <c r="K157" s="110"/>
@@ -9004,14 +8873,14 @@
       <c r="Z157" s="110"/>
     </row>
     <row r="158" spans="1:26" customFormat="1">
-      <c r="A158" s="168"/>
+      <c r="A158" s="165"/>
       <c r="B158" s="110"/>
-      <c r="C158" s="160"/>
-      <c r="D158" s="160"/>
-      <c r="E158" s="165"/>
-      <c r="F158" s="160"/>
-      <c r="G158" s="160"/>
-      <c r="H158" s="161"/>
+      <c r="C158" s="157"/>
+      <c r="D158" s="157"/>
+      <c r="E158" s="162"/>
+      <c r="F158" s="157"/>
+      <c r="G158" s="157"/>
+      <c r="H158" s="158"/>
       <c r="I158" s="110"/>
       <c r="J158" s="110"/>
       <c r="K158" s="110"/>
@@ -9032,14 +8901,14 @@
       <c r="Z158" s="110"/>
     </row>
     <row r="159" spans="1:26" customFormat="1">
-      <c r="A159" s="168"/>
+      <c r="A159" s="165"/>
       <c r="B159" s="110"/>
-      <c r="C159" s="161"/>
-      <c r="D159" s="161"/>
-      <c r="E159" s="164"/>
-      <c r="F159" s="161"/>
-      <c r="G159" s="161"/>
-      <c r="H159" s="161"/>
+      <c r="C159" s="158"/>
+      <c r="D159" s="158"/>
+      <c r="E159" s="161"/>
+      <c r="F159" s="158"/>
+      <c r="G159" s="158"/>
+      <c r="H159" s="158"/>
       <c r="I159" s="110"/>
       <c r="J159" s="110"/>
       <c r="K159" s="110"/>
@@ -9060,14 +8929,14 @@
       <c r="Z159" s="110"/>
     </row>
     <row r="160" spans="1:26" customFormat="1">
-      <c r="A160" s="168"/>
+      <c r="A160" s="165"/>
       <c r="B160" s="110"/>
-      <c r="C160" s="161"/>
-      <c r="D160" s="161"/>
-      <c r="E160" s="166"/>
-      <c r="F160" s="161"/>
-      <c r="G160" s="161"/>
-      <c r="H160" s="161"/>
+      <c r="C160" s="158"/>
+      <c r="D160" s="158"/>
+      <c r="E160" s="163"/>
+      <c r="F160" s="158"/>
+      <c r="G160" s="158"/>
+      <c r="H160" s="158"/>
       <c r="I160" s="110"/>
       <c r="J160" s="110"/>
       <c r="K160" s="110"/>
@@ -9088,14 +8957,14 @@
       <c r="Z160" s="110"/>
     </row>
     <row r="161" spans="1:26" customFormat="1">
-      <c r="A161" s="168"/>
+      <c r="A161" s="165"/>
       <c r="B161" s="110"/>
-      <c r="C161" s="161"/>
-      <c r="D161" s="161"/>
-      <c r="E161" s="164"/>
-      <c r="F161" s="161"/>
-      <c r="G161" s="161"/>
-      <c r="H161" s="161"/>
+      <c r="C161" s="158"/>
+      <c r="D161" s="158"/>
+      <c r="E161" s="161"/>
+      <c r="F161" s="158"/>
+      <c r="G161" s="158"/>
+      <c r="H161" s="158"/>
       <c r="I161" s="110"/>
       <c r="J161" s="110"/>
       <c r="K161" s="110"/>
@@ -9116,14 +8985,14 @@
       <c r="Z161" s="110"/>
     </row>
     <row r="162" spans="1:26" customFormat="1">
-      <c r="A162" s="168"/>
+      <c r="A162" s="165"/>
       <c r="B162" s="110"/>
-      <c r="C162" s="161"/>
-      <c r="D162" s="161"/>
-      <c r="E162" s="164"/>
-      <c r="F162" s="161"/>
-      <c r="G162" s="161"/>
-      <c r="H162" s="161"/>
+      <c r="C162" s="158"/>
+      <c r="D162" s="158"/>
+      <c r="E162" s="161"/>
+      <c r="F162" s="158"/>
+      <c r="G162" s="158"/>
+      <c r="H162" s="158"/>
       <c r="I162" s="110"/>
       <c r="J162" s="110"/>
       <c r="K162" s="110"/>
@@ -9144,14 +9013,14 @@
       <c r="Z162" s="110"/>
     </row>
     <row r="163" spans="1:26" customFormat="1">
-      <c r="A163" s="168"/>
+      <c r="A163" s="165"/>
       <c r="B163" s="110"/>
-      <c r="C163" s="161"/>
-      <c r="D163" s="161"/>
-      <c r="E163" s="164"/>
-      <c r="F163" s="161"/>
-      <c r="G163" s="161"/>
-      <c r="H163" s="161"/>
+      <c r="C163" s="158"/>
+      <c r="D163" s="158"/>
+      <c r="E163" s="161"/>
+      <c r="F163" s="158"/>
+      <c r="G163" s="158"/>
+      <c r="H163" s="158"/>
       <c r="I163" s="110"/>
       <c r="J163" s="110"/>
       <c r="K163" s="110"/>
@@ -9172,14 +9041,14 @@
       <c r="Z163" s="110"/>
     </row>
     <row r="164" spans="1:26" customFormat="1">
-      <c r="A164" s="168"/>
+      <c r="A164" s="165"/>
       <c r="B164" s="110"/>
-      <c r="C164" s="160"/>
-      <c r="D164" s="160"/>
-      <c r="E164" s="165"/>
-      <c r="F164" s="160"/>
-      <c r="G164" s="160"/>
-      <c r="H164" s="161"/>
+      <c r="C164" s="157"/>
+      <c r="D164" s="157"/>
+      <c r="E164" s="162"/>
+      <c r="F164" s="157"/>
+      <c r="G164" s="157"/>
+      <c r="H164" s="158"/>
       <c r="I164" s="110"/>
       <c r="J164" s="110"/>
       <c r="K164" s="110"/>
@@ -9200,14 +9069,14 @@
       <c r="Z164" s="110"/>
     </row>
     <row r="165" spans="1:26" customFormat="1">
-      <c r="A165" s="168"/>
+      <c r="A165" s="165"/>
       <c r="B165" s="110"/>
-      <c r="C165" s="160"/>
-      <c r="D165" s="160"/>
-      <c r="E165" s="165"/>
-      <c r="F165" s="160"/>
-      <c r="G165" s="160"/>
-      <c r="H165" s="161"/>
+      <c r="C165" s="157"/>
+      <c r="D165" s="157"/>
+      <c r="E165" s="162"/>
+      <c r="F165" s="157"/>
+      <c r="G165" s="157"/>
+      <c r="H165" s="158"/>
       <c r="I165" s="110"/>
       <c r="J165" s="110"/>
       <c r="K165" s="110"/>
@@ -9228,22 +9097,22 @@
       <c r="Z165" s="110"/>
     </row>
     <row r="166" spans="1:26" customFormat="1">
-      <c r="A166" s="168"/>
+      <c r="A166" s="165"/>
       <c r="B166" s="110"/>
-      <c r="C166" s="161">
+      <c r="C166" s="158">
         <v>7</v>
       </c>
-      <c r="D166" s="162"/>
-      <c r="E166" s="164">
+      <c r="D166" s="159"/>
+      <c r="E166" s="161">
         <v>418</v>
       </c>
-      <c r="F166" s="163" t="s">
+      <c r="F166" s="160" t="s">
         <v>52</v>
       </c>
-      <c r="G166" s="167" t="s">
+      <c r="G166" s="164" t="s">
         <v>53</v>
       </c>
-      <c r="H166" s="161"/>
+      <c r="H166" s="158"/>
       <c r="I166" s="110"/>
       <c r="J166" s="110"/>
       <c r="K166" s="110"/>
@@ -9264,20 +9133,20 @@
       <c r="Z166" s="110"/>
     </row>
     <row r="167" spans="1:26" customFormat="1">
-      <c r="A167" s="168"/>
+      <c r="A167" s="165"/>
       <c r="B167" s="110"/>
-      <c r="C167" s="161"/>
-      <c r="D167" s="162"/>
-      <c r="E167" s="164">
+      <c r="C167" s="158"/>
+      <c r="D167" s="159"/>
+      <c r="E167" s="161">
         <v>49.5</v>
       </c>
-      <c r="F167" s="161" t="s">
+      <c r="F167" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="G167" s="167" t="s">
+      <c r="G167" s="164" t="s">
         <v>55</v>
       </c>
-      <c r="H167" s="161"/>
+      <c r="H167" s="158"/>
       <c r="I167" s="110"/>
       <c r="J167" s="110"/>
       <c r="K167" s="110"/>
@@ -9298,21 +9167,21 @@
       <c r="Z167" s="110"/>
     </row>
     <row r="168" spans="1:26" customFormat="1">
-      <c r="A168" s="168"/>
+      <c r="A168" s="165"/>
       <c r="B168" s="110"/>
-      <c r="C168" s="161"/>
-      <c r="D168" s="162"/>
-      <c r="E168" s="164">
+      <c r="C168" s="158"/>
+      <c r="D168" s="159"/>
+      <c r="E168" s="161">
         <f>E166/1000</f>
         <v>0.41799999999999998</v>
       </c>
-      <c r="F168" s="162" t="s">
+      <c r="F168" s="159" t="s">
         <v>56</v>
       </c>
-      <c r="G168" s="167" t="s">
+      <c r="G168" s="164" t="s">
         <v>57</v>
       </c>
-      <c r="H168" s="161"/>
+      <c r="H168" s="158"/>
       <c r="I168" s="110"/>
       <c r="J168" s="110"/>
       <c r="K168" s="110"/>
@@ -9333,20 +9202,20 @@
       <c r="Z168" s="110"/>
     </row>
     <row r="169" spans="1:26" customFormat="1">
-      <c r="A169" s="168"/>
+      <c r="A169" s="165"/>
       <c r="B169" s="110"/>
-      <c r="C169" s="161"/>
-      <c r="D169" s="162"/>
-      <c r="E169" s="164">
+      <c r="C169" s="158"/>
+      <c r="D169" s="159"/>
+      <c r="E169" s="161">
         <v>20.7</v>
       </c>
-      <c r="F169" s="161" t="s">
+      <c r="F169" s="158" t="s">
         <v>58</v>
       </c>
-      <c r="G169" s="167" t="s">
+      <c r="G169" s="164" t="s">
         <v>55</v>
       </c>
-      <c r="H169" s="161"/>
+      <c r="H169" s="158"/>
       <c r="I169" s="110"/>
       <c r="J169" s="110"/>
       <c r="K169" s="110"/>
@@ -9367,14 +9236,14 @@
       <c r="Z169" s="110"/>
     </row>
     <row r="170" spans="1:26" customFormat="1">
-      <c r="A170" s="168"/>
+      <c r="A170" s="165"/>
       <c r="B170" s="110"/>
       <c r="C170" s="110"/>
       <c r="D170" s="110"/>
       <c r="E170" s="110"/>
-      <c r="F170" s="161"/>
-      <c r="G170" s="161"/>
-      <c r="H170" s="161"/>
+      <c r="F170" s="158"/>
+      <c r="G170" s="158"/>
+      <c r="H170" s="158"/>
       <c r="I170" s="110"/>
       <c r="J170" s="110"/>
       <c r="K170" s="110"/>
@@ -9395,14 +9264,14 @@
       <c r="Z170" s="110"/>
     </row>
     <row r="171" spans="1:26" customFormat="1">
-      <c r="A171" s="168"/>
+      <c r="A171" s="165"/>
       <c r="B171" s="110"/>
       <c r="C171" s="110"/>
       <c r="D171" s="110"/>
       <c r="E171" s="110"/>
-      <c r="F171" s="161"/>
-      <c r="G171" s="161"/>
-      <c r="H171" s="161"/>
+      <c r="F171" s="158"/>
+      <c r="G171" s="158"/>
+      <c r="H171" s="158"/>
       <c r="I171" s="110"/>
       <c r="J171" s="110"/>
       <c r="K171" s="110"/>
@@ -9423,20 +9292,20 @@
       <c r="Z171" s="110"/>
     </row>
     <row r="172" spans="1:26" customFormat="1">
-      <c r="A172" s="168"/>
+      <c r="A172" s="165"/>
       <c r="B172" s="110"/>
       <c r="C172" s="110"/>
       <c r="D172" s="110"/>
       <c r="E172" s="110">
         <v>55.1</v>
       </c>
-      <c r="F172" s="161" t="s">
+      <c r="F172" s="158" t="s">
         <v>160</v>
       </c>
-      <c r="G172" s="161" t="s">
+      <c r="G172" s="158" t="s">
         <v>161</v>
       </c>
-      <c r="H172" s="161"/>
+      <c r="H172" s="158"/>
       <c r="I172" s="110"/>
       <c r="J172" s="110"/>
       <c r="K172" s="110"/>
@@ -9457,14 +9326,14 @@
       <c r="Z172" s="110"/>
     </row>
     <row r="173" spans="1:26" customFormat="1">
-      <c r="A173" s="168"/>
+      <c r="A173" s="165"/>
       <c r="B173" s="110"/>
       <c r="C173" s="110"/>
       <c r="D173" s="110"/>
       <c r="E173" s="110"/>
-      <c r="F173" s="161"/>
-      <c r="G173" s="161"/>
-      <c r="H173" s="161"/>
+      <c r="F173" s="158"/>
+      <c r="G173" s="158"/>
+      <c r="H173" s="158"/>
       <c r="I173" s="110"/>
       <c r="J173" s="110"/>
       <c r="K173" s="110"/>
@@ -9485,14 +9354,14 @@
       <c r="Z173" s="110"/>
     </row>
     <row r="174" spans="1:26" customFormat="1">
-      <c r="A174" s="168"/>
+      <c r="A174" s="165"/>
       <c r="B174" s="110"/>
       <c r="C174" s="110"/>
       <c r="D174" s="110"/>
       <c r="E174" s="110"/>
-      <c r="F174" s="161"/>
-      <c r="G174" s="161"/>
-      <c r="H174" s="161"/>
+      <c r="F174" s="158"/>
+      <c r="G174" s="158"/>
+      <c r="H174" s="158"/>
       <c r="I174" s="110"/>
       <c r="J174" s="110"/>
       <c r="K174" s="110"/>
@@ -9513,7 +9382,7 @@
       <c r="Z174" s="110"/>
     </row>
     <row r="175" spans="1:26" customFormat="1">
-      <c r="A175" s="168"/>
+      <c r="A175" s="165"/>
       <c r="B175" s="110"/>
       <c r="C175" s="110"/>
       <c r="D175" s="110"/>
@@ -9541,7 +9410,7 @@
       <c r="Z175" s="110"/>
     </row>
     <row r="176" spans="1:26" customFormat="1">
-      <c r="A176" s="168"/>
+      <c r="A176" s="165"/>
       <c r="T176" s="110"/>
       <c r="U176" s="110"/>
       <c r="V176" s="110"/>
@@ -9551,19 +9420,19 @@
       <c r="Z176" s="110"/>
     </row>
     <row r="177" spans="1:26" customFormat="1" ht="17" thickBot="1">
-      <c r="A177" s="168"/>
-      <c r="K177" s="169"/>
-      <c r="L177" s="169"/>
-      <c r="M177" s="169"/>
-      <c r="N177" s="169"/>
-      <c r="O177" s="169"/>
-      <c r="P177" s="169"/>
-      <c r="Q177" s="169"/>
-      <c r="R177" s="169"/>
-      <c r="S177" s="169"/>
-      <c r="T177" s="170"/>
-      <c r="U177" s="170"/>
-      <c r="V177" s="170"/>
+      <c r="A177" s="165"/>
+      <c r="K177" s="166"/>
+      <c r="L177" s="166"/>
+      <c r="M177" s="166"/>
+      <c r="N177" s="166"/>
+      <c r="O177" s="166"/>
+      <c r="P177" s="166"/>
+      <c r="Q177" s="166"/>
+      <c r="R177" s="166"/>
+      <c r="S177" s="166"/>
+      <c r="T177" s="167"/>
+      <c r="U177" s="167"/>
+      <c r="V177" s="167"/>
       <c r="W177" s="110"/>
       <c r="X177" s="110"/>
       <c r="Y177" s="110"/>
@@ -10036,7 +9905,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="G195" s="110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H195" s="110"/>
       <c r="I195" s="110"/>
@@ -10146,7 +10015,7 @@
       <c r="E199" s="110"/>
       <c r="F199" s="110"/>
       <c r="G199" s="110"/>
-      <c r="H199" s="121"/>
+      <c r="H199" s="119"/>
       <c r="I199" s="110"/>
       <c r="J199" s="110"/>
       <c r="K199" s="99"/>
@@ -10173,7 +10042,7 @@
       <c r="E200" s="110"/>
       <c r="F200" s="110"/>
       <c r="G200" s="110"/>
-      <c r="H200" s="122"/>
+      <c r="H200" s="120"/>
       <c r="I200" s="110"/>
       <c r="J200" s="110"/>
       <c r="K200" s="99"/>
@@ -10254,7 +10123,7 @@
       <c r="E203" s="110"/>
       <c r="F203" s="110"/>
       <c r="G203" s="110"/>
-      <c r="H203" s="123"/>
+      <c r="H203" s="121"/>
       <c r="I203" s="110"/>
       <c r="J203" s="110"/>
       <c r="K203" s="99"/>
@@ -10279,10 +10148,10 @@
       <c r="C204" s="110"/>
       <c r="D204" s="110"/>
       <c r="E204" s="110"/>
-      <c r="F204" s="143"/>
-      <c r="G204" s="143"/>
-      <c r="H204" s="145"/>
-      <c r="I204" s="143"/>
+      <c r="F204" s="141"/>
+      <c r="G204" s="141"/>
+      <c r="H204" s="143"/>
+      <c r="I204" s="141"/>
       <c r="J204" s="110"/>
       <c r="K204" s="99"/>
       <c r="L204" s="99"/>
@@ -10309,7 +10178,7 @@
       <c r="F205" s="110"/>
       <c r="G205" s="110"/>
       <c r="H205" s="110"/>
-      <c r="I205" s="124"/>
+      <c r="I205" s="122"/>
       <c r="J205" s="110"/>
       <c r="K205" s="99"/>
       <c r="L205" s="99"/>
@@ -10335,8 +10204,8 @@
       <c r="E206" s="110"/>
       <c r="F206" s="110"/>
       <c r="G206" s="110"/>
-      <c r="H206" s="122"/>
-      <c r="I206" s="124"/>
+      <c r="H206" s="120"/>
+      <c r="I206" s="122"/>
       <c r="J206" s="110"/>
       <c r="K206" s="99"/>
       <c r="L206" s="99"/>
@@ -10363,7 +10232,7 @@
       <c r="F207" s="110"/>
       <c r="G207" s="110"/>
       <c r="H207" s="110"/>
-      <c r="I207" s="124"/>
+      <c r="I207" s="122"/>
       <c r="J207" s="110"/>
       <c r="K207" s="99"/>
       <c r="L207" s="99"/>
@@ -10387,10 +10256,10 @@
       <c r="C208" s="110"/>
       <c r="D208" s="110"/>
       <c r="E208" s="110"/>
-      <c r="F208" s="125"/>
-      <c r="G208" s="125"/>
+      <c r="F208" s="123"/>
+      <c r="G208" s="123"/>
       <c r="H208" s="110"/>
-      <c r="I208" s="124"/>
+      <c r="I208" s="122"/>
       <c r="J208" s="110"/>
       <c r="K208" s="99"/>
       <c r="L208" s="99"/>
@@ -10414,10 +10283,10 @@
       <c r="C209" s="110"/>
       <c r="D209" s="110"/>
       <c r="E209" s="110"/>
-      <c r="F209" s="125"/>
-      <c r="G209" s="125"/>
+      <c r="F209" s="123"/>
+      <c r="G209" s="123"/>
       <c r="H209" s="110"/>
-      <c r="I209" s="124"/>
+      <c r="I209" s="122"/>
       <c r="J209" s="110"/>
       <c r="K209" s="99"/>
       <c r="L209" s="99"/>
@@ -10441,10 +10310,10 @@
       <c r="C210" s="110"/>
       <c r="D210" s="110"/>
       <c r="E210" s="110"/>
-      <c r="F210" s="125"/>
-      <c r="G210" s="125"/>
+      <c r="F210" s="123"/>
+      <c r="G210" s="123"/>
       <c r="H210" s="110"/>
-      <c r="I210" s="124"/>
+      <c r="I210" s="122"/>
       <c r="J210" s="110"/>
       <c r="K210" s="99"/>
       <c r="L210" s="99"/>
@@ -10468,10 +10337,10 @@
       <c r="C211" s="110"/>
       <c r="D211" s="110"/>
       <c r="E211" s="110"/>
-      <c r="F211" s="125"/>
-      <c r="G211" s="125"/>
+      <c r="F211" s="123"/>
+      <c r="G211" s="123"/>
       <c r="H211" s="110"/>
-      <c r="I211" s="124"/>
+      <c r="I211" s="122"/>
       <c r="J211" s="110"/>
       <c r="K211" s="99"/>
       <c r="L211" s="99"/>
@@ -10495,10 +10364,10 @@
       <c r="C212" s="110"/>
       <c r="D212" s="110"/>
       <c r="E212" s="110"/>
-      <c r="F212" s="125"/>
-      <c r="G212" s="125"/>
+      <c r="F212" s="123"/>
+      <c r="G212" s="123"/>
       <c r="H212" s="110"/>
-      <c r="I212" s="124"/>
+      <c r="I212" s="122"/>
       <c r="J212" s="110"/>
       <c r="K212" s="99"/>
       <c r="L212" s="99"/>
@@ -10525,7 +10394,7 @@
       <c r="F213" s="110"/>
       <c r="G213" s="110"/>
       <c r="H213" s="110"/>
-      <c r="I213" s="124"/>
+      <c r="I213" s="122"/>
       <c r="J213" s="110"/>
       <c r="K213" s="99"/>
       <c r="L213" s="99"/>
@@ -10552,7 +10421,7 @@
       <c r="F214" s="110"/>
       <c r="G214" s="110"/>
       <c r="H214" s="110"/>
-      <c r="I214" s="124"/>
+      <c r="I214" s="122"/>
       <c r="J214" s="110"/>
       <c r="K214" s="99"/>
       <c r="L214" s="99"/>
@@ -10576,10 +10445,10 @@
       <c r="C215" s="110"/>
       <c r="D215" s="110"/>
       <c r="E215" s="110"/>
-      <c r="F215" s="143"/>
-      <c r="G215" s="144"/>
-      <c r="H215" s="146"/>
-      <c r="I215" s="124"/>
+      <c r="F215" s="141"/>
+      <c r="G215" s="142"/>
+      <c r="H215" s="144"/>
+      <c r="I215" s="122"/>
       <c r="J215" s="110"/>
       <c r="K215" s="99"/>
       <c r="L215" s="99"/>
@@ -10598,95 +10467,95 @@
       <c r="Y215" s="110"/>
       <c r="Z215" s="110"/>
     </row>
-    <row r="216" spans="2:35" s="179" customFormat="1">
-      <c r="B216" s="180"/>
-      <c r="C216" s="181" t="s">
+    <row r="216" spans="2:35" s="174" customFormat="1">
+      <c r="B216" s="175"/>
+      <c r="C216" s="176" t="s">
         <v>24</v>
       </c>
-      <c r="D216" s="181" t="s">
+      <c r="D216" s="176" t="s">
         <v>51</v>
       </c>
-      <c r="E216" s="181"/>
-      <c r="F216" s="181" t="s">
+      <c r="E216" s="176"/>
+      <c r="F216" s="176" t="s">
         <v>31</v>
       </c>
-      <c r="G216" s="181"/>
-      <c r="H216" s="181"/>
-      <c r="I216" s="181"/>
-      <c r="J216" s="181"/>
-      <c r="K216" s="181"/>
-      <c r="L216" s="181"/>
-      <c r="M216" s="181"/>
-      <c r="N216" s="181"/>
-      <c r="O216" s="181"/>
-      <c r="P216" s="181"/>
-      <c r="Q216" s="181"/>
-      <c r="R216" s="181"/>
-      <c r="S216" s="181"/>
-      <c r="T216" s="181"/>
-      <c r="U216" s="181"/>
-      <c r="V216" s="150"/>
-      <c r="W216" s="150"/>
-      <c r="X216" s="150"/>
-      <c r="Y216" s="150"/>
-      <c r="Z216" s="150"/>
-      <c r="AA216" s="150"/>
-      <c r="AB216" s="150"/>
-      <c r="AC216" s="150"/>
-      <c r="AD216" s="150"/>
-      <c r="AE216" s="150"/>
-      <c r="AF216" s="150"/>
-      <c r="AG216" s="150"/>
-      <c r="AH216" s="150"/>
-      <c r="AI216" s="150"/>
-    </row>
-    <row r="217" spans="2:35" s="179" customFormat="1">
-      <c r="B217" s="182"/>
-      <c r="C217" s="183"/>
-      <c r="D217" s="183"/>
-      <c r="E217" s="183"/>
-      <c r="F217" s="183"/>
-      <c r="G217" s="183"/>
-      <c r="H217" s="183"/>
-      <c r="I217" s="183"/>
-      <c r="J217" s="183"/>
-      <c r="K217" s="183"/>
-      <c r="L217" s="183"/>
-      <c r="M217" s="183"/>
-      <c r="N217" s="183"/>
-      <c r="O217" s="183"/>
-      <c r="P217" s="183"/>
-      <c r="Q217" s="183"/>
-      <c r="R217" s="183"/>
-      <c r="S217" s="183"/>
-      <c r="T217" s="183"/>
-      <c r="U217" s="183"/>
-      <c r="V217" s="183"/>
-      <c r="W217" s="183"/>
-      <c r="X217" s="183"/>
-      <c r="Y217" s="183"/>
-      <c r="Z217" s="183"/>
-      <c r="AA217" s="183"/>
-      <c r="AB217" s="183"/>
-      <c r="AC217" s="183"/>
-      <c r="AD217" s="183"/>
-      <c r="AE217" s="183"/>
-      <c r="AF217" s="183"/>
-      <c r="AG217" s="183"/>
-      <c r="AH217" s="183"/>
-      <c r="AI217" s="183"/>
-    </row>
-    <row r="218" spans="2:35" s="179" customFormat="1">
-      <c r="B218" s="182"/>
-      <c r="C218" s="184" t="s">
-        <v>184</v>
-      </c>
-      <c r="D218" s="185"/>
-      <c r="E218" s="185"/>
-      <c r="F218" s="185"/>
-      <c r="G218" s="185"/>
-      <c r="H218" s="185"/>
-      <c r="I218" s="185"/>
+      <c r="G216" s="176"/>
+      <c r="H216" s="176"/>
+      <c r="I216" s="176"/>
+      <c r="J216" s="176"/>
+      <c r="K216" s="176"/>
+      <c r="L216" s="176"/>
+      <c r="M216" s="176"/>
+      <c r="N216" s="176"/>
+      <c r="O216" s="176"/>
+      <c r="P216" s="176"/>
+      <c r="Q216" s="176"/>
+      <c r="R216" s="176"/>
+      <c r="S216" s="176"/>
+      <c r="T216" s="176"/>
+      <c r="U216" s="176"/>
+      <c r="V216" s="148"/>
+      <c r="W216" s="148"/>
+      <c r="X216" s="148"/>
+      <c r="Y216" s="148"/>
+      <c r="Z216" s="148"/>
+      <c r="AA216" s="148"/>
+      <c r="AB216" s="148"/>
+      <c r="AC216" s="148"/>
+      <c r="AD216" s="148"/>
+      <c r="AE216" s="148"/>
+      <c r="AF216" s="148"/>
+      <c r="AG216" s="148"/>
+      <c r="AH216" s="148"/>
+      <c r="AI216" s="148"/>
+    </row>
+    <row r="217" spans="2:35" s="174" customFormat="1">
+      <c r="B217" s="177"/>
+      <c r="C217" s="178"/>
+      <c r="D217" s="178"/>
+      <c r="E217" s="178"/>
+      <c r="F217" s="178"/>
+      <c r="G217" s="178"/>
+      <c r="H217" s="178"/>
+      <c r="I217" s="178"/>
+      <c r="J217" s="178"/>
+      <c r="K217" s="178"/>
+      <c r="L217" s="178"/>
+      <c r="M217" s="178"/>
+      <c r="N217" s="178"/>
+      <c r="O217" s="178"/>
+      <c r="P217" s="178"/>
+      <c r="Q217" s="178"/>
+      <c r="R217" s="178"/>
+      <c r="S217" s="178"/>
+      <c r="T217" s="178"/>
+      <c r="U217" s="178"/>
+      <c r="V217" s="178"/>
+      <c r="W217" s="178"/>
+      <c r="X217" s="178"/>
+      <c r="Y217" s="178"/>
+      <c r="Z217" s="178"/>
+      <c r="AA217" s="178"/>
+      <c r="AB217" s="178"/>
+      <c r="AC217" s="178"/>
+      <c r="AD217" s="178"/>
+      <c r="AE217" s="178"/>
+      <c r="AF217" s="178"/>
+      <c r="AG217" s="178"/>
+      <c r="AH217" s="178"/>
+      <c r="AI217" s="178"/>
+    </row>
+    <row r="218" spans="2:35" s="174" customFormat="1">
+      <c r="B218" s="177"/>
+      <c r="C218" s="179" t="s">
+        <v>182</v>
+      </c>
+      <c r="D218" s="180"/>
+      <c r="E218" s="180"/>
+      <c r="F218" s="180"/>
+      <c r="G218" s="180"/>
+      <c r="H218" s="180"/>
+      <c r="I218" s="180"/>
       <c r="J218" s="110"/>
       <c r="K218" s="110"/>
       <c r="L218" s="110"/>
@@ -10703,26 +10572,26 @@
       <c r="W218" s="110"/>
       <c r="X218" s="110"/>
       <c r="Y218" s="110"/>
-      <c r="Z218" s="186"/>
-      <c r="AA218" s="186"/>
-      <c r="AB218" s="186"/>
-      <c r="AC218" s="186"/>
-      <c r="AD218" s="186"/>
-      <c r="AE218" s="186"/>
-      <c r="AF218" s="186"/>
-      <c r="AG218" s="186"/>
-      <c r="AH218" s="186"/>
-      <c r="AI218" s="186"/>
-    </row>
-    <row r="219" spans="2:35" s="179" customFormat="1">
-      <c r="B219" s="182"/>
-      <c r="C219" s="185"/>
-      <c r="D219" s="185"/>
-      <c r="E219" s="185"/>
-      <c r="F219" s="185"/>
-      <c r="G219" s="185"/>
-      <c r="H219" s="185"/>
-      <c r="I219" s="185"/>
+      <c r="Z218" s="181"/>
+      <c r="AA218" s="181"/>
+      <c r="AB218" s="181"/>
+      <c r="AC218" s="181"/>
+      <c r="AD218" s="181"/>
+      <c r="AE218" s="181"/>
+      <c r="AF218" s="181"/>
+      <c r="AG218" s="181"/>
+      <c r="AH218" s="181"/>
+      <c r="AI218" s="181"/>
+    </row>
+    <row r="219" spans="2:35" s="174" customFormat="1">
+      <c r="B219" s="177"/>
+      <c r="C219" s="180"/>
+      <c r="D219" s="180"/>
+      <c r="E219" s="180"/>
+      <c r="F219" s="180"/>
+      <c r="G219" s="180"/>
+      <c r="H219" s="180"/>
+      <c r="I219" s="180"/>
       <c r="J219" s="110"/>
       <c r="K219" s="110"/>
       <c r="L219" s="110"/>
@@ -10739,26 +10608,26 @@
       <c r="W219" s="110"/>
       <c r="X219" s="110"/>
       <c r="Y219" s="110"/>
-      <c r="Z219" s="186"/>
-      <c r="AA219" s="186"/>
-      <c r="AB219" s="186"/>
-      <c r="AC219" s="186"/>
-      <c r="AD219" s="186"/>
-      <c r="AE219" s="186"/>
-      <c r="AF219" s="186"/>
-      <c r="AG219" s="186"/>
-      <c r="AH219" s="186"/>
-      <c r="AI219" s="186"/>
-    </row>
-    <row r="220" spans="2:35" s="179" customFormat="1">
-      <c r="B220" s="182"/>
-      <c r="C220" s="185"/>
-      <c r="D220" s="185"/>
-      <c r="E220" s="185"/>
-      <c r="F220" s="185"/>
-      <c r="G220" s="185"/>
-      <c r="H220" s="185"/>
-      <c r="I220" s="185"/>
+      <c r="Z219" s="181"/>
+      <c r="AA219" s="181"/>
+      <c r="AB219" s="181"/>
+      <c r="AC219" s="181"/>
+      <c r="AD219" s="181"/>
+      <c r="AE219" s="181"/>
+      <c r="AF219" s="181"/>
+      <c r="AG219" s="181"/>
+      <c r="AH219" s="181"/>
+      <c r="AI219" s="181"/>
+    </row>
+    <row r="220" spans="2:35" s="174" customFormat="1">
+      <c r="B220" s="177"/>
+      <c r="C220" s="180"/>
+      <c r="D220" s="180"/>
+      <c r="E220" s="180"/>
+      <c r="F220" s="180"/>
+      <c r="G220" s="180"/>
+      <c r="H220" s="180"/>
+      <c r="I220" s="180"/>
       <c r="J220" s="110"/>
       <c r="K220" s="110"/>
       <c r="L220" s="110"/>
@@ -10775,27 +10644,27 @@
       <c r="W220" s="110"/>
       <c r="X220" s="110"/>
       <c r="Y220" s="110"/>
-      <c r="Z220" s="186"/>
-      <c r="AA220" s="186"/>
-      <c r="AB220" s="186"/>
-      <c r="AC220" s="186"/>
-      <c r="AD220" s="186"/>
-      <c r="AE220" s="186"/>
-      <c r="AF220" s="186"/>
-      <c r="AG220" s="186"/>
-      <c r="AH220" s="186"/>
-      <c r="AI220" s="186"/>
-    </row>
-    <row r="221" spans="2:35" s="179" customFormat="1">
-      <c r="B221" s="182"/>
-      <c r="C221" s="185"/>
-      <c r="D221" s="190"/>
-      <c r="E221" s="190"/>
-      <c r="F221" s="190"/>
-      <c r="G221" s="190"/>
-      <c r="H221" s="190"/>
-      <c r="I221" s="190"/>
-      <c r="J221" s="141"/>
+      <c r="Z220" s="181"/>
+      <c r="AA220" s="181"/>
+      <c r="AB220" s="181"/>
+      <c r="AC220" s="181"/>
+      <c r="AD220" s="181"/>
+      <c r="AE220" s="181"/>
+      <c r="AF220" s="181"/>
+      <c r="AG220" s="181"/>
+      <c r="AH220" s="181"/>
+      <c r="AI220" s="181"/>
+    </row>
+    <row r="221" spans="2:35" s="174" customFormat="1">
+      <c r="B221" s="177"/>
+      <c r="C221" s="180"/>
+      <c r="D221" s="184"/>
+      <c r="E221" s="184"/>
+      <c r="F221" s="184"/>
+      <c r="G221" s="184"/>
+      <c r="H221" s="184"/>
+      <c r="I221" s="184"/>
+      <c r="J221" s="139"/>
       <c r="K221" s="110"/>
       <c r="L221" s="110"/>
       <c r="M221" s="110"/>
@@ -10811,27 +10680,27 @@
       <c r="W221" s="110"/>
       <c r="X221" s="110"/>
       <c r="Y221" s="110"/>
-      <c r="Z221" s="186"/>
-      <c r="AA221" s="186"/>
-      <c r="AB221" s="186"/>
-      <c r="AC221" s="186"/>
-      <c r="AD221" s="186"/>
-      <c r="AE221" s="186"/>
-      <c r="AF221" s="186"/>
-      <c r="AG221" s="186"/>
-      <c r="AH221" s="186"/>
-      <c r="AI221" s="186"/>
-    </row>
-    <row r="222" spans="2:35" s="179" customFormat="1">
-      <c r="B222" s="182"/>
-      <c r="C222" s="185"/>
-      <c r="D222" s="190"/>
-      <c r="E222" s="190"/>
-      <c r="F222" s="190"/>
-      <c r="G222" s="190"/>
-      <c r="H222" s="190"/>
-      <c r="I222" s="190"/>
-      <c r="J222" s="141"/>
+      <c r="Z221" s="181"/>
+      <c r="AA221" s="181"/>
+      <c r="AB221" s="181"/>
+      <c r="AC221" s="181"/>
+      <c r="AD221" s="181"/>
+      <c r="AE221" s="181"/>
+      <c r="AF221" s="181"/>
+      <c r="AG221" s="181"/>
+      <c r="AH221" s="181"/>
+      <c r="AI221" s="181"/>
+    </row>
+    <row r="222" spans="2:35" s="174" customFormat="1">
+      <c r="B222" s="177"/>
+      <c r="C222" s="180"/>
+      <c r="D222" s="184"/>
+      <c r="E222" s="184"/>
+      <c r="F222" s="184"/>
+      <c r="G222" s="184"/>
+      <c r="H222" s="184"/>
+      <c r="I222" s="184"/>
+      <c r="J222" s="139"/>
       <c r="K222" s="110"/>
       <c r="L222" s="110"/>
       <c r="M222" s="110"/>
@@ -10847,27 +10716,27 @@
       <c r="W222" s="110"/>
       <c r="X222" s="110"/>
       <c r="Y222" s="110"/>
-      <c r="Z222" s="186"/>
-      <c r="AA222" s="186"/>
-      <c r="AB222" s="186"/>
-      <c r="AC222" s="186"/>
-      <c r="AD222" s="186"/>
-      <c r="AE222" s="186"/>
-      <c r="AF222" s="186"/>
-      <c r="AG222" s="186"/>
-      <c r="AH222" s="186"/>
-      <c r="AI222" s="186"/>
-    </row>
-    <row r="223" spans="2:35" s="179" customFormat="1">
-      <c r="B223" s="182"/>
-      <c r="C223" s="185"/>
-      <c r="D223" s="191"/>
-      <c r="E223" s="191"/>
-      <c r="F223" s="191"/>
-      <c r="G223" s="191"/>
-      <c r="H223" s="191"/>
-      <c r="I223" s="191"/>
-      <c r="J223" s="141"/>
+      <c r="Z222" s="181"/>
+      <c r="AA222" s="181"/>
+      <c r="AB222" s="181"/>
+      <c r="AC222" s="181"/>
+      <c r="AD222" s="181"/>
+      <c r="AE222" s="181"/>
+      <c r="AF222" s="181"/>
+      <c r="AG222" s="181"/>
+      <c r="AH222" s="181"/>
+      <c r="AI222" s="181"/>
+    </row>
+    <row r="223" spans="2:35" s="174" customFormat="1">
+      <c r="B223" s="177"/>
+      <c r="C223" s="180"/>
+      <c r="D223" s="185"/>
+      <c r="E223" s="185"/>
+      <c r="F223" s="185"/>
+      <c r="G223" s="185"/>
+      <c r="H223" s="185"/>
+      <c r="I223" s="185"/>
+      <c r="J223" s="139"/>
       <c r="K223" s="110"/>
       <c r="L223" s="110"/>
       <c r="M223" s="110"/>
@@ -10883,27 +10752,27 @@
       <c r="W223" s="110"/>
       <c r="X223" s="110"/>
       <c r="Y223" s="110"/>
-      <c r="Z223" s="186"/>
-      <c r="AA223" s="186"/>
-      <c r="AB223" s="186"/>
-      <c r="AC223" s="186"/>
-      <c r="AD223" s="186"/>
-      <c r="AE223" s="186"/>
-      <c r="AF223" s="186"/>
-      <c r="AG223" s="186"/>
-      <c r="AH223" s="186"/>
-      <c r="AI223" s="186"/>
-    </row>
-    <row r="224" spans="2:35" s="179" customFormat="1">
-      <c r="B224" s="182"/>
-      <c r="C224" s="185"/>
-      <c r="D224" s="191"/>
-      <c r="E224" s="191"/>
-      <c r="F224" s="191"/>
-      <c r="G224" s="191"/>
-      <c r="H224" s="191"/>
-      <c r="I224" s="191"/>
-      <c r="J224" s="141"/>
+      <c r="Z223" s="181"/>
+      <c r="AA223" s="181"/>
+      <c r="AB223" s="181"/>
+      <c r="AC223" s="181"/>
+      <c r="AD223" s="181"/>
+      <c r="AE223" s="181"/>
+      <c r="AF223" s="181"/>
+      <c r="AG223" s="181"/>
+      <c r="AH223" s="181"/>
+      <c r="AI223" s="181"/>
+    </row>
+    <row r="224" spans="2:35" s="174" customFormat="1">
+      <c r="B224" s="177"/>
+      <c r="C224" s="180"/>
+      <c r="D224" s="185"/>
+      <c r="E224" s="185"/>
+      <c r="F224" s="185"/>
+      <c r="G224" s="185"/>
+      <c r="H224" s="185"/>
+      <c r="I224" s="185"/>
+      <c r="J224" s="139"/>
       <c r="K224" s="110"/>
       <c r="L224" s="110"/>
       <c r="M224" s="110"/>
@@ -10919,27 +10788,27 @@
       <c r="W224" s="110"/>
       <c r="X224" s="110"/>
       <c r="Y224" s="110"/>
-      <c r="Z224" s="186"/>
-      <c r="AA224" s="186"/>
-      <c r="AB224" s="186"/>
-      <c r="AC224" s="186"/>
-      <c r="AD224" s="186"/>
-      <c r="AE224" s="186"/>
-      <c r="AF224" s="186"/>
-      <c r="AG224" s="186"/>
-      <c r="AH224" s="186"/>
-      <c r="AI224" s="186"/>
-    </row>
-    <row r="225" spans="2:35" s="179" customFormat="1">
-      <c r="B225" s="182"/>
-      <c r="C225" s="185"/>
-      <c r="D225" s="191"/>
-      <c r="E225" s="191"/>
-      <c r="F225" s="191"/>
-      <c r="G225" s="191"/>
-      <c r="H225" s="191"/>
-      <c r="I225" s="191"/>
-      <c r="J225" s="141"/>
+      <c r="Z224" s="181"/>
+      <c r="AA224" s="181"/>
+      <c r="AB224" s="181"/>
+      <c r="AC224" s="181"/>
+      <c r="AD224" s="181"/>
+      <c r="AE224" s="181"/>
+      <c r="AF224" s="181"/>
+      <c r="AG224" s="181"/>
+      <c r="AH224" s="181"/>
+      <c r="AI224" s="181"/>
+    </row>
+    <row r="225" spans="2:35" s="174" customFormat="1">
+      <c r="B225" s="177"/>
+      <c r="C225" s="180"/>
+      <c r="D225" s="185"/>
+      <c r="E225" s="185"/>
+      <c r="F225" s="185"/>
+      <c r="G225" s="185"/>
+      <c r="H225" s="185"/>
+      <c r="I225" s="185"/>
+      <c r="J225" s="139"/>
       <c r="K225" s="110"/>
       <c r="L225" s="110"/>
       <c r="M225" s="110"/>
@@ -10955,27 +10824,27 @@
       <c r="W225" s="110"/>
       <c r="X225" s="110"/>
       <c r="Y225" s="110"/>
-      <c r="Z225" s="186"/>
-      <c r="AA225" s="186"/>
-      <c r="AB225" s="186"/>
-      <c r="AC225" s="186"/>
-      <c r="AD225" s="186"/>
-      <c r="AE225" s="186"/>
-      <c r="AF225" s="186"/>
-      <c r="AG225" s="186"/>
-      <c r="AH225" s="186"/>
-      <c r="AI225" s="186"/>
-    </row>
-    <row r="226" spans="2:35" s="179" customFormat="1">
-      <c r="B226" s="182"/>
+      <c r="Z225" s="181"/>
+      <c r="AA225" s="181"/>
+      <c r="AB225" s="181"/>
+      <c r="AC225" s="181"/>
+      <c r="AD225" s="181"/>
+      <c r="AE225" s="181"/>
+      <c r="AF225" s="181"/>
+      <c r="AG225" s="181"/>
+      <c r="AH225" s="181"/>
+      <c r="AI225" s="181"/>
+    </row>
+    <row r="226" spans="2:35" s="174" customFormat="1">
+      <c r="B226" s="177"/>
       <c r="C226" s="110"/>
-      <c r="D226" s="141"/>
-      <c r="E226" s="141"/>
-      <c r="F226" s="141"/>
-      <c r="G226" s="141"/>
-      <c r="H226" s="141"/>
-      <c r="I226" s="141"/>
-      <c r="J226" s="141"/>
+      <c r="D226" s="139"/>
+      <c r="E226" s="139"/>
+      <c r="F226" s="139"/>
+      <c r="G226" s="139"/>
+      <c r="H226" s="139"/>
+      <c r="I226" s="139"/>
+      <c r="J226" s="139"/>
       <c r="K226" s="110"/>
       <c r="L226" s="110"/>
       <c r="M226" s="110"/>
@@ -10991,27 +10860,27 @@
       <c r="W226" s="110"/>
       <c r="X226" s="110"/>
       <c r="Y226" s="110"/>
-      <c r="Z226" s="186"/>
-      <c r="AA226" s="186"/>
-      <c r="AB226" s="186"/>
-      <c r="AC226" s="186"/>
-      <c r="AD226" s="186"/>
-      <c r="AE226" s="186"/>
-      <c r="AF226" s="186"/>
-      <c r="AG226" s="186"/>
-      <c r="AH226" s="186"/>
-      <c r="AI226" s="186"/>
-    </row>
-    <row r="227" spans="2:35" s="179" customFormat="1">
-      <c r="B227" s="182"/>
+      <c r="Z226" s="181"/>
+      <c r="AA226" s="181"/>
+      <c r="AB226" s="181"/>
+      <c r="AC226" s="181"/>
+      <c r="AD226" s="181"/>
+      <c r="AE226" s="181"/>
+      <c r="AF226" s="181"/>
+      <c r="AG226" s="181"/>
+      <c r="AH226" s="181"/>
+      <c r="AI226" s="181"/>
+    </row>
+    <row r="227" spans="2:35" s="174" customFormat="1">
+      <c r="B227" s="177"/>
       <c r="C227" s="110"/>
-      <c r="D227" s="141"/>
-      <c r="E227" s="141"/>
-      <c r="F227" s="141"/>
-      <c r="G227" s="141"/>
-      <c r="H227" s="141"/>
-      <c r="I227" s="141"/>
-      <c r="J227" s="141"/>
+      <c r="D227" s="139"/>
+      <c r="E227" s="139"/>
+      <c r="F227" s="139"/>
+      <c r="G227" s="139"/>
+      <c r="H227" s="139"/>
+      <c r="I227" s="139"/>
+      <c r="J227" s="139"/>
       <c r="K227" s="110"/>
       <c r="L227" s="110"/>
       <c r="M227" s="110"/>
@@ -11027,27 +10896,27 @@
       <c r="W227" s="110"/>
       <c r="X227" s="110"/>
       <c r="Y227" s="110"/>
-      <c r="Z227" s="186"/>
-      <c r="AA227" s="186"/>
-      <c r="AB227" s="186"/>
-      <c r="AC227" s="186"/>
-      <c r="AD227" s="186"/>
-      <c r="AE227" s="186"/>
-      <c r="AF227" s="186"/>
-      <c r="AG227" s="186"/>
-      <c r="AH227" s="186"/>
-      <c r="AI227" s="186"/>
-    </row>
-    <row r="228" spans="2:35" s="179" customFormat="1">
-      <c r="B228" s="182"/>
+      <c r="Z227" s="181"/>
+      <c r="AA227" s="181"/>
+      <c r="AB227" s="181"/>
+      <c r="AC227" s="181"/>
+      <c r="AD227" s="181"/>
+      <c r="AE227" s="181"/>
+      <c r="AF227" s="181"/>
+      <c r="AG227" s="181"/>
+      <c r="AH227" s="181"/>
+      <c r="AI227" s="181"/>
+    </row>
+    <row r="228" spans="2:35" s="174" customFormat="1">
+      <c r="B228" s="177"/>
       <c r="C228" s="110"/>
-      <c r="D228" s="141"/>
-      <c r="E228" s="141"/>
-      <c r="F228" s="141"/>
-      <c r="G228" s="141"/>
-      <c r="H228" s="141"/>
-      <c r="I228" s="141"/>
-      <c r="J228" s="141"/>
+      <c r="D228" s="139"/>
+      <c r="E228" s="139"/>
+      <c r="F228" s="139"/>
+      <c r="G228" s="139"/>
+      <c r="H228" s="139"/>
+      <c r="I228" s="139"/>
+      <c r="J228" s="139"/>
       <c r="K228" s="110"/>
       <c r="L228" s="110"/>
       <c r="M228" s="110"/>
@@ -11063,27 +10932,27 @@
       <c r="W228" s="110"/>
       <c r="X228" s="110"/>
       <c r="Y228" s="110"/>
-      <c r="Z228" s="186"/>
-      <c r="AA228" s="186"/>
-      <c r="AB228" s="186"/>
-      <c r="AC228" s="186"/>
-      <c r="AD228" s="186"/>
-      <c r="AE228" s="186"/>
-      <c r="AF228" s="186"/>
-      <c r="AG228" s="186"/>
-      <c r="AH228" s="186"/>
-      <c r="AI228" s="186"/>
-    </row>
-    <row r="229" spans="2:35" s="179" customFormat="1">
-      <c r="B229" s="182"/>
+      <c r="Z228" s="181"/>
+      <c r="AA228" s="181"/>
+      <c r="AB228" s="181"/>
+      <c r="AC228" s="181"/>
+      <c r="AD228" s="181"/>
+      <c r="AE228" s="181"/>
+      <c r="AF228" s="181"/>
+      <c r="AG228" s="181"/>
+      <c r="AH228" s="181"/>
+      <c r="AI228" s="181"/>
+    </row>
+    <row r="229" spans="2:35" s="174" customFormat="1">
+      <c r="B229" s="177"/>
       <c r="C229" s="110"/>
-      <c r="D229" s="141"/>
-      <c r="E229" s="141"/>
-      <c r="F229" s="141"/>
-      <c r="G229" s="141"/>
-      <c r="H229" s="141"/>
-      <c r="I229" s="141"/>
-      <c r="J229" s="141"/>
+      <c r="D229" s="139"/>
+      <c r="E229" s="139"/>
+      <c r="F229" s="139"/>
+      <c r="G229" s="139"/>
+      <c r="H229" s="139"/>
+      <c r="I229" s="139"/>
+      <c r="J229" s="139"/>
       <c r="K229" s="110"/>
       <c r="L229" s="110"/>
       <c r="M229" s="110"/>
@@ -11099,27 +10968,27 @@
       <c r="W229" s="110"/>
       <c r="X229" s="110"/>
       <c r="Y229" s="110"/>
-      <c r="Z229" s="186"/>
-      <c r="AA229" s="186"/>
-      <c r="AB229" s="186"/>
-      <c r="AC229" s="186"/>
-      <c r="AD229" s="186"/>
-      <c r="AE229" s="186"/>
-      <c r="AF229" s="186"/>
-      <c r="AG229" s="186"/>
-      <c r="AH229" s="186"/>
-      <c r="AI229" s="186"/>
-    </row>
-    <row r="230" spans="2:35" s="179" customFormat="1">
-      <c r="B230" s="182"/>
+      <c r="Z229" s="181"/>
+      <c r="AA229" s="181"/>
+      <c r="AB229" s="181"/>
+      <c r="AC229" s="181"/>
+      <c r="AD229" s="181"/>
+      <c r="AE229" s="181"/>
+      <c r="AF229" s="181"/>
+      <c r="AG229" s="181"/>
+      <c r="AH229" s="181"/>
+      <c r="AI229" s="181"/>
+    </row>
+    <row r="230" spans="2:35" s="174" customFormat="1">
+      <c r="B230" s="177"/>
       <c r="C230" s="110"/>
-      <c r="D230" s="141"/>
-      <c r="E230" s="141"/>
-      <c r="F230" s="141"/>
-      <c r="G230" s="141"/>
-      <c r="H230" s="141"/>
-      <c r="I230" s="141"/>
-      <c r="J230" s="141"/>
+      <c r="D230" s="139"/>
+      <c r="E230" s="139"/>
+      <c r="F230" s="139"/>
+      <c r="G230" s="139"/>
+      <c r="H230" s="139"/>
+      <c r="I230" s="139"/>
+      <c r="J230" s="139"/>
       <c r="K230" s="110"/>
       <c r="L230" s="110"/>
       <c r="M230" s="110"/>
@@ -11135,27 +11004,27 @@
       <c r="W230" s="110"/>
       <c r="X230" s="110"/>
       <c r="Y230" s="110"/>
-      <c r="Z230" s="186"/>
-      <c r="AA230" s="186"/>
-      <c r="AB230" s="186"/>
-      <c r="AC230" s="186"/>
-      <c r="AD230" s="186"/>
-      <c r="AE230" s="186"/>
-      <c r="AF230" s="186"/>
-      <c r="AG230" s="186"/>
-      <c r="AH230" s="186"/>
-      <c r="AI230" s="186"/>
-    </row>
-    <row r="231" spans="2:35" s="179" customFormat="1">
-      <c r="B231" s="182"/>
+      <c r="Z230" s="181"/>
+      <c r="AA230" s="181"/>
+      <c r="AB230" s="181"/>
+      <c r="AC230" s="181"/>
+      <c r="AD230" s="181"/>
+      <c r="AE230" s="181"/>
+      <c r="AF230" s="181"/>
+      <c r="AG230" s="181"/>
+      <c r="AH230" s="181"/>
+      <c r="AI230" s="181"/>
+    </row>
+    <row r="231" spans="2:35" s="174" customFormat="1">
+      <c r="B231" s="177"/>
       <c r="C231" s="110"/>
-      <c r="D231" s="141"/>
-      <c r="E231" s="141"/>
-      <c r="F231" s="141"/>
-      <c r="G231" s="141"/>
-      <c r="H231" s="141"/>
-      <c r="I231" s="141"/>
-      <c r="J231" s="141"/>
+      <c r="D231" s="139"/>
+      <c r="E231" s="139"/>
+      <c r="F231" s="139"/>
+      <c r="G231" s="139"/>
+      <c r="H231" s="139"/>
+      <c r="I231" s="139"/>
+      <c r="J231" s="139"/>
       <c r="K231" s="110"/>
       <c r="L231" s="110"/>
       <c r="M231" s="110"/>
@@ -11171,27 +11040,27 @@
       <c r="W231" s="110"/>
       <c r="X231" s="110"/>
       <c r="Y231" s="110"/>
-      <c r="Z231" s="186"/>
-      <c r="AA231" s="186"/>
-      <c r="AB231" s="186"/>
-      <c r="AC231" s="186"/>
-      <c r="AD231" s="186"/>
-      <c r="AE231" s="186"/>
-      <c r="AF231" s="186"/>
-      <c r="AG231" s="186"/>
-      <c r="AH231" s="186"/>
-      <c r="AI231" s="186"/>
-    </row>
-    <row r="232" spans="2:35" s="179" customFormat="1">
-      <c r="B232" s="182"/>
+      <c r="Z231" s="181"/>
+      <c r="AA231" s="181"/>
+      <c r="AB231" s="181"/>
+      <c r="AC231" s="181"/>
+      <c r="AD231" s="181"/>
+      <c r="AE231" s="181"/>
+      <c r="AF231" s="181"/>
+      <c r="AG231" s="181"/>
+      <c r="AH231" s="181"/>
+      <c r="AI231" s="181"/>
+    </row>
+    <row r="232" spans="2:35" s="174" customFormat="1">
+      <c r="B232" s="177"/>
       <c r="C232" s="110"/>
-      <c r="D232" s="141"/>
-      <c r="E232" s="141"/>
-      <c r="F232" s="141"/>
-      <c r="G232" s="141"/>
-      <c r="H232" s="141"/>
-      <c r="I232" s="141"/>
-      <c r="J232" s="141"/>
+      <c r="D232" s="139"/>
+      <c r="E232" s="139"/>
+      <c r="F232" s="139"/>
+      <c r="G232" s="139"/>
+      <c r="H232" s="139"/>
+      <c r="I232" s="139"/>
+      <c r="J232" s="139"/>
       <c r="K232" s="110"/>
       <c r="L232" s="110"/>
       <c r="M232" s="110"/>
@@ -11207,27 +11076,27 @@
       <c r="W232" s="110"/>
       <c r="X232" s="110"/>
       <c r="Y232" s="110"/>
-      <c r="Z232" s="186"/>
-      <c r="AA232" s="186"/>
-      <c r="AB232" s="186"/>
-      <c r="AC232" s="186"/>
-      <c r="AD232" s="186"/>
-      <c r="AE232" s="186"/>
-      <c r="AF232" s="186"/>
-      <c r="AG232" s="186"/>
-      <c r="AH232" s="186"/>
-      <c r="AI232" s="186"/>
-    </row>
-    <row r="233" spans="2:35" s="179" customFormat="1">
-      <c r="B233" s="182"/>
+      <c r="Z232" s="181"/>
+      <c r="AA232" s="181"/>
+      <c r="AB232" s="181"/>
+      <c r="AC232" s="181"/>
+      <c r="AD232" s="181"/>
+      <c r="AE232" s="181"/>
+      <c r="AF232" s="181"/>
+      <c r="AG232" s="181"/>
+      <c r="AH232" s="181"/>
+      <c r="AI232" s="181"/>
+    </row>
+    <row r="233" spans="2:35" s="174" customFormat="1">
+      <c r="B233" s="177"/>
       <c r="C233" s="110"/>
-      <c r="D233" s="141"/>
-      <c r="E233" s="141"/>
-      <c r="F233" s="141"/>
-      <c r="G233" s="141"/>
-      <c r="H233" s="141"/>
-      <c r="I233" s="141"/>
-      <c r="J233" s="141"/>
+      <c r="D233" s="139"/>
+      <c r="E233" s="139"/>
+      <c r="F233" s="139"/>
+      <c r="G233" s="139"/>
+      <c r="H233" s="139"/>
+      <c r="I233" s="139"/>
+      <c r="J233" s="139"/>
       <c r="K233" s="110"/>
       <c r="L233" s="110"/>
       <c r="M233" s="110"/>
@@ -11243,19 +11112,19 @@
       <c r="W233" s="110"/>
       <c r="X233" s="110"/>
       <c r="Y233" s="110"/>
-      <c r="Z233" s="186"/>
-      <c r="AA233" s="186"/>
-      <c r="AB233" s="186"/>
-      <c r="AC233" s="186"/>
-      <c r="AD233" s="186"/>
-      <c r="AE233" s="186"/>
-      <c r="AF233" s="186"/>
-      <c r="AG233" s="186"/>
-      <c r="AH233" s="186"/>
-      <c r="AI233" s="186"/>
-    </row>
-    <row r="234" spans="2:35" s="179" customFormat="1">
-      <c r="B234" s="182"/>
+      <c r="Z233" s="181"/>
+      <c r="AA233" s="181"/>
+      <c r="AB233" s="181"/>
+      <c r="AC233" s="181"/>
+      <c r="AD233" s="181"/>
+      <c r="AE233" s="181"/>
+      <c r="AF233" s="181"/>
+      <c r="AG233" s="181"/>
+      <c r="AH233" s="181"/>
+      <c r="AI233" s="181"/>
+    </row>
+    <row r="234" spans="2:35" s="174" customFormat="1">
+      <c r="B234" s="177"/>
       <c r="C234" s="110"/>
       <c r="D234" s="110"/>
       <c r="E234" s="110"/>
@@ -11279,19 +11148,19 @@
       <c r="W234" s="110"/>
       <c r="X234" s="110"/>
       <c r="Y234" s="110"/>
-      <c r="Z234" s="186"/>
-      <c r="AA234" s="186"/>
-      <c r="AB234" s="186"/>
-      <c r="AC234" s="186"/>
-      <c r="AD234" s="186"/>
-      <c r="AE234" s="186"/>
-      <c r="AF234" s="186"/>
-      <c r="AG234" s="186"/>
-      <c r="AH234" s="186"/>
-      <c r="AI234" s="186"/>
-    </row>
-    <row r="235" spans="2:35" s="179" customFormat="1">
-      <c r="B235" s="182"/>
+      <c r="Z234" s="181"/>
+      <c r="AA234" s="181"/>
+      <c r="AB234" s="181"/>
+      <c r="AC234" s="181"/>
+      <c r="AD234" s="181"/>
+      <c r="AE234" s="181"/>
+      <c r="AF234" s="181"/>
+      <c r="AG234" s="181"/>
+      <c r="AH234" s="181"/>
+      <c r="AI234" s="181"/>
+    </row>
+    <row r="235" spans="2:35" s="174" customFormat="1">
+      <c r="B235" s="177"/>
       <c r="C235" s="110"/>
       <c r="D235" s="110"/>
       <c r="E235" s="110"/>
@@ -11315,19 +11184,19 @@
       <c r="W235" s="110"/>
       <c r="X235" s="110"/>
       <c r="Y235" s="110"/>
-      <c r="Z235" s="186"/>
-      <c r="AA235" s="186"/>
-      <c r="AB235" s="186"/>
-      <c r="AC235" s="186"/>
-      <c r="AD235" s="186"/>
-      <c r="AE235" s="186"/>
-      <c r="AF235" s="186"/>
-      <c r="AG235" s="186"/>
-      <c r="AH235" s="186"/>
-      <c r="AI235" s="186"/>
-    </row>
-    <row r="236" spans="2:35" s="179" customFormat="1">
-      <c r="B236" s="182"/>
+      <c r="Z235" s="181"/>
+      <c r="AA235" s="181"/>
+      <c r="AB235" s="181"/>
+      <c r="AC235" s="181"/>
+      <c r="AD235" s="181"/>
+      <c r="AE235" s="181"/>
+      <c r="AF235" s="181"/>
+      <c r="AG235" s="181"/>
+      <c r="AH235" s="181"/>
+      <c r="AI235" s="181"/>
+    </row>
+    <row r="236" spans="2:35" s="174" customFormat="1">
+      <c r="B236" s="177"/>
       <c r="C236" s="110"/>
       <c r="D236" s="110"/>
       <c r="E236" s="110"/>
@@ -11351,19 +11220,19 @@
       <c r="W236" s="110"/>
       <c r="X236" s="110"/>
       <c r="Y236" s="110"/>
-      <c r="Z236" s="186"/>
-      <c r="AA236" s="186"/>
-      <c r="AB236" s="186"/>
-      <c r="AC236" s="186"/>
-      <c r="AD236" s="186"/>
-      <c r="AE236" s="186"/>
-      <c r="AF236" s="186"/>
-      <c r="AG236" s="186"/>
-      <c r="AH236" s="186"/>
-      <c r="AI236" s="186"/>
-    </row>
-    <row r="237" spans="2:35" s="179" customFormat="1">
-      <c r="B237" s="182"/>
+      <c r="Z236" s="181"/>
+      <c r="AA236" s="181"/>
+      <c r="AB236" s="181"/>
+      <c r="AC236" s="181"/>
+      <c r="AD236" s="181"/>
+      <c r="AE236" s="181"/>
+      <c r="AF236" s="181"/>
+      <c r="AG236" s="181"/>
+      <c r="AH236" s="181"/>
+      <c r="AI236" s="181"/>
+    </row>
+    <row r="237" spans="2:35" s="174" customFormat="1">
+      <c r="B237" s="177"/>
       <c r="C237" s="110"/>
       <c r="D237" s="110"/>
       <c r="E237" s="110"/>
@@ -11387,19 +11256,19 @@
       <c r="W237" s="110"/>
       <c r="X237" s="110"/>
       <c r="Y237" s="110"/>
-      <c r="Z237" s="186"/>
-      <c r="AA237" s="186"/>
-      <c r="AB237" s="186"/>
-      <c r="AC237" s="186"/>
-      <c r="AD237" s="186"/>
-      <c r="AE237" s="186"/>
-      <c r="AF237" s="186"/>
-      <c r="AG237" s="186"/>
-      <c r="AH237" s="186"/>
-      <c r="AI237" s="186"/>
-    </row>
-    <row r="238" spans="2:35" s="179" customFormat="1">
-      <c r="B238" s="182"/>
+      <c r="Z237" s="181"/>
+      <c r="AA237" s="181"/>
+      <c r="AB237" s="181"/>
+      <c r="AC237" s="181"/>
+      <c r="AD237" s="181"/>
+      <c r="AE237" s="181"/>
+      <c r="AF237" s="181"/>
+      <c r="AG237" s="181"/>
+      <c r="AH237" s="181"/>
+      <c r="AI237" s="181"/>
+    </row>
+    <row r="238" spans="2:35" s="174" customFormat="1">
+      <c r="B238" s="177"/>
       <c r="C238" s="110"/>
       <c r="D238" s="110"/>
       <c r="E238" s="110"/>
@@ -11423,19 +11292,19 @@
       <c r="W238" s="110"/>
       <c r="X238" s="110"/>
       <c r="Y238" s="110"/>
-      <c r="Z238" s="186"/>
-      <c r="AA238" s="186"/>
-      <c r="AB238" s="186"/>
-      <c r="AC238" s="186"/>
-      <c r="AD238" s="186"/>
-      <c r="AE238" s="186"/>
-      <c r="AF238" s="186"/>
-      <c r="AG238" s="186"/>
-      <c r="AH238" s="186"/>
-      <c r="AI238" s="186"/>
-    </row>
-    <row r="239" spans="2:35" s="179" customFormat="1">
-      <c r="B239" s="182"/>
+      <c r="Z238" s="181"/>
+      <c r="AA238" s="181"/>
+      <c r="AB238" s="181"/>
+      <c r="AC238" s="181"/>
+      <c r="AD238" s="181"/>
+      <c r="AE238" s="181"/>
+      <c r="AF238" s="181"/>
+      <c r="AG238" s="181"/>
+      <c r="AH238" s="181"/>
+      <c r="AI238" s="181"/>
+    </row>
+    <row r="239" spans="2:35" s="174" customFormat="1">
+      <c r="B239" s="177"/>
       <c r="C239" s="110"/>
       <c r="D239" s="110"/>
       <c r="E239" s="110"/>
@@ -11459,19 +11328,19 @@
       <c r="W239" s="110"/>
       <c r="X239" s="110"/>
       <c r="Y239" s="110"/>
-      <c r="Z239" s="186"/>
-      <c r="AA239" s="186"/>
-      <c r="AB239" s="186"/>
-      <c r="AC239" s="186"/>
-      <c r="AD239" s="186"/>
-      <c r="AE239" s="186"/>
-      <c r="AF239" s="186"/>
-      <c r="AG239" s="186"/>
-      <c r="AH239" s="186"/>
-      <c r="AI239" s="186"/>
-    </row>
-    <row r="240" spans="2:35" s="179" customFormat="1">
-      <c r="B240" s="182"/>
+      <c r="Z239" s="181"/>
+      <c r="AA239" s="181"/>
+      <c r="AB239" s="181"/>
+      <c r="AC239" s="181"/>
+      <c r="AD239" s="181"/>
+      <c r="AE239" s="181"/>
+      <c r="AF239" s="181"/>
+      <c r="AG239" s="181"/>
+      <c r="AH239" s="181"/>
+      <c r="AI239" s="181"/>
+    </row>
+    <row r="240" spans="2:35" s="174" customFormat="1">
+      <c r="B240" s="177"/>
       <c r="C240" s="110"/>
       <c r="D240" s="110"/>
       <c r="E240" s="110"/>
@@ -11495,19 +11364,19 @@
       <c r="W240" s="110"/>
       <c r="X240" s="110"/>
       <c r="Y240" s="110"/>
-      <c r="Z240" s="186"/>
-      <c r="AA240" s="186"/>
-      <c r="AB240" s="186"/>
-      <c r="AC240" s="186"/>
-      <c r="AD240" s="186"/>
-      <c r="AE240" s="186"/>
-      <c r="AF240" s="186"/>
-      <c r="AG240" s="186"/>
-      <c r="AH240" s="186"/>
-      <c r="AI240" s="186"/>
-    </row>
-    <row r="241" spans="2:35" s="179" customFormat="1">
-      <c r="B241" s="182"/>
+      <c r="Z240" s="181"/>
+      <c r="AA240" s="181"/>
+      <c r="AB240" s="181"/>
+      <c r="AC240" s="181"/>
+      <c r="AD240" s="181"/>
+      <c r="AE240" s="181"/>
+      <c r="AF240" s="181"/>
+      <c r="AG240" s="181"/>
+      <c r="AH240" s="181"/>
+      <c r="AI240" s="181"/>
+    </row>
+    <row r="241" spans="2:35" s="174" customFormat="1">
+      <c r="B241" s="177"/>
       <c r="C241" s="110"/>
       <c r="D241" s="110"/>
       <c r="E241" s="110"/>
@@ -11531,19 +11400,19 @@
       <c r="W241" s="110"/>
       <c r="X241" s="110"/>
       <c r="Y241" s="110"/>
-      <c r="Z241" s="186"/>
-      <c r="AA241" s="186"/>
-      <c r="AB241" s="186"/>
-      <c r="AC241" s="186"/>
-      <c r="AD241" s="186"/>
-      <c r="AE241" s="186"/>
-      <c r="AF241" s="186"/>
-      <c r="AG241" s="186"/>
-      <c r="AH241" s="186"/>
-      <c r="AI241" s="186"/>
-    </row>
-    <row r="242" spans="2:35" s="179" customFormat="1">
-      <c r="B242" s="182"/>
+      <c r="Z241" s="181"/>
+      <c r="AA241" s="181"/>
+      <c r="AB241" s="181"/>
+      <c r="AC241" s="181"/>
+      <c r="AD241" s="181"/>
+      <c r="AE241" s="181"/>
+      <c r="AF241" s="181"/>
+      <c r="AG241" s="181"/>
+      <c r="AH241" s="181"/>
+      <c r="AI241" s="181"/>
+    </row>
+    <row r="242" spans="2:35" s="174" customFormat="1">
+      <c r="B242" s="177"/>
       <c r="C242" s="110"/>
       <c r="D242" s="110"/>
       <c r="E242" s="110"/>
@@ -11567,752 +11436,752 @@
       <c r="W242" s="110"/>
       <c r="X242" s="110"/>
       <c r="Y242" s="110"/>
-      <c r="Z242" s="186"/>
-      <c r="AA242" s="186"/>
-      <c r="AB242" s="186"/>
-      <c r="AC242" s="186"/>
-      <c r="AD242" s="186"/>
-      <c r="AE242" s="186"/>
-      <c r="AF242" s="186"/>
-      <c r="AG242" s="186"/>
-      <c r="AH242" s="186"/>
-      <c r="AI242" s="186"/>
-    </row>
-    <row r="243" spans="2:35" s="179" customFormat="1">
-      <c r="B243" s="182"/>
-      <c r="C243" s="186"/>
-      <c r="D243" s="186"/>
-      <c r="E243" s="186"/>
-      <c r="F243" s="186"/>
-      <c r="G243" s="186"/>
-      <c r="H243" s="186"/>
-      <c r="I243" s="186"/>
-      <c r="J243" s="186"/>
-      <c r="K243" s="186"/>
-      <c r="L243" s="186"/>
-      <c r="M243" s="186"/>
-      <c r="N243" s="186"/>
-      <c r="O243" s="186"/>
-      <c r="P243" s="186"/>
-      <c r="Q243" s="186"/>
-      <c r="R243" s="186"/>
-      <c r="S243" s="186"/>
-      <c r="T243" s="186"/>
-      <c r="U243" s="186"/>
-      <c r="V243" s="186"/>
-      <c r="W243" s="186"/>
-      <c r="X243" s="186"/>
-      <c r="Y243" s="186"/>
-      <c r="Z243" s="186"/>
-      <c r="AA243" s="186"/>
-      <c r="AB243" s="186"/>
-      <c r="AC243" s="186"/>
-      <c r="AD243" s="186"/>
-      <c r="AE243" s="186"/>
-      <c r="AF243" s="186"/>
-      <c r="AG243" s="186"/>
-      <c r="AH243" s="186"/>
-      <c r="AI243" s="186"/>
-    </row>
-    <row r="244" spans="2:35" s="179" customFormat="1">
-      <c r="B244" s="182"/>
-      <c r="C244" s="186"/>
-      <c r="D244" s="186"/>
-      <c r="E244" s="186"/>
-      <c r="F244" s="186"/>
-      <c r="G244" s="186"/>
-      <c r="H244" s="186"/>
-      <c r="I244" s="186"/>
-      <c r="J244" s="186"/>
-      <c r="K244" s="186"/>
-      <c r="L244" s="186"/>
-      <c r="M244" s="186"/>
-      <c r="N244" s="186"/>
-      <c r="O244" s="186"/>
-      <c r="P244" s="186"/>
-      <c r="Q244" s="186"/>
-      <c r="R244" s="186"/>
-      <c r="S244" s="186"/>
-      <c r="T244" s="186"/>
-      <c r="U244" s="186"/>
-      <c r="V244" s="186"/>
-      <c r="W244" s="186"/>
-      <c r="X244" s="186"/>
-      <c r="Y244" s="186"/>
-      <c r="Z244" s="186"/>
-      <c r="AA244" s="186"/>
-      <c r="AB244" s="186"/>
-      <c r="AC244" s="186"/>
-      <c r="AD244" s="186"/>
-      <c r="AE244" s="186"/>
-      <c r="AF244" s="186"/>
-      <c r="AG244" s="186"/>
-      <c r="AH244" s="186"/>
-      <c r="AI244" s="186"/>
-    </row>
-    <row r="245" spans="2:35" s="179" customFormat="1">
-      <c r="B245" s="182"/>
-      <c r="C245" s="186"/>
-      <c r="D245" s="186"/>
-      <c r="E245" s="186"/>
-      <c r="F245" s="186"/>
-      <c r="G245" s="186"/>
-      <c r="H245" s="186"/>
-      <c r="I245" s="186"/>
-      <c r="J245" s="186"/>
-      <c r="K245" s="186"/>
-      <c r="L245" s="186"/>
-      <c r="M245" s="186"/>
-      <c r="N245" s="186"/>
-      <c r="O245" s="186"/>
-      <c r="P245" s="186"/>
-      <c r="Q245" s="186"/>
-      <c r="R245" s="186"/>
-      <c r="S245" s="186"/>
-      <c r="T245" s="186"/>
-      <c r="U245" s="186"/>
-      <c r="V245" s="186"/>
-      <c r="W245" s="186"/>
-      <c r="X245" s="186"/>
-      <c r="Y245" s="186"/>
-      <c r="Z245" s="186"/>
-      <c r="AA245" s="186"/>
-      <c r="AB245" s="186"/>
-      <c r="AC245" s="186"/>
-      <c r="AD245" s="186"/>
-      <c r="AE245" s="186"/>
-      <c r="AF245" s="186"/>
-      <c r="AG245" s="186"/>
-      <c r="AH245" s="186"/>
-      <c r="AI245" s="186"/>
-    </row>
-    <row r="246" spans="2:35" s="179" customFormat="1">
-      <c r="B246" s="182"/>
-      <c r="C246" s="186"/>
-      <c r="D246" s="186"/>
-      <c r="E246" s="186"/>
-      <c r="F246" s="186"/>
-      <c r="G246" s="186"/>
-      <c r="H246" s="186"/>
-      <c r="I246" s="186"/>
-      <c r="J246" s="186"/>
-      <c r="K246" s="186"/>
-      <c r="L246" s="186"/>
-      <c r="M246" s="186"/>
-      <c r="N246" s="186"/>
-      <c r="O246" s="186"/>
-      <c r="P246" s="186"/>
-      <c r="Q246" s="186"/>
-      <c r="R246" s="186"/>
-      <c r="S246" s="186"/>
-      <c r="T246" s="186"/>
-      <c r="U246" s="186"/>
-      <c r="V246" s="186"/>
-      <c r="W246" s="186"/>
-      <c r="X246" s="186"/>
-      <c r="Y246" s="186"/>
-      <c r="Z246" s="186"/>
-      <c r="AA246" s="186"/>
-      <c r="AB246" s="186"/>
-      <c r="AC246" s="186"/>
-      <c r="AD246" s="186"/>
-      <c r="AE246" s="186"/>
-      <c r="AF246" s="186"/>
-      <c r="AG246" s="186"/>
-      <c r="AH246" s="186"/>
-      <c r="AI246" s="186"/>
-    </row>
-    <row r="247" spans="2:35" s="179" customFormat="1">
-      <c r="B247" s="182"/>
-      <c r="C247" s="186"/>
-      <c r="D247" s="186"/>
-      <c r="E247" s="186"/>
-      <c r="F247" s="186"/>
-      <c r="G247" s="186"/>
-      <c r="H247" s="186"/>
-      <c r="I247" s="186"/>
-      <c r="J247" s="186"/>
-      <c r="K247" s="186"/>
-      <c r="L247" s="186"/>
-      <c r="M247" s="186"/>
-      <c r="N247" s="186"/>
-      <c r="O247" s="186"/>
-      <c r="P247" s="186"/>
-      <c r="Q247" s="186"/>
-      <c r="R247" s="186"/>
-      <c r="S247" s="186"/>
-      <c r="T247" s="186"/>
-      <c r="U247" s="186"/>
-      <c r="V247" s="186"/>
-      <c r="W247" s="186"/>
-      <c r="X247" s="186"/>
-      <c r="Y247" s="186"/>
-      <c r="Z247" s="186"/>
-      <c r="AA247" s="186"/>
-      <c r="AB247" s="186"/>
-      <c r="AC247" s="186"/>
-      <c r="AD247" s="186"/>
-      <c r="AE247" s="186"/>
-      <c r="AF247" s="186"/>
-      <c r="AG247" s="186"/>
-      <c r="AH247" s="186"/>
-      <c r="AI247" s="186"/>
-    </row>
-    <row r="248" spans="2:35" s="179" customFormat="1">
-      <c r="B248" s="182"/>
-      <c r="C248" s="186"/>
-      <c r="D248" s="186"/>
-      <c r="E248" s="186"/>
-      <c r="F248" s="186"/>
-      <c r="G248" s="186"/>
-      <c r="H248" s="186"/>
-      <c r="I248" s="186"/>
-      <c r="J248" s="186"/>
-      <c r="K248" s="186"/>
-      <c r="L248" s="186"/>
-      <c r="M248" s="186"/>
-      <c r="N248" s="186"/>
-      <c r="O248" s="186"/>
-      <c r="P248" s="186"/>
-      <c r="Q248" s="186"/>
-      <c r="R248" s="186"/>
-      <c r="S248" s="186"/>
-      <c r="T248" s="186"/>
-      <c r="U248" s="186"/>
-      <c r="V248" s="186"/>
-      <c r="W248" s="186"/>
-      <c r="X248" s="186"/>
-      <c r="Y248" s="186"/>
-      <c r="Z248" s="186"/>
-      <c r="AA248" s="186"/>
-      <c r="AB248" s="186"/>
-      <c r="AC248" s="186"/>
-      <c r="AD248" s="186"/>
-      <c r="AE248" s="186"/>
-      <c r="AF248" s="186"/>
-      <c r="AG248" s="186"/>
-      <c r="AH248" s="186"/>
-      <c r="AI248" s="186"/>
-    </row>
-    <row r="249" spans="2:35" s="179" customFormat="1">
-      <c r="B249" s="182"/>
-      <c r="C249" s="186"/>
-      <c r="D249" s="185">
+      <c r="Z242" s="181"/>
+      <c r="AA242" s="181"/>
+      <c r="AB242" s="181"/>
+      <c r="AC242" s="181"/>
+      <c r="AD242" s="181"/>
+      <c r="AE242" s="181"/>
+      <c r="AF242" s="181"/>
+      <c r="AG242" s="181"/>
+      <c r="AH242" s="181"/>
+      <c r="AI242" s="181"/>
+    </row>
+    <row r="243" spans="2:35" s="174" customFormat="1">
+      <c r="B243" s="177"/>
+      <c r="C243" s="181"/>
+      <c r="D243" s="181"/>
+      <c r="E243" s="181"/>
+      <c r="F243" s="181"/>
+      <c r="G243" s="181"/>
+      <c r="H243" s="181"/>
+      <c r="I243" s="181"/>
+      <c r="J243" s="181"/>
+      <c r="K243" s="181"/>
+      <c r="L243" s="181"/>
+      <c r="M243" s="181"/>
+      <c r="N243" s="181"/>
+      <c r="O243" s="181"/>
+      <c r="P243" s="181"/>
+      <c r="Q243" s="181"/>
+      <c r="R243" s="181"/>
+      <c r="S243" s="181"/>
+      <c r="T243" s="181"/>
+      <c r="U243" s="181"/>
+      <c r="V243" s="181"/>
+      <c r="W243" s="181"/>
+      <c r="X243" s="181"/>
+      <c r="Y243" s="181"/>
+      <c r="Z243" s="181"/>
+      <c r="AA243" s="181"/>
+      <c r="AB243" s="181"/>
+      <c r="AC243" s="181"/>
+      <c r="AD243" s="181"/>
+      <c r="AE243" s="181"/>
+      <c r="AF243" s="181"/>
+      <c r="AG243" s="181"/>
+      <c r="AH243" s="181"/>
+      <c r="AI243" s="181"/>
+    </row>
+    <row r="244" spans="2:35" s="174" customFormat="1">
+      <c r="B244" s="177"/>
+      <c r="C244" s="181"/>
+      <c r="D244" s="181"/>
+      <c r="E244" s="181"/>
+      <c r="F244" s="181"/>
+      <c r="G244" s="181"/>
+      <c r="H244" s="181"/>
+      <c r="I244" s="181"/>
+      <c r="J244" s="181"/>
+      <c r="K244" s="181"/>
+      <c r="L244" s="181"/>
+      <c r="M244" s="181"/>
+      <c r="N244" s="181"/>
+      <c r="O244" s="181"/>
+      <c r="P244" s="181"/>
+      <c r="Q244" s="181"/>
+      <c r="R244" s="181"/>
+      <c r="S244" s="181"/>
+      <c r="T244" s="181"/>
+      <c r="U244" s="181"/>
+      <c r="V244" s="181"/>
+      <c r="W244" s="181"/>
+      <c r="X244" s="181"/>
+      <c r="Y244" s="181"/>
+      <c r="Z244" s="181"/>
+      <c r="AA244" s="181"/>
+      <c r="AB244" s="181"/>
+      <c r="AC244" s="181"/>
+      <c r="AD244" s="181"/>
+      <c r="AE244" s="181"/>
+      <c r="AF244" s="181"/>
+      <c r="AG244" s="181"/>
+      <c r="AH244" s="181"/>
+      <c r="AI244" s="181"/>
+    </row>
+    <row r="245" spans="2:35" s="174" customFormat="1">
+      <c r="B245" s="177"/>
+      <c r="C245" s="181"/>
+      <c r="D245" s="181"/>
+      <c r="E245" s="181"/>
+      <c r="F245" s="181"/>
+      <c r="G245" s="181"/>
+      <c r="H245" s="181"/>
+      <c r="I245" s="181"/>
+      <c r="J245" s="181"/>
+      <c r="K245" s="181"/>
+      <c r="L245" s="181"/>
+      <c r="M245" s="181"/>
+      <c r="N245" s="181"/>
+      <c r="O245" s="181"/>
+      <c r="P245" s="181"/>
+      <c r="Q245" s="181"/>
+      <c r="R245" s="181"/>
+      <c r="S245" s="181"/>
+      <c r="T245" s="181"/>
+      <c r="U245" s="181"/>
+      <c r="V245" s="181"/>
+      <c r="W245" s="181"/>
+      <c r="X245" s="181"/>
+      <c r="Y245" s="181"/>
+      <c r="Z245" s="181"/>
+      <c r="AA245" s="181"/>
+      <c r="AB245" s="181"/>
+      <c r="AC245" s="181"/>
+      <c r="AD245" s="181"/>
+      <c r="AE245" s="181"/>
+      <c r="AF245" s="181"/>
+      <c r="AG245" s="181"/>
+      <c r="AH245" s="181"/>
+      <c r="AI245" s="181"/>
+    </row>
+    <row r="246" spans="2:35" s="174" customFormat="1">
+      <c r="B246" s="177"/>
+      <c r="C246" s="181"/>
+      <c r="D246" s="181"/>
+      <c r="E246" s="181"/>
+      <c r="F246" s="181"/>
+      <c r="G246" s="181"/>
+      <c r="H246" s="181"/>
+      <c r="I246" s="181"/>
+      <c r="J246" s="181"/>
+      <c r="K246" s="181"/>
+      <c r="L246" s="181"/>
+      <c r="M246" s="181"/>
+      <c r="N246" s="181"/>
+      <c r="O246" s="181"/>
+      <c r="P246" s="181"/>
+      <c r="Q246" s="181"/>
+      <c r="R246" s="181"/>
+      <c r="S246" s="181"/>
+      <c r="T246" s="181"/>
+      <c r="U246" s="181"/>
+      <c r="V246" s="181"/>
+      <c r="W246" s="181"/>
+      <c r="X246" s="181"/>
+      <c r="Y246" s="181"/>
+      <c r="Z246" s="181"/>
+      <c r="AA246" s="181"/>
+      <c r="AB246" s="181"/>
+      <c r="AC246" s="181"/>
+      <c r="AD246" s="181"/>
+      <c r="AE246" s="181"/>
+      <c r="AF246" s="181"/>
+      <c r="AG246" s="181"/>
+      <c r="AH246" s="181"/>
+      <c r="AI246" s="181"/>
+    </row>
+    <row r="247" spans="2:35" s="174" customFormat="1">
+      <c r="B247" s="177"/>
+      <c r="C247" s="181"/>
+      <c r="D247" s="181"/>
+      <c r="E247" s="181"/>
+      <c r="F247" s="181"/>
+      <c r="G247" s="181"/>
+      <c r="H247" s="181"/>
+      <c r="I247" s="181"/>
+      <c r="J247" s="181"/>
+      <c r="K247" s="181"/>
+      <c r="L247" s="181"/>
+      <c r="M247" s="181"/>
+      <c r="N247" s="181"/>
+      <c r="O247" s="181"/>
+      <c r="P247" s="181"/>
+      <c r="Q247" s="181"/>
+      <c r="R247" s="181"/>
+      <c r="S247" s="181"/>
+      <c r="T247" s="181"/>
+      <c r="U247" s="181"/>
+      <c r="V247" s="181"/>
+      <c r="W247" s="181"/>
+      <c r="X247" s="181"/>
+      <c r="Y247" s="181"/>
+      <c r="Z247" s="181"/>
+      <c r="AA247" s="181"/>
+      <c r="AB247" s="181"/>
+      <c r="AC247" s="181"/>
+      <c r="AD247" s="181"/>
+      <c r="AE247" s="181"/>
+      <c r="AF247" s="181"/>
+      <c r="AG247" s="181"/>
+      <c r="AH247" s="181"/>
+      <c r="AI247" s="181"/>
+    </row>
+    <row r="248" spans="2:35" s="174" customFormat="1">
+      <c r="B248" s="177"/>
+      <c r="C248" s="181"/>
+      <c r="D248" s="181"/>
+      <c r="E248" s="181"/>
+      <c r="F248" s="181"/>
+      <c r="G248" s="181"/>
+      <c r="H248" s="181"/>
+      <c r="I248" s="181"/>
+      <c r="J248" s="181"/>
+      <c r="K248" s="181"/>
+      <c r="L248" s="181"/>
+      <c r="M248" s="181"/>
+      <c r="N248" s="181"/>
+      <c r="O248" s="181"/>
+      <c r="P248" s="181"/>
+      <c r="Q248" s="181"/>
+      <c r="R248" s="181"/>
+      <c r="S248" s="181"/>
+      <c r="T248" s="181"/>
+      <c r="U248" s="181"/>
+      <c r="V248" s="181"/>
+      <c r="W248" s="181"/>
+      <c r="X248" s="181"/>
+      <c r="Y248" s="181"/>
+      <c r="Z248" s="181"/>
+      <c r="AA248" s="181"/>
+      <c r="AB248" s="181"/>
+      <c r="AC248" s="181"/>
+      <c r="AD248" s="181"/>
+      <c r="AE248" s="181"/>
+      <c r="AF248" s="181"/>
+      <c r="AG248" s="181"/>
+      <c r="AH248" s="181"/>
+      <c r="AI248" s="181"/>
+    </row>
+    <row r="249" spans="2:35" s="174" customFormat="1">
+      <c r="B249" s="177"/>
+      <c r="C249" s="181"/>
+      <c r="D249" s="180">
         <v>1.24</v>
       </c>
-      <c r="E249" s="187"/>
-      <c r="F249" s="185"/>
-      <c r="G249" s="185">
+      <c r="E249" s="182"/>
+      <c r="F249" s="180"/>
+      <c r="G249" s="180">
         <v>54600</v>
       </c>
-      <c r="H249" s="185" t="s">
+      <c r="H249" s="180" t="s">
+        <v>183</v>
+      </c>
+      <c r="I249" s="180" t="s">
         <v>185</v>
       </c>
-      <c r="I249" s="185" t="s">
-        <v>187</v>
-      </c>
-      <c r="J249" s="186"/>
-      <c r="K249" s="186"/>
-      <c r="L249" s="186"/>
-      <c r="M249" s="186"/>
-      <c r="N249" s="186"/>
-      <c r="O249" s="186"/>
-      <c r="P249" s="186"/>
-      <c r="Q249" s="186"/>
-      <c r="R249" s="186"/>
-      <c r="S249" s="186"/>
-      <c r="T249" s="186"/>
-      <c r="U249" s="186"/>
-      <c r="V249" s="186"/>
-      <c r="W249" s="186"/>
-      <c r="X249" s="186"/>
-      <c r="Y249" s="186"/>
-      <c r="Z249" s="186"/>
-      <c r="AA249" s="186"/>
-      <c r="AB249" s="186"/>
-      <c r="AC249" s="186"/>
-      <c r="AD249" s="186"/>
-      <c r="AE249" s="186"/>
-      <c r="AF249" s="186"/>
-      <c r="AG249" s="186"/>
-      <c r="AH249" s="186"/>
-      <c r="AI249" s="186"/>
-    </row>
-    <row r="250" spans="2:35" s="179" customFormat="1">
-      <c r="B250" s="182"/>
-      <c r="C250" s="186"/>
-      <c r="D250" s="185"/>
-      <c r="E250" s="187"/>
-      <c r="F250" s="185"/>
-      <c r="G250" s="185">
+      <c r="J249" s="181"/>
+      <c r="K249" s="181"/>
+      <c r="L249" s="181"/>
+      <c r="M249" s="181"/>
+      <c r="N249" s="181"/>
+      <c r="O249" s="181"/>
+      <c r="P249" s="181"/>
+      <c r="Q249" s="181"/>
+      <c r="R249" s="181"/>
+      <c r="S249" s="181"/>
+      <c r="T249" s="181"/>
+      <c r="U249" s="181"/>
+      <c r="V249" s="181"/>
+      <c r="W249" s="181"/>
+      <c r="X249" s="181"/>
+      <c r="Y249" s="181"/>
+      <c r="Z249" s="181"/>
+      <c r="AA249" s="181"/>
+      <c r="AB249" s="181"/>
+      <c r="AC249" s="181"/>
+      <c r="AD249" s="181"/>
+      <c r="AE249" s="181"/>
+      <c r="AF249" s="181"/>
+      <c r="AG249" s="181"/>
+      <c r="AH249" s="181"/>
+      <c r="AI249" s="181"/>
+    </row>
+    <row r="250" spans="2:35" s="174" customFormat="1">
+      <c r="B250" s="177"/>
+      <c r="C250" s="181"/>
+      <c r="D250" s="180"/>
+      <c r="E250" s="182"/>
+      <c r="F250" s="180"/>
+      <c r="G250" s="180">
         <v>1000000</v>
       </c>
-      <c r="H250" s="185" t="s">
-        <v>186</v>
-      </c>
-      <c r="I250" s="185"/>
-      <c r="J250" s="186"/>
-      <c r="K250" s="186"/>
-      <c r="L250" s="186"/>
-      <c r="M250" s="186"/>
-      <c r="N250" s="186"/>
-      <c r="O250" s="186"/>
-      <c r="P250" s="186"/>
-      <c r="Q250" s="186"/>
-      <c r="R250" s="186"/>
-      <c r="S250" s="186"/>
-      <c r="T250" s="186"/>
-      <c r="U250" s="186"/>
-      <c r="V250" s="186"/>
-      <c r="W250" s="186"/>
-      <c r="X250" s="186"/>
-      <c r="Y250" s="186"/>
-      <c r="Z250" s="186"/>
-      <c r="AA250" s="186"/>
-      <c r="AB250" s="186"/>
-      <c r="AC250" s="186"/>
-      <c r="AD250" s="186"/>
-      <c r="AE250" s="186"/>
-      <c r="AF250" s="186"/>
-      <c r="AG250" s="186"/>
-      <c r="AH250" s="186"/>
-      <c r="AI250" s="186"/>
-    </row>
-    <row r="251" spans="2:35" s="179" customFormat="1">
-      <c r="B251" s="182"/>
-      <c r="C251" s="186"/>
-      <c r="D251" s="185"/>
-      <c r="E251" s="187"/>
-      <c r="F251" s="185"/>
-      <c r="G251" s="185">
+      <c r="H250" s="180" t="s">
+        <v>184</v>
+      </c>
+      <c r="I250" s="180"/>
+      <c r="J250" s="181"/>
+      <c r="K250" s="181"/>
+      <c r="L250" s="181"/>
+      <c r="M250" s="181"/>
+      <c r="N250" s="181"/>
+      <c r="O250" s="181"/>
+      <c r="P250" s="181"/>
+      <c r="Q250" s="181"/>
+      <c r="R250" s="181"/>
+      <c r="S250" s="181"/>
+      <c r="T250" s="181"/>
+      <c r="U250" s="181"/>
+      <c r="V250" s="181"/>
+      <c r="W250" s="181"/>
+      <c r="X250" s="181"/>
+      <c r="Y250" s="181"/>
+      <c r="Z250" s="181"/>
+      <c r="AA250" s="181"/>
+      <c r="AB250" s="181"/>
+      <c r="AC250" s="181"/>
+      <c r="AD250" s="181"/>
+      <c r="AE250" s="181"/>
+      <c r="AF250" s="181"/>
+      <c r="AG250" s="181"/>
+      <c r="AH250" s="181"/>
+      <c r="AI250" s="181"/>
+    </row>
+    <row r="251" spans="2:35" s="174" customFormat="1">
+      <c r="B251" s="177"/>
+      <c r="C251" s="181"/>
+      <c r="D251" s="180"/>
+      <c r="E251" s="182"/>
+      <c r="F251" s="180"/>
+      <c r="G251" s="180">
         <v>5.4600000000000003E-2</v>
       </c>
-      <c r="H251" s="185" t="s">
-        <v>185</v>
-      </c>
-      <c r="I251" s="185"/>
-      <c r="J251" s="186"/>
-      <c r="K251" s="186"/>
-      <c r="L251" s="186"/>
-      <c r="M251" s="186"/>
-      <c r="N251" s="186"/>
-      <c r="O251" s="186"/>
-      <c r="P251" s="186"/>
-      <c r="Q251" s="186"/>
-      <c r="R251" s="186"/>
-      <c r="S251" s="186"/>
-      <c r="T251" s="186"/>
-      <c r="U251" s="186"/>
-      <c r="V251" s="186"/>
-      <c r="W251" s="186"/>
-      <c r="X251" s="186"/>
-      <c r="Y251" s="186"/>
-      <c r="Z251" s="186"/>
-      <c r="AA251" s="186"/>
-      <c r="AB251" s="186"/>
-      <c r="AC251" s="186"/>
-      <c r="AD251" s="186"/>
-      <c r="AE251" s="186"/>
-      <c r="AF251" s="186"/>
-      <c r="AG251" s="186"/>
-      <c r="AH251" s="186"/>
-      <c r="AI251" s="186"/>
-    </row>
-    <row r="252" spans="2:35" s="179" customFormat="1">
-      <c r="B252" s="182"/>
-      <c r="C252" s="186"/>
-      <c r="D252" s="186"/>
-      <c r="E252" s="186"/>
-      <c r="F252" s="186"/>
-      <c r="G252" s="186"/>
-      <c r="H252" s="186"/>
-      <c r="I252" s="186"/>
-      <c r="J252" s="186"/>
-      <c r="K252" s="186"/>
-      <c r="L252" s="186"/>
-      <c r="M252" s="186"/>
-      <c r="N252" s="186"/>
-      <c r="O252" s="186"/>
-      <c r="P252" s="186"/>
-      <c r="Q252" s="186"/>
-      <c r="R252" s="186"/>
-      <c r="S252" s="186"/>
-      <c r="T252" s="186"/>
-      <c r="U252" s="186"/>
-      <c r="V252" s="186"/>
-      <c r="W252" s="186"/>
-      <c r="X252" s="186"/>
-      <c r="Y252" s="186"/>
-      <c r="Z252" s="186"/>
-      <c r="AA252" s="186"/>
-      <c r="AB252" s="186"/>
-      <c r="AC252" s="186"/>
-      <c r="AD252" s="186"/>
-      <c r="AE252" s="186"/>
-      <c r="AF252" s="186"/>
-      <c r="AG252" s="186"/>
-      <c r="AH252" s="186"/>
-      <c r="AI252" s="186"/>
-    </row>
-    <row r="253" spans="2:35" s="179" customFormat="1">
-      <c r="B253" s="182"/>
-      <c r="C253" s="186"/>
-      <c r="D253" s="186"/>
-      <c r="E253" s="186"/>
-      <c r="F253" s="186"/>
-      <c r="G253" s="186"/>
-      <c r="H253" s="186"/>
-      <c r="I253" s="186"/>
-      <c r="J253" s="186"/>
-      <c r="K253" s="186"/>
-      <c r="L253" s="186"/>
-      <c r="M253" s="186"/>
-      <c r="N253" s="186"/>
-      <c r="O253" s="186"/>
-      <c r="P253" s="186"/>
-      <c r="Q253" s="186"/>
-      <c r="R253" s="186"/>
-      <c r="S253" s="186"/>
-      <c r="T253" s="186"/>
-      <c r="U253" s="186"/>
-      <c r="V253" s="186"/>
-      <c r="W253" s="186"/>
-      <c r="X253" s="186"/>
-      <c r="Y253" s="186"/>
-      <c r="Z253" s="186"/>
-      <c r="AA253" s="186"/>
-      <c r="AB253" s="186"/>
-      <c r="AC253" s="186"/>
-      <c r="AD253" s="186"/>
-      <c r="AE253" s="186"/>
-      <c r="AF253" s="186"/>
-      <c r="AG253" s="186"/>
-      <c r="AH253" s="186"/>
-      <c r="AI253" s="186"/>
-    </row>
-    <row r="254" spans="2:35" s="179" customFormat="1">
-      <c r="B254" s="182"/>
-      <c r="C254" s="186"/>
-      <c r="D254" s="186"/>
-      <c r="E254" s="186"/>
-      <c r="F254" s="186"/>
-      <c r="G254" s="186"/>
-      <c r="H254" s="186"/>
-      <c r="I254" s="186"/>
-      <c r="J254" s="186"/>
-      <c r="K254" s="186"/>
-      <c r="L254" s="186"/>
-      <c r="M254" s="186"/>
-      <c r="N254" s="186"/>
-      <c r="O254" s="186"/>
-      <c r="P254" s="186"/>
-      <c r="Q254" s="186"/>
-      <c r="R254" s="186"/>
-      <c r="S254" s="186"/>
-      <c r="T254" s="186"/>
-      <c r="U254" s="186"/>
-      <c r="V254" s="186"/>
-      <c r="W254" s="186"/>
-      <c r="X254" s="186"/>
-      <c r="Y254" s="186"/>
-      <c r="Z254" s="186"/>
-      <c r="AA254" s="186"/>
-      <c r="AB254" s="186"/>
-      <c r="AC254" s="186"/>
-      <c r="AD254" s="186"/>
-      <c r="AE254" s="186"/>
-      <c r="AF254" s="186"/>
-      <c r="AG254" s="186"/>
-      <c r="AH254" s="186"/>
-      <c r="AI254" s="186"/>
-    </row>
-    <row r="255" spans="2:35" s="179" customFormat="1">
-      <c r="B255" s="182"/>
-      <c r="C255" s="186"/>
-      <c r="D255" s="186"/>
-      <c r="E255" s="186"/>
-      <c r="F255" s="186"/>
-      <c r="G255" s="186"/>
-      <c r="H255" s="186"/>
-      <c r="I255" s="186"/>
-      <c r="J255" s="186"/>
-      <c r="K255" s="186"/>
-      <c r="L255" s="186"/>
-      <c r="M255" s="186"/>
-      <c r="N255" s="186"/>
-      <c r="O255" s="186"/>
-      <c r="P255" s="186"/>
-      <c r="Q255" s="186"/>
-      <c r="R255" s="186"/>
-      <c r="S255" s="186"/>
-      <c r="T255" s="186"/>
-      <c r="U255" s="186"/>
-      <c r="V255" s="186"/>
-      <c r="W255" s="186"/>
-      <c r="X255" s="186"/>
-      <c r="Y255" s="186"/>
-      <c r="Z255" s="186"/>
-      <c r="AA255" s="186"/>
-      <c r="AB255" s="186"/>
-      <c r="AC255" s="186"/>
-      <c r="AD255" s="186"/>
-      <c r="AE255" s="186"/>
-      <c r="AF255" s="186"/>
-      <c r="AG255" s="186"/>
-      <c r="AH255" s="186"/>
-      <c r="AI255" s="186"/>
-    </row>
-    <row r="256" spans="2:35" s="179" customFormat="1">
-      <c r="B256" s="182"/>
-      <c r="C256" s="186"/>
-      <c r="D256" s="186"/>
-      <c r="E256" s="186"/>
-      <c r="F256" s="186"/>
-      <c r="G256" s="186"/>
-      <c r="H256" s="186"/>
-      <c r="I256" s="186"/>
-      <c r="J256" s="186"/>
-      <c r="K256" s="186"/>
-      <c r="L256" s="186"/>
-      <c r="M256" s="186"/>
-      <c r="N256" s="186"/>
-      <c r="O256" s="186"/>
-      <c r="P256" s="186"/>
-      <c r="Q256" s="186"/>
-      <c r="R256" s="186"/>
-      <c r="S256" s="186"/>
-      <c r="T256" s="186"/>
-      <c r="U256" s="186"/>
-      <c r="V256" s="186"/>
-      <c r="W256" s="186"/>
-      <c r="X256" s="186"/>
-      <c r="Y256" s="186"/>
-      <c r="Z256" s="186"/>
-      <c r="AA256" s="186"/>
-      <c r="AB256" s="186"/>
-      <c r="AC256" s="186"/>
-      <c r="AD256" s="186"/>
-      <c r="AE256" s="186"/>
-      <c r="AF256" s="186"/>
-      <c r="AG256" s="186"/>
-      <c r="AH256" s="186"/>
-      <c r="AI256" s="186"/>
-    </row>
-    <row r="257" spans="1:35" s="179" customFormat="1">
-      <c r="B257" s="182"/>
-      <c r="C257" s="186"/>
-      <c r="D257" s="186"/>
-      <c r="E257" s="186"/>
-      <c r="F257" s="186"/>
-      <c r="G257" s="186"/>
-      <c r="H257" s="186"/>
-      <c r="I257" s="186"/>
-      <c r="J257" s="186"/>
-      <c r="K257" s="186"/>
-      <c r="L257" s="186"/>
-      <c r="M257" s="186"/>
-      <c r="N257" s="186"/>
-      <c r="O257" s="186"/>
-      <c r="P257" s="186"/>
-      <c r="Q257" s="186"/>
-      <c r="R257" s="186"/>
-      <c r="S257" s="186"/>
-      <c r="T257" s="186"/>
-      <c r="U257" s="186"/>
-      <c r="V257" s="186"/>
-      <c r="W257" s="186"/>
-      <c r="X257" s="186"/>
-      <c r="Y257" s="186"/>
-      <c r="Z257" s="186"/>
-      <c r="AA257" s="186"/>
-      <c r="AB257" s="186"/>
-      <c r="AC257" s="186"/>
-      <c r="AD257" s="186"/>
-      <c r="AE257" s="186"/>
-      <c r="AF257" s="186"/>
-      <c r="AG257" s="186"/>
-      <c r="AH257" s="186"/>
-      <c r="AI257" s="186"/>
-    </row>
-    <row r="258" spans="1:35" s="179" customFormat="1">
-      <c r="B258" s="182"/>
-      <c r="C258" s="186"/>
-      <c r="D258" s="186"/>
-      <c r="E258" s="186"/>
-      <c r="F258" s="186"/>
-      <c r="G258" s="186"/>
-      <c r="H258" s="186"/>
-      <c r="I258" s="186"/>
-      <c r="J258" s="186"/>
-      <c r="K258" s="186"/>
-      <c r="L258" s="186"/>
-      <c r="M258" s="186"/>
-      <c r="N258" s="186"/>
-      <c r="O258" s="186"/>
-      <c r="P258" s="186"/>
-      <c r="Q258" s="186"/>
-      <c r="R258" s="186"/>
-      <c r="S258" s="186"/>
-      <c r="T258" s="186"/>
-      <c r="U258" s="186"/>
-      <c r="V258" s="186"/>
-      <c r="W258" s="186"/>
-      <c r="X258" s="186"/>
-      <c r="Y258" s="186"/>
-      <c r="Z258" s="186"/>
-      <c r="AA258" s="186"/>
-      <c r="AB258" s="186"/>
-      <c r="AC258" s="186"/>
-      <c r="AD258" s="186"/>
-      <c r="AE258" s="186"/>
-      <c r="AF258" s="186"/>
-      <c r="AG258" s="186"/>
-      <c r="AH258" s="186"/>
-      <c r="AI258" s="186"/>
-    </row>
-    <row r="259" spans="1:35" s="179" customFormat="1">
-      <c r="B259" s="182"/>
-      <c r="C259" s="186"/>
-      <c r="D259" s="186"/>
-      <c r="E259" s="186"/>
-      <c r="F259" s="186"/>
-      <c r="G259" s="186"/>
-      <c r="H259" s="186"/>
-      <c r="I259" s="186"/>
-      <c r="J259" s="186"/>
-      <c r="K259" s="186"/>
-      <c r="L259" s="186"/>
-      <c r="M259" s="186"/>
-      <c r="N259" s="186"/>
-      <c r="O259" s="186"/>
-      <c r="P259" s="186"/>
-      <c r="Q259" s="186"/>
-      <c r="R259" s="186"/>
-      <c r="S259" s="186"/>
-      <c r="T259" s="186"/>
-      <c r="U259" s="186"/>
-      <c r="V259" s="186"/>
-      <c r="W259" s="186"/>
-      <c r="X259" s="186"/>
-      <c r="Y259" s="186"/>
-      <c r="Z259" s="186"/>
-      <c r="AA259" s="186"/>
-      <c r="AB259" s="186"/>
-      <c r="AC259" s="186"/>
-      <c r="AD259" s="186"/>
-      <c r="AE259" s="186"/>
-      <c r="AF259" s="186"/>
-      <c r="AG259" s="186"/>
-      <c r="AH259" s="186"/>
-      <c r="AI259" s="186"/>
-    </row>
-    <row r="260" spans="1:35" s="179" customFormat="1">
-      <c r="B260" s="182"/>
-      <c r="C260" s="186"/>
-      <c r="D260" s="186"/>
-      <c r="E260" s="186"/>
-      <c r="F260" s="186"/>
-      <c r="G260" s="186"/>
-      <c r="H260" s="186"/>
-      <c r="I260" s="186"/>
-      <c r="J260" s="186"/>
-      <c r="K260" s="186"/>
-      <c r="L260" s="186"/>
-      <c r="M260" s="186"/>
-      <c r="N260" s="186"/>
-      <c r="O260" s="186"/>
-      <c r="P260" s="186"/>
-      <c r="Q260" s="186"/>
-      <c r="R260" s="186"/>
-      <c r="S260" s="186"/>
-      <c r="T260" s="186"/>
-      <c r="U260" s="186"/>
-      <c r="V260" s="186"/>
-      <c r="W260" s="186"/>
-      <c r="X260" s="186"/>
-      <c r="Y260" s="186"/>
-      <c r="Z260" s="186"/>
-      <c r="AA260" s="186"/>
-      <c r="AB260" s="186"/>
-      <c r="AC260" s="186"/>
-      <c r="AD260" s="186"/>
-      <c r="AE260" s="186"/>
-      <c r="AF260" s="186"/>
-      <c r="AG260" s="186"/>
-      <c r="AH260" s="186"/>
-      <c r="AI260" s="186"/>
-    </row>
-    <row r="261" spans="1:35" s="179" customFormat="1">
-      <c r="B261" s="182"/>
-      <c r="C261" s="186"/>
-      <c r="D261" s="186"/>
-      <c r="E261" s="186"/>
-      <c r="F261" s="186"/>
-      <c r="G261" s="186"/>
-      <c r="H261" s="186"/>
-      <c r="I261" s="186"/>
-      <c r="J261" s="186"/>
-      <c r="K261" s="186"/>
-      <c r="L261" s="186"/>
-      <c r="M261" s="186"/>
-      <c r="N261" s="186"/>
-      <c r="O261" s="186"/>
-      <c r="P261" s="186"/>
-      <c r="Q261" s="186"/>
-      <c r="R261" s="186"/>
-      <c r="S261" s="186"/>
-      <c r="T261" s="186"/>
-      <c r="U261" s="186"/>
-      <c r="V261" s="186"/>
-      <c r="W261" s="186"/>
-      <c r="X261" s="186"/>
-      <c r="Y261" s="186"/>
-      <c r="Z261" s="186"/>
-      <c r="AA261" s="186"/>
-      <c r="AB261" s="186"/>
-      <c r="AC261" s="186"/>
-      <c r="AD261" s="186"/>
-      <c r="AE261" s="186"/>
-      <c r="AF261" s="186"/>
-      <c r="AG261" s="186"/>
-      <c r="AH261" s="186"/>
-      <c r="AI261" s="186"/>
-    </row>
-    <row r="262" spans="1:35" s="179" customFormat="1">
-      <c r="B262" s="182"/>
-      <c r="C262" s="186"/>
-      <c r="D262" s="186"/>
-      <c r="E262" s="186"/>
-      <c r="F262" s="186"/>
-      <c r="G262" s="186"/>
-      <c r="H262" s="186"/>
-      <c r="I262" s="186"/>
-      <c r="J262" s="186"/>
-      <c r="K262" s="186"/>
-      <c r="L262" s="186"/>
-      <c r="M262" s="186"/>
-      <c r="N262" s="186"/>
-      <c r="O262" s="186"/>
-      <c r="P262" s="186"/>
-      <c r="Q262" s="186"/>
-      <c r="R262" s="186"/>
-      <c r="S262" s="186"/>
-      <c r="T262" s="186"/>
-      <c r="U262" s="186"/>
-      <c r="V262" s="186"/>
-      <c r="W262" s="186"/>
-      <c r="X262" s="186"/>
-      <c r="Y262" s="186"/>
-      <c r="Z262" s="186"/>
-      <c r="AA262" s="186"/>
-      <c r="AB262" s="186"/>
-      <c r="AC262" s="186"/>
-      <c r="AD262" s="186"/>
-      <c r="AE262" s="186"/>
-      <c r="AF262" s="186"/>
-      <c r="AG262" s="186"/>
-      <c r="AH262" s="186"/>
-      <c r="AI262" s="186"/>
+      <c r="H251" s="180" t="s">
+        <v>183</v>
+      </c>
+      <c r="I251" s="180"/>
+      <c r="J251" s="181"/>
+      <c r="K251" s="181"/>
+      <c r="L251" s="181"/>
+      <c r="M251" s="181"/>
+      <c r="N251" s="181"/>
+      <c r="O251" s="181"/>
+      <c r="P251" s="181"/>
+      <c r="Q251" s="181"/>
+      <c r="R251" s="181"/>
+      <c r="S251" s="181"/>
+      <c r="T251" s="181"/>
+      <c r="U251" s="181"/>
+      <c r="V251" s="181"/>
+      <c r="W251" s="181"/>
+      <c r="X251" s="181"/>
+      <c r="Y251" s="181"/>
+      <c r="Z251" s="181"/>
+      <c r="AA251" s="181"/>
+      <c r="AB251" s="181"/>
+      <c r="AC251" s="181"/>
+      <c r="AD251" s="181"/>
+      <c r="AE251" s="181"/>
+      <c r="AF251" s="181"/>
+      <c r="AG251" s="181"/>
+      <c r="AH251" s="181"/>
+      <c r="AI251" s="181"/>
+    </row>
+    <row r="252" spans="2:35" s="174" customFormat="1">
+      <c r="B252" s="177"/>
+      <c r="C252" s="181"/>
+      <c r="D252" s="181"/>
+      <c r="E252" s="181"/>
+      <c r="F252" s="181"/>
+      <c r="G252" s="181"/>
+      <c r="H252" s="181"/>
+      <c r="I252" s="181"/>
+      <c r="J252" s="181"/>
+      <c r="K252" s="181"/>
+      <c r="L252" s="181"/>
+      <c r="M252" s="181"/>
+      <c r="N252" s="181"/>
+      <c r="O252" s="181"/>
+      <c r="P252" s="181"/>
+      <c r="Q252" s="181"/>
+      <c r="R252" s="181"/>
+      <c r="S252" s="181"/>
+      <c r="T252" s="181"/>
+      <c r="U252" s="181"/>
+      <c r="V252" s="181"/>
+      <c r="W252" s="181"/>
+      <c r="X252" s="181"/>
+      <c r="Y252" s="181"/>
+      <c r="Z252" s="181"/>
+      <c r="AA252" s="181"/>
+      <c r="AB252" s="181"/>
+      <c r="AC252" s="181"/>
+      <c r="AD252" s="181"/>
+      <c r="AE252" s="181"/>
+      <c r="AF252" s="181"/>
+      <c r="AG252" s="181"/>
+      <c r="AH252" s="181"/>
+      <c r="AI252" s="181"/>
+    </row>
+    <row r="253" spans="2:35" s="174" customFormat="1">
+      <c r="B253" s="177"/>
+      <c r="C253" s="181"/>
+      <c r="D253" s="181"/>
+      <c r="E253" s="181"/>
+      <c r="F253" s="181"/>
+      <c r="G253" s="181"/>
+      <c r="H253" s="181"/>
+      <c r="I253" s="181"/>
+      <c r="J253" s="181"/>
+      <c r="K253" s="181"/>
+      <c r="L253" s="181"/>
+      <c r="M253" s="181"/>
+      <c r="N253" s="181"/>
+      <c r="O253" s="181"/>
+      <c r="P253" s="181"/>
+      <c r="Q253" s="181"/>
+      <c r="R253" s="181"/>
+      <c r="S253" s="181"/>
+      <c r="T253" s="181"/>
+      <c r="U253" s="181"/>
+      <c r="V253" s="181"/>
+      <c r="W253" s="181"/>
+      <c r="X253" s="181"/>
+      <c r="Y253" s="181"/>
+      <c r="Z253" s="181"/>
+      <c r="AA253" s="181"/>
+      <c r="AB253" s="181"/>
+      <c r="AC253" s="181"/>
+      <c r="AD253" s="181"/>
+      <c r="AE253" s="181"/>
+      <c r="AF253" s="181"/>
+      <c r="AG253" s="181"/>
+      <c r="AH253" s="181"/>
+      <c r="AI253" s="181"/>
+    </row>
+    <row r="254" spans="2:35" s="174" customFormat="1">
+      <c r="B254" s="177"/>
+      <c r="C254" s="181"/>
+      <c r="D254" s="181"/>
+      <c r="E254" s="181"/>
+      <c r="F254" s="181"/>
+      <c r="G254" s="181"/>
+      <c r="H254" s="181"/>
+      <c r="I254" s="181"/>
+      <c r="J254" s="181"/>
+      <c r="K254" s="181"/>
+      <c r="L254" s="181"/>
+      <c r="M254" s="181"/>
+      <c r="N254" s="181"/>
+      <c r="O254" s="181"/>
+      <c r="P254" s="181"/>
+      <c r="Q254" s="181"/>
+      <c r="R254" s="181"/>
+      <c r="S254" s="181"/>
+      <c r="T254" s="181"/>
+      <c r="U254" s="181"/>
+      <c r="V254" s="181"/>
+      <c r="W254" s="181"/>
+      <c r="X254" s="181"/>
+      <c r="Y254" s="181"/>
+      <c r="Z254" s="181"/>
+      <c r="AA254" s="181"/>
+      <c r="AB254" s="181"/>
+      <c r="AC254" s="181"/>
+      <c r="AD254" s="181"/>
+      <c r="AE254" s="181"/>
+      <c r="AF254" s="181"/>
+      <c r="AG254" s="181"/>
+      <c r="AH254" s="181"/>
+      <c r="AI254" s="181"/>
+    </row>
+    <row r="255" spans="2:35" s="174" customFormat="1">
+      <c r="B255" s="177"/>
+      <c r="C255" s="181"/>
+      <c r="D255" s="181"/>
+      <c r="E255" s="181"/>
+      <c r="F255" s="181"/>
+      <c r="G255" s="181"/>
+      <c r="H255" s="181"/>
+      <c r="I255" s="181"/>
+      <c r="J255" s="181"/>
+      <c r="K255" s="181"/>
+      <c r="L255" s="181"/>
+      <c r="M255" s="181"/>
+      <c r="N255" s="181"/>
+      <c r="O255" s="181"/>
+      <c r="P255" s="181"/>
+      <c r="Q255" s="181"/>
+      <c r="R255" s="181"/>
+      <c r="S255" s="181"/>
+      <c r="T255" s="181"/>
+      <c r="U255" s="181"/>
+      <c r="V255" s="181"/>
+      <c r="W255" s="181"/>
+      <c r="X255" s="181"/>
+      <c r="Y255" s="181"/>
+      <c r="Z255" s="181"/>
+      <c r="AA255" s="181"/>
+      <c r="AB255" s="181"/>
+      <c r="AC255" s="181"/>
+      <c r="AD255" s="181"/>
+      <c r="AE255" s="181"/>
+      <c r="AF255" s="181"/>
+      <c r="AG255" s="181"/>
+      <c r="AH255" s="181"/>
+      <c r="AI255" s="181"/>
+    </row>
+    <row r="256" spans="2:35" s="174" customFormat="1">
+      <c r="B256" s="177"/>
+      <c r="C256" s="181"/>
+      <c r="D256" s="181"/>
+      <c r="E256" s="181"/>
+      <c r="F256" s="181"/>
+      <c r="G256" s="181"/>
+      <c r="H256" s="181"/>
+      <c r="I256" s="181"/>
+      <c r="J256" s="181"/>
+      <c r="K256" s="181"/>
+      <c r="L256" s="181"/>
+      <c r="M256" s="181"/>
+      <c r="N256" s="181"/>
+      <c r="O256" s="181"/>
+      <c r="P256" s="181"/>
+      <c r="Q256" s="181"/>
+      <c r="R256" s="181"/>
+      <c r="S256" s="181"/>
+      <c r="T256" s="181"/>
+      <c r="U256" s="181"/>
+      <c r="V256" s="181"/>
+      <c r="W256" s="181"/>
+      <c r="X256" s="181"/>
+      <c r="Y256" s="181"/>
+      <c r="Z256" s="181"/>
+      <c r="AA256" s="181"/>
+      <c r="AB256" s="181"/>
+      <c r="AC256" s="181"/>
+      <c r="AD256" s="181"/>
+      <c r="AE256" s="181"/>
+      <c r="AF256" s="181"/>
+      <c r="AG256" s="181"/>
+      <c r="AH256" s="181"/>
+      <c r="AI256" s="181"/>
+    </row>
+    <row r="257" spans="1:35" s="174" customFormat="1">
+      <c r="B257" s="177"/>
+      <c r="C257" s="181"/>
+      <c r="D257" s="181"/>
+      <c r="E257" s="181"/>
+      <c r="F257" s="181"/>
+      <c r="G257" s="181"/>
+      <c r="H257" s="181"/>
+      <c r="I257" s="181"/>
+      <c r="J257" s="181"/>
+      <c r="K257" s="181"/>
+      <c r="L257" s="181"/>
+      <c r="M257" s="181"/>
+      <c r="N257" s="181"/>
+      <c r="O257" s="181"/>
+      <c r="P257" s="181"/>
+      <c r="Q257" s="181"/>
+      <c r="R257" s="181"/>
+      <c r="S257" s="181"/>
+      <c r="T257" s="181"/>
+      <c r="U257" s="181"/>
+      <c r="V257" s="181"/>
+      <c r="W257" s="181"/>
+      <c r="X257" s="181"/>
+      <c r="Y257" s="181"/>
+      <c r="Z257" s="181"/>
+      <c r="AA257" s="181"/>
+      <c r="AB257" s="181"/>
+      <c r="AC257" s="181"/>
+      <c r="AD257" s="181"/>
+      <c r="AE257" s="181"/>
+      <c r="AF257" s="181"/>
+      <c r="AG257" s="181"/>
+      <c r="AH257" s="181"/>
+      <c r="AI257" s="181"/>
+    </row>
+    <row r="258" spans="1:35" s="174" customFormat="1">
+      <c r="B258" s="177"/>
+      <c r="C258" s="181"/>
+      <c r="D258" s="181"/>
+      <c r="E258" s="181"/>
+      <c r="F258" s="181"/>
+      <c r="G258" s="181"/>
+      <c r="H258" s="181"/>
+      <c r="I258" s="181"/>
+      <c r="J258" s="181"/>
+      <c r="K258" s="181"/>
+      <c r="L258" s="181"/>
+      <c r="M258" s="181"/>
+      <c r="N258" s="181"/>
+      <c r="O258" s="181"/>
+      <c r="P258" s="181"/>
+      <c r="Q258" s="181"/>
+      <c r="R258" s="181"/>
+      <c r="S258" s="181"/>
+      <c r="T258" s="181"/>
+      <c r="U258" s="181"/>
+      <c r="V258" s="181"/>
+      <c r="W258" s="181"/>
+      <c r="X258" s="181"/>
+      <c r="Y258" s="181"/>
+      <c r="Z258" s="181"/>
+      <c r="AA258" s="181"/>
+      <c r="AB258" s="181"/>
+      <c r="AC258" s="181"/>
+      <c r="AD258" s="181"/>
+      <c r="AE258" s="181"/>
+      <c r="AF258" s="181"/>
+      <c r="AG258" s="181"/>
+      <c r="AH258" s="181"/>
+      <c r="AI258" s="181"/>
+    </row>
+    <row r="259" spans="1:35" s="174" customFormat="1">
+      <c r="B259" s="177"/>
+      <c r="C259" s="181"/>
+      <c r="D259" s="181"/>
+      <c r="E259" s="181"/>
+      <c r="F259" s="181"/>
+      <c r="G259" s="181"/>
+      <c r="H259" s="181"/>
+      <c r="I259" s="181"/>
+      <c r="J259" s="181"/>
+      <c r="K259" s="181"/>
+      <c r="L259" s="181"/>
+      <c r="M259" s="181"/>
+      <c r="N259" s="181"/>
+      <c r="O259" s="181"/>
+      <c r="P259" s="181"/>
+      <c r="Q259" s="181"/>
+      <c r="R259" s="181"/>
+      <c r="S259" s="181"/>
+      <c r="T259" s="181"/>
+      <c r="U259" s="181"/>
+      <c r="V259" s="181"/>
+      <c r="W259" s="181"/>
+      <c r="X259" s="181"/>
+      <c r="Y259" s="181"/>
+      <c r="Z259" s="181"/>
+      <c r="AA259" s="181"/>
+      <c r="AB259" s="181"/>
+      <c r="AC259" s="181"/>
+      <c r="AD259" s="181"/>
+      <c r="AE259" s="181"/>
+      <c r="AF259" s="181"/>
+      <c r="AG259" s="181"/>
+      <c r="AH259" s="181"/>
+      <c r="AI259" s="181"/>
+    </row>
+    <row r="260" spans="1:35" s="174" customFormat="1">
+      <c r="B260" s="177"/>
+      <c r="C260" s="181"/>
+      <c r="D260" s="181"/>
+      <c r="E260" s="181"/>
+      <c r="F260" s="181"/>
+      <c r="G260" s="181"/>
+      <c r="H260" s="181"/>
+      <c r="I260" s="181"/>
+      <c r="J260" s="181"/>
+      <c r="K260" s="181"/>
+      <c r="L260" s="181"/>
+      <c r="M260" s="181"/>
+      <c r="N260" s="181"/>
+      <c r="O260" s="181"/>
+      <c r="P260" s="181"/>
+      <c r="Q260" s="181"/>
+      <c r="R260" s="181"/>
+      <c r="S260" s="181"/>
+      <c r="T260" s="181"/>
+      <c r="U260" s="181"/>
+      <c r="V260" s="181"/>
+      <c r="W260" s="181"/>
+      <c r="X260" s="181"/>
+      <c r="Y260" s="181"/>
+      <c r="Z260" s="181"/>
+      <c r="AA260" s="181"/>
+      <c r="AB260" s="181"/>
+      <c r="AC260" s="181"/>
+      <c r="AD260" s="181"/>
+      <c r="AE260" s="181"/>
+      <c r="AF260" s="181"/>
+      <c r="AG260" s="181"/>
+      <c r="AH260" s="181"/>
+      <c r="AI260" s="181"/>
+    </row>
+    <row r="261" spans="1:35" s="174" customFormat="1">
+      <c r="B261" s="177"/>
+      <c r="C261" s="181"/>
+      <c r="D261" s="181"/>
+      <c r="E261" s="181"/>
+      <c r="F261" s="181"/>
+      <c r="G261" s="181"/>
+      <c r="H261" s="181"/>
+      <c r="I261" s="181"/>
+      <c r="J261" s="181"/>
+      <c r="K261" s="181"/>
+      <c r="L261" s="181"/>
+      <c r="M261" s="181"/>
+      <c r="N261" s="181"/>
+      <c r="O261" s="181"/>
+      <c r="P261" s="181"/>
+      <c r="Q261" s="181"/>
+      <c r="R261" s="181"/>
+      <c r="S261" s="181"/>
+      <c r="T261" s="181"/>
+      <c r="U261" s="181"/>
+      <c r="V261" s="181"/>
+      <c r="W261" s="181"/>
+      <c r="X261" s="181"/>
+      <c r="Y261" s="181"/>
+      <c r="Z261" s="181"/>
+      <c r="AA261" s="181"/>
+      <c r="AB261" s="181"/>
+      <c r="AC261" s="181"/>
+      <c r="AD261" s="181"/>
+      <c r="AE261" s="181"/>
+      <c r="AF261" s="181"/>
+      <c r="AG261" s="181"/>
+      <c r="AH261" s="181"/>
+      <c r="AI261" s="181"/>
+    </row>
+    <row r="262" spans="1:35" s="174" customFormat="1">
+      <c r="B262" s="177"/>
+      <c r="C262" s="181"/>
+      <c r="D262" s="181"/>
+      <c r="E262" s="181"/>
+      <c r="F262" s="181"/>
+      <c r="G262" s="181"/>
+      <c r="H262" s="181"/>
+      <c r="I262" s="181"/>
+      <c r="J262" s="181"/>
+      <c r="K262" s="181"/>
+      <c r="L262" s="181"/>
+      <c r="M262" s="181"/>
+      <c r="N262" s="181"/>
+      <c r="O262" s="181"/>
+      <c r="P262" s="181"/>
+      <c r="Q262" s="181"/>
+      <c r="R262" s="181"/>
+      <c r="S262" s="181"/>
+      <c r="T262" s="181"/>
+      <c r="U262" s="181"/>
+      <c r="V262" s="181"/>
+      <c r="W262" s="181"/>
+      <c r="X262" s="181"/>
+      <c r="Y262" s="181"/>
+      <c r="Z262" s="181"/>
+      <c r="AA262" s="181"/>
+      <c r="AB262" s="181"/>
+      <c r="AC262" s="181"/>
+      <c r="AD262" s="181"/>
+      <c r="AE262" s="181"/>
+      <c r="AF262" s="181"/>
+      <c r="AG262" s="181"/>
+      <c r="AH262" s="181"/>
+      <c r="AI262" s="181"/>
     </row>
     <row r="263" spans="1:35" customFormat="1">
       <c r="A263" s="100"/>
@@ -19261,7 +19130,7 @@
         <v>130</v>
       </c>
       <c r="G586" s="110"/>
-      <c r="H586" s="123">
+      <c r="H586" s="121">
         <f>H584/H585</f>
         <v>12.498977923139821</v>
       </c>
@@ -19524,7 +19393,7 @@
         <v>130</v>
       </c>
       <c r="G597" s="110"/>
-      <c r="H597" s="123">
+      <c r="H597" s="121">
         <f>H595/H596</f>
         <v>1.8183041722745625</v>
       </c>
@@ -19739,7 +19608,7 @@
         <v>137</v>
       </c>
       <c r="G606" s="110"/>
-      <c r="H606" s="123">
+      <c r="H606" s="121">
         <f>H583*H588+H594*H599</f>
         <v>40.348599999999998</v>
       </c>
